--- a/data/updated.xlsx
+++ b/data/updated.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>شماره ردیف</t>
   </si>
@@ -119,12 +119,54 @@
   <si>
     <t>دوشنب ها</t>
   </si>
+  <si>
+    <t>علی</t>
+  </si>
+  <si>
+    <t>فرامرزی</t>
+  </si>
+  <si>
+    <t>اسکایپ</t>
+  </si>
+  <si>
+    <t>http://www.talab.org/wp-content/uploads/2017/05/1214775883-talab-org.jpg</t>
+  </si>
+  <si>
+    <t>مهندس خفن</t>
+  </si>
+  <si>
+    <t>یک شنبه ساعت 5 تا 8</t>
+  </si>
+  <si>
+    <t>دوشنبه ساعت 6</t>
+  </si>
+  <si>
+    <t>دوشنبه</t>
+  </si>
+  <si>
+    <t>سه شنبه</t>
+  </si>
+  <si>
+    <t>حسنی</t>
+  </si>
+  <si>
+    <t>زنگ بزن</t>
+  </si>
+  <si>
+    <t>https://wikichejoor.ir/wp-content/uploads/2016/11/3-19.jpg</t>
+  </si>
+  <si>
+    <t>استاد قوی</t>
+  </si>
+  <si>
+    <t>کریم</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -142,22 +184,18 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-    </font>
     <font/>
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -166,26 +204,12 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -321,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -337,75 +361,72 @@
     <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -746,9 +767,7 @@
       <c r="A3" s="12">
         <v>1.0</v>
       </c>
-      <c r="B3" s="13">
-        <v>1.0</v>
-      </c>
+      <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
         <v>18</v>
       </c>
@@ -761,10 +780,10 @@
       <c r="F3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="13">
         <v>1234.0</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="16" t="s">
@@ -777,10 +796,10 @@
         <v>25</v>
       </c>
       <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
       <c r="Q3" s="19"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
@@ -810,10 +829,10 @@
       <c r="J4" s="20"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -834,21 +853,41 @@
       <c r="A5" s="22">
         <v>2.0</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="13">
+        <v>4321.0</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
       <c r="Q5" s="19"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
@@ -867,21 +906,21 @@
     </row>
     <row r="6">
       <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
@@ -902,21 +941,45 @@
       <c r="A7" s="22">
         <v>3.0</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="13">
+        <v>55.0</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
       <c r="Q7" s="19"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -935,21 +998,21 @@
     </row>
     <row r="8">
       <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
@@ -970,41 +1033,37 @@
       <c r="A9" s="22">
         <v>4.0</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>27</v>
+      <c r="D9" s="15" t="s">
+        <v>43</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>28</v>
+      <c r="E9" s="14" t="s">
+        <v>20</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>29</v>
+      <c r="F9" s="15" t="s">
+        <v>21</v>
       </c>
-      <c r="G9" s="26">
-        <v>4321.0</v>
+      <c r="G9" s="13">
+        <v>66.0</v>
       </c>
-      <c r="H9" s="26" t="s">
-        <v>30</v>
+      <c r="H9" s="15" t="s">
+        <v>44</v>
       </c>
-      <c r="I9" s="29" t="s">
-        <v>23</v>
+      <c r="I9" s="16" t="s">
+        <v>45</v>
       </c>
-      <c r="J9" s="25" t="s">
-        <v>31</v>
+      <c r="J9" s="15" t="s">
+        <v>46</v>
       </c>
-      <c r="K9" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
@@ -1023,21 +1082,21 @@
     </row>
     <row r="10">
       <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="8"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
@@ -1058,13 +1117,15 @@
       <c r="A11" s="22">
         <v>5.0</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="19"/>
@@ -1126,10 +1187,10 @@
       <c r="A13" s="22">
         <v>6.0</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="27"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
@@ -1194,10 +1255,10 @@
       <c r="A15" s="22">
         <v>7.0</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="27"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -1262,10 +1323,10 @@
       <c r="A17" s="22">
         <v>8.0</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="27"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -1330,10 +1391,10 @@
       <c r="A19" s="22">
         <v>9.0</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="27"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -1398,10 +1459,10 @@
       <c r="A21" s="22">
         <v>10.0</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="27"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
@@ -1466,10 +1527,10 @@
       <c r="A23" s="22">
         <v>11.0</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="27"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="27"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -1534,10 +1595,10 @@
       <c r="A25" s="22">
         <v>12.0</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="27"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="22"/>
-      <c r="E25" s="27"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
@@ -1602,10 +1663,10 @@
       <c r="A27" s="22">
         <v>13.0</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="27"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="22"/>
-      <c r="E27" s="27"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
@@ -1670,10 +1731,10 @@
       <c r="A29" s="22">
         <v>14.0</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="27"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="27"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
@@ -1738,10 +1799,10 @@
       <c r="A31" s="22">
         <v>15.0</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="27"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="27"/>
+      <c r="E31" s="29"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -1806,10 +1867,10 @@
       <c r="A33" s="22">
         <v>16.0</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="27"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="22"/>
-      <c r="E33" s="27"/>
+      <c r="E33" s="29"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
@@ -1874,10 +1935,10 @@
       <c r="A35" s="22">
         <v>17.0</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="27"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="27"/>
+      <c r="E35" s="29"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
@@ -1942,10 +2003,10 @@
       <c r="A37" s="22">
         <v>18.0</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="27"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="22"/>
-      <c r="E37" s="27"/>
+      <c r="E37" s="29"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
@@ -2010,10 +2071,10 @@
       <c r="A39" s="22">
         <v>19.0</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="27"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="29"/>
       <c r="D39" s="22"/>
-      <c r="E39" s="27"/>
+      <c r="E39" s="29"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
@@ -2078,10 +2139,10 @@
       <c r="A41" s="22">
         <v>20.0</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="27"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="27"/>
+      <c r="E41" s="29"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
@@ -2146,10 +2207,10 @@
       <c r="A43" s="22">
         <v>21.0</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="27"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="22"/>
-      <c r="E43" s="27"/>
+      <c r="E43" s="29"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
@@ -2214,10 +2275,10 @@
       <c r="A45" s="22">
         <v>22.0</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="27"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="22"/>
-      <c r="E45" s="27"/>
+      <c r="E45" s="29"/>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
@@ -2282,10 +2343,10 @@
       <c r="A47" s="22">
         <v>23.0</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="27"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="29"/>
       <c r="D47" s="22"/>
-      <c r="E47" s="27"/>
+      <c r="E47" s="29"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
@@ -2350,10 +2411,10 @@
       <c r="A49" s="22">
         <v>24.0</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="27"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="22"/>
-      <c r="E49" s="27"/>
+      <c r="E49" s="29"/>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
@@ -2418,10 +2479,10 @@
       <c r="A51" s="22">
         <v>25.0</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="27"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="29"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="27"/>
+      <c r="E51" s="29"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
@@ -2486,10 +2547,10 @@
       <c r="A53" s="22">
         <v>26.0</v>
       </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="27"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
-      <c r="E53" s="27"/>
+      <c r="E53" s="29"/>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
@@ -2554,10 +2615,10 @@
       <c r="A55" s="22">
         <v>27.0</v>
       </c>
-      <c r="B55" s="28"/>
-      <c r="C55" s="27"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="29"/>
       <c r="D55" s="22"/>
-      <c r="E55" s="27"/>
+      <c r="E55" s="29"/>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
@@ -2622,10 +2683,10 @@
       <c r="A57" s="22">
         <v>28.0</v>
       </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="27"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="22"/>
-      <c r="E57" s="27"/>
+      <c r="E57" s="29"/>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
@@ -2690,10 +2751,10 @@
       <c r="A59" s="22">
         <v>29.0</v>
       </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="27"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="22"/>
-      <c r="E59" s="27"/>
+      <c r="E59" s="29"/>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
@@ -2758,10 +2819,10 @@
       <c r="A61" s="22">
         <v>30.0</v>
       </c>
-      <c r="B61" s="28"/>
-      <c r="C61" s="27"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="29"/>
       <c r="D61" s="22"/>
-      <c r="E61" s="27"/>
+      <c r="E61" s="29"/>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
@@ -2826,10 +2887,10 @@
       <c r="A63" s="22">
         <v>31.0</v>
       </c>
-      <c r="B63" s="28"/>
-      <c r="C63" s="27"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="29"/>
       <c r="D63" s="22"/>
-      <c r="E63" s="27"/>
+      <c r="E63" s="29"/>
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
@@ -2894,10 +2955,10 @@
       <c r="A65" s="22">
         <v>32.0</v>
       </c>
-      <c r="B65" s="28"/>
-      <c r="C65" s="27"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="29"/>
       <c r="D65" s="22"/>
-      <c r="E65" s="27"/>
+      <c r="E65" s="29"/>
       <c r="F65" s="22"/>
       <c r="G65" s="22"/>
       <c r="H65" s="22"/>
@@ -2962,10 +3023,10 @@
       <c r="A67" s="22">
         <v>33.0</v>
       </c>
-      <c r="B67" s="28"/>
-      <c r="C67" s="27"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="29"/>
       <c r="D67" s="22"/>
-      <c r="E67" s="27"/>
+      <c r="E67" s="29"/>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
@@ -3030,10 +3091,10 @@
       <c r="A69" s="22">
         <v>34.0</v>
       </c>
-      <c r="B69" s="28"/>
-      <c r="C69" s="27"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="29"/>
       <c r="D69" s="22"/>
-      <c r="E69" s="27"/>
+      <c r="E69" s="29"/>
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
@@ -3098,10 +3159,10 @@
       <c r="A71" s="22">
         <v>35.0</v>
       </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="27"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="29"/>
       <c r="D71" s="22"/>
-      <c r="E71" s="27"/>
+      <c r="E71" s="29"/>
       <c r="F71" s="22"/>
       <c r="G71" s="22"/>
       <c r="H71" s="22"/>
@@ -3166,10 +3227,10 @@
       <c r="A73" s="22">
         <v>36.0</v>
       </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="27"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="29"/>
       <c r="D73" s="22"/>
-      <c r="E73" s="27"/>
+      <c r="E73" s="29"/>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
       <c r="H73" s="22"/>
@@ -3234,10 +3295,10 @@
       <c r="A75" s="22">
         <v>37.0</v>
       </c>
-      <c r="B75" s="28"/>
-      <c r="C75" s="27"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="29"/>
       <c r="D75" s="22"/>
-      <c r="E75" s="27"/>
+      <c r="E75" s="29"/>
       <c r="F75" s="22"/>
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
@@ -3302,10 +3363,10 @@
       <c r="A77" s="22">
         <v>38.0</v>
       </c>
-      <c r="B77" s="28"/>
-      <c r="C77" s="27"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="29"/>
       <c r="D77" s="22"/>
-      <c r="E77" s="27"/>
+      <c r="E77" s="29"/>
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
       <c r="H77" s="22"/>
@@ -3370,10 +3431,10 @@
       <c r="A79" s="22">
         <v>39.0</v>
       </c>
-      <c r="B79" s="28"/>
-      <c r="C79" s="27"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="29"/>
       <c r="D79" s="22"/>
-      <c r="E79" s="27"/>
+      <c r="E79" s="29"/>
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
@@ -3438,10 +3499,10 @@
       <c r="A81" s="22">
         <v>40.0</v>
       </c>
-      <c r="B81" s="28"/>
-      <c r="C81" s="27"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="29"/>
       <c r="D81" s="22"/>
-      <c r="E81" s="27"/>
+      <c r="E81" s="29"/>
       <c r="F81" s="22"/>
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
@@ -3506,8 +3567,8 @@
       <c r="A83" s="22">
         <v>41.0</v>
       </c>
-      <c r="B83" s="28"/>
-      <c r="C83" s="27"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="29"/>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
@@ -3574,10 +3635,10 @@
       <c r="A85" s="22">
         <v>42.0</v>
       </c>
-      <c r="B85" s="28"/>
-      <c r="C85" s="27"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="29"/>
       <c r="D85" s="22"/>
-      <c r="E85" s="27"/>
+      <c r="E85" s="29"/>
       <c r="F85" s="22"/>
       <c r="G85" s="22"/>
       <c r="H85" s="22"/>
@@ -3642,10 +3703,10 @@
       <c r="A87" s="22">
         <v>43.0</v>
       </c>
-      <c r="B87" s="28"/>
-      <c r="C87" s="27"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="29"/>
       <c r="D87" s="22"/>
-      <c r="E87" s="27"/>
+      <c r="E87" s="29"/>
       <c r="F87" s="22"/>
       <c r="G87" s="22"/>
       <c r="H87" s="22"/>
@@ -3710,10 +3771,10 @@
       <c r="A89" s="22">
         <v>44.0</v>
       </c>
-      <c r="B89" s="28"/>
-      <c r="C89" s="27"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="29"/>
       <c r="D89" s="22"/>
-      <c r="E89" s="27"/>
+      <c r="E89" s="29"/>
       <c r="F89" s="22"/>
       <c r="G89" s="22"/>
       <c r="H89" s="22"/>
@@ -3776,7 +3837,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="11"/>
-      <c r="B91" s="31"/>
+      <c r="B91" s="30"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
@@ -3809,7 +3870,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="11"/>
-      <c r="B92" s="31"/>
+      <c r="B92" s="30"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
@@ -3842,7 +3903,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="11"/>
-      <c r="B93" s="31"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
@@ -3875,7 +3936,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="11"/>
-      <c r="B94" s="31"/>
+      <c r="B94" s="30"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
@@ -3908,7 +3969,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="11"/>
-      <c r="B95" s="31"/>
+      <c r="B95" s="30"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
@@ -3941,7 +4002,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="11"/>
-      <c r="B96" s="31"/>
+      <c r="B96" s="30"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
@@ -3974,7 +4035,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="11"/>
-      <c r="B97" s="31"/>
+      <c r="B97" s="30"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
@@ -4007,7 +4068,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="11"/>
-      <c r="B98" s="31"/>
+      <c r="B98" s="30"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
@@ -4040,7 +4101,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="11"/>
-      <c r="B99" s="31"/>
+      <c r="B99" s="30"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
@@ -4073,7 +4134,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="11"/>
-      <c r="B100" s="31"/>
+      <c r="B100" s="30"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
@@ -4106,7 +4167,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="11"/>
-      <c r="B101" s="31"/>
+      <c r="B101" s="30"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
@@ -4139,7 +4200,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="11"/>
-      <c r="B102" s="31"/>
+      <c r="B102" s="30"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
@@ -4172,7 +4233,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="11"/>
-      <c r="B103" s="31"/>
+      <c r="B103" s="30"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
@@ -4205,7 +4266,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="11"/>
-      <c r="B104" s="31"/>
+      <c r="B104" s="30"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
@@ -4238,7 +4299,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="11"/>
-      <c r="B105" s="31"/>
+      <c r="B105" s="30"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
@@ -4271,7 +4332,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="11"/>
-      <c r="B106" s="31"/>
+      <c r="B106" s="30"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
@@ -4304,7 +4365,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="11"/>
-      <c r="B107" s="31"/>
+      <c r="B107" s="30"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
@@ -4337,7 +4398,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="11"/>
-      <c r="B108" s="31"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
@@ -4370,7 +4431,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="11"/>
-      <c r="B109" s="31"/>
+      <c r="B109" s="30"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
@@ -4403,7 +4464,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="11"/>
-      <c r="B110" s="31"/>
+      <c r="B110" s="30"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
@@ -4436,7 +4497,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="11"/>
-      <c r="B111" s="31"/>
+      <c r="B111" s="30"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
@@ -4469,7 +4530,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="11"/>
-      <c r="B112" s="31"/>
+      <c r="B112" s="30"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
@@ -4502,7 +4563,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="11"/>
-      <c r="B113" s="31"/>
+      <c r="B113" s="30"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
@@ -4535,7 +4596,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="11"/>
-      <c r="B114" s="31"/>
+      <c r="B114" s="30"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
@@ -4568,7 +4629,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="11"/>
-      <c r="B115" s="31"/>
+      <c r="B115" s="30"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
@@ -4601,7 +4662,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="11"/>
-      <c r="B116" s="31"/>
+      <c r="B116" s="30"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
@@ -4634,7 +4695,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="11"/>
-      <c r="B117" s="31"/>
+      <c r="B117" s="30"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
@@ -4667,7 +4728,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="11"/>
-      <c r="B118" s="31"/>
+      <c r="B118" s="30"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
@@ -4700,7 +4761,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="11"/>
-      <c r="B119" s="31"/>
+      <c r="B119" s="30"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
@@ -4733,7 +4794,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="11"/>
-      <c r="B120" s="31"/>
+      <c r="B120" s="30"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
@@ -4766,7 +4827,7 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="11"/>
-      <c r="B121" s="31"/>
+      <c r="B121" s="30"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
       <c r="E121" s="11"/>
@@ -4799,7 +4860,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="11"/>
-      <c r="B122" s="31"/>
+      <c r="B122" s="30"/>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
@@ -4832,7 +4893,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="11"/>
-      <c r="B123" s="31"/>
+      <c r="B123" s="30"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
       <c r="E123" s="11"/>
@@ -4865,7 +4926,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="11"/>
-      <c r="B124" s="31"/>
+      <c r="B124" s="30"/>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
@@ -4898,7 +4959,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="11"/>
-      <c r="B125" s="31"/>
+      <c r="B125" s="30"/>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
       <c r="E125" s="11"/>
@@ -4931,7 +4992,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="11"/>
-      <c r="B126" s="31"/>
+      <c r="B126" s="30"/>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
@@ -4964,7 +5025,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="11"/>
-      <c r="B127" s="31"/>
+      <c r="B127" s="30"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
@@ -4997,7 +5058,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="11"/>
-      <c r="B128" s="31"/>
+      <c r="B128" s="30"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
@@ -5030,7 +5091,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="11"/>
-      <c r="B129" s="31"/>
+      <c r="B129" s="30"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
@@ -5063,7 +5124,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="11"/>
-      <c r="B130" s="31"/>
+      <c r="B130" s="30"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
@@ -5096,7 +5157,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="11"/>
-      <c r="B131" s="31"/>
+      <c r="B131" s="30"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
       <c r="E131" s="11"/>
@@ -5129,7 +5190,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="11"/>
-      <c r="B132" s="31"/>
+      <c r="B132" s="30"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
@@ -5162,7 +5223,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="11"/>
-      <c r="B133" s="31"/>
+      <c r="B133" s="30"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
@@ -5195,7 +5256,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="11"/>
-      <c r="B134" s="31"/>
+      <c r="B134" s="30"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
@@ -5228,7 +5289,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="11"/>
-      <c r="B135" s="31"/>
+      <c r="B135" s="30"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11"/>
@@ -5261,7 +5322,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="11"/>
-      <c r="B136" s="31"/>
+      <c r="B136" s="30"/>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
@@ -5294,7 +5355,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="11"/>
-      <c r="B137" s="31"/>
+      <c r="B137" s="30"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
@@ -5327,7 +5388,7 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="11"/>
-      <c r="B138" s="31"/>
+      <c r="B138" s="30"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
@@ -5360,7 +5421,7 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="11"/>
-      <c r="B139" s="31"/>
+      <c r="B139" s="30"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
@@ -5393,7 +5454,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="11"/>
-      <c r="B140" s="31"/>
+      <c r="B140" s="30"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
@@ -5426,7 +5487,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="11"/>
-      <c r="B141" s="31"/>
+      <c r="B141" s="30"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
@@ -5459,7 +5520,7 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="11"/>
-      <c r="B142" s="31"/>
+      <c r="B142" s="30"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
@@ -5492,7 +5553,7 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="11"/>
-      <c r="B143" s="31"/>
+      <c r="B143" s="30"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11"/>
@@ -5525,7 +5586,7 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="11"/>
-      <c r="B144" s="31"/>
+      <c r="B144" s="30"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
@@ -5558,7 +5619,7 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="11"/>
-      <c r="B145" s="31"/>
+      <c r="B145" s="30"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
       <c r="E145" s="11"/>
@@ -5591,7 +5652,7 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="11"/>
-      <c r="B146" s="31"/>
+      <c r="B146" s="30"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
@@ -5624,7 +5685,7 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="11"/>
-      <c r="B147" s="31"/>
+      <c r="B147" s="30"/>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
       <c r="E147" s="11"/>
@@ -5657,7 +5718,7 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="11"/>
-      <c r="B148" s="31"/>
+      <c r="B148" s="30"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
@@ -5690,7 +5751,7 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="11"/>
-      <c r="B149" s="31"/>
+      <c r="B149" s="30"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
       <c r="E149" s="11"/>
@@ -5723,7 +5784,7 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="11"/>
-      <c r="B150" s="31"/>
+      <c r="B150" s="30"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
       <c r="E150" s="11"/>
@@ -5756,7 +5817,7 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="11"/>
-      <c r="B151" s="31"/>
+      <c r="B151" s="30"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
       <c r="E151" s="11"/>
@@ -5789,7 +5850,7 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="11"/>
-      <c r="B152" s="31"/>
+      <c r="B152" s="30"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
       <c r="E152" s="11"/>
@@ -5822,7 +5883,7 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="11"/>
-      <c r="B153" s="31"/>
+      <c r="B153" s="30"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
       <c r="E153" s="11"/>
@@ -5855,7 +5916,7 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="11"/>
-      <c r="B154" s="31"/>
+      <c r="B154" s="30"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
       <c r="E154" s="11"/>
@@ -5888,7 +5949,7 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="11"/>
-      <c r="B155" s="31"/>
+      <c r="B155" s="30"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
       <c r="E155" s="11"/>
@@ -5921,7 +5982,7 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="11"/>
-      <c r="B156" s="31"/>
+      <c r="B156" s="30"/>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
@@ -5954,7 +6015,7 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="11"/>
-      <c r="B157" s="31"/>
+      <c r="B157" s="30"/>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
       <c r="E157" s="11"/>
@@ -5987,7 +6048,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="11"/>
-      <c r="B158" s="31"/>
+      <c r="B158" s="30"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
@@ -6020,7 +6081,7 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="11"/>
-      <c r="B159" s="31"/>
+      <c r="B159" s="30"/>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
       <c r="E159" s="11"/>
@@ -6053,7 +6114,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="11"/>
-      <c r="B160" s="31"/>
+      <c r="B160" s="30"/>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
@@ -6086,7 +6147,7 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="11"/>
-      <c r="B161" s="31"/>
+      <c r="B161" s="30"/>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
       <c r="E161" s="11"/>
@@ -6119,7 +6180,7 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="11"/>
-      <c r="B162" s="31"/>
+      <c r="B162" s="30"/>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
@@ -6152,7 +6213,7 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="11"/>
-      <c r="B163" s="31"/>
+      <c r="B163" s="30"/>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
@@ -6185,7 +6246,7 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="11"/>
-      <c r="B164" s="31"/>
+      <c r="B164" s="30"/>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11"/>
@@ -6218,7 +6279,7 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="11"/>
-      <c r="B165" s="31"/>
+      <c r="B165" s="30"/>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
       <c r="E165" s="11"/>
@@ -6251,7 +6312,7 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="11"/>
-      <c r="B166" s="31"/>
+      <c r="B166" s="30"/>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>
@@ -6284,7 +6345,7 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="11"/>
-      <c r="B167" s="31"/>
+      <c r="B167" s="30"/>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
       <c r="E167" s="11"/>
@@ -6317,7 +6378,7 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="11"/>
-      <c r="B168" s="31"/>
+      <c r="B168" s="30"/>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
       <c r="E168" s="11"/>
@@ -6350,7 +6411,7 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="11"/>
-      <c r="B169" s="31"/>
+      <c r="B169" s="30"/>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
       <c r="E169" s="11"/>
@@ -6383,7 +6444,7 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="11"/>
-      <c r="B170" s="31"/>
+      <c r="B170" s="30"/>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
       <c r="E170" s="11"/>
@@ -6416,7 +6477,7 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="11"/>
-      <c r="B171" s="31"/>
+      <c r="B171" s="30"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
       <c r="E171" s="11"/>
@@ -6449,7 +6510,7 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="11"/>
-      <c r="B172" s="31"/>
+      <c r="B172" s="30"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11"/>
@@ -6482,7 +6543,7 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="11"/>
-      <c r="B173" s="31"/>
+      <c r="B173" s="30"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
       <c r="E173" s="11"/>
@@ -6515,7 +6576,7 @@
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="11"/>
-      <c r="B174" s="31"/>
+      <c r="B174" s="30"/>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
       <c r="E174" s="11"/>
@@ -6548,7 +6609,7 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="11"/>
-      <c r="B175" s="31"/>
+      <c r="B175" s="30"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
       <c r="E175" s="11"/>
@@ -6581,7 +6642,7 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="11"/>
-      <c r="B176" s="31"/>
+      <c r="B176" s="30"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
       <c r="E176" s="11"/>
@@ -6614,7 +6675,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="11"/>
-      <c r="B177" s="31"/>
+      <c r="B177" s="30"/>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
       <c r="E177" s="11"/>
@@ -6647,7 +6708,7 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="11"/>
-      <c r="B178" s="31"/>
+      <c r="B178" s="30"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
@@ -6680,7 +6741,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="11"/>
-      <c r="B179" s="31"/>
+      <c r="B179" s="30"/>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
       <c r="E179" s="11"/>
@@ -6713,7 +6774,7 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="11"/>
-      <c r="B180" s="31"/>
+      <c r="B180" s="30"/>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
       <c r="E180" s="11"/>
@@ -6746,7 +6807,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="11"/>
-      <c r="B181" s="31"/>
+      <c r="B181" s="30"/>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
@@ -6779,7 +6840,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="11"/>
-      <c r="B182" s="31"/>
+      <c r="B182" s="30"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
@@ -6812,7 +6873,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="11"/>
-      <c r="B183" s="31"/>
+      <c r="B183" s="30"/>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
       <c r="E183" s="11"/>
@@ -6845,7 +6906,7 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="11"/>
-      <c r="B184" s="31"/>
+      <c r="B184" s="30"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
@@ -6878,7 +6939,7 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="11"/>
-      <c r="B185" s="31"/>
+      <c r="B185" s="30"/>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
@@ -6911,7 +6972,7 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="11"/>
-      <c r="B186" s="31"/>
+      <c r="B186" s="30"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
@@ -6944,7 +7005,7 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="11"/>
-      <c r="B187" s="31"/>
+      <c r="B187" s="30"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
       <c r="E187" s="11"/>
@@ -6977,7 +7038,7 @@
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="11"/>
-      <c r="B188" s="31"/>
+      <c r="B188" s="30"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
@@ -7010,7 +7071,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="11"/>
-      <c r="B189" s="31"/>
+      <c r="B189" s="30"/>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
       <c r="E189" s="11"/>
@@ -7043,7 +7104,7 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="11"/>
-      <c r="B190" s="31"/>
+      <c r="B190" s="30"/>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>
@@ -7076,7 +7137,7 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="11"/>
-      <c r="B191" s="31"/>
+      <c r="B191" s="30"/>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
       <c r="E191" s="11"/>
@@ -7109,7 +7170,7 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="11"/>
-      <c r="B192" s="31"/>
+      <c r="B192" s="30"/>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
@@ -7142,7 +7203,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="11"/>
-      <c r="B193" s="31"/>
+      <c r="B193" s="30"/>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
       <c r="E193" s="11"/>
@@ -7175,7 +7236,7 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="11"/>
-      <c r="B194" s="31"/>
+      <c r="B194" s="30"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
@@ -7208,7 +7269,7 @@
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="11"/>
-      <c r="B195" s="31"/>
+      <c r="B195" s="30"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
       <c r="E195" s="11"/>
@@ -7241,7 +7302,7 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="11"/>
-      <c r="B196" s="31"/>
+      <c r="B196" s="30"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
       <c r="E196" s="11"/>
@@ -7274,7 +7335,7 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="11"/>
-      <c r="B197" s="31"/>
+      <c r="B197" s="30"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11"/>
@@ -7307,7 +7368,7 @@
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="11"/>
-      <c r="B198" s="31"/>
+      <c r="B198" s="30"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
@@ -7340,7 +7401,7 @@
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="11"/>
-      <c r="B199" s="31"/>
+      <c r="B199" s="30"/>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
       <c r="E199" s="11"/>
@@ -7373,7 +7434,7 @@
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="11"/>
-      <c r="B200" s="31"/>
+      <c r="B200" s="30"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
@@ -7406,7 +7467,7 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="11"/>
-      <c r="B201" s="31"/>
+      <c r="B201" s="30"/>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
       <c r="E201" s="11"/>
@@ -7439,7 +7500,7 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="11"/>
-      <c r="B202" s="31"/>
+      <c r="B202" s="30"/>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
@@ -7472,7 +7533,7 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="11"/>
-      <c r="B203" s="31"/>
+      <c r="B203" s="30"/>
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
       <c r="E203" s="11"/>
@@ -7505,7 +7566,7 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="11"/>
-      <c r="B204" s="31"/>
+      <c r="B204" s="30"/>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
@@ -7538,7 +7599,7 @@
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="11"/>
-      <c r="B205" s="31"/>
+      <c r="B205" s="30"/>
       <c r="C205" s="11"/>
       <c r="D205" s="11"/>
       <c r="E205" s="11"/>
@@ -7571,7 +7632,7 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="11"/>
-      <c r="B206" s="31"/>
+      <c r="B206" s="30"/>
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
       <c r="E206" s="11"/>
@@ -7604,7 +7665,7 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="11"/>
-      <c r="B207" s="31"/>
+      <c r="B207" s="30"/>
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
       <c r="E207" s="11"/>
@@ -7637,7 +7698,7 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="11"/>
-      <c r="B208" s="31"/>
+      <c r="B208" s="30"/>
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
@@ -7670,7 +7731,7 @@
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="11"/>
-      <c r="B209" s="31"/>
+      <c r="B209" s="30"/>
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
       <c r="E209" s="11"/>
@@ -7703,7 +7764,7 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="11"/>
-      <c r="B210" s="31"/>
+      <c r="B210" s="30"/>
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
@@ -7736,7 +7797,7 @@
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="11"/>
-      <c r="B211" s="31"/>
+      <c r="B211" s="30"/>
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
       <c r="E211" s="11"/>
@@ -7769,7 +7830,7 @@
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="11"/>
-      <c r="B212" s="31"/>
+      <c r="B212" s="30"/>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
       <c r="E212" s="11"/>
@@ -7802,7 +7863,7 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="11"/>
-      <c r="B213" s="31"/>
+      <c r="B213" s="30"/>
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
       <c r="E213" s="11"/>
@@ -7835,7 +7896,7 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="11"/>
-      <c r="B214" s="31"/>
+      <c r="B214" s="30"/>
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
       <c r="E214" s="11"/>
@@ -7868,7 +7929,7 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="11"/>
-      <c r="B215" s="31"/>
+      <c r="B215" s="30"/>
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
       <c r="E215" s="11"/>
@@ -7901,7 +7962,7 @@
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="11"/>
-      <c r="B216" s="31"/>
+      <c r="B216" s="30"/>
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
       <c r="E216" s="11"/>
@@ -7934,7 +7995,7 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="11"/>
-      <c r="B217" s="31"/>
+      <c r="B217" s="30"/>
       <c r="C217" s="11"/>
       <c r="D217" s="11"/>
       <c r="E217" s="11"/>
@@ -7967,7 +8028,7 @@
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="11"/>
-      <c r="B218" s="31"/>
+      <c r="B218" s="30"/>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
       <c r="E218" s="11"/>
@@ -8000,7 +8061,7 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="11"/>
-      <c r="B219" s="31"/>
+      <c r="B219" s="30"/>
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
       <c r="E219" s="11"/>
@@ -8033,7 +8094,7 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="11"/>
-      <c r="B220" s="31"/>
+      <c r="B220" s="30"/>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
       <c r="E220" s="11"/>
@@ -8066,7 +8127,7 @@
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="11"/>
-      <c r="B221" s="31"/>
+      <c r="B221" s="30"/>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
       <c r="E221" s="11"/>
@@ -8099,7 +8160,7 @@
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="11"/>
-      <c r="B222" s="31"/>
+      <c r="B222" s="30"/>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
@@ -8132,7 +8193,7 @@
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="11"/>
-      <c r="B223" s="31"/>
+      <c r="B223" s="30"/>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
       <c r="E223" s="11"/>
@@ -8165,7 +8226,7 @@
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="11"/>
-      <c r="B224" s="31"/>
+      <c r="B224" s="30"/>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
       <c r="E224" s="11"/>
@@ -8198,7 +8259,7 @@
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="11"/>
-      <c r="B225" s="31"/>
+      <c r="B225" s="30"/>
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11"/>
@@ -8231,7 +8292,7 @@
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="11"/>
-      <c r="B226" s="31"/>
+      <c r="B226" s="30"/>
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
       <c r="E226" s="11"/>
@@ -8264,7 +8325,7 @@
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="11"/>
-      <c r="B227" s="31"/>
+      <c r="B227" s="30"/>
       <c r="C227" s="11"/>
       <c r="D227" s="11"/>
       <c r="E227" s="11"/>
@@ -8297,7 +8358,7 @@
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="11"/>
-      <c r="B228" s="31"/>
+      <c r="B228" s="30"/>
       <c r="C228" s="11"/>
       <c r="D228" s="11"/>
       <c r="E228" s="11"/>
@@ -8330,7 +8391,7 @@
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="11"/>
-      <c r="B229" s="31"/>
+      <c r="B229" s="30"/>
       <c r="C229" s="11"/>
       <c r="D229" s="11"/>
       <c r="E229" s="11"/>
@@ -8363,7 +8424,7 @@
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="11"/>
-      <c r="B230" s="31"/>
+      <c r="B230" s="30"/>
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
       <c r="E230" s="11"/>
@@ -8396,7 +8457,7 @@
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="11"/>
-      <c r="B231" s="31"/>
+      <c r="B231" s="30"/>
       <c r="C231" s="11"/>
       <c r="D231" s="11"/>
       <c r="E231" s="11"/>
@@ -8429,7 +8490,7 @@
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="11"/>
-      <c r="B232" s="31"/>
+      <c r="B232" s="30"/>
       <c r="C232" s="11"/>
       <c r="D232" s="11"/>
       <c r="E232" s="11"/>
@@ -8462,7 +8523,7 @@
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="11"/>
-      <c r="B233" s="31"/>
+      <c r="B233" s="30"/>
       <c r="C233" s="11"/>
       <c r="D233" s="11"/>
       <c r="E233" s="11"/>
@@ -8495,7 +8556,7 @@
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="11"/>
-      <c r="B234" s="31"/>
+      <c r="B234" s="30"/>
       <c r="C234" s="11"/>
       <c r="D234" s="11"/>
       <c r="E234" s="11"/>
@@ -8528,7 +8589,7 @@
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="11"/>
-      <c r="B235" s="31"/>
+      <c r="B235" s="30"/>
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
       <c r="E235" s="11"/>
@@ -8561,7 +8622,7 @@
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="11"/>
-      <c r="B236" s="31"/>
+      <c r="B236" s="30"/>
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
       <c r="E236" s="11"/>
@@ -8594,7 +8655,7 @@
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="11"/>
-      <c r="B237" s="31"/>
+      <c r="B237" s="30"/>
       <c r="C237" s="11"/>
       <c r="D237" s="11"/>
       <c r="E237" s="11"/>
@@ -8627,7 +8688,7 @@
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="11"/>
-      <c r="B238" s="31"/>
+      <c r="B238" s="30"/>
       <c r="C238" s="11"/>
       <c r="D238" s="11"/>
       <c r="E238" s="11"/>
@@ -8660,7 +8721,7 @@
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="11"/>
-      <c r="B239" s="31"/>
+      <c r="B239" s="30"/>
       <c r="C239" s="11"/>
       <c r="D239" s="11"/>
       <c r="E239" s="11"/>
@@ -8693,7 +8754,7 @@
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="11"/>
-      <c r="B240" s="31"/>
+      <c r="B240" s="30"/>
       <c r="C240" s="11"/>
       <c r="D240" s="11"/>
       <c r="E240" s="11"/>
@@ -8726,7 +8787,7 @@
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="11"/>
-      <c r="B241" s="31"/>
+      <c r="B241" s="30"/>
       <c r="C241" s="11"/>
       <c r="D241" s="11"/>
       <c r="E241" s="11"/>
@@ -8759,7 +8820,7 @@
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="11"/>
-      <c r="B242" s="31"/>
+      <c r="B242" s="30"/>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
       <c r="E242" s="11"/>
@@ -8792,7 +8853,7 @@
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="11"/>
-      <c r="B243" s="31"/>
+      <c r="B243" s="30"/>
       <c r="C243" s="11"/>
       <c r="D243" s="11"/>
       <c r="E243" s="11"/>
@@ -8825,7 +8886,7 @@
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="11"/>
-      <c r="B244" s="31"/>
+      <c r="B244" s="30"/>
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
       <c r="E244" s="11"/>
@@ -8858,7 +8919,7 @@
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="11"/>
-      <c r="B245" s="31"/>
+      <c r="B245" s="30"/>
       <c r="C245" s="11"/>
       <c r="D245" s="11"/>
       <c r="E245" s="11"/>
@@ -8891,7 +8952,7 @@
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="11"/>
-      <c r="B246" s="31"/>
+      <c r="B246" s="30"/>
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
       <c r="E246" s="11"/>
@@ -8924,7 +8985,7 @@
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="11"/>
-      <c r="B247" s="31"/>
+      <c r="B247" s="30"/>
       <c r="C247" s="11"/>
       <c r="D247" s="11"/>
       <c r="E247" s="11"/>
@@ -8957,7 +9018,7 @@
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="11"/>
-      <c r="B248" s="31"/>
+      <c r="B248" s="30"/>
       <c r="C248" s="11"/>
       <c r="D248" s="11"/>
       <c r="E248" s="11"/>
@@ -8990,7 +9051,7 @@
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="11"/>
-      <c r="B249" s="31"/>
+      <c r="B249" s="30"/>
       <c r="C249" s="11"/>
       <c r="D249" s="11"/>
       <c r="E249" s="11"/>
@@ -9023,7 +9084,7 @@
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="11"/>
-      <c r="B250" s="31"/>
+      <c r="B250" s="30"/>
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
       <c r="E250" s="11"/>
@@ -9056,7 +9117,7 @@
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="11"/>
-      <c r="B251" s="31"/>
+      <c r="B251" s="30"/>
       <c r="C251" s="11"/>
       <c r="D251" s="11"/>
       <c r="E251" s="11"/>
@@ -9089,7 +9150,7 @@
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="11"/>
-      <c r="B252" s="31"/>
+      <c r="B252" s="30"/>
       <c r="C252" s="11"/>
       <c r="D252" s="11"/>
       <c r="E252" s="11"/>
@@ -9122,7 +9183,7 @@
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="11"/>
-      <c r="B253" s="31"/>
+      <c r="B253" s="30"/>
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
       <c r="E253" s="11"/>
@@ -9155,7 +9216,7 @@
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="11"/>
-      <c r="B254" s="31"/>
+      <c r="B254" s="30"/>
       <c r="C254" s="11"/>
       <c r="D254" s="11"/>
       <c r="E254" s="11"/>
@@ -9188,7 +9249,7 @@
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="11"/>
-      <c r="B255" s="31"/>
+      <c r="B255" s="30"/>
       <c r="C255" s="11"/>
       <c r="D255" s="11"/>
       <c r="E255" s="11"/>
@@ -9221,7 +9282,7 @@
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="11"/>
-      <c r="B256" s="31"/>
+      <c r="B256" s="30"/>
       <c r="C256" s="11"/>
       <c r="D256" s="11"/>
       <c r="E256" s="11"/>
@@ -9254,7 +9315,7 @@
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="11"/>
-      <c r="B257" s="31"/>
+      <c r="B257" s="30"/>
       <c r="C257" s="11"/>
       <c r="D257" s="11"/>
       <c r="E257" s="11"/>
@@ -9287,7 +9348,7 @@
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="11"/>
-      <c r="B258" s="31"/>
+      <c r="B258" s="30"/>
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
@@ -9320,7 +9381,7 @@
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="11"/>
-      <c r="B259" s="31"/>
+      <c r="B259" s="30"/>
       <c r="C259" s="11"/>
       <c r="D259" s="11"/>
       <c r="E259" s="11"/>
@@ -9353,7 +9414,7 @@
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="11"/>
-      <c r="B260" s="31"/>
+      <c r="B260" s="30"/>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
       <c r="E260" s="11"/>
@@ -9386,7 +9447,7 @@
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="11"/>
-      <c r="B261" s="31"/>
+      <c r="B261" s="30"/>
       <c r="C261" s="11"/>
       <c r="D261" s="11"/>
       <c r="E261" s="11"/>
@@ -9419,7 +9480,7 @@
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="11"/>
-      <c r="B262" s="31"/>
+      <c r="B262" s="30"/>
       <c r="C262" s="11"/>
       <c r="D262" s="11"/>
       <c r="E262" s="11"/>
@@ -9452,7 +9513,7 @@
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="11"/>
-      <c r="B263" s="31"/>
+      <c r="B263" s="30"/>
       <c r="C263" s="11"/>
       <c r="D263" s="11"/>
       <c r="E263" s="11"/>
@@ -9485,7 +9546,7 @@
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="11"/>
-      <c r="B264" s="31"/>
+      <c r="B264" s="30"/>
       <c r="C264" s="11"/>
       <c r="D264" s="11"/>
       <c r="E264" s="11"/>
@@ -9518,7 +9579,7 @@
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="11"/>
-      <c r="B265" s="31"/>
+      <c r="B265" s="30"/>
       <c r="C265" s="11"/>
       <c r="D265" s="11"/>
       <c r="E265" s="11"/>
@@ -9551,7 +9612,7 @@
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="11"/>
-      <c r="B266" s="31"/>
+      <c r="B266" s="30"/>
       <c r="C266" s="11"/>
       <c r="D266" s="11"/>
       <c r="E266" s="11"/>
@@ -9584,7 +9645,7 @@
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="11"/>
-      <c r="B267" s="31"/>
+      <c r="B267" s="30"/>
       <c r="C267" s="11"/>
       <c r="D267" s="11"/>
       <c r="E267" s="11"/>
@@ -9617,7 +9678,7 @@
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="11"/>
-      <c r="B268" s="31"/>
+      <c r="B268" s="30"/>
       <c r="C268" s="11"/>
       <c r="D268" s="11"/>
       <c r="E268" s="11"/>
@@ -9650,7 +9711,7 @@
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="11"/>
-      <c r="B269" s="31"/>
+      <c r="B269" s="30"/>
       <c r="C269" s="11"/>
       <c r="D269" s="11"/>
       <c r="E269" s="11"/>
@@ -9683,7 +9744,7 @@
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="11"/>
-      <c r="B270" s="31"/>
+      <c r="B270" s="30"/>
       <c r="C270" s="11"/>
       <c r="D270" s="11"/>
       <c r="E270" s="11"/>
@@ -9716,7 +9777,7 @@
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="11"/>
-      <c r="B271" s="31"/>
+      <c r="B271" s="30"/>
       <c r="C271" s="11"/>
       <c r="D271" s="11"/>
       <c r="E271" s="11"/>
@@ -9749,7 +9810,7 @@
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="11"/>
-      <c r="B272" s="31"/>
+      <c r="B272" s="30"/>
       <c r="C272" s="11"/>
       <c r="D272" s="11"/>
       <c r="E272" s="11"/>
@@ -9782,7 +9843,7 @@
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="11"/>
-      <c r="B273" s="31"/>
+      <c r="B273" s="30"/>
       <c r="C273" s="11"/>
       <c r="D273" s="11"/>
       <c r="E273" s="11"/>
@@ -9815,7 +9876,7 @@
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="11"/>
-      <c r="B274" s="31"/>
+      <c r="B274" s="30"/>
       <c r="C274" s="11"/>
       <c r="D274" s="11"/>
       <c r="E274" s="11"/>
@@ -9848,7 +9909,7 @@
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="11"/>
-      <c r="B275" s="31"/>
+      <c r="B275" s="30"/>
       <c r="C275" s="11"/>
       <c r="D275" s="11"/>
       <c r="E275" s="11"/>
@@ -9881,7 +9942,7 @@
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="11"/>
-      <c r="B276" s="31"/>
+      <c r="B276" s="30"/>
       <c r="C276" s="11"/>
       <c r="D276" s="11"/>
       <c r="E276" s="11"/>
@@ -9914,7 +9975,7 @@
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="11"/>
-      <c r="B277" s="31"/>
+      <c r="B277" s="30"/>
       <c r="C277" s="11"/>
       <c r="D277" s="11"/>
       <c r="E277" s="11"/>
@@ -9947,7 +10008,7 @@
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="11"/>
-      <c r="B278" s="31"/>
+      <c r="B278" s="30"/>
       <c r="C278" s="11"/>
       <c r="D278" s="11"/>
       <c r="E278" s="11"/>
@@ -9980,7 +10041,7 @@
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="11"/>
-      <c r="B279" s="31"/>
+      <c r="B279" s="30"/>
       <c r="C279" s="11"/>
       <c r="D279" s="11"/>
       <c r="E279" s="11"/>
@@ -10013,7 +10074,7 @@
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="11"/>
-      <c r="B280" s="31"/>
+      <c r="B280" s="30"/>
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
       <c r="E280" s="11"/>
@@ -10046,7 +10107,7 @@
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="11"/>
-      <c r="B281" s="31"/>
+      <c r="B281" s="30"/>
       <c r="C281" s="11"/>
       <c r="D281" s="11"/>
       <c r="E281" s="11"/>
@@ -10079,7 +10140,7 @@
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="11"/>
-      <c r="B282" s="31"/>
+      <c r="B282" s="30"/>
       <c r="C282" s="11"/>
       <c r="D282" s="11"/>
       <c r="E282" s="11"/>
@@ -10112,7 +10173,7 @@
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="11"/>
-      <c r="B283" s="31"/>
+      <c r="B283" s="30"/>
       <c r="C283" s="11"/>
       <c r="D283" s="11"/>
       <c r="E283" s="11"/>
@@ -10145,7 +10206,7 @@
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="11"/>
-      <c r="B284" s="31"/>
+      <c r="B284" s="30"/>
       <c r="C284" s="11"/>
       <c r="D284" s="11"/>
       <c r="E284" s="11"/>
@@ -10178,7 +10239,7 @@
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="11"/>
-      <c r="B285" s="31"/>
+      <c r="B285" s="30"/>
       <c r="C285" s="11"/>
       <c r="D285" s="11"/>
       <c r="E285" s="11"/>
@@ -10211,7 +10272,7 @@
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="11"/>
-      <c r="B286" s="31"/>
+      <c r="B286" s="30"/>
       <c r="C286" s="11"/>
       <c r="D286" s="11"/>
       <c r="E286" s="11"/>
@@ -10244,7 +10305,7 @@
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="11"/>
-      <c r="B287" s="31"/>
+      <c r="B287" s="30"/>
       <c r="C287" s="11"/>
       <c r="D287" s="11"/>
       <c r="E287" s="11"/>
@@ -10277,7 +10338,7 @@
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="11"/>
-      <c r="B288" s="31"/>
+      <c r="B288" s="30"/>
       <c r="C288" s="11"/>
       <c r="D288" s="11"/>
       <c r="E288" s="11"/>
@@ -10310,7 +10371,7 @@
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="11"/>
-      <c r="B289" s="31"/>
+      <c r="B289" s="30"/>
       <c r="C289" s="11"/>
       <c r="D289" s="11"/>
       <c r="E289" s="11"/>
@@ -10343,7 +10404,7 @@
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="11"/>
-      <c r="B290" s="31"/>
+      <c r="B290" s="30"/>
       <c r="C290" s="11"/>
       <c r="D290" s="11"/>
       <c r="E290" s="11"/>
@@ -10376,7 +10437,7 @@
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="11"/>
-      <c r="B291" s="31"/>
+      <c r="B291" s="30"/>
       <c r="C291" s="11"/>
       <c r="D291" s="11"/>
       <c r="E291" s="11"/>
@@ -10409,7 +10470,7 @@
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="11"/>
-      <c r="B292" s="31"/>
+      <c r="B292" s="30"/>
       <c r="C292" s="11"/>
       <c r="D292" s="11"/>
       <c r="E292" s="11"/>
@@ -10442,7 +10503,7 @@
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="11"/>
-      <c r="B293" s="31"/>
+      <c r="B293" s="30"/>
       <c r="C293" s="11"/>
       <c r="D293" s="11"/>
       <c r="E293" s="11"/>
@@ -10475,7 +10536,7 @@
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="11"/>
-      <c r="B294" s="31"/>
+      <c r="B294" s="30"/>
       <c r="C294" s="11"/>
       <c r="D294" s="11"/>
       <c r="E294" s="11"/>
@@ -10508,7 +10569,7 @@
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="11"/>
-      <c r="B295" s="31"/>
+      <c r="B295" s="30"/>
       <c r="C295" s="11"/>
       <c r="D295" s="11"/>
       <c r="E295" s="11"/>
@@ -10541,7 +10602,7 @@
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="11"/>
-      <c r="B296" s="31"/>
+      <c r="B296" s="30"/>
       <c r="C296" s="11"/>
       <c r="D296" s="11"/>
       <c r="E296" s="11"/>
@@ -10574,7 +10635,7 @@
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="11"/>
-      <c r="B297" s="31"/>
+      <c r="B297" s="30"/>
       <c r="C297" s="11"/>
       <c r="D297" s="11"/>
       <c r="E297" s="11"/>
@@ -10607,7 +10668,7 @@
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="11"/>
-      <c r="B298" s="31"/>
+      <c r="B298" s="30"/>
       <c r="C298" s="11"/>
       <c r="D298" s="11"/>
       <c r="E298" s="11"/>
@@ -10640,7 +10701,7 @@
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="11"/>
-      <c r="B299" s="31"/>
+      <c r="B299" s="30"/>
       <c r="C299" s="11"/>
       <c r="D299" s="11"/>
       <c r="E299" s="11"/>
@@ -10673,7 +10734,7 @@
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="11"/>
-      <c r="B300" s="31"/>
+      <c r="B300" s="30"/>
       <c r="C300" s="11"/>
       <c r="D300" s="11"/>
       <c r="E300" s="11"/>
@@ -10706,7 +10767,7 @@
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="11"/>
-      <c r="B301" s="31"/>
+      <c r="B301" s="30"/>
       <c r="C301" s="11"/>
       <c r="D301" s="11"/>
       <c r="E301" s="11"/>
@@ -10739,7 +10800,7 @@
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="11"/>
-      <c r="B302" s="31"/>
+      <c r="B302" s="30"/>
       <c r="C302" s="11"/>
       <c r="D302" s="11"/>
       <c r="E302" s="11"/>
@@ -10772,7 +10833,7 @@
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="11"/>
-      <c r="B303" s="31"/>
+      <c r="B303" s="30"/>
       <c r="C303" s="11"/>
       <c r="D303" s="11"/>
       <c r="E303" s="11"/>
@@ -10805,7 +10866,7 @@
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="11"/>
-      <c r="B304" s="31"/>
+      <c r="B304" s="30"/>
       <c r="C304" s="11"/>
       <c r="D304" s="11"/>
       <c r="E304" s="11"/>
@@ -10838,7 +10899,7 @@
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="11"/>
-      <c r="B305" s="31"/>
+      <c r="B305" s="30"/>
       <c r="C305" s="11"/>
       <c r="D305" s="11"/>
       <c r="E305" s="11"/>
@@ -10871,7 +10932,7 @@
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="11"/>
-      <c r="B306" s="31"/>
+      <c r="B306" s="30"/>
       <c r="C306" s="11"/>
       <c r="D306" s="11"/>
       <c r="E306" s="11"/>
@@ -10904,7 +10965,7 @@
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="11"/>
-      <c r="B307" s="31"/>
+      <c r="B307" s="30"/>
       <c r="C307" s="11"/>
       <c r="D307" s="11"/>
       <c r="E307" s="11"/>
@@ -10937,7 +10998,7 @@
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="11"/>
-      <c r="B308" s="31"/>
+      <c r="B308" s="30"/>
       <c r="C308" s="11"/>
       <c r="D308" s="11"/>
       <c r="E308" s="11"/>
@@ -10970,7 +11031,7 @@
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="11"/>
-      <c r="B309" s="31"/>
+      <c r="B309" s="30"/>
       <c r="C309" s="11"/>
       <c r="D309" s="11"/>
       <c r="E309" s="11"/>
@@ -11003,7 +11064,7 @@
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="11"/>
-      <c r="B310" s="31"/>
+      <c r="B310" s="30"/>
       <c r="C310" s="11"/>
       <c r="D310" s="11"/>
       <c r="E310" s="11"/>
@@ -11036,7 +11097,7 @@
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="11"/>
-      <c r="B311" s="31"/>
+      <c r="B311" s="30"/>
       <c r="C311" s="11"/>
       <c r="D311" s="11"/>
       <c r="E311" s="11"/>
@@ -11069,7 +11130,7 @@
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="11"/>
-      <c r="B312" s="31"/>
+      <c r="B312" s="30"/>
       <c r="C312" s="11"/>
       <c r="D312" s="11"/>
       <c r="E312" s="11"/>
@@ -11102,7 +11163,7 @@
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="11"/>
-      <c r="B313" s="31"/>
+      <c r="B313" s="30"/>
       <c r="C313" s="11"/>
       <c r="D313" s="11"/>
       <c r="E313" s="11"/>
@@ -11135,7 +11196,7 @@
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="11"/>
-      <c r="B314" s="31"/>
+      <c r="B314" s="30"/>
       <c r="C314" s="11"/>
       <c r="D314" s="11"/>
       <c r="E314" s="11"/>
@@ -11168,7 +11229,7 @@
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="11"/>
-      <c r="B315" s="31"/>
+      <c r="B315" s="30"/>
       <c r="C315" s="11"/>
       <c r="D315" s="11"/>
       <c r="E315" s="11"/>
@@ -11201,7 +11262,7 @@
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="11"/>
-      <c r="B316" s="31"/>
+      <c r="B316" s="30"/>
       <c r="C316" s="11"/>
       <c r="D316" s="11"/>
       <c r="E316" s="11"/>
@@ -11234,7 +11295,7 @@
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="11"/>
-      <c r="B317" s="31"/>
+      <c r="B317" s="30"/>
       <c r="C317" s="11"/>
       <c r="D317" s="11"/>
       <c r="E317" s="11"/>
@@ -11267,7 +11328,7 @@
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="11"/>
-      <c r="B318" s="31"/>
+      <c r="B318" s="30"/>
       <c r="C318" s="11"/>
       <c r="D318" s="11"/>
       <c r="E318" s="11"/>
@@ -11300,7 +11361,7 @@
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="11"/>
-      <c r="B319" s="31"/>
+      <c r="B319" s="30"/>
       <c r="C319" s="11"/>
       <c r="D319" s="11"/>
       <c r="E319" s="11"/>
@@ -11333,7 +11394,7 @@
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="11"/>
-      <c r="B320" s="31"/>
+      <c r="B320" s="30"/>
       <c r="C320" s="11"/>
       <c r="D320" s="11"/>
       <c r="E320" s="11"/>
@@ -11366,7 +11427,7 @@
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="11"/>
-      <c r="B321" s="31"/>
+      <c r="B321" s="30"/>
       <c r="C321" s="11"/>
       <c r="D321" s="11"/>
       <c r="E321" s="11"/>
@@ -11399,7 +11460,7 @@
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="11"/>
-      <c r="B322" s="31"/>
+      <c r="B322" s="30"/>
       <c r="C322" s="11"/>
       <c r="D322" s="11"/>
       <c r="E322" s="11"/>
@@ -11432,7 +11493,7 @@
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="11"/>
-      <c r="B323" s="31"/>
+      <c r="B323" s="30"/>
       <c r="C323" s="11"/>
       <c r="D323" s="11"/>
       <c r="E323" s="11"/>
@@ -11465,7 +11526,7 @@
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="11"/>
-      <c r="B324" s="31"/>
+      <c r="B324" s="30"/>
       <c r="C324" s="11"/>
       <c r="D324" s="11"/>
       <c r="E324" s="11"/>
@@ -11498,7 +11559,7 @@
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="11"/>
-      <c r="B325" s="31"/>
+      <c r="B325" s="30"/>
       <c r="C325" s="11"/>
       <c r="D325" s="11"/>
       <c r="E325" s="11"/>
@@ -11531,7 +11592,7 @@
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="11"/>
-      <c r="B326" s="31"/>
+      <c r="B326" s="30"/>
       <c r="C326" s="11"/>
       <c r="D326" s="11"/>
       <c r="E326" s="11"/>
@@ -11564,7 +11625,7 @@
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="11"/>
-      <c r="B327" s="31"/>
+      <c r="B327" s="30"/>
       <c r="C327" s="11"/>
       <c r="D327" s="11"/>
       <c r="E327" s="11"/>
@@ -11597,7 +11658,7 @@
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="11"/>
-      <c r="B328" s="31"/>
+      <c r="B328" s="30"/>
       <c r="C328" s="11"/>
       <c r="D328" s="11"/>
       <c r="E328" s="11"/>
@@ -11630,7 +11691,7 @@
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="11"/>
-      <c r="B329" s="31"/>
+      <c r="B329" s="30"/>
       <c r="C329" s="11"/>
       <c r="D329" s="11"/>
       <c r="E329" s="11"/>
@@ -11663,7 +11724,7 @@
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="11"/>
-      <c r="B330" s="31"/>
+      <c r="B330" s="30"/>
       <c r="C330" s="11"/>
       <c r="D330" s="11"/>
       <c r="E330" s="11"/>
@@ -11696,7 +11757,7 @@
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="11"/>
-      <c r="B331" s="31"/>
+      <c r="B331" s="30"/>
       <c r="C331" s="11"/>
       <c r="D331" s="11"/>
       <c r="E331" s="11"/>
@@ -11729,7 +11790,7 @@
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="11"/>
-      <c r="B332" s="31"/>
+      <c r="B332" s="30"/>
       <c r="C332" s="11"/>
       <c r="D332" s="11"/>
       <c r="E332" s="11"/>
@@ -11762,7 +11823,7 @@
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="11"/>
-      <c r="B333" s="31"/>
+      <c r="B333" s="30"/>
       <c r="C333" s="11"/>
       <c r="D333" s="11"/>
       <c r="E333" s="11"/>
@@ -11795,7 +11856,7 @@
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="11"/>
-      <c r="B334" s="31"/>
+      <c r="B334" s="30"/>
       <c r="C334" s="11"/>
       <c r="D334" s="11"/>
       <c r="E334" s="11"/>
@@ -11828,7 +11889,7 @@
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="11"/>
-      <c r="B335" s="31"/>
+      <c r="B335" s="30"/>
       <c r="C335" s="11"/>
       <c r="D335" s="11"/>
       <c r="E335" s="11"/>
@@ -11861,7 +11922,7 @@
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="11"/>
-      <c r="B336" s="31"/>
+      <c r="B336" s="30"/>
       <c r="C336" s="11"/>
       <c r="D336" s="11"/>
       <c r="E336" s="11"/>
@@ -11894,7 +11955,7 @@
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="11"/>
-      <c r="B337" s="31"/>
+      <c r="B337" s="30"/>
       <c r="C337" s="11"/>
       <c r="D337" s="11"/>
       <c r="E337" s="11"/>
@@ -11927,7 +11988,7 @@
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="11"/>
-      <c r="B338" s="31"/>
+      <c r="B338" s="30"/>
       <c r="C338" s="11"/>
       <c r="D338" s="11"/>
       <c r="E338" s="11"/>
@@ -11960,7 +12021,7 @@
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="11"/>
-      <c r="B339" s="31"/>
+      <c r="B339" s="30"/>
       <c r="C339" s="11"/>
       <c r="D339" s="11"/>
       <c r="E339" s="11"/>
@@ -11993,7 +12054,7 @@
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="11"/>
-      <c r="B340" s="31"/>
+      <c r="B340" s="30"/>
       <c r="C340" s="11"/>
       <c r="D340" s="11"/>
       <c r="E340" s="11"/>
@@ -12026,7 +12087,7 @@
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="11"/>
-      <c r="B341" s="31"/>
+      <c r="B341" s="30"/>
       <c r="C341" s="11"/>
       <c r="D341" s="11"/>
       <c r="E341" s="11"/>
@@ -12059,7 +12120,7 @@
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="11"/>
-      <c r="B342" s="31"/>
+      <c r="B342" s="30"/>
       <c r="C342" s="11"/>
       <c r="D342" s="11"/>
       <c r="E342" s="11"/>
@@ -12092,7 +12153,7 @@
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="11"/>
-      <c r="B343" s="31"/>
+      <c r="B343" s="30"/>
       <c r="C343" s="11"/>
       <c r="D343" s="11"/>
       <c r="E343" s="11"/>
@@ -12125,7 +12186,7 @@
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="11"/>
-      <c r="B344" s="31"/>
+      <c r="B344" s="30"/>
       <c r="C344" s="11"/>
       <c r="D344" s="11"/>
       <c r="E344" s="11"/>
@@ -12158,7 +12219,7 @@
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="11"/>
-      <c r="B345" s="31"/>
+      <c r="B345" s="30"/>
       <c r="C345" s="11"/>
       <c r="D345" s="11"/>
       <c r="E345" s="11"/>
@@ -12191,7 +12252,7 @@
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="11"/>
-      <c r="B346" s="31"/>
+      <c r="B346" s="30"/>
       <c r="C346" s="11"/>
       <c r="D346" s="11"/>
       <c r="E346" s="11"/>
@@ -12224,7 +12285,7 @@
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="11"/>
-      <c r="B347" s="31"/>
+      <c r="B347" s="30"/>
       <c r="C347" s="11"/>
       <c r="D347" s="11"/>
       <c r="E347" s="11"/>
@@ -12257,7 +12318,7 @@
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="11"/>
-      <c r="B348" s="31"/>
+      <c r="B348" s="30"/>
       <c r="C348" s="11"/>
       <c r="D348" s="11"/>
       <c r="E348" s="11"/>
@@ -12290,7 +12351,7 @@
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="11"/>
-      <c r="B349" s="31"/>
+      <c r="B349" s="30"/>
       <c r="C349" s="11"/>
       <c r="D349" s="11"/>
       <c r="E349" s="11"/>
@@ -12323,7 +12384,7 @@
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="11"/>
-      <c r="B350" s="31"/>
+      <c r="B350" s="30"/>
       <c r="C350" s="11"/>
       <c r="D350" s="11"/>
       <c r="E350" s="11"/>
@@ -12356,7 +12417,7 @@
     </row>
     <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="11"/>
-      <c r="B351" s="31"/>
+      <c r="B351" s="30"/>
       <c r="C351" s="11"/>
       <c r="D351" s="11"/>
       <c r="E351" s="11"/>
@@ -12389,7 +12450,7 @@
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="11"/>
-      <c r="B352" s="31"/>
+      <c r="B352" s="30"/>
       <c r="C352" s="11"/>
       <c r="D352" s="11"/>
       <c r="E352" s="11"/>
@@ -12422,7 +12483,7 @@
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="11"/>
-      <c r="B353" s="31"/>
+      <c r="B353" s="30"/>
       <c r="C353" s="11"/>
       <c r="D353" s="11"/>
       <c r="E353" s="11"/>
@@ -12455,7 +12516,7 @@
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="11"/>
-      <c r="B354" s="31"/>
+      <c r="B354" s="30"/>
       <c r="C354" s="11"/>
       <c r="D354" s="11"/>
       <c r="E354" s="11"/>
@@ -12488,7 +12549,7 @@
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="11"/>
-      <c r="B355" s="31"/>
+      <c r="B355" s="30"/>
       <c r="C355" s="11"/>
       <c r="D355" s="11"/>
       <c r="E355" s="11"/>
@@ -12521,7 +12582,7 @@
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="11"/>
-      <c r="B356" s="31"/>
+      <c r="B356" s="30"/>
       <c r="C356" s="11"/>
       <c r="D356" s="11"/>
       <c r="E356" s="11"/>
@@ -12554,7 +12615,7 @@
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="11"/>
-      <c r="B357" s="31"/>
+      <c r="B357" s="30"/>
       <c r="C357" s="11"/>
       <c r="D357" s="11"/>
       <c r="E357" s="11"/>
@@ -12587,7 +12648,7 @@
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="11"/>
-      <c r="B358" s="31"/>
+      <c r="B358" s="30"/>
       <c r="C358" s="11"/>
       <c r="D358" s="11"/>
       <c r="E358" s="11"/>
@@ -12620,7 +12681,7 @@
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="11"/>
-      <c r="B359" s="31"/>
+      <c r="B359" s="30"/>
       <c r="C359" s="11"/>
       <c r="D359" s="11"/>
       <c r="E359" s="11"/>
@@ -12653,7 +12714,7 @@
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="11"/>
-      <c r="B360" s="31"/>
+      <c r="B360" s="30"/>
       <c r="C360" s="11"/>
       <c r="D360" s="11"/>
       <c r="E360" s="11"/>
@@ -12686,7 +12747,7 @@
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="11"/>
-      <c r="B361" s="31"/>
+      <c r="B361" s="30"/>
       <c r="C361" s="11"/>
       <c r="D361" s="11"/>
       <c r="E361" s="11"/>
@@ -12719,7 +12780,7 @@
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="11"/>
-      <c r="B362" s="31"/>
+      <c r="B362" s="30"/>
       <c r="C362" s="11"/>
       <c r="D362" s="11"/>
       <c r="E362" s="11"/>
@@ -12752,7 +12813,7 @@
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="11"/>
-      <c r="B363" s="31"/>
+      <c r="B363" s="30"/>
       <c r="C363" s="11"/>
       <c r="D363" s="11"/>
       <c r="E363" s="11"/>
@@ -12785,7 +12846,7 @@
     </row>
     <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="11"/>
-      <c r="B364" s="31"/>
+      <c r="B364" s="30"/>
       <c r="C364" s="11"/>
       <c r="D364" s="11"/>
       <c r="E364" s="11"/>
@@ -12818,7 +12879,7 @@
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="11"/>
-      <c r="B365" s="31"/>
+      <c r="B365" s="30"/>
       <c r="C365" s="11"/>
       <c r="D365" s="11"/>
       <c r="E365" s="11"/>
@@ -12851,7 +12912,7 @@
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="11"/>
-      <c r="B366" s="31"/>
+      <c r="B366" s="30"/>
       <c r="C366" s="11"/>
       <c r="D366" s="11"/>
       <c r="E366" s="11"/>
@@ -12884,7 +12945,7 @@
     </row>
     <row r="367" ht="15.75" customHeight="1">
       <c r="A367" s="11"/>
-      <c r="B367" s="31"/>
+      <c r="B367" s="30"/>
       <c r="C367" s="11"/>
       <c r="D367" s="11"/>
       <c r="E367" s="11"/>
@@ -12917,7 +12978,7 @@
     </row>
     <row r="368" ht="15.75" customHeight="1">
       <c r="A368" s="11"/>
-      <c r="B368" s="31"/>
+      <c r="B368" s="30"/>
       <c r="C368" s="11"/>
       <c r="D368" s="11"/>
       <c r="E368" s="11"/>
@@ -12950,7 +13011,7 @@
     </row>
     <row r="369" ht="15.75" customHeight="1">
       <c r="A369" s="11"/>
-      <c r="B369" s="31"/>
+      <c r="B369" s="30"/>
       <c r="C369" s="11"/>
       <c r="D369" s="11"/>
       <c r="E369" s="11"/>
@@ -12983,7 +13044,7 @@
     </row>
     <row r="370" ht="15.75" customHeight="1">
       <c r="A370" s="11"/>
-      <c r="B370" s="31"/>
+      <c r="B370" s="30"/>
       <c r="C370" s="11"/>
       <c r="D370" s="11"/>
       <c r="E370" s="11"/>
@@ -13016,7 +13077,7 @@
     </row>
     <row r="371" ht="15.75" customHeight="1">
       <c r="A371" s="11"/>
-      <c r="B371" s="31"/>
+      <c r="B371" s="30"/>
       <c r="C371" s="11"/>
       <c r="D371" s="11"/>
       <c r="E371" s="11"/>
@@ -13049,7 +13110,7 @@
     </row>
     <row r="372" ht="15.75" customHeight="1">
       <c r="A372" s="11"/>
-      <c r="B372" s="31"/>
+      <c r="B372" s="30"/>
       <c r="C372" s="11"/>
       <c r="D372" s="11"/>
       <c r="E372" s="11"/>
@@ -13082,7 +13143,7 @@
     </row>
     <row r="373" ht="15.75" customHeight="1">
       <c r="A373" s="11"/>
-      <c r="B373" s="31"/>
+      <c r="B373" s="30"/>
       <c r="C373" s="11"/>
       <c r="D373" s="11"/>
       <c r="E373" s="11"/>
@@ -13115,7 +13176,7 @@
     </row>
     <row r="374" ht="15.75" customHeight="1">
       <c r="A374" s="11"/>
-      <c r="B374" s="31"/>
+      <c r="B374" s="30"/>
       <c r="C374" s="11"/>
       <c r="D374" s="11"/>
       <c r="E374" s="11"/>
@@ -13148,7 +13209,7 @@
     </row>
     <row r="375" ht="15.75" customHeight="1">
       <c r="A375" s="11"/>
-      <c r="B375" s="31"/>
+      <c r="B375" s="30"/>
       <c r="C375" s="11"/>
       <c r="D375" s="11"/>
       <c r="E375" s="11"/>
@@ -13181,7 +13242,7 @@
     </row>
     <row r="376" ht="15.75" customHeight="1">
       <c r="A376" s="11"/>
-      <c r="B376" s="31"/>
+      <c r="B376" s="30"/>
       <c r="C376" s="11"/>
       <c r="D376" s="11"/>
       <c r="E376" s="11"/>
@@ -13214,7 +13275,7 @@
     </row>
     <row r="377" ht="15.75" customHeight="1">
       <c r="A377" s="11"/>
-      <c r="B377" s="31"/>
+      <c r="B377" s="30"/>
       <c r="C377" s="11"/>
       <c r="D377" s="11"/>
       <c r="E377" s="11"/>
@@ -13247,7 +13308,7 @@
     </row>
     <row r="378" ht="15.75" customHeight="1">
       <c r="A378" s="11"/>
-      <c r="B378" s="31"/>
+      <c r="B378" s="30"/>
       <c r="C378" s="11"/>
       <c r="D378" s="11"/>
       <c r="E378" s="11"/>
@@ -13280,7 +13341,7 @@
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="A379" s="11"/>
-      <c r="B379" s="31"/>
+      <c r="B379" s="30"/>
       <c r="C379" s="11"/>
       <c r="D379" s="11"/>
       <c r="E379" s="11"/>
@@ -13313,7 +13374,7 @@
     </row>
     <row r="380" ht="15.75" customHeight="1">
       <c r="A380" s="11"/>
-      <c r="B380" s="31"/>
+      <c r="B380" s="30"/>
       <c r="C380" s="11"/>
       <c r="D380" s="11"/>
       <c r="E380" s="11"/>
@@ -13346,7 +13407,7 @@
     </row>
     <row r="381" ht="15.75" customHeight="1">
       <c r="A381" s="11"/>
-      <c r="B381" s="31"/>
+      <c r="B381" s="30"/>
       <c r="C381" s="11"/>
       <c r="D381" s="11"/>
       <c r="E381" s="11"/>
@@ -13379,7 +13440,7 @@
     </row>
     <row r="382" ht="15.75" customHeight="1">
       <c r="A382" s="11"/>
-      <c r="B382" s="31"/>
+      <c r="B382" s="30"/>
       <c r="C382" s="11"/>
       <c r="D382" s="11"/>
       <c r="E382" s="11"/>
@@ -13412,7 +13473,7 @@
     </row>
     <row r="383" ht="15.75" customHeight="1">
       <c r="A383" s="11"/>
-      <c r="B383" s="31"/>
+      <c r="B383" s="30"/>
       <c r="C383" s="11"/>
       <c r="D383" s="11"/>
       <c r="E383" s="11"/>
@@ -13445,7 +13506,7 @@
     </row>
     <row r="384" ht="15.75" customHeight="1">
       <c r="A384" s="11"/>
-      <c r="B384" s="31"/>
+      <c r="B384" s="30"/>
       <c r="C384" s="11"/>
       <c r="D384" s="11"/>
       <c r="E384" s="11"/>
@@ -13478,7 +13539,7 @@
     </row>
     <row r="385" ht="15.75" customHeight="1">
       <c r="A385" s="11"/>
-      <c r="B385" s="31"/>
+      <c r="B385" s="30"/>
       <c r="C385" s="11"/>
       <c r="D385" s="11"/>
       <c r="E385" s="11"/>
@@ -13511,7 +13572,7 @@
     </row>
     <row r="386" ht="15.75" customHeight="1">
       <c r="A386" s="11"/>
-      <c r="B386" s="31"/>
+      <c r="B386" s="30"/>
       <c r="C386" s="11"/>
       <c r="D386" s="11"/>
       <c r="E386" s="11"/>
@@ -13544,7 +13605,7 @@
     </row>
     <row r="387" ht="15.75" customHeight="1">
       <c r="A387" s="11"/>
-      <c r="B387" s="31"/>
+      <c r="B387" s="30"/>
       <c r="C387" s="11"/>
       <c r="D387" s="11"/>
       <c r="E387" s="11"/>
@@ -13577,7 +13638,7 @@
     </row>
     <row r="388" ht="15.75" customHeight="1">
       <c r="A388" s="11"/>
-      <c r="B388" s="31"/>
+      <c r="B388" s="30"/>
       <c r="C388" s="11"/>
       <c r="D388" s="11"/>
       <c r="E388" s="11"/>
@@ -13610,7 +13671,7 @@
     </row>
     <row r="389" ht="15.75" customHeight="1">
       <c r="A389" s="11"/>
-      <c r="B389" s="31"/>
+      <c r="B389" s="30"/>
       <c r="C389" s="11"/>
       <c r="D389" s="11"/>
       <c r="E389" s="11"/>
@@ -13643,7 +13704,7 @@
     </row>
     <row r="390" ht="15.75" customHeight="1">
       <c r="A390" s="11"/>
-      <c r="B390" s="31"/>
+      <c r="B390" s="30"/>
       <c r="C390" s="11"/>
       <c r="D390" s="11"/>
       <c r="E390" s="11"/>
@@ -13676,7 +13737,7 @@
     </row>
     <row r="391" ht="15.75" customHeight="1">
       <c r="A391" s="11"/>
-      <c r="B391" s="31"/>
+      <c r="B391" s="30"/>
       <c r="C391" s="11"/>
       <c r="D391" s="11"/>
       <c r="E391" s="11"/>
@@ -13709,7 +13770,7 @@
     </row>
     <row r="392" ht="15.75" customHeight="1">
       <c r="A392" s="11"/>
-      <c r="B392" s="31"/>
+      <c r="B392" s="30"/>
       <c r="C392" s="11"/>
       <c r="D392" s="11"/>
       <c r="E392" s="11"/>
@@ -13742,7 +13803,7 @@
     </row>
     <row r="393" ht="15.75" customHeight="1">
       <c r="A393" s="11"/>
-      <c r="B393" s="31"/>
+      <c r="B393" s="30"/>
       <c r="C393" s="11"/>
       <c r="D393" s="11"/>
       <c r="E393" s="11"/>
@@ -13775,7 +13836,7 @@
     </row>
     <row r="394" ht="15.75" customHeight="1">
       <c r="A394" s="11"/>
-      <c r="B394" s="31"/>
+      <c r="B394" s="30"/>
       <c r="C394" s="11"/>
       <c r="D394" s="11"/>
       <c r="E394" s="11"/>
@@ -13808,7 +13869,7 @@
     </row>
     <row r="395" ht="15.75" customHeight="1">
       <c r="A395" s="11"/>
-      <c r="B395" s="31"/>
+      <c r="B395" s="30"/>
       <c r="C395" s="11"/>
       <c r="D395" s="11"/>
       <c r="E395" s="11"/>
@@ -13841,7 +13902,7 @@
     </row>
     <row r="396" ht="15.75" customHeight="1">
       <c r="A396" s="11"/>
-      <c r="B396" s="31"/>
+      <c r="B396" s="30"/>
       <c r="C396" s="11"/>
       <c r="D396" s="11"/>
       <c r="E396" s="11"/>
@@ -13874,7 +13935,7 @@
     </row>
     <row r="397" ht="15.75" customHeight="1">
       <c r="A397" s="11"/>
-      <c r="B397" s="31"/>
+      <c r="B397" s="30"/>
       <c r="C397" s="11"/>
       <c r="D397" s="11"/>
       <c r="E397" s="11"/>
@@ -13907,7 +13968,7 @@
     </row>
     <row r="398" ht="15.75" customHeight="1">
       <c r="A398" s="11"/>
-      <c r="B398" s="31"/>
+      <c r="B398" s="30"/>
       <c r="C398" s="11"/>
       <c r="D398" s="11"/>
       <c r="E398" s="11"/>
@@ -13940,7 +14001,7 @@
     </row>
     <row r="399" ht="15.75" customHeight="1">
       <c r="A399" s="11"/>
-      <c r="B399" s="31"/>
+      <c r="B399" s="30"/>
       <c r="C399" s="11"/>
       <c r="D399" s="11"/>
       <c r="E399" s="11"/>
@@ -13973,7 +14034,7 @@
     </row>
     <row r="400" ht="15.75" customHeight="1">
       <c r="A400" s="11"/>
-      <c r="B400" s="31"/>
+      <c r="B400" s="30"/>
       <c r="C400" s="11"/>
       <c r="D400" s="11"/>
       <c r="E400" s="11"/>
@@ -14006,7 +14067,7 @@
     </row>
     <row r="401" ht="15.75" customHeight="1">
       <c r="A401" s="11"/>
-      <c r="B401" s="31"/>
+      <c r="B401" s="30"/>
       <c r="C401" s="11"/>
       <c r="D401" s="11"/>
       <c r="E401" s="11"/>
@@ -14039,7 +14100,7 @@
     </row>
     <row r="402" ht="15.75" customHeight="1">
       <c r="A402" s="11"/>
-      <c r="B402" s="31"/>
+      <c r="B402" s="30"/>
       <c r="C402" s="11"/>
       <c r="D402" s="11"/>
       <c r="E402" s="11"/>
@@ -14072,7 +14133,7 @@
     </row>
     <row r="403" ht="15.75" customHeight="1">
       <c r="A403" s="11"/>
-      <c r="B403" s="31"/>
+      <c r="B403" s="30"/>
       <c r="C403" s="11"/>
       <c r="D403" s="11"/>
       <c r="E403" s="11"/>
@@ -14105,7 +14166,7 @@
     </row>
     <row r="404" ht="15.75" customHeight="1">
       <c r="A404" s="11"/>
-      <c r="B404" s="31"/>
+      <c r="B404" s="30"/>
       <c r="C404" s="11"/>
       <c r="D404" s="11"/>
       <c r="E404" s="11"/>
@@ -14138,7 +14199,7 @@
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="A405" s="11"/>
-      <c r="B405" s="31"/>
+      <c r="B405" s="30"/>
       <c r="C405" s="11"/>
       <c r="D405" s="11"/>
       <c r="E405" s="11"/>
@@ -14171,7 +14232,7 @@
     </row>
     <row r="406" ht="15.75" customHeight="1">
       <c r="A406" s="11"/>
-      <c r="B406" s="31"/>
+      <c r="B406" s="30"/>
       <c r="C406" s="11"/>
       <c r="D406" s="11"/>
       <c r="E406" s="11"/>
@@ -14204,7 +14265,7 @@
     </row>
     <row r="407" ht="15.75" customHeight="1">
       <c r="A407" s="11"/>
-      <c r="B407" s="31"/>
+      <c r="B407" s="30"/>
       <c r="C407" s="11"/>
       <c r="D407" s="11"/>
       <c r="E407" s="11"/>
@@ -14237,7 +14298,7 @@
     </row>
     <row r="408" ht="15.75" customHeight="1">
       <c r="A408" s="11"/>
-      <c r="B408" s="31"/>
+      <c r="B408" s="30"/>
       <c r="C408" s="11"/>
       <c r="D408" s="11"/>
       <c r="E408" s="11"/>
@@ -14270,7 +14331,7 @@
     </row>
     <row r="409" ht="15.75" customHeight="1">
       <c r="A409" s="11"/>
-      <c r="B409" s="31"/>
+      <c r="B409" s="30"/>
       <c r="C409" s="11"/>
       <c r="D409" s="11"/>
       <c r="E409" s="11"/>
@@ -14303,7 +14364,7 @@
     </row>
     <row r="410" ht="15.75" customHeight="1">
       <c r="A410" s="11"/>
-      <c r="B410" s="31"/>
+      <c r="B410" s="30"/>
       <c r="C410" s="11"/>
       <c r="D410" s="11"/>
       <c r="E410" s="11"/>
@@ -14336,7 +14397,7 @@
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="A411" s="11"/>
-      <c r="B411" s="31"/>
+      <c r="B411" s="30"/>
       <c r="C411" s="11"/>
       <c r="D411" s="11"/>
       <c r="E411" s="11"/>
@@ -14369,7 +14430,7 @@
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="A412" s="11"/>
-      <c r="B412" s="31"/>
+      <c r="B412" s="30"/>
       <c r="C412" s="11"/>
       <c r="D412" s="11"/>
       <c r="E412" s="11"/>
@@ -14402,7 +14463,7 @@
     </row>
     <row r="413" ht="15.75" customHeight="1">
       <c r="A413" s="11"/>
-      <c r="B413" s="31"/>
+      <c r="B413" s="30"/>
       <c r="C413" s="11"/>
       <c r="D413" s="11"/>
       <c r="E413" s="11"/>
@@ -14435,7 +14496,7 @@
     </row>
     <row r="414" ht="15.75" customHeight="1">
       <c r="A414" s="11"/>
-      <c r="B414" s="31"/>
+      <c r="B414" s="30"/>
       <c r="C414" s="11"/>
       <c r="D414" s="11"/>
       <c r="E414" s="11"/>
@@ -14468,7 +14529,7 @@
     </row>
     <row r="415" ht="15.75" customHeight="1">
       <c r="A415" s="11"/>
-      <c r="B415" s="31"/>
+      <c r="B415" s="30"/>
       <c r="C415" s="11"/>
       <c r="D415" s="11"/>
       <c r="E415" s="11"/>
@@ -14501,7 +14562,7 @@
     </row>
     <row r="416" ht="15.75" customHeight="1">
       <c r="A416" s="11"/>
-      <c r="B416" s="31"/>
+      <c r="B416" s="30"/>
       <c r="C416" s="11"/>
       <c r="D416" s="11"/>
       <c r="E416" s="11"/>
@@ -14534,7 +14595,7 @@
     </row>
     <row r="417" ht="15.75" customHeight="1">
       <c r="A417" s="11"/>
-      <c r="B417" s="31"/>
+      <c r="B417" s="30"/>
       <c r="C417" s="11"/>
       <c r="D417" s="11"/>
       <c r="E417" s="11"/>
@@ -14567,7 +14628,7 @@
     </row>
     <row r="418" ht="15.75" customHeight="1">
       <c r="A418" s="11"/>
-      <c r="B418" s="31"/>
+      <c r="B418" s="30"/>
       <c r="C418" s="11"/>
       <c r="D418" s="11"/>
       <c r="E418" s="11"/>
@@ -14600,7 +14661,7 @@
     </row>
     <row r="419" ht="15.75" customHeight="1">
       <c r="A419" s="11"/>
-      <c r="B419" s="31"/>
+      <c r="B419" s="30"/>
       <c r="C419" s="11"/>
       <c r="D419" s="11"/>
       <c r="E419" s="11"/>
@@ -14633,7 +14694,7 @@
     </row>
     <row r="420" ht="15.75" customHeight="1">
       <c r="A420" s="11"/>
-      <c r="B420" s="31"/>
+      <c r="B420" s="30"/>
       <c r="C420" s="11"/>
       <c r="D420" s="11"/>
       <c r="E420" s="11"/>
@@ -14666,7 +14727,7 @@
     </row>
     <row r="421" ht="15.75" customHeight="1">
       <c r="A421" s="11"/>
-      <c r="B421" s="31"/>
+      <c r="B421" s="30"/>
       <c r="C421" s="11"/>
       <c r="D421" s="11"/>
       <c r="E421" s="11"/>
@@ -14699,7 +14760,7 @@
     </row>
     <row r="422" ht="15.75" customHeight="1">
       <c r="A422" s="11"/>
-      <c r="B422" s="31"/>
+      <c r="B422" s="30"/>
       <c r="C422" s="11"/>
       <c r="D422" s="11"/>
       <c r="E422" s="11"/>
@@ -14732,7 +14793,7 @@
     </row>
     <row r="423" ht="15.75" customHeight="1">
       <c r="A423" s="11"/>
-      <c r="B423" s="31"/>
+      <c r="B423" s="30"/>
       <c r="C423" s="11"/>
       <c r="D423" s="11"/>
       <c r="E423" s="11"/>
@@ -14765,7 +14826,7 @@
     </row>
     <row r="424" ht="15.75" customHeight="1">
       <c r="A424" s="11"/>
-      <c r="B424" s="31"/>
+      <c r="B424" s="30"/>
       <c r="C424" s="11"/>
       <c r="D424" s="11"/>
       <c r="E424" s="11"/>
@@ -14798,7 +14859,7 @@
     </row>
     <row r="425" ht="15.75" customHeight="1">
       <c r="A425" s="11"/>
-      <c r="B425" s="31"/>
+      <c r="B425" s="30"/>
       <c r="C425" s="11"/>
       <c r="D425" s="11"/>
       <c r="E425" s="11"/>
@@ -14831,7 +14892,7 @@
     </row>
     <row r="426" ht="15.75" customHeight="1">
       <c r="A426" s="11"/>
-      <c r="B426" s="31"/>
+      <c r="B426" s="30"/>
       <c r="C426" s="11"/>
       <c r="D426" s="11"/>
       <c r="E426" s="11"/>
@@ -14864,7 +14925,7 @@
     </row>
     <row r="427" ht="15.75" customHeight="1">
       <c r="A427" s="11"/>
-      <c r="B427" s="31"/>
+      <c r="B427" s="30"/>
       <c r="C427" s="11"/>
       <c r="D427" s="11"/>
       <c r="E427" s="11"/>
@@ -14897,7 +14958,7 @@
     </row>
     <row r="428" ht="15.75" customHeight="1">
       <c r="A428" s="11"/>
-      <c r="B428" s="31"/>
+      <c r="B428" s="30"/>
       <c r="C428" s="11"/>
       <c r="D428" s="11"/>
       <c r="E428" s="11"/>
@@ -14930,7 +14991,7 @@
     </row>
     <row r="429" ht="15.75" customHeight="1">
       <c r="A429" s="11"/>
-      <c r="B429" s="31"/>
+      <c r="B429" s="30"/>
       <c r="C429" s="11"/>
       <c r="D429" s="11"/>
       <c r="E429" s="11"/>
@@ -14963,7 +15024,7 @@
     </row>
     <row r="430" ht="15.75" customHeight="1">
       <c r="A430" s="11"/>
-      <c r="B430" s="31"/>
+      <c r="B430" s="30"/>
       <c r="C430" s="11"/>
       <c r="D430" s="11"/>
       <c r="E430" s="11"/>
@@ -14996,7 +15057,7 @@
     </row>
     <row r="431" ht="15.75" customHeight="1">
       <c r="A431" s="11"/>
-      <c r="B431" s="31"/>
+      <c r="B431" s="30"/>
       <c r="C431" s="11"/>
       <c r="D431" s="11"/>
       <c r="E431" s="11"/>
@@ -15029,7 +15090,7 @@
     </row>
     <row r="432" ht="15.75" customHeight="1">
       <c r="A432" s="11"/>
-      <c r="B432" s="31"/>
+      <c r="B432" s="30"/>
       <c r="C432" s="11"/>
       <c r="D432" s="11"/>
       <c r="E432" s="11"/>
@@ -15062,7 +15123,7 @@
     </row>
     <row r="433" ht="15.75" customHeight="1">
       <c r="A433" s="11"/>
-      <c r="B433" s="31"/>
+      <c r="B433" s="30"/>
       <c r="C433" s="11"/>
       <c r="D433" s="11"/>
       <c r="E433" s="11"/>
@@ -15095,7 +15156,7 @@
     </row>
     <row r="434" ht="15.75" customHeight="1">
       <c r="A434" s="11"/>
-      <c r="B434" s="31"/>
+      <c r="B434" s="30"/>
       <c r="C434" s="11"/>
       <c r="D434" s="11"/>
       <c r="E434" s="11"/>
@@ -15128,7 +15189,7 @@
     </row>
     <row r="435" ht="15.75" customHeight="1">
       <c r="A435" s="11"/>
-      <c r="B435" s="31"/>
+      <c r="B435" s="30"/>
       <c r="C435" s="11"/>
       <c r="D435" s="11"/>
       <c r="E435" s="11"/>
@@ -15161,7 +15222,7 @@
     </row>
     <row r="436" ht="15.75" customHeight="1">
       <c r="A436" s="11"/>
-      <c r="B436" s="31"/>
+      <c r="B436" s="30"/>
       <c r="C436" s="11"/>
       <c r="D436" s="11"/>
       <c r="E436" s="11"/>
@@ -15194,7 +15255,7 @@
     </row>
     <row r="437" ht="15.75" customHeight="1">
       <c r="A437" s="11"/>
-      <c r="B437" s="31"/>
+      <c r="B437" s="30"/>
       <c r="C437" s="11"/>
       <c r="D437" s="11"/>
       <c r="E437" s="11"/>
@@ -15227,7 +15288,7 @@
     </row>
     <row r="438" ht="15.75" customHeight="1">
       <c r="A438" s="11"/>
-      <c r="B438" s="31"/>
+      <c r="B438" s="30"/>
       <c r="C438" s="11"/>
       <c r="D438" s="11"/>
       <c r="E438" s="11"/>
@@ -15260,7 +15321,7 @@
     </row>
     <row r="439" ht="15.75" customHeight="1">
       <c r="A439" s="11"/>
-      <c r="B439" s="31"/>
+      <c r="B439" s="30"/>
       <c r="C439" s="11"/>
       <c r="D439" s="11"/>
       <c r="E439" s="11"/>
@@ -15293,7 +15354,7 @@
     </row>
     <row r="440" ht="15.75" customHeight="1">
       <c r="A440" s="11"/>
-      <c r="B440" s="31"/>
+      <c r="B440" s="30"/>
       <c r="C440" s="11"/>
       <c r="D440" s="11"/>
       <c r="E440" s="11"/>
@@ -15326,7 +15387,7 @@
     </row>
     <row r="441" ht="15.75" customHeight="1">
       <c r="A441" s="11"/>
-      <c r="B441" s="31"/>
+      <c r="B441" s="30"/>
       <c r="C441" s="11"/>
       <c r="D441" s="11"/>
       <c r="E441" s="11"/>
@@ -15359,7 +15420,7 @@
     </row>
     <row r="442" ht="15.75" customHeight="1">
       <c r="A442" s="11"/>
-      <c r="B442" s="31"/>
+      <c r="B442" s="30"/>
       <c r="C442" s="11"/>
       <c r="D442" s="11"/>
       <c r="E442" s="11"/>
@@ -15392,7 +15453,7 @@
     </row>
     <row r="443" ht="15.75" customHeight="1">
       <c r="A443" s="11"/>
-      <c r="B443" s="31"/>
+      <c r="B443" s="30"/>
       <c r="C443" s="11"/>
       <c r="D443" s="11"/>
       <c r="E443" s="11"/>
@@ -15425,7 +15486,7 @@
     </row>
     <row r="444" ht="15.75" customHeight="1">
       <c r="A444" s="11"/>
-      <c r="B444" s="31"/>
+      <c r="B444" s="30"/>
       <c r="C444" s="11"/>
       <c r="D444" s="11"/>
       <c r="E444" s="11"/>
@@ -15458,7 +15519,7 @@
     </row>
     <row r="445" ht="15.75" customHeight="1">
       <c r="A445" s="11"/>
-      <c r="B445" s="31"/>
+      <c r="B445" s="30"/>
       <c r="C445" s="11"/>
       <c r="D445" s="11"/>
       <c r="E445" s="11"/>
@@ -15491,7 +15552,7 @@
     </row>
     <row r="446" ht="15.75" customHeight="1">
       <c r="A446" s="11"/>
-      <c r="B446" s="31"/>
+      <c r="B446" s="30"/>
       <c r="C446" s="11"/>
       <c r="D446" s="11"/>
       <c r="E446" s="11"/>
@@ -15524,7 +15585,7 @@
     </row>
     <row r="447" ht="15.75" customHeight="1">
       <c r="A447" s="11"/>
-      <c r="B447" s="31"/>
+      <c r="B447" s="30"/>
       <c r="C447" s="11"/>
       <c r="D447" s="11"/>
       <c r="E447" s="11"/>
@@ -15557,7 +15618,7 @@
     </row>
     <row r="448" ht="15.75" customHeight="1">
       <c r="A448" s="11"/>
-      <c r="B448" s="31"/>
+      <c r="B448" s="30"/>
       <c r="C448" s="11"/>
       <c r="D448" s="11"/>
       <c r="E448" s="11"/>
@@ -15590,7 +15651,7 @@
     </row>
     <row r="449" ht="15.75" customHeight="1">
       <c r="A449" s="11"/>
-      <c r="B449" s="31"/>
+      <c r="B449" s="30"/>
       <c r="C449" s="11"/>
       <c r="D449" s="11"/>
       <c r="E449" s="11"/>
@@ -15623,7 +15684,7 @@
     </row>
     <row r="450" ht="15.75" customHeight="1">
       <c r="A450" s="11"/>
-      <c r="B450" s="31"/>
+      <c r="B450" s="30"/>
       <c r="C450" s="11"/>
       <c r="D450" s="11"/>
       <c r="E450" s="11"/>
@@ -15656,7 +15717,7 @@
     </row>
     <row r="451" ht="15.75" customHeight="1">
       <c r="A451" s="11"/>
-      <c r="B451" s="31"/>
+      <c r="B451" s="30"/>
       <c r="C451" s="11"/>
       <c r="D451" s="11"/>
       <c r="E451" s="11"/>
@@ -15689,7 +15750,7 @@
     </row>
     <row r="452" ht="15.75" customHeight="1">
       <c r="A452" s="11"/>
-      <c r="B452" s="31"/>
+      <c r="B452" s="30"/>
       <c r="C452" s="11"/>
       <c r="D452" s="11"/>
       <c r="E452" s="11"/>
@@ -15722,7 +15783,7 @@
     </row>
     <row r="453" ht="15.75" customHeight="1">
       <c r="A453" s="11"/>
-      <c r="B453" s="31"/>
+      <c r="B453" s="30"/>
       <c r="C453" s="11"/>
       <c r="D453" s="11"/>
       <c r="E453" s="11"/>
@@ -15755,7 +15816,7 @@
     </row>
     <row r="454" ht="15.75" customHeight="1">
       <c r="A454" s="11"/>
-      <c r="B454" s="31"/>
+      <c r="B454" s="30"/>
       <c r="C454" s="11"/>
       <c r="D454" s="11"/>
       <c r="E454" s="11"/>
@@ -15788,7 +15849,7 @@
     </row>
     <row r="455" ht="15.75" customHeight="1">
       <c r="A455" s="11"/>
-      <c r="B455" s="31"/>
+      <c r="B455" s="30"/>
       <c r="C455" s="11"/>
       <c r="D455" s="11"/>
       <c r="E455" s="11"/>
@@ -15821,7 +15882,7 @@
     </row>
     <row r="456" ht="15.75" customHeight="1">
       <c r="A456" s="11"/>
-      <c r="B456" s="31"/>
+      <c r="B456" s="30"/>
       <c r="C456" s="11"/>
       <c r="D456" s="11"/>
       <c r="E456" s="11"/>
@@ -15854,7 +15915,7 @@
     </row>
     <row r="457" ht="15.75" customHeight="1">
       <c r="A457" s="11"/>
-      <c r="B457" s="31"/>
+      <c r="B457" s="30"/>
       <c r="C457" s="11"/>
       <c r="D457" s="11"/>
       <c r="E457" s="11"/>
@@ -15887,7 +15948,7 @@
     </row>
     <row r="458" ht="15.75" customHeight="1">
       <c r="A458" s="11"/>
-      <c r="B458" s="31"/>
+      <c r="B458" s="30"/>
       <c r="C458" s="11"/>
       <c r="D458" s="11"/>
       <c r="E458" s="11"/>
@@ -15920,7 +15981,7 @@
     </row>
     <row r="459" ht="15.75" customHeight="1">
       <c r="A459" s="11"/>
-      <c r="B459" s="31"/>
+      <c r="B459" s="30"/>
       <c r="C459" s="11"/>
       <c r="D459" s="11"/>
       <c r="E459" s="11"/>
@@ -15953,7 +16014,7 @@
     </row>
     <row r="460" ht="15.75" customHeight="1">
       <c r="A460" s="11"/>
-      <c r="B460" s="31"/>
+      <c r="B460" s="30"/>
       <c r="C460" s="11"/>
       <c r="D460" s="11"/>
       <c r="E460" s="11"/>
@@ -15986,7 +16047,7 @@
     </row>
     <row r="461" ht="15.75" customHeight="1">
       <c r="A461" s="11"/>
-      <c r="B461" s="31"/>
+      <c r="B461" s="30"/>
       <c r="C461" s="11"/>
       <c r="D461" s="11"/>
       <c r="E461" s="11"/>
@@ -16019,7 +16080,7 @@
     </row>
     <row r="462" ht="15.75" customHeight="1">
       <c r="A462" s="11"/>
-      <c r="B462" s="31"/>
+      <c r="B462" s="30"/>
       <c r="C462" s="11"/>
       <c r="D462" s="11"/>
       <c r="E462" s="11"/>
@@ -16052,7 +16113,7 @@
     </row>
     <row r="463" ht="15.75" customHeight="1">
       <c r="A463" s="11"/>
-      <c r="B463" s="31"/>
+      <c r="B463" s="30"/>
       <c r="C463" s="11"/>
       <c r="D463" s="11"/>
       <c r="E463" s="11"/>
@@ -16085,7 +16146,7 @@
     </row>
     <row r="464" ht="15.75" customHeight="1">
       <c r="A464" s="11"/>
-      <c r="B464" s="31"/>
+      <c r="B464" s="30"/>
       <c r="C464" s="11"/>
       <c r="D464" s="11"/>
       <c r="E464" s="11"/>
@@ -16118,7 +16179,7 @@
     </row>
     <row r="465" ht="15.75" customHeight="1">
       <c r="A465" s="11"/>
-      <c r="B465" s="31"/>
+      <c r="B465" s="30"/>
       <c r="C465" s="11"/>
       <c r="D465" s="11"/>
       <c r="E465" s="11"/>
@@ -16151,7 +16212,7 @@
     </row>
     <row r="466" ht="15.75" customHeight="1">
       <c r="A466" s="11"/>
-      <c r="B466" s="31"/>
+      <c r="B466" s="30"/>
       <c r="C466" s="11"/>
       <c r="D466" s="11"/>
       <c r="E466" s="11"/>
@@ -16184,7 +16245,7 @@
     </row>
     <row r="467" ht="15.75" customHeight="1">
       <c r="A467" s="11"/>
-      <c r="B467" s="31"/>
+      <c r="B467" s="30"/>
       <c r="C467" s="11"/>
       <c r="D467" s="11"/>
       <c r="E467" s="11"/>
@@ -16217,7 +16278,7 @@
     </row>
     <row r="468" ht="15.75" customHeight="1">
       <c r="A468" s="11"/>
-      <c r="B468" s="31"/>
+      <c r="B468" s="30"/>
       <c r="C468" s="11"/>
       <c r="D468" s="11"/>
       <c r="E468" s="11"/>
@@ -16250,7 +16311,7 @@
     </row>
     <row r="469" ht="15.75" customHeight="1">
       <c r="A469" s="11"/>
-      <c r="B469" s="31"/>
+      <c r="B469" s="30"/>
       <c r="C469" s="11"/>
       <c r="D469" s="11"/>
       <c r="E469" s="11"/>
@@ -16283,7 +16344,7 @@
     </row>
     <row r="470" ht="15.75" customHeight="1">
       <c r="A470" s="11"/>
-      <c r="B470" s="31"/>
+      <c r="B470" s="30"/>
       <c r="C470" s="11"/>
       <c r="D470" s="11"/>
       <c r="E470" s="11"/>
@@ -16316,7 +16377,7 @@
     </row>
     <row r="471" ht="15.75" customHeight="1">
       <c r="A471" s="11"/>
-      <c r="B471" s="31"/>
+      <c r="B471" s="30"/>
       <c r="C471" s="11"/>
       <c r="D471" s="11"/>
       <c r="E471" s="11"/>
@@ -16349,7 +16410,7 @@
     </row>
     <row r="472" ht="15.75" customHeight="1">
       <c r="A472" s="11"/>
-      <c r="B472" s="31"/>
+      <c r="B472" s="30"/>
       <c r="C472" s="11"/>
       <c r="D472" s="11"/>
       <c r="E472" s="11"/>
@@ -16382,7 +16443,7 @@
     </row>
     <row r="473" ht="15.75" customHeight="1">
       <c r="A473" s="11"/>
-      <c r="B473" s="31"/>
+      <c r="B473" s="30"/>
       <c r="C473" s="11"/>
       <c r="D473" s="11"/>
       <c r="E473" s="11"/>
@@ -16415,7 +16476,7 @@
     </row>
     <row r="474" ht="15.75" customHeight="1">
       <c r="A474" s="11"/>
-      <c r="B474" s="31"/>
+      <c r="B474" s="30"/>
       <c r="C474" s="11"/>
       <c r="D474" s="11"/>
       <c r="E474" s="11"/>
@@ -16448,7 +16509,7 @@
     </row>
     <row r="475" ht="15.75" customHeight="1">
       <c r="A475" s="11"/>
-      <c r="B475" s="31"/>
+      <c r="B475" s="30"/>
       <c r="C475" s="11"/>
       <c r="D475" s="11"/>
       <c r="E475" s="11"/>
@@ -16481,7 +16542,7 @@
     </row>
     <row r="476" ht="15.75" customHeight="1">
       <c r="A476" s="11"/>
-      <c r="B476" s="31"/>
+      <c r="B476" s="30"/>
       <c r="C476" s="11"/>
       <c r="D476" s="11"/>
       <c r="E476" s="11"/>
@@ -16514,7 +16575,7 @@
     </row>
     <row r="477" ht="15.75" customHeight="1">
       <c r="A477" s="11"/>
-      <c r="B477" s="31"/>
+      <c r="B477" s="30"/>
       <c r="C477" s="11"/>
       <c r="D477" s="11"/>
       <c r="E477" s="11"/>
@@ -16547,7 +16608,7 @@
     </row>
     <row r="478" ht="15.75" customHeight="1">
       <c r="A478" s="11"/>
-      <c r="B478" s="31"/>
+      <c r="B478" s="30"/>
       <c r="C478" s="11"/>
       <c r="D478" s="11"/>
       <c r="E478" s="11"/>
@@ -16580,7 +16641,7 @@
     </row>
     <row r="479" ht="15.75" customHeight="1">
       <c r="A479" s="11"/>
-      <c r="B479" s="31"/>
+      <c r="B479" s="30"/>
       <c r="C479" s="11"/>
       <c r="D479" s="11"/>
       <c r="E479" s="11"/>
@@ -16613,7 +16674,7 @@
     </row>
     <row r="480" ht="15.75" customHeight="1">
       <c r="A480" s="11"/>
-      <c r="B480" s="31"/>
+      <c r="B480" s="30"/>
       <c r="C480" s="11"/>
       <c r="D480" s="11"/>
       <c r="E480" s="11"/>
@@ -16646,7 +16707,7 @@
     </row>
     <row r="481" ht="15.75" customHeight="1">
       <c r="A481" s="11"/>
-      <c r="B481" s="31"/>
+      <c r="B481" s="30"/>
       <c r="C481" s="11"/>
       <c r="D481" s="11"/>
       <c r="E481" s="11"/>
@@ -16679,7 +16740,7 @@
     </row>
     <row r="482" ht="15.75" customHeight="1">
       <c r="A482" s="11"/>
-      <c r="B482" s="31"/>
+      <c r="B482" s="30"/>
       <c r="C482" s="11"/>
       <c r="D482" s="11"/>
       <c r="E482" s="11"/>
@@ -16712,7 +16773,7 @@
     </row>
     <row r="483" ht="15.75" customHeight="1">
       <c r="A483" s="11"/>
-      <c r="B483" s="31"/>
+      <c r="B483" s="30"/>
       <c r="C483" s="11"/>
       <c r="D483" s="11"/>
       <c r="E483" s="11"/>
@@ -16745,7 +16806,7 @@
     </row>
     <row r="484" ht="15.75" customHeight="1">
       <c r="A484" s="11"/>
-      <c r="B484" s="31"/>
+      <c r="B484" s="30"/>
       <c r="C484" s="11"/>
       <c r="D484" s="11"/>
       <c r="E484" s="11"/>
@@ -16778,7 +16839,7 @@
     </row>
     <row r="485" ht="15.75" customHeight="1">
       <c r="A485" s="11"/>
-      <c r="B485" s="31"/>
+      <c r="B485" s="30"/>
       <c r="C485" s="11"/>
       <c r="D485" s="11"/>
       <c r="E485" s="11"/>
@@ -16811,7 +16872,7 @@
     </row>
     <row r="486" ht="15.75" customHeight="1">
       <c r="A486" s="11"/>
-      <c r="B486" s="31"/>
+      <c r="B486" s="30"/>
       <c r="C486" s="11"/>
       <c r="D486" s="11"/>
       <c r="E486" s="11"/>
@@ -16844,7 +16905,7 @@
     </row>
     <row r="487" ht="15.75" customHeight="1">
       <c r="A487" s="11"/>
-      <c r="B487" s="31"/>
+      <c r="B487" s="30"/>
       <c r="C487" s="11"/>
       <c r="D487" s="11"/>
       <c r="E487" s="11"/>
@@ -16877,7 +16938,7 @@
     </row>
     <row r="488" ht="15.75" customHeight="1">
       <c r="A488" s="11"/>
-      <c r="B488" s="31"/>
+      <c r="B488" s="30"/>
       <c r="C488" s="11"/>
       <c r="D488" s="11"/>
       <c r="E488" s="11"/>
@@ -16910,7 +16971,7 @@
     </row>
     <row r="489" ht="15.75" customHeight="1">
       <c r="A489" s="11"/>
-      <c r="B489" s="31"/>
+      <c r="B489" s="30"/>
       <c r="C489" s="11"/>
       <c r="D489" s="11"/>
       <c r="E489" s="11"/>
@@ -16943,7 +17004,7 @@
     </row>
     <row r="490" ht="15.75" customHeight="1">
       <c r="A490" s="11"/>
-      <c r="B490" s="31"/>
+      <c r="B490" s="30"/>
       <c r="C490" s="11"/>
       <c r="D490" s="11"/>
       <c r="E490" s="11"/>
@@ -16976,7 +17037,7 @@
     </row>
     <row r="491" ht="15.75" customHeight="1">
       <c r="A491" s="11"/>
-      <c r="B491" s="31"/>
+      <c r="B491" s="30"/>
       <c r="C491" s="11"/>
       <c r="D491" s="11"/>
       <c r="E491" s="11"/>
@@ -17009,7 +17070,7 @@
     </row>
     <row r="492" ht="15.75" customHeight="1">
       <c r="A492" s="11"/>
-      <c r="B492" s="31"/>
+      <c r="B492" s="30"/>
       <c r="C492" s="11"/>
       <c r="D492" s="11"/>
       <c r="E492" s="11"/>
@@ -17042,7 +17103,7 @@
     </row>
     <row r="493" ht="15.75" customHeight="1">
       <c r="A493" s="11"/>
-      <c r="B493" s="31"/>
+      <c r="B493" s="30"/>
       <c r="C493" s="11"/>
       <c r="D493" s="11"/>
       <c r="E493" s="11"/>
@@ -17075,7 +17136,7 @@
     </row>
     <row r="494" ht="15.75" customHeight="1">
       <c r="A494" s="11"/>
-      <c r="B494" s="31"/>
+      <c r="B494" s="30"/>
       <c r="C494" s="11"/>
       <c r="D494" s="11"/>
       <c r="E494" s="11"/>
@@ -17108,7 +17169,7 @@
     </row>
     <row r="495" ht="15.75" customHeight="1">
       <c r="A495" s="11"/>
-      <c r="B495" s="31"/>
+      <c r="B495" s="30"/>
       <c r="C495" s="11"/>
       <c r="D495" s="11"/>
       <c r="E495" s="11"/>
@@ -17141,7 +17202,7 @@
     </row>
     <row r="496" ht="15.75" customHeight="1">
       <c r="A496" s="11"/>
-      <c r="B496" s="31"/>
+      <c r="B496" s="30"/>
       <c r="C496" s="11"/>
       <c r="D496" s="11"/>
       <c r="E496" s="11"/>
@@ -17174,7 +17235,7 @@
     </row>
     <row r="497" ht="15.75" customHeight="1">
       <c r="A497" s="11"/>
-      <c r="B497" s="31"/>
+      <c r="B497" s="30"/>
       <c r="C497" s="11"/>
       <c r="D497" s="11"/>
       <c r="E497" s="11"/>
@@ -17207,7 +17268,7 @@
     </row>
     <row r="498" ht="15.75" customHeight="1">
       <c r="A498" s="11"/>
-      <c r="B498" s="31"/>
+      <c r="B498" s="30"/>
       <c r="C498" s="11"/>
       <c r="D498" s="11"/>
       <c r="E498" s="11"/>
@@ -17240,7 +17301,7 @@
     </row>
     <row r="499" ht="15.75" customHeight="1">
       <c r="A499" s="11"/>
-      <c r="B499" s="31"/>
+      <c r="B499" s="30"/>
       <c r="C499" s="11"/>
       <c r="D499" s="11"/>
       <c r="E499" s="11"/>
@@ -17273,7 +17334,7 @@
     </row>
     <row r="500" ht="15.75" customHeight="1">
       <c r="A500" s="11"/>
-      <c r="B500" s="31"/>
+      <c r="B500" s="30"/>
       <c r="C500" s="11"/>
       <c r="D500" s="11"/>
       <c r="E500" s="11"/>
@@ -17306,7 +17367,7 @@
     </row>
     <row r="501" ht="15.75" customHeight="1">
       <c r="A501" s="11"/>
-      <c r="B501" s="31"/>
+      <c r="B501" s="30"/>
       <c r="C501" s="11"/>
       <c r="D501" s="11"/>
       <c r="E501" s="11"/>
@@ -17339,7 +17400,7 @@
     </row>
     <row r="502" ht="15.75" customHeight="1">
       <c r="A502" s="11"/>
-      <c r="B502" s="31"/>
+      <c r="B502" s="30"/>
       <c r="C502" s="11"/>
       <c r="D502" s="11"/>
       <c r="E502" s="11"/>
@@ -17372,7 +17433,7 @@
     </row>
     <row r="503" ht="15.75" customHeight="1">
       <c r="A503" s="11"/>
-      <c r="B503" s="31"/>
+      <c r="B503" s="30"/>
       <c r="C503" s="11"/>
       <c r="D503" s="11"/>
       <c r="E503" s="11"/>
@@ -17405,7 +17466,7 @@
     </row>
     <row r="504" ht="15.75" customHeight="1">
       <c r="A504" s="11"/>
-      <c r="B504" s="31"/>
+      <c r="B504" s="30"/>
       <c r="C504" s="11"/>
       <c r="D504" s="11"/>
       <c r="E504" s="11"/>
@@ -17438,7 +17499,7 @@
     </row>
     <row r="505" ht="15.75" customHeight="1">
       <c r="A505" s="11"/>
-      <c r="B505" s="31"/>
+      <c r="B505" s="30"/>
       <c r="C505" s="11"/>
       <c r="D505" s="11"/>
       <c r="E505" s="11"/>
@@ -17471,7 +17532,7 @@
     </row>
     <row r="506" ht="15.75" customHeight="1">
       <c r="A506" s="11"/>
-      <c r="B506" s="31"/>
+      <c r="B506" s="30"/>
       <c r="C506" s="11"/>
       <c r="D506" s="11"/>
       <c r="E506" s="11"/>
@@ -17504,7 +17565,7 @@
     </row>
     <row r="507" ht="15.75" customHeight="1">
       <c r="A507" s="11"/>
-      <c r="B507" s="31"/>
+      <c r="B507" s="30"/>
       <c r="C507" s="11"/>
       <c r="D507" s="11"/>
       <c r="E507" s="11"/>
@@ -17537,7 +17598,7 @@
     </row>
     <row r="508" ht="15.75" customHeight="1">
       <c r="A508" s="11"/>
-      <c r="B508" s="31"/>
+      <c r="B508" s="30"/>
       <c r="C508" s="11"/>
       <c r="D508" s="11"/>
       <c r="E508" s="11"/>
@@ -17570,7 +17631,7 @@
     </row>
     <row r="509" ht="15.75" customHeight="1">
       <c r="A509" s="11"/>
-      <c r="B509" s="31"/>
+      <c r="B509" s="30"/>
       <c r="C509" s="11"/>
       <c r="D509" s="11"/>
       <c r="E509" s="11"/>
@@ -17603,7 +17664,7 @@
     </row>
     <row r="510" ht="15.75" customHeight="1">
       <c r="A510" s="11"/>
-      <c r="B510" s="31"/>
+      <c r="B510" s="30"/>
       <c r="C510" s="11"/>
       <c r="D510" s="11"/>
       <c r="E510" s="11"/>
@@ -17636,7 +17697,7 @@
     </row>
     <row r="511" ht="15.75" customHeight="1">
       <c r="A511" s="11"/>
-      <c r="B511" s="31"/>
+      <c r="B511" s="30"/>
       <c r="C511" s="11"/>
       <c r="D511" s="11"/>
       <c r="E511" s="11"/>
@@ -17669,7 +17730,7 @@
     </row>
     <row r="512" ht="15.75" customHeight="1">
       <c r="A512" s="11"/>
-      <c r="B512" s="31"/>
+      <c r="B512" s="30"/>
       <c r="C512" s="11"/>
       <c r="D512" s="11"/>
       <c r="E512" s="11"/>
@@ -17702,7 +17763,7 @@
     </row>
     <row r="513" ht="15.75" customHeight="1">
       <c r="A513" s="11"/>
-      <c r="B513" s="31"/>
+      <c r="B513" s="30"/>
       <c r="C513" s="11"/>
       <c r="D513" s="11"/>
       <c r="E513" s="11"/>
@@ -17735,7 +17796,7 @@
     </row>
     <row r="514" ht="15.75" customHeight="1">
       <c r="A514" s="11"/>
-      <c r="B514" s="31"/>
+      <c r="B514" s="30"/>
       <c r="C514" s="11"/>
       <c r="D514" s="11"/>
       <c r="E514" s="11"/>
@@ -17768,7 +17829,7 @@
     </row>
     <row r="515" ht="15.75" customHeight="1">
       <c r="A515" s="11"/>
-      <c r="B515" s="31"/>
+      <c r="B515" s="30"/>
       <c r="C515" s="11"/>
       <c r="D515" s="11"/>
       <c r="E515" s="11"/>
@@ -17801,7 +17862,7 @@
     </row>
     <row r="516" ht="15.75" customHeight="1">
       <c r="A516" s="11"/>
-      <c r="B516" s="31"/>
+      <c r="B516" s="30"/>
       <c r="C516" s="11"/>
       <c r="D516" s="11"/>
       <c r="E516" s="11"/>
@@ -17834,7 +17895,7 @@
     </row>
     <row r="517" ht="15.75" customHeight="1">
       <c r="A517" s="11"/>
-      <c r="B517" s="31"/>
+      <c r="B517" s="30"/>
       <c r="C517" s="11"/>
       <c r="D517" s="11"/>
       <c r="E517" s="11"/>
@@ -17867,7 +17928,7 @@
     </row>
     <row r="518" ht="15.75" customHeight="1">
       <c r="A518" s="11"/>
-      <c r="B518" s="31"/>
+      <c r="B518" s="30"/>
       <c r="C518" s="11"/>
       <c r="D518" s="11"/>
       <c r="E518" s="11"/>
@@ -17900,7 +17961,7 @@
     </row>
     <row r="519" ht="15.75" customHeight="1">
       <c r="A519" s="11"/>
-      <c r="B519" s="31"/>
+      <c r="B519" s="30"/>
       <c r="C519" s="11"/>
       <c r="D519" s="11"/>
       <c r="E519" s="11"/>
@@ -17933,7 +17994,7 @@
     </row>
     <row r="520" ht="15.75" customHeight="1">
       <c r="A520" s="11"/>
-      <c r="B520" s="31"/>
+      <c r="B520" s="30"/>
       <c r="C520" s="11"/>
       <c r="D520" s="11"/>
       <c r="E520" s="11"/>
@@ -17966,7 +18027,7 @@
     </row>
     <row r="521" ht="15.75" customHeight="1">
       <c r="A521" s="11"/>
-      <c r="B521" s="31"/>
+      <c r="B521" s="30"/>
       <c r="C521" s="11"/>
       <c r="D521" s="11"/>
       <c r="E521" s="11"/>
@@ -17999,7 +18060,7 @@
     </row>
     <row r="522" ht="15.75" customHeight="1">
       <c r="A522" s="11"/>
-      <c r="B522" s="31"/>
+      <c r="B522" s="30"/>
       <c r="C522" s="11"/>
       <c r="D522" s="11"/>
       <c r="E522" s="11"/>
@@ -18032,7 +18093,7 @@
     </row>
     <row r="523" ht="15.75" customHeight="1">
       <c r="A523" s="11"/>
-      <c r="B523" s="31"/>
+      <c r="B523" s="30"/>
       <c r="C523" s="11"/>
       <c r="D523" s="11"/>
       <c r="E523" s="11"/>
@@ -18065,7 +18126,7 @@
     </row>
     <row r="524" ht="15.75" customHeight="1">
       <c r="A524" s="11"/>
-      <c r="B524" s="31"/>
+      <c r="B524" s="30"/>
       <c r="C524" s="11"/>
       <c r="D524" s="11"/>
       <c r="E524" s="11"/>
@@ -18098,7 +18159,7 @@
     </row>
     <row r="525" ht="15.75" customHeight="1">
       <c r="A525" s="11"/>
-      <c r="B525" s="31"/>
+      <c r="B525" s="30"/>
       <c r="C525" s="11"/>
       <c r="D525" s="11"/>
       <c r="E525" s="11"/>
@@ -18131,7 +18192,7 @@
     </row>
     <row r="526" ht="15.75" customHeight="1">
       <c r="A526" s="11"/>
-      <c r="B526" s="31"/>
+      <c r="B526" s="30"/>
       <c r="C526" s="11"/>
       <c r="D526" s="11"/>
       <c r="E526" s="11"/>
@@ -18164,7 +18225,7 @@
     </row>
     <row r="527" ht="15.75" customHeight="1">
       <c r="A527" s="11"/>
-      <c r="B527" s="31"/>
+      <c r="B527" s="30"/>
       <c r="C527" s="11"/>
       <c r="D527" s="11"/>
       <c r="E527" s="11"/>
@@ -18197,7 +18258,7 @@
     </row>
     <row r="528" ht="15.75" customHeight="1">
       <c r="A528" s="11"/>
-      <c r="B528" s="31"/>
+      <c r="B528" s="30"/>
       <c r="C528" s="11"/>
       <c r="D528" s="11"/>
       <c r="E528" s="11"/>
@@ -18230,7 +18291,7 @@
     </row>
     <row r="529" ht="15.75" customHeight="1">
       <c r="A529" s="11"/>
-      <c r="B529" s="31"/>
+      <c r="B529" s="30"/>
       <c r="C529" s="11"/>
       <c r="D529" s="11"/>
       <c r="E529" s="11"/>
@@ -18263,7 +18324,7 @@
     </row>
     <row r="530" ht="15.75" customHeight="1">
       <c r="A530" s="11"/>
-      <c r="B530" s="31"/>
+      <c r="B530" s="30"/>
       <c r="C530" s="11"/>
       <c r="D530" s="11"/>
       <c r="E530" s="11"/>
@@ -18296,7 +18357,7 @@
     </row>
     <row r="531" ht="15.75" customHeight="1">
       <c r="A531" s="11"/>
-      <c r="B531" s="31"/>
+      <c r="B531" s="30"/>
       <c r="C531" s="11"/>
       <c r="D531" s="11"/>
       <c r="E531" s="11"/>
@@ -18329,7 +18390,7 @@
     </row>
     <row r="532" ht="15.75" customHeight="1">
       <c r="A532" s="11"/>
-      <c r="B532" s="31"/>
+      <c r="B532" s="30"/>
       <c r="C532" s="11"/>
       <c r="D532" s="11"/>
       <c r="E532" s="11"/>
@@ -18362,7 +18423,7 @@
     </row>
     <row r="533" ht="15.75" customHeight="1">
       <c r="A533" s="11"/>
-      <c r="B533" s="31"/>
+      <c r="B533" s="30"/>
       <c r="C533" s="11"/>
       <c r="D533" s="11"/>
       <c r="E533" s="11"/>
@@ -18395,7 +18456,7 @@
     </row>
     <row r="534" ht="15.75" customHeight="1">
       <c r="A534" s="11"/>
-      <c r="B534" s="31"/>
+      <c r="B534" s="30"/>
       <c r="C534" s="11"/>
       <c r="D534" s="11"/>
       <c r="E534" s="11"/>
@@ -18428,7 +18489,7 @@
     </row>
     <row r="535" ht="15.75" customHeight="1">
       <c r="A535" s="11"/>
-      <c r="B535" s="31"/>
+      <c r="B535" s="30"/>
       <c r="C535" s="11"/>
       <c r="D535" s="11"/>
       <c r="E535" s="11"/>
@@ -18461,7 +18522,7 @@
     </row>
     <row r="536" ht="15.75" customHeight="1">
       <c r="A536" s="11"/>
-      <c r="B536" s="31"/>
+      <c r="B536" s="30"/>
       <c r="C536" s="11"/>
       <c r="D536" s="11"/>
       <c r="E536" s="11"/>
@@ -18494,7 +18555,7 @@
     </row>
     <row r="537" ht="15.75" customHeight="1">
       <c r="A537" s="11"/>
-      <c r="B537" s="31"/>
+      <c r="B537" s="30"/>
       <c r="C537" s="11"/>
       <c r="D537" s="11"/>
       <c r="E537" s="11"/>
@@ -18527,7 +18588,7 @@
     </row>
     <row r="538" ht="15.75" customHeight="1">
       <c r="A538" s="11"/>
-      <c r="B538" s="31"/>
+      <c r="B538" s="30"/>
       <c r="C538" s="11"/>
       <c r="D538" s="11"/>
       <c r="E538" s="11"/>
@@ -18560,7 +18621,7 @@
     </row>
     <row r="539" ht="15.75" customHeight="1">
       <c r="A539" s="11"/>
-      <c r="B539" s="31"/>
+      <c r="B539" s="30"/>
       <c r="C539" s="11"/>
       <c r="D539" s="11"/>
       <c r="E539" s="11"/>
@@ -18593,7 +18654,7 @@
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="A540" s="11"/>
-      <c r="B540" s="31"/>
+      <c r="B540" s="30"/>
       <c r="C540" s="11"/>
       <c r="D540" s="11"/>
       <c r="E540" s="11"/>
@@ -18626,7 +18687,7 @@
     </row>
     <row r="541" ht="15.75" customHeight="1">
       <c r="A541" s="11"/>
-      <c r="B541" s="31"/>
+      <c r="B541" s="30"/>
       <c r="C541" s="11"/>
       <c r="D541" s="11"/>
       <c r="E541" s="11"/>
@@ -18659,7 +18720,7 @@
     </row>
     <row r="542" ht="15.75" customHeight="1">
       <c r="A542" s="11"/>
-      <c r="B542" s="31"/>
+      <c r="B542" s="30"/>
       <c r="C542" s="11"/>
       <c r="D542" s="11"/>
       <c r="E542" s="11"/>
@@ -18692,7 +18753,7 @@
     </row>
     <row r="543" ht="15.75" customHeight="1">
       <c r="A543" s="11"/>
-      <c r="B543" s="31"/>
+      <c r="B543" s="30"/>
       <c r="C543" s="11"/>
       <c r="D543" s="11"/>
       <c r="E543" s="11"/>
@@ -18725,7 +18786,7 @@
     </row>
     <row r="544" ht="15.75" customHeight="1">
       <c r="A544" s="11"/>
-      <c r="B544" s="31"/>
+      <c r="B544" s="30"/>
       <c r="C544" s="11"/>
       <c r="D544" s="11"/>
       <c r="E544" s="11"/>
@@ -18758,7 +18819,7 @@
     </row>
     <row r="545" ht="15.75" customHeight="1">
       <c r="A545" s="11"/>
-      <c r="B545" s="31"/>
+      <c r="B545" s="30"/>
       <c r="C545" s="11"/>
       <c r="D545" s="11"/>
       <c r="E545" s="11"/>
@@ -18791,7 +18852,7 @@
     </row>
     <row r="546" ht="15.75" customHeight="1">
       <c r="A546" s="11"/>
-      <c r="B546" s="31"/>
+      <c r="B546" s="30"/>
       <c r="C546" s="11"/>
       <c r="D546" s="11"/>
       <c r="E546" s="11"/>
@@ -18824,7 +18885,7 @@
     </row>
     <row r="547" ht="15.75" customHeight="1">
       <c r="A547" s="11"/>
-      <c r="B547" s="31"/>
+      <c r="B547" s="30"/>
       <c r="C547" s="11"/>
       <c r="D547" s="11"/>
       <c r="E547" s="11"/>
@@ -18857,7 +18918,7 @@
     </row>
     <row r="548" ht="15.75" customHeight="1">
       <c r="A548" s="11"/>
-      <c r="B548" s="31"/>
+      <c r="B548" s="30"/>
       <c r="C548" s="11"/>
       <c r="D548" s="11"/>
       <c r="E548" s="11"/>
@@ -18890,7 +18951,7 @@
     </row>
     <row r="549" ht="15.75" customHeight="1">
       <c r="A549" s="11"/>
-      <c r="B549" s="31"/>
+      <c r="B549" s="30"/>
       <c r="C549" s="11"/>
       <c r="D549" s="11"/>
       <c r="E549" s="11"/>
@@ -18923,7 +18984,7 @@
     </row>
     <row r="550" ht="15.75" customHeight="1">
       <c r="A550" s="11"/>
-      <c r="B550" s="31"/>
+      <c r="B550" s="30"/>
       <c r="C550" s="11"/>
       <c r="D550" s="11"/>
       <c r="E550" s="11"/>
@@ -18956,7 +19017,7 @@
     </row>
     <row r="551" ht="15.75" customHeight="1">
       <c r="A551" s="11"/>
-      <c r="B551" s="31"/>
+      <c r="B551" s="30"/>
       <c r="C551" s="11"/>
       <c r="D551" s="11"/>
       <c r="E551" s="11"/>
@@ -18989,7 +19050,7 @@
     </row>
     <row r="552" ht="15.75" customHeight="1">
       <c r="A552" s="11"/>
-      <c r="B552" s="31"/>
+      <c r="B552" s="30"/>
       <c r="C552" s="11"/>
       <c r="D552" s="11"/>
       <c r="E552" s="11"/>
@@ -19022,7 +19083,7 @@
     </row>
     <row r="553" ht="15.75" customHeight="1">
       <c r="A553" s="11"/>
-      <c r="B553" s="31"/>
+      <c r="B553" s="30"/>
       <c r="C553" s="11"/>
       <c r="D553" s="11"/>
       <c r="E553" s="11"/>
@@ -19055,7 +19116,7 @@
     </row>
     <row r="554" ht="15.75" customHeight="1">
       <c r="A554" s="11"/>
-      <c r="B554" s="31"/>
+      <c r="B554" s="30"/>
       <c r="C554" s="11"/>
       <c r="D554" s="11"/>
       <c r="E554" s="11"/>
@@ -19088,7 +19149,7 @@
     </row>
     <row r="555" ht="15.75" customHeight="1">
       <c r="A555" s="11"/>
-      <c r="B555" s="31"/>
+      <c r="B555" s="30"/>
       <c r="C555" s="11"/>
       <c r="D555" s="11"/>
       <c r="E555" s="11"/>
@@ -19121,7 +19182,7 @@
     </row>
     <row r="556" ht="15.75" customHeight="1">
       <c r="A556" s="11"/>
-      <c r="B556" s="31"/>
+      <c r="B556" s="30"/>
       <c r="C556" s="11"/>
       <c r="D556" s="11"/>
       <c r="E556" s="11"/>
@@ -19154,7 +19215,7 @@
     </row>
     <row r="557" ht="15.75" customHeight="1">
       <c r="A557" s="11"/>
-      <c r="B557" s="31"/>
+      <c r="B557" s="30"/>
       <c r="C557" s="11"/>
       <c r="D557" s="11"/>
       <c r="E557" s="11"/>
@@ -19187,7 +19248,7 @@
     </row>
     <row r="558" ht="15.75" customHeight="1">
       <c r="A558" s="11"/>
-      <c r="B558" s="31"/>
+      <c r="B558" s="30"/>
       <c r="C558" s="11"/>
       <c r="D558" s="11"/>
       <c r="E558" s="11"/>
@@ -19220,7 +19281,7 @@
     </row>
     <row r="559" ht="15.75" customHeight="1">
       <c r="A559" s="11"/>
-      <c r="B559" s="31"/>
+      <c r="B559" s="30"/>
       <c r="C559" s="11"/>
       <c r="D559" s="11"/>
       <c r="E559" s="11"/>
@@ -19253,7 +19314,7 @@
     </row>
     <row r="560" ht="15.75" customHeight="1">
       <c r="A560" s="11"/>
-      <c r="B560" s="31"/>
+      <c r="B560" s="30"/>
       <c r="C560" s="11"/>
       <c r="D560" s="11"/>
       <c r="E560" s="11"/>
@@ -19286,7 +19347,7 @@
     </row>
     <row r="561" ht="15.75" customHeight="1">
       <c r="A561" s="11"/>
-      <c r="B561" s="31"/>
+      <c r="B561" s="30"/>
       <c r="C561" s="11"/>
       <c r="D561" s="11"/>
       <c r="E561" s="11"/>
@@ -19319,7 +19380,7 @@
     </row>
     <row r="562" ht="15.75" customHeight="1">
       <c r="A562" s="11"/>
-      <c r="B562" s="31"/>
+      <c r="B562" s="30"/>
       <c r="C562" s="11"/>
       <c r="D562" s="11"/>
       <c r="E562" s="11"/>
@@ -19352,7 +19413,7 @@
     </row>
     <row r="563" ht="15.75" customHeight="1">
       <c r="A563" s="11"/>
-      <c r="B563" s="31"/>
+      <c r="B563" s="30"/>
       <c r="C563" s="11"/>
       <c r="D563" s="11"/>
       <c r="E563" s="11"/>
@@ -19385,7 +19446,7 @@
     </row>
     <row r="564" ht="15.75" customHeight="1">
       <c r="A564" s="11"/>
-      <c r="B564" s="31"/>
+      <c r="B564" s="30"/>
       <c r="C564" s="11"/>
       <c r="D564" s="11"/>
       <c r="E564" s="11"/>
@@ -19418,7 +19479,7 @@
     </row>
     <row r="565" ht="15.75" customHeight="1">
       <c r="A565" s="11"/>
-      <c r="B565" s="31"/>
+      <c r="B565" s="30"/>
       <c r="C565" s="11"/>
       <c r="D565" s="11"/>
       <c r="E565" s="11"/>
@@ -19451,7 +19512,7 @@
     </row>
     <row r="566" ht="15.75" customHeight="1">
       <c r="A566" s="11"/>
-      <c r="B566" s="31"/>
+      <c r="B566" s="30"/>
       <c r="C566" s="11"/>
       <c r="D566" s="11"/>
       <c r="E566" s="11"/>
@@ -19484,7 +19545,7 @@
     </row>
     <row r="567" ht="15.75" customHeight="1">
       <c r="A567" s="11"/>
-      <c r="B567" s="31"/>
+      <c r="B567" s="30"/>
       <c r="C567" s="11"/>
       <c r="D567" s="11"/>
       <c r="E567" s="11"/>
@@ -19517,7 +19578,7 @@
     </row>
     <row r="568" ht="15.75" customHeight="1">
       <c r="A568" s="11"/>
-      <c r="B568" s="31"/>
+      <c r="B568" s="30"/>
       <c r="C568" s="11"/>
       <c r="D568" s="11"/>
       <c r="E568" s="11"/>
@@ -19550,7 +19611,7 @@
     </row>
     <row r="569" ht="15.75" customHeight="1">
       <c r="A569" s="11"/>
-      <c r="B569" s="31"/>
+      <c r="B569" s="30"/>
       <c r="C569" s="11"/>
       <c r="D569" s="11"/>
       <c r="E569" s="11"/>
@@ -19583,7 +19644,7 @@
     </row>
     <row r="570" ht="15.75" customHeight="1">
       <c r="A570" s="11"/>
-      <c r="B570" s="31"/>
+      <c r="B570" s="30"/>
       <c r="C570" s="11"/>
       <c r="D570" s="11"/>
       <c r="E570" s="11"/>
@@ -19616,7 +19677,7 @@
     </row>
     <row r="571" ht="15.75" customHeight="1">
       <c r="A571" s="11"/>
-      <c r="B571" s="31"/>
+      <c r="B571" s="30"/>
       <c r="C571" s="11"/>
       <c r="D571" s="11"/>
       <c r="E571" s="11"/>
@@ -19649,7 +19710,7 @@
     </row>
     <row r="572" ht="15.75" customHeight="1">
       <c r="A572" s="11"/>
-      <c r="B572" s="31"/>
+      <c r="B572" s="30"/>
       <c r="C572" s="11"/>
       <c r="D572" s="11"/>
       <c r="E572" s="11"/>
@@ -19682,7 +19743,7 @@
     </row>
     <row r="573" ht="15.75" customHeight="1">
       <c r="A573" s="11"/>
-      <c r="B573" s="31"/>
+      <c r="B573" s="30"/>
       <c r="C573" s="11"/>
       <c r="D573" s="11"/>
       <c r="E573" s="11"/>
@@ -19715,7 +19776,7 @@
     </row>
     <row r="574" ht="15.75" customHeight="1">
       <c r="A574" s="11"/>
-      <c r="B574" s="31"/>
+      <c r="B574" s="30"/>
       <c r="C574" s="11"/>
       <c r="D574" s="11"/>
       <c r="E574" s="11"/>
@@ -19748,7 +19809,7 @@
     </row>
     <row r="575" ht="15.75" customHeight="1">
       <c r="A575" s="11"/>
-      <c r="B575" s="31"/>
+      <c r="B575" s="30"/>
       <c r="C575" s="11"/>
       <c r="D575" s="11"/>
       <c r="E575" s="11"/>
@@ -19781,7 +19842,7 @@
     </row>
     <row r="576" ht="15.75" customHeight="1">
       <c r="A576" s="11"/>
-      <c r="B576" s="31"/>
+      <c r="B576" s="30"/>
       <c r="C576" s="11"/>
       <c r="D576" s="11"/>
       <c r="E576" s="11"/>
@@ -19814,7 +19875,7 @@
     </row>
     <row r="577" ht="15.75" customHeight="1">
       <c r="A577" s="11"/>
-      <c r="B577" s="31"/>
+      <c r="B577" s="30"/>
       <c r="C577" s="11"/>
       <c r="D577" s="11"/>
       <c r="E577" s="11"/>
@@ -19847,7 +19908,7 @@
     </row>
     <row r="578" ht="15.75" customHeight="1">
       <c r="A578" s="11"/>
-      <c r="B578" s="31"/>
+      <c r="B578" s="30"/>
       <c r="C578" s="11"/>
       <c r="D578" s="11"/>
       <c r="E578" s="11"/>
@@ -19880,7 +19941,7 @@
     </row>
     <row r="579" ht="15.75" customHeight="1">
       <c r="A579" s="11"/>
-      <c r="B579" s="31"/>
+      <c r="B579" s="30"/>
       <c r="C579" s="11"/>
       <c r="D579" s="11"/>
       <c r="E579" s="11"/>
@@ -19913,7 +19974,7 @@
     </row>
     <row r="580" ht="15.75" customHeight="1">
       <c r="A580" s="11"/>
-      <c r="B580" s="31"/>
+      <c r="B580" s="30"/>
       <c r="C580" s="11"/>
       <c r="D580" s="11"/>
       <c r="E580" s="11"/>
@@ -19946,7 +20007,7 @@
     </row>
     <row r="581" ht="15.75" customHeight="1">
       <c r="A581" s="11"/>
-      <c r="B581" s="31"/>
+      <c r="B581" s="30"/>
       <c r="C581" s="11"/>
       <c r="D581" s="11"/>
       <c r="E581" s="11"/>
@@ -19979,7 +20040,7 @@
     </row>
     <row r="582" ht="15.75" customHeight="1">
       <c r="A582" s="11"/>
-      <c r="B582" s="31"/>
+      <c r="B582" s="30"/>
       <c r="C582" s="11"/>
       <c r="D582" s="11"/>
       <c r="E582" s="11"/>
@@ -20012,7 +20073,7 @@
     </row>
     <row r="583" ht="15.75" customHeight="1">
       <c r="A583" s="11"/>
-      <c r="B583" s="31"/>
+      <c r="B583" s="30"/>
       <c r="C583" s="11"/>
       <c r="D583" s="11"/>
       <c r="E583" s="11"/>
@@ -20045,7 +20106,7 @@
     </row>
     <row r="584" ht="15.75" customHeight="1">
       <c r="A584" s="11"/>
-      <c r="B584" s="31"/>
+      <c r="B584" s="30"/>
       <c r="C584" s="11"/>
       <c r="D584" s="11"/>
       <c r="E584" s="11"/>
@@ -20078,7 +20139,7 @@
     </row>
     <row r="585" ht="15.75" customHeight="1">
       <c r="A585" s="11"/>
-      <c r="B585" s="31"/>
+      <c r="B585" s="30"/>
       <c r="C585" s="11"/>
       <c r="D585" s="11"/>
       <c r="E585" s="11"/>
@@ -20111,7 +20172,7 @@
     </row>
     <row r="586" ht="15.75" customHeight="1">
       <c r="A586" s="11"/>
-      <c r="B586" s="31"/>
+      <c r="B586" s="30"/>
       <c r="C586" s="11"/>
       <c r="D586" s="11"/>
       <c r="E586" s="11"/>
@@ -20144,7 +20205,7 @@
     </row>
     <row r="587" ht="15.75" customHeight="1">
       <c r="A587" s="11"/>
-      <c r="B587" s="31"/>
+      <c r="B587" s="30"/>
       <c r="C587" s="11"/>
       <c r="D587" s="11"/>
       <c r="E587" s="11"/>
@@ -20177,7 +20238,7 @@
     </row>
     <row r="588" ht="15.75" customHeight="1">
       <c r="A588" s="11"/>
-      <c r="B588" s="31"/>
+      <c r="B588" s="30"/>
       <c r="C588" s="11"/>
       <c r="D588" s="11"/>
       <c r="E588" s="11"/>
@@ -20210,7 +20271,7 @@
     </row>
     <row r="589" ht="15.75" customHeight="1">
       <c r="A589" s="11"/>
-      <c r="B589" s="31"/>
+      <c r="B589" s="30"/>
       <c r="C589" s="11"/>
       <c r="D589" s="11"/>
       <c r="E589" s="11"/>
@@ -20243,7 +20304,7 @@
     </row>
     <row r="590" ht="15.75" customHeight="1">
       <c r="A590" s="11"/>
-      <c r="B590" s="31"/>
+      <c r="B590" s="30"/>
       <c r="C590" s="11"/>
       <c r="D590" s="11"/>
       <c r="E590" s="11"/>
@@ -20276,7 +20337,7 @@
     </row>
     <row r="591" ht="15.75" customHeight="1">
       <c r="A591" s="11"/>
-      <c r="B591" s="31"/>
+      <c r="B591" s="30"/>
       <c r="C591" s="11"/>
       <c r="D591" s="11"/>
       <c r="E591" s="11"/>
@@ -20309,7 +20370,7 @@
     </row>
     <row r="592" ht="15.75" customHeight="1">
       <c r="A592" s="11"/>
-      <c r="B592" s="31"/>
+      <c r="B592" s="30"/>
       <c r="C592" s="11"/>
       <c r="D592" s="11"/>
       <c r="E592" s="11"/>
@@ -20342,7 +20403,7 @@
     </row>
     <row r="593" ht="15.75" customHeight="1">
       <c r="A593" s="11"/>
-      <c r="B593" s="31"/>
+      <c r="B593" s="30"/>
       <c r="C593" s="11"/>
       <c r="D593" s="11"/>
       <c r="E593" s="11"/>
@@ -20375,7 +20436,7 @@
     </row>
     <row r="594" ht="15.75" customHeight="1">
       <c r="A594" s="11"/>
-      <c r="B594" s="31"/>
+      <c r="B594" s="30"/>
       <c r="C594" s="11"/>
       <c r="D594" s="11"/>
       <c r="E594" s="11"/>
@@ -20408,7 +20469,7 @@
     </row>
     <row r="595" ht="15.75" customHeight="1">
       <c r="A595" s="11"/>
-      <c r="B595" s="31"/>
+      <c r="B595" s="30"/>
       <c r="C595" s="11"/>
       <c r="D595" s="11"/>
       <c r="E595" s="11"/>
@@ -20441,7 +20502,7 @@
     </row>
     <row r="596" ht="15.75" customHeight="1">
       <c r="A596" s="11"/>
-      <c r="B596" s="31"/>
+      <c r="B596" s="30"/>
       <c r="C596" s="11"/>
       <c r="D596" s="11"/>
       <c r="E596" s="11"/>
@@ -20474,7 +20535,7 @@
     </row>
     <row r="597" ht="15.75" customHeight="1">
       <c r="A597" s="11"/>
-      <c r="B597" s="31"/>
+      <c r="B597" s="30"/>
       <c r="C597" s="11"/>
       <c r="D597" s="11"/>
       <c r="E597" s="11"/>
@@ -20507,7 +20568,7 @@
     </row>
     <row r="598" ht="15.75" customHeight="1">
       <c r="A598" s="11"/>
-      <c r="B598" s="31"/>
+      <c r="B598" s="30"/>
       <c r="C598" s="11"/>
       <c r="D598" s="11"/>
       <c r="E598" s="11"/>
@@ -20540,7 +20601,7 @@
     </row>
     <row r="599" ht="15.75" customHeight="1">
       <c r="A599" s="11"/>
-      <c r="B599" s="31"/>
+      <c r="B599" s="30"/>
       <c r="C599" s="11"/>
       <c r="D599" s="11"/>
       <c r="E599" s="11"/>
@@ -20573,7 +20634,7 @@
     </row>
     <row r="600" ht="15.75" customHeight="1">
       <c r="A600" s="11"/>
-      <c r="B600" s="31"/>
+      <c r="B600" s="30"/>
       <c r="C600" s="11"/>
       <c r="D600" s="11"/>
       <c r="E600" s="11"/>
@@ -20606,7 +20667,7 @@
     </row>
     <row r="601" ht="15.75" customHeight="1">
       <c r="A601" s="11"/>
-      <c r="B601" s="31"/>
+      <c r="B601" s="30"/>
       <c r="C601" s="11"/>
       <c r="D601" s="11"/>
       <c r="E601" s="11"/>
@@ -20639,7 +20700,7 @@
     </row>
     <row r="602" ht="15.75" customHeight="1">
       <c r="A602" s="11"/>
-      <c r="B602" s="31"/>
+      <c r="B602" s="30"/>
       <c r="C602" s="11"/>
       <c r="D602" s="11"/>
       <c r="E602" s="11"/>
@@ -20672,7 +20733,7 @@
     </row>
     <row r="603" ht="15.75" customHeight="1">
       <c r="A603" s="11"/>
-      <c r="B603" s="31"/>
+      <c r="B603" s="30"/>
       <c r="C603" s="11"/>
       <c r="D603" s="11"/>
       <c r="E603" s="11"/>
@@ -20705,7 +20766,7 @@
     </row>
     <row r="604" ht="15.75" customHeight="1">
       <c r="A604" s="11"/>
-      <c r="B604" s="31"/>
+      <c r="B604" s="30"/>
       <c r="C604" s="11"/>
       <c r="D604" s="11"/>
       <c r="E604" s="11"/>
@@ -20738,7 +20799,7 @@
     </row>
     <row r="605" ht="15.75" customHeight="1">
       <c r="A605" s="11"/>
-      <c r="B605" s="31"/>
+      <c r="B605" s="30"/>
       <c r="C605" s="11"/>
       <c r="D605" s="11"/>
       <c r="E605" s="11"/>
@@ -20771,7 +20832,7 @@
     </row>
     <row r="606" ht="15.75" customHeight="1">
       <c r="A606" s="11"/>
-      <c r="B606" s="31"/>
+      <c r="B606" s="30"/>
       <c r="C606" s="11"/>
       <c r="D606" s="11"/>
       <c r="E606" s="11"/>
@@ -20804,7 +20865,7 @@
     </row>
     <row r="607" ht="15.75" customHeight="1">
       <c r="A607" s="11"/>
-      <c r="B607" s="31"/>
+      <c r="B607" s="30"/>
       <c r="C607" s="11"/>
       <c r="D607" s="11"/>
       <c r="E607" s="11"/>
@@ -20837,7 +20898,7 @@
     </row>
     <row r="608" ht="15.75" customHeight="1">
       <c r="A608" s="11"/>
-      <c r="B608" s="31"/>
+      <c r="B608" s="30"/>
       <c r="C608" s="11"/>
       <c r="D608" s="11"/>
       <c r="E608" s="11"/>
@@ -20870,7 +20931,7 @@
     </row>
     <row r="609" ht="15.75" customHeight="1">
       <c r="A609" s="11"/>
-      <c r="B609" s="31"/>
+      <c r="B609" s="30"/>
       <c r="C609" s="11"/>
       <c r="D609" s="11"/>
       <c r="E609" s="11"/>
@@ -20903,7 +20964,7 @@
     </row>
     <row r="610" ht="15.75" customHeight="1">
       <c r="A610" s="11"/>
-      <c r="B610" s="31"/>
+      <c r="B610" s="30"/>
       <c r="C610" s="11"/>
       <c r="D610" s="11"/>
       <c r="E610" s="11"/>
@@ -20936,7 +20997,7 @@
     </row>
     <row r="611" ht="15.75" customHeight="1">
       <c r="A611" s="11"/>
-      <c r="B611" s="31"/>
+      <c r="B611" s="30"/>
       <c r="C611" s="11"/>
       <c r="D611" s="11"/>
       <c r="E611" s="11"/>
@@ -20969,7 +21030,7 @@
     </row>
     <row r="612" ht="15.75" customHeight="1">
       <c r="A612" s="11"/>
-      <c r="B612" s="31"/>
+      <c r="B612" s="30"/>
       <c r="C612" s="11"/>
       <c r="D612" s="11"/>
       <c r="E612" s="11"/>
@@ -21002,7 +21063,7 @@
     </row>
     <row r="613" ht="15.75" customHeight="1">
       <c r="A613" s="11"/>
-      <c r="B613" s="31"/>
+      <c r="B613" s="30"/>
       <c r="C613" s="11"/>
       <c r="D613" s="11"/>
       <c r="E613" s="11"/>
@@ -21035,7 +21096,7 @@
     </row>
     <row r="614" ht="15.75" customHeight="1">
       <c r="A614" s="11"/>
-      <c r="B614" s="31"/>
+      <c r="B614" s="30"/>
       <c r="C614" s="11"/>
       <c r="D614" s="11"/>
       <c r="E614" s="11"/>
@@ -21068,7 +21129,7 @@
     </row>
     <row r="615" ht="15.75" customHeight="1">
       <c r="A615" s="11"/>
-      <c r="B615" s="31"/>
+      <c r="B615" s="30"/>
       <c r="C615" s="11"/>
       <c r="D615" s="11"/>
       <c r="E615" s="11"/>
@@ -21101,7 +21162,7 @@
     </row>
     <row r="616" ht="15.75" customHeight="1">
       <c r="A616" s="11"/>
-      <c r="B616" s="31"/>
+      <c r="B616" s="30"/>
       <c r="C616" s="11"/>
       <c r="D616" s="11"/>
       <c r="E616" s="11"/>
@@ -21134,7 +21195,7 @@
     </row>
     <row r="617" ht="15.75" customHeight="1">
       <c r="A617" s="11"/>
-      <c r="B617" s="31"/>
+      <c r="B617" s="30"/>
       <c r="C617" s="11"/>
       <c r="D617" s="11"/>
       <c r="E617" s="11"/>
@@ -21167,7 +21228,7 @@
     </row>
     <row r="618" ht="15.75" customHeight="1">
       <c r="A618" s="11"/>
-      <c r="B618" s="31"/>
+      <c r="B618" s="30"/>
       <c r="C618" s="11"/>
       <c r="D618" s="11"/>
       <c r="E618" s="11"/>
@@ -21200,7 +21261,7 @@
     </row>
     <row r="619" ht="15.75" customHeight="1">
       <c r="A619" s="11"/>
-      <c r="B619" s="31"/>
+      <c r="B619" s="30"/>
       <c r="C619" s="11"/>
       <c r="D619" s="11"/>
       <c r="E619" s="11"/>
@@ -21233,7 +21294,7 @@
     </row>
     <row r="620" ht="15.75" customHeight="1">
       <c r="A620" s="11"/>
-      <c r="B620" s="31"/>
+      <c r="B620" s="30"/>
       <c r="C620" s="11"/>
       <c r="D620" s="11"/>
       <c r="E620" s="11"/>
@@ -21266,7 +21327,7 @@
     </row>
     <row r="621" ht="15.75" customHeight="1">
       <c r="A621" s="11"/>
-      <c r="B621" s="31"/>
+      <c r="B621" s="30"/>
       <c r="C621" s="11"/>
       <c r="D621" s="11"/>
       <c r="E621" s="11"/>
@@ -21299,7 +21360,7 @@
     </row>
     <row r="622" ht="15.75" customHeight="1">
       <c r="A622" s="11"/>
-      <c r="B622" s="31"/>
+      <c r="B622" s="30"/>
       <c r="C622" s="11"/>
       <c r="D622" s="11"/>
       <c r="E622" s="11"/>
@@ -21332,7 +21393,7 @@
     </row>
     <row r="623" ht="15.75" customHeight="1">
       <c r="A623" s="11"/>
-      <c r="B623" s="31"/>
+      <c r="B623" s="30"/>
       <c r="C623" s="11"/>
       <c r="D623" s="11"/>
       <c r="E623" s="11"/>
@@ -21365,7 +21426,7 @@
     </row>
     <row r="624" ht="15.75" customHeight="1">
       <c r="A624" s="11"/>
-      <c r="B624" s="31"/>
+      <c r="B624" s="30"/>
       <c r="C624" s="11"/>
       <c r="D624" s="11"/>
       <c r="E624" s="11"/>
@@ -21398,7 +21459,7 @@
     </row>
     <row r="625" ht="15.75" customHeight="1">
       <c r="A625" s="11"/>
-      <c r="B625" s="31"/>
+      <c r="B625" s="30"/>
       <c r="C625" s="11"/>
       <c r="D625" s="11"/>
       <c r="E625" s="11"/>
@@ -21431,7 +21492,7 @@
     </row>
     <row r="626" ht="15.75" customHeight="1">
       <c r="A626" s="11"/>
-      <c r="B626" s="31"/>
+      <c r="B626" s="30"/>
       <c r="C626" s="11"/>
       <c r="D626" s="11"/>
       <c r="E626" s="11"/>
@@ -21464,7 +21525,7 @@
     </row>
     <row r="627" ht="15.75" customHeight="1">
       <c r="A627" s="11"/>
-      <c r="B627" s="31"/>
+      <c r="B627" s="30"/>
       <c r="C627" s="11"/>
       <c r="D627" s="11"/>
       <c r="E627" s="11"/>
@@ -21497,7 +21558,7 @@
     </row>
     <row r="628" ht="15.75" customHeight="1">
       <c r="A628" s="11"/>
-      <c r="B628" s="31"/>
+      <c r="B628" s="30"/>
       <c r="C628" s="11"/>
       <c r="D628" s="11"/>
       <c r="E628" s="11"/>
@@ -21530,7 +21591,7 @@
     </row>
     <row r="629" ht="15.75" customHeight="1">
       <c r="A629" s="11"/>
-      <c r="B629" s="31"/>
+      <c r="B629" s="30"/>
       <c r="C629" s="11"/>
       <c r="D629" s="11"/>
       <c r="E629" s="11"/>
@@ -21563,7 +21624,7 @@
     </row>
     <row r="630" ht="15.75" customHeight="1">
       <c r="A630" s="11"/>
-      <c r="B630" s="31"/>
+      <c r="B630" s="30"/>
       <c r="C630" s="11"/>
       <c r="D630" s="11"/>
       <c r="E630" s="11"/>
@@ -21596,7 +21657,7 @@
     </row>
     <row r="631" ht="15.75" customHeight="1">
       <c r="A631" s="11"/>
-      <c r="B631" s="31"/>
+      <c r="B631" s="30"/>
       <c r="C631" s="11"/>
       <c r="D631" s="11"/>
       <c r="E631" s="11"/>
@@ -21629,7 +21690,7 @@
     </row>
     <row r="632" ht="15.75" customHeight="1">
       <c r="A632" s="11"/>
-      <c r="B632" s="31"/>
+      <c r="B632" s="30"/>
       <c r="C632" s="11"/>
       <c r="D632" s="11"/>
       <c r="E632" s="11"/>
@@ -21662,7 +21723,7 @@
     </row>
     <row r="633" ht="15.75" customHeight="1">
       <c r="A633" s="11"/>
-      <c r="B633" s="31"/>
+      <c r="B633" s="30"/>
       <c r="C633" s="11"/>
       <c r="D633" s="11"/>
       <c r="E633" s="11"/>
@@ -21695,7 +21756,7 @@
     </row>
     <row r="634" ht="15.75" customHeight="1">
       <c r="A634" s="11"/>
-      <c r="B634" s="31"/>
+      <c r="B634" s="30"/>
       <c r="C634" s="11"/>
       <c r="D634" s="11"/>
       <c r="E634" s="11"/>
@@ -21728,7 +21789,7 @@
     </row>
     <row r="635" ht="15.75" customHeight="1">
       <c r="A635" s="11"/>
-      <c r="B635" s="31"/>
+      <c r="B635" s="30"/>
       <c r="C635" s="11"/>
       <c r="D635" s="11"/>
       <c r="E635" s="11"/>
@@ -21761,7 +21822,7 @@
     </row>
     <row r="636" ht="15.75" customHeight="1">
       <c r="A636" s="11"/>
-      <c r="B636" s="31"/>
+      <c r="B636" s="30"/>
       <c r="C636" s="11"/>
       <c r="D636" s="11"/>
       <c r="E636" s="11"/>
@@ -21794,7 +21855,7 @@
     </row>
     <row r="637" ht="15.75" customHeight="1">
       <c r="A637" s="11"/>
-      <c r="B637" s="31"/>
+      <c r="B637" s="30"/>
       <c r="C637" s="11"/>
       <c r="D637" s="11"/>
       <c r="E637" s="11"/>
@@ -21827,7 +21888,7 @@
     </row>
     <row r="638" ht="15.75" customHeight="1">
       <c r="A638" s="11"/>
-      <c r="B638" s="31"/>
+      <c r="B638" s="30"/>
       <c r="C638" s="11"/>
       <c r="D638" s="11"/>
       <c r="E638" s="11"/>
@@ -21860,7 +21921,7 @@
     </row>
     <row r="639" ht="15.75" customHeight="1">
       <c r="A639" s="11"/>
-      <c r="B639" s="31"/>
+      <c r="B639" s="30"/>
       <c r="C639" s="11"/>
       <c r="D639" s="11"/>
       <c r="E639" s="11"/>
@@ -21893,7 +21954,7 @@
     </row>
     <row r="640" ht="15.75" customHeight="1">
       <c r="A640" s="11"/>
-      <c r="B640" s="31"/>
+      <c r="B640" s="30"/>
       <c r="C640" s="11"/>
       <c r="D640" s="11"/>
       <c r="E640" s="11"/>
@@ -21926,7 +21987,7 @@
     </row>
     <row r="641" ht="15.75" customHeight="1">
       <c r="A641" s="11"/>
-      <c r="B641" s="31"/>
+      <c r="B641" s="30"/>
       <c r="C641" s="11"/>
       <c r="D641" s="11"/>
       <c r="E641" s="11"/>
@@ -21959,7 +22020,7 @@
     </row>
     <row r="642" ht="15.75" customHeight="1">
       <c r="A642" s="11"/>
-      <c r="B642" s="31"/>
+      <c r="B642" s="30"/>
       <c r="C642" s="11"/>
       <c r="D642" s="11"/>
       <c r="E642" s="11"/>
@@ -21992,7 +22053,7 @@
     </row>
     <row r="643" ht="15.75" customHeight="1">
       <c r="A643" s="11"/>
-      <c r="B643" s="31"/>
+      <c r="B643" s="30"/>
       <c r="C643" s="11"/>
       <c r="D643" s="11"/>
       <c r="E643" s="11"/>
@@ -22025,7 +22086,7 @@
     </row>
     <row r="644" ht="15.75" customHeight="1">
       <c r="A644" s="11"/>
-      <c r="B644" s="31"/>
+      <c r="B644" s="30"/>
       <c r="C644" s="11"/>
       <c r="D644" s="11"/>
       <c r="E644" s="11"/>
@@ -22058,7 +22119,7 @@
     </row>
     <row r="645" ht="15.75" customHeight="1">
       <c r="A645" s="11"/>
-      <c r="B645" s="31"/>
+      <c r="B645" s="30"/>
       <c r="C645" s="11"/>
       <c r="D645" s="11"/>
       <c r="E645" s="11"/>
@@ -22091,7 +22152,7 @@
     </row>
     <row r="646" ht="15.75" customHeight="1">
       <c r="A646" s="11"/>
-      <c r="B646" s="31"/>
+      <c r="B646" s="30"/>
       <c r="C646" s="11"/>
       <c r="D646" s="11"/>
       <c r="E646" s="11"/>
@@ -22124,7 +22185,7 @@
     </row>
     <row r="647" ht="15.75" customHeight="1">
       <c r="A647" s="11"/>
-      <c r="B647" s="31"/>
+      <c r="B647" s="30"/>
       <c r="C647" s="11"/>
       <c r="D647" s="11"/>
       <c r="E647" s="11"/>
@@ -22157,7 +22218,7 @@
     </row>
     <row r="648" ht="15.75" customHeight="1">
       <c r="A648" s="11"/>
-      <c r="B648" s="31"/>
+      <c r="B648" s="30"/>
       <c r="C648" s="11"/>
       <c r="D648" s="11"/>
       <c r="E648" s="11"/>
@@ -22190,7 +22251,7 @@
     </row>
     <row r="649" ht="15.75" customHeight="1">
       <c r="A649" s="11"/>
-      <c r="B649" s="31"/>
+      <c r="B649" s="30"/>
       <c r="C649" s="11"/>
       <c r="D649" s="11"/>
       <c r="E649" s="11"/>
@@ -22223,7 +22284,7 @@
     </row>
     <row r="650" ht="15.75" customHeight="1">
       <c r="A650" s="11"/>
-      <c r="B650" s="31"/>
+      <c r="B650" s="30"/>
       <c r="C650" s="11"/>
       <c r="D650" s="11"/>
       <c r="E650" s="11"/>
@@ -22256,7 +22317,7 @@
     </row>
     <row r="651" ht="15.75" customHeight="1">
       <c r="A651" s="11"/>
-      <c r="B651" s="31"/>
+      <c r="B651" s="30"/>
       <c r="C651" s="11"/>
       <c r="D651" s="11"/>
       <c r="E651" s="11"/>
@@ -22289,7 +22350,7 @@
     </row>
     <row r="652" ht="15.75" customHeight="1">
       <c r="A652" s="11"/>
-      <c r="B652" s="31"/>
+      <c r="B652" s="30"/>
       <c r="C652" s="11"/>
       <c r="D652" s="11"/>
       <c r="E652" s="11"/>
@@ -22322,7 +22383,7 @@
     </row>
     <row r="653" ht="15.75" customHeight="1">
       <c r="A653" s="11"/>
-      <c r="B653" s="31"/>
+      <c r="B653" s="30"/>
       <c r="C653" s="11"/>
       <c r="D653" s="11"/>
       <c r="E653" s="11"/>
@@ -22355,7 +22416,7 @@
     </row>
     <row r="654" ht="15.75" customHeight="1">
       <c r="A654" s="11"/>
-      <c r="B654" s="31"/>
+      <c r="B654" s="30"/>
       <c r="C654" s="11"/>
       <c r="D654" s="11"/>
       <c r="E654" s="11"/>
@@ -22388,7 +22449,7 @@
     </row>
     <row r="655" ht="15.75" customHeight="1">
       <c r="A655" s="11"/>
-      <c r="B655" s="31"/>
+      <c r="B655" s="30"/>
       <c r="C655" s="11"/>
       <c r="D655" s="11"/>
       <c r="E655" s="11"/>
@@ -22421,7 +22482,7 @@
     </row>
     <row r="656" ht="15.75" customHeight="1">
       <c r="A656" s="11"/>
-      <c r="B656" s="31"/>
+      <c r="B656" s="30"/>
       <c r="C656" s="11"/>
       <c r="D656" s="11"/>
       <c r="E656" s="11"/>
@@ -22454,7 +22515,7 @@
     </row>
     <row r="657" ht="15.75" customHeight="1">
       <c r="A657" s="11"/>
-      <c r="B657" s="31"/>
+      <c r="B657" s="30"/>
       <c r="C657" s="11"/>
       <c r="D657" s="11"/>
       <c r="E657" s="11"/>
@@ -22487,7 +22548,7 @@
     </row>
     <row r="658" ht="15.75" customHeight="1">
       <c r="A658" s="11"/>
-      <c r="B658" s="31"/>
+      <c r="B658" s="30"/>
       <c r="C658" s="11"/>
       <c r="D658" s="11"/>
       <c r="E658" s="11"/>
@@ -22520,7 +22581,7 @@
     </row>
     <row r="659" ht="15.75" customHeight="1">
       <c r="A659" s="11"/>
-      <c r="B659" s="31"/>
+      <c r="B659" s="30"/>
       <c r="C659" s="11"/>
       <c r="D659" s="11"/>
       <c r="E659" s="11"/>
@@ -22553,7 +22614,7 @@
     </row>
     <row r="660" ht="15.75" customHeight="1">
       <c r="A660" s="11"/>
-      <c r="B660" s="31"/>
+      <c r="B660" s="30"/>
       <c r="C660" s="11"/>
       <c r="D660" s="11"/>
       <c r="E660" s="11"/>
@@ -22586,7 +22647,7 @@
     </row>
     <row r="661" ht="15.75" customHeight="1">
       <c r="A661" s="11"/>
-      <c r="B661" s="31"/>
+      <c r="B661" s="30"/>
       <c r="C661" s="11"/>
       <c r="D661" s="11"/>
       <c r="E661" s="11"/>
@@ -22619,7 +22680,7 @@
     </row>
     <row r="662" ht="15.75" customHeight="1">
       <c r="A662" s="11"/>
-      <c r="B662" s="31"/>
+      <c r="B662" s="30"/>
       <c r="C662" s="11"/>
       <c r="D662" s="11"/>
       <c r="E662" s="11"/>
@@ -22652,7 +22713,7 @@
     </row>
     <row r="663" ht="15.75" customHeight="1">
       <c r="A663" s="11"/>
-      <c r="B663" s="31"/>
+      <c r="B663" s="30"/>
       <c r="C663" s="11"/>
       <c r="D663" s="11"/>
       <c r="E663" s="11"/>
@@ -22685,7 +22746,7 @@
     </row>
     <row r="664" ht="15.75" customHeight="1">
       <c r="A664" s="11"/>
-      <c r="B664" s="31"/>
+      <c r="B664" s="30"/>
       <c r="C664" s="11"/>
       <c r="D664" s="11"/>
       <c r="E664" s="11"/>
@@ -22718,7 +22779,7 @@
     </row>
     <row r="665" ht="15.75" customHeight="1">
       <c r="A665" s="11"/>
-      <c r="B665" s="31"/>
+      <c r="B665" s="30"/>
       <c r="C665" s="11"/>
       <c r="D665" s="11"/>
       <c r="E665" s="11"/>
@@ -22751,7 +22812,7 @@
     </row>
     <row r="666" ht="15.75" customHeight="1">
       <c r="A666" s="11"/>
-      <c r="B666" s="31"/>
+      <c r="B666" s="30"/>
       <c r="C666" s="11"/>
       <c r="D666" s="11"/>
       <c r="E666" s="11"/>
@@ -22784,7 +22845,7 @@
     </row>
     <row r="667" ht="15.75" customHeight="1">
       <c r="A667" s="11"/>
-      <c r="B667" s="31"/>
+      <c r="B667" s="30"/>
       <c r="C667" s="11"/>
       <c r="D667" s="11"/>
       <c r="E667" s="11"/>
@@ -22817,7 +22878,7 @@
     </row>
     <row r="668" ht="15.75" customHeight="1">
       <c r="A668" s="11"/>
-      <c r="B668" s="31"/>
+      <c r="B668" s="30"/>
       <c r="C668" s="11"/>
       <c r="D668" s="11"/>
       <c r="E668" s="11"/>
@@ -22850,7 +22911,7 @@
     </row>
     <row r="669" ht="15.75" customHeight="1">
       <c r="A669" s="11"/>
-      <c r="B669" s="31"/>
+      <c r="B669" s="30"/>
       <c r="C669" s="11"/>
       <c r="D669" s="11"/>
       <c r="E669" s="11"/>
@@ -22883,7 +22944,7 @@
     </row>
     <row r="670" ht="15.75" customHeight="1">
       <c r="A670" s="11"/>
-      <c r="B670" s="31"/>
+      <c r="B670" s="30"/>
       <c r="C670" s="11"/>
       <c r="D670" s="11"/>
       <c r="E670" s="11"/>
@@ -22916,7 +22977,7 @@
     </row>
     <row r="671" ht="15.75" customHeight="1">
       <c r="A671" s="11"/>
-      <c r="B671" s="31"/>
+      <c r="B671" s="30"/>
       <c r="C671" s="11"/>
       <c r="D671" s="11"/>
       <c r="E671" s="11"/>
@@ -22949,7 +23010,7 @@
     </row>
     <row r="672" ht="15.75" customHeight="1">
       <c r="A672" s="11"/>
-      <c r="B672" s="31"/>
+      <c r="B672" s="30"/>
       <c r="C672" s="11"/>
       <c r="D672" s="11"/>
       <c r="E672" s="11"/>
@@ -22982,7 +23043,7 @@
     </row>
     <row r="673" ht="15.75" customHeight="1">
       <c r="A673" s="11"/>
-      <c r="B673" s="31"/>
+      <c r="B673" s="30"/>
       <c r="C673" s="11"/>
       <c r="D673" s="11"/>
       <c r="E673" s="11"/>
@@ -23015,7 +23076,7 @@
     </row>
     <row r="674" ht="15.75" customHeight="1">
       <c r="A674" s="11"/>
-      <c r="B674" s="31"/>
+      <c r="B674" s="30"/>
       <c r="C674" s="11"/>
       <c r="D674" s="11"/>
       <c r="E674" s="11"/>
@@ -23048,7 +23109,7 @@
     </row>
     <row r="675" ht="15.75" customHeight="1">
       <c r="A675" s="11"/>
-      <c r="B675" s="31"/>
+      <c r="B675" s="30"/>
       <c r="C675" s="11"/>
       <c r="D675" s="11"/>
       <c r="E675" s="11"/>
@@ -23081,7 +23142,7 @@
     </row>
     <row r="676" ht="15.75" customHeight="1">
       <c r="A676" s="11"/>
-      <c r="B676" s="31"/>
+      <c r="B676" s="30"/>
       <c r="C676" s="11"/>
       <c r="D676" s="11"/>
       <c r="E676" s="11"/>
@@ -23114,7 +23175,7 @@
     </row>
     <row r="677" ht="15.75" customHeight="1">
       <c r="A677" s="11"/>
-      <c r="B677" s="31"/>
+      <c r="B677" s="30"/>
       <c r="C677" s="11"/>
       <c r="D677" s="11"/>
       <c r="E677" s="11"/>
@@ -23147,7 +23208,7 @@
     </row>
     <row r="678" ht="15.75" customHeight="1">
       <c r="A678" s="11"/>
-      <c r="B678" s="31"/>
+      <c r="B678" s="30"/>
       <c r="C678" s="11"/>
       <c r="D678" s="11"/>
       <c r="E678" s="11"/>
@@ -23180,7 +23241,7 @@
     </row>
     <row r="679" ht="15.75" customHeight="1">
       <c r="A679" s="11"/>
-      <c r="B679" s="31"/>
+      <c r="B679" s="30"/>
       <c r="C679" s="11"/>
       <c r="D679" s="11"/>
       <c r="E679" s="11"/>
@@ -23213,7 +23274,7 @@
     </row>
     <row r="680" ht="15.75" customHeight="1">
       <c r="A680" s="11"/>
-      <c r="B680" s="31"/>
+      <c r="B680" s="30"/>
       <c r="C680" s="11"/>
       <c r="D680" s="11"/>
       <c r="E680" s="11"/>
@@ -23246,7 +23307,7 @@
     </row>
     <row r="681" ht="15.75" customHeight="1">
       <c r="A681" s="11"/>
-      <c r="B681" s="31"/>
+      <c r="B681" s="30"/>
       <c r="C681" s="11"/>
       <c r="D681" s="11"/>
       <c r="E681" s="11"/>
@@ -23279,7 +23340,7 @@
     </row>
     <row r="682" ht="15.75" customHeight="1">
       <c r="A682" s="11"/>
-      <c r="B682" s="31"/>
+      <c r="B682" s="30"/>
       <c r="C682" s="11"/>
       <c r="D682" s="11"/>
       <c r="E682" s="11"/>
@@ -23312,7 +23373,7 @@
     </row>
     <row r="683" ht="15.75" customHeight="1">
       <c r="A683" s="11"/>
-      <c r="B683" s="31"/>
+      <c r="B683" s="30"/>
       <c r="C683" s="11"/>
       <c r="D683" s="11"/>
       <c r="E683" s="11"/>
@@ -23345,7 +23406,7 @@
     </row>
     <row r="684" ht="15.75" customHeight="1">
       <c r="A684" s="11"/>
-      <c r="B684" s="31"/>
+      <c r="B684" s="30"/>
       <c r="C684" s="11"/>
       <c r="D684" s="11"/>
       <c r="E684" s="11"/>
@@ -23378,7 +23439,7 @@
     </row>
     <row r="685" ht="15.75" customHeight="1">
       <c r="A685" s="11"/>
-      <c r="B685" s="31"/>
+      <c r="B685" s="30"/>
       <c r="C685" s="11"/>
       <c r="D685" s="11"/>
       <c r="E685" s="11"/>
@@ -23411,7 +23472,7 @@
     </row>
     <row r="686" ht="15.75" customHeight="1">
       <c r="A686" s="11"/>
-      <c r="B686" s="31"/>
+      <c r="B686" s="30"/>
       <c r="C686" s="11"/>
       <c r="D686" s="11"/>
       <c r="E686" s="11"/>
@@ -23444,7 +23505,7 @@
     </row>
     <row r="687" ht="15.75" customHeight="1">
       <c r="A687" s="11"/>
-      <c r="B687" s="31"/>
+      <c r="B687" s="30"/>
       <c r="C687" s="11"/>
       <c r="D687" s="11"/>
       <c r="E687" s="11"/>
@@ -23477,7 +23538,7 @@
     </row>
     <row r="688" ht="15.75" customHeight="1">
       <c r="A688" s="11"/>
-      <c r="B688" s="31"/>
+      <c r="B688" s="30"/>
       <c r="C688" s="11"/>
       <c r="D688" s="11"/>
       <c r="E688" s="11"/>
@@ -23510,7 +23571,7 @@
     </row>
     <row r="689" ht="15.75" customHeight="1">
       <c r="A689" s="11"/>
-      <c r="B689" s="31"/>
+      <c r="B689" s="30"/>
       <c r="C689" s="11"/>
       <c r="D689" s="11"/>
       <c r="E689" s="11"/>
@@ -23543,7 +23604,7 @@
     </row>
     <row r="690" ht="15.75" customHeight="1">
       <c r="A690" s="11"/>
-      <c r="B690" s="31"/>
+      <c r="B690" s="30"/>
       <c r="C690" s="11"/>
       <c r="D690" s="11"/>
       <c r="E690" s="11"/>
@@ -23576,7 +23637,7 @@
     </row>
     <row r="691" ht="15.75" customHeight="1">
       <c r="A691" s="11"/>
-      <c r="B691" s="31"/>
+      <c r="B691" s="30"/>
       <c r="C691" s="11"/>
       <c r="D691" s="11"/>
       <c r="E691" s="11"/>
@@ -23609,7 +23670,7 @@
     </row>
     <row r="692" ht="15.75" customHeight="1">
       <c r="A692" s="11"/>
-      <c r="B692" s="31"/>
+      <c r="B692" s="30"/>
       <c r="C692" s="11"/>
       <c r="D692" s="11"/>
       <c r="E692" s="11"/>
@@ -23642,7 +23703,7 @@
     </row>
     <row r="693" ht="15.75" customHeight="1">
       <c r="A693" s="11"/>
-      <c r="B693" s="31"/>
+      <c r="B693" s="30"/>
       <c r="C693" s="11"/>
       <c r="D693" s="11"/>
       <c r="E693" s="11"/>
@@ -23675,7 +23736,7 @@
     </row>
     <row r="694" ht="15.75" customHeight="1">
       <c r="A694" s="11"/>
-      <c r="B694" s="31"/>
+      <c r="B694" s="30"/>
       <c r="C694" s="11"/>
       <c r="D694" s="11"/>
       <c r="E694" s="11"/>
@@ -23708,7 +23769,7 @@
     </row>
     <row r="695" ht="15.75" customHeight="1">
       <c r="A695" s="11"/>
-      <c r="B695" s="31"/>
+      <c r="B695" s="30"/>
       <c r="C695" s="11"/>
       <c r="D695" s="11"/>
       <c r="E695" s="11"/>
@@ -23741,7 +23802,7 @@
     </row>
     <row r="696" ht="15.75" customHeight="1">
       <c r="A696" s="11"/>
-      <c r="B696" s="31"/>
+      <c r="B696" s="30"/>
       <c r="C696" s="11"/>
       <c r="D696" s="11"/>
       <c r="E696" s="11"/>
@@ -23774,7 +23835,7 @@
     </row>
     <row r="697" ht="15.75" customHeight="1">
       <c r="A697" s="11"/>
-      <c r="B697" s="31"/>
+      <c r="B697" s="30"/>
       <c r="C697" s="11"/>
       <c r="D697" s="11"/>
       <c r="E697" s="11"/>
@@ -23807,7 +23868,7 @@
     </row>
     <row r="698" ht="15.75" customHeight="1">
       <c r="A698" s="11"/>
-      <c r="B698" s="31"/>
+      <c r="B698" s="30"/>
       <c r="C698" s="11"/>
       <c r="D698" s="11"/>
       <c r="E698" s="11"/>
@@ -23840,7 +23901,7 @@
     </row>
     <row r="699" ht="15.75" customHeight="1">
       <c r="A699" s="11"/>
-      <c r="B699" s="31"/>
+      <c r="B699" s="30"/>
       <c r="C699" s="11"/>
       <c r="D699" s="11"/>
       <c r="E699" s="11"/>
@@ -23873,7 +23934,7 @@
     </row>
     <row r="700" ht="15.75" customHeight="1">
       <c r="A700" s="11"/>
-      <c r="B700" s="31"/>
+      <c r="B700" s="30"/>
       <c r="C700" s="11"/>
       <c r="D700" s="11"/>
       <c r="E700" s="11"/>
@@ -23906,7 +23967,7 @@
     </row>
     <row r="701" ht="15.75" customHeight="1">
       <c r="A701" s="11"/>
-      <c r="B701" s="31"/>
+      <c r="B701" s="30"/>
       <c r="C701" s="11"/>
       <c r="D701" s="11"/>
       <c r="E701" s="11"/>
@@ -23939,7 +24000,7 @@
     </row>
     <row r="702" ht="15.75" customHeight="1">
       <c r="A702" s="11"/>
-      <c r="B702" s="31"/>
+      <c r="B702" s="30"/>
       <c r="C702" s="11"/>
       <c r="D702" s="11"/>
       <c r="E702" s="11"/>
@@ -23972,7 +24033,7 @@
     </row>
     <row r="703" ht="15.75" customHeight="1">
       <c r="A703" s="11"/>
-      <c r="B703" s="31"/>
+      <c r="B703" s="30"/>
       <c r="C703" s="11"/>
       <c r="D703" s="11"/>
       <c r="E703" s="11"/>
@@ -24005,7 +24066,7 @@
     </row>
     <row r="704" ht="15.75" customHeight="1">
       <c r="A704" s="11"/>
-      <c r="B704" s="31"/>
+      <c r="B704" s="30"/>
       <c r="C704" s="11"/>
       <c r="D704" s="11"/>
       <c r="E704" s="11"/>
@@ -24038,7 +24099,7 @@
     </row>
     <row r="705" ht="15.75" customHeight="1">
       <c r="A705" s="11"/>
-      <c r="B705" s="31"/>
+      <c r="B705" s="30"/>
       <c r="C705" s="11"/>
       <c r="D705" s="11"/>
       <c r="E705" s="11"/>
@@ -24071,7 +24132,7 @@
     </row>
     <row r="706" ht="15.75" customHeight="1">
       <c r="A706" s="11"/>
-      <c r="B706" s="31"/>
+      <c r="B706" s="30"/>
       <c r="C706" s="11"/>
       <c r="D706" s="11"/>
       <c r="E706" s="11"/>
@@ -24104,7 +24165,7 @@
     </row>
     <row r="707" ht="15.75" customHeight="1">
       <c r="A707" s="11"/>
-      <c r="B707" s="31"/>
+      <c r="B707" s="30"/>
       <c r="C707" s="11"/>
       <c r="D707" s="11"/>
       <c r="E707" s="11"/>
@@ -24137,7 +24198,7 @@
     </row>
     <row r="708" ht="15.75" customHeight="1">
       <c r="A708" s="11"/>
-      <c r="B708" s="31"/>
+      <c r="B708" s="30"/>
       <c r="C708" s="11"/>
       <c r="D708" s="11"/>
       <c r="E708" s="11"/>
@@ -24170,7 +24231,7 @@
     </row>
     <row r="709" ht="15.75" customHeight="1">
       <c r="A709" s="11"/>
-      <c r="B709" s="31"/>
+      <c r="B709" s="30"/>
       <c r="C709" s="11"/>
       <c r="D709" s="11"/>
       <c r="E709" s="11"/>
@@ -24203,7 +24264,7 @@
     </row>
     <row r="710" ht="15.75" customHeight="1">
       <c r="A710" s="11"/>
-      <c r="B710" s="31"/>
+      <c r="B710" s="30"/>
       <c r="C710" s="11"/>
       <c r="D710" s="11"/>
       <c r="E710" s="11"/>
@@ -24236,7 +24297,7 @@
     </row>
     <row r="711" ht="15.75" customHeight="1">
       <c r="A711" s="11"/>
-      <c r="B711" s="31"/>
+      <c r="B711" s="30"/>
       <c r="C711" s="11"/>
       <c r="D711" s="11"/>
       <c r="E711" s="11"/>
@@ -24269,7 +24330,7 @@
     </row>
     <row r="712" ht="15.75" customHeight="1">
       <c r="A712" s="11"/>
-      <c r="B712" s="31"/>
+      <c r="B712" s="30"/>
       <c r="C712" s="11"/>
       <c r="D712" s="11"/>
       <c r="E712" s="11"/>
@@ -24302,7 +24363,7 @@
     </row>
     <row r="713" ht="15.75" customHeight="1">
       <c r="A713" s="11"/>
-      <c r="B713" s="31"/>
+      <c r="B713" s="30"/>
       <c r="C713" s="11"/>
       <c r="D713" s="11"/>
       <c r="E713" s="11"/>
@@ -24335,7 +24396,7 @@
     </row>
     <row r="714" ht="15.75" customHeight="1">
       <c r="A714" s="11"/>
-      <c r="B714" s="31"/>
+      <c r="B714" s="30"/>
       <c r="C714" s="11"/>
       <c r="D714" s="11"/>
       <c r="E714" s="11"/>
@@ -24368,7 +24429,7 @@
     </row>
     <row r="715" ht="15.75" customHeight="1">
       <c r="A715" s="11"/>
-      <c r="B715" s="31"/>
+      <c r="B715" s="30"/>
       <c r="C715" s="11"/>
       <c r="D715" s="11"/>
       <c r="E715" s="11"/>
@@ -24401,7 +24462,7 @@
     </row>
     <row r="716" ht="15.75" customHeight="1">
       <c r="A716" s="11"/>
-      <c r="B716" s="31"/>
+      <c r="B716" s="30"/>
       <c r="C716" s="11"/>
       <c r="D716" s="11"/>
       <c r="E716" s="11"/>
@@ -24434,7 +24495,7 @@
     </row>
     <row r="717" ht="15.75" customHeight="1">
       <c r="A717" s="11"/>
-      <c r="B717" s="31"/>
+      <c r="B717" s="30"/>
       <c r="C717" s="11"/>
       <c r="D717" s="11"/>
       <c r="E717" s="11"/>
@@ -24467,7 +24528,7 @@
     </row>
     <row r="718" ht="15.75" customHeight="1">
       <c r="A718" s="11"/>
-      <c r="B718" s="31"/>
+      <c r="B718" s="30"/>
       <c r="C718" s="11"/>
       <c r="D718" s="11"/>
       <c r="E718" s="11"/>
@@ -24500,7 +24561,7 @@
     </row>
     <row r="719" ht="15.75" customHeight="1">
       <c r="A719" s="11"/>
-      <c r="B719" s="31"/>
+      <c r="B719" s="30"/>
       <c r="C719" s="11"/>
       <c r="D719" s="11"/>
       <c r="E719" s="11"/>
@@ -24533,7 +24594,7 @@
     </row>
     <row r="720" ht="15.75" customHeight="1">
       <c r="A720" s="11"/>
-      <c r="B720" s="31"/>
+      <c r="B720" s="30"/>
       <c r="C720" s="11"/>
       <c r="D720" s="11"/>
       <c r="E720" s="11"/>
@@ -24566,7 +24627,7 @@
     </row>
     <row r="721" ht="15.75" customHeight="1">
       <c r="A721" s="11"/>
-      <c r="B721" s="31"/>
+      <c r="B721" s="30"/>
       <c r="C721" s="11"/>
       <c r="D721" s="11"/>
       <c r="E721" s="11"/>
@@ -24599,7 +24660,7 @@
     </row>
     <row r="722" ht="15.75" customHeight="1">
       <c r="A722" s="11"/>
-      <c r="B722" s="31"/>
+      <c r="B722" s="30"/>
       <c r="C722" s="11"/>
       <c r="D722" s="11"/>
       <c r="E722" s="11"/>
@@ -24632,7 +24693,7 @@
     </row>
     <row r="723" ht="15.75" customHeight="1">
       <c r="A723" s="11"/>
-      <c r="B723" s="31"/>
+      <c r="B723" s="30"/>
       <c r="C723" s="11"/>
       <c r="D723" s="11"/>
       <c r="E723" s="11"/>
@@ -24665,7 +24726,7 @@
     </row>
     <row r="724" ht="15.75" customHeight="1">
       <c r="A724" s="11"/>
-      <c r="B724" s="31"/>
+      <c r="B724" s="30"/>
       <c r="C724" s="11"/>
       <c r="D724" s="11"/>
       <c r="E724" s="11"/>
@@ -24698,7 +24759,7 @@
     </row>
     <row r="725" ht="15.75" customHeight="1">
       <c r="A725" s="11"/>
-      <c r="B725" s="31"/>
+      <c r="B725" s="30"/>
       <c r="C725" s="11"/>
       <c r="D725" s="11"/>
       <c r="E725" s="11"/>
@@ -24731,7 +24792,7 @@
     </row>
     <row r="726" ht="15.75" customHeight="1">
       <c r="A726" s="11"/>
-      <c r="B726" s="31"/>
+      <c r="B726" s="30"/>
       <c r="C726" s="11"/>
       <c r="D726" s="11"/>
       <c r="E726" s="11"/>
@@ -24764,7 +24825,7 @@
     </row>
     <row r="727" ht="15.75" customHeight="1">
       <c r="A727" s="11"/>
-      <c r="B727" s="31"/>
+      <c r="B727" s="30"/>
       <c r="C727" s="11"/>
       <c r="D727" s="11"/>
       <c r="E727" s="11"/>
@@ -24797,7 +24858,7 @@
     </row>
     <row r="728" ht="15.75" customHeight="1">
       <c r="A728" s="11"/>
-      <c r="B728" s="31"/>
+      <c r="B728" s="30"/>
       <c r="C728" s="11"/>
       <c r="D728" s="11"/>
       <c r="E728" s="11"/>
@@ -24830,7 +24891,7 @@
     </row>
     <row r="729" ht="15.75" customHeight="1">
       <c r="A729" s="11"/>
-      <c r="B729" s="31"/>
+      <c r="B729" s="30"/>
       <c r="C729" s="11"/>
       <c r="D729" s="11"/>
       <c r="E729" s="11"/>
@@ -24863,7 +24924,7 @@
     </row>
     <row r="730" ht="15.75" customHeight="1">
       <c r="A730" s="11"/>
-      <c r="B730" s="31"/>
+      <c r="B730" s="30"/>
       <c r="C730" s="11"/>
       <c r="D730" s="11"/>
       <c r="E730" s="11"/>
@@ -24896,7 +24957,7 @@
     </row>
     <row r="731" ht="15.75" customHeight="1">
       <c r="A731" s="11"/>
-      <c r="B731" s="31"/>
+      <c r="B731" s="30"/>
       <c r="C731" s="11"/>
       <c r="D731" s="11"/>
       <c r="E731" s="11"/>
@@ -24929,7 +24990,7 @@
     </row>
     <row r="732" ht="15.75" customHeight="1">
       <c r="A732" s="11"/>
-      <c r="B732" s="31"/>
+      <c r="B732" s="30"/>
       <c r="C732" s="11"/>
       <c r="D732" s="11"/>
       <c r="E732" s="11"/>
@@ -24962,7 +25023,7 @@
     </row>
     <row r="733" ht="15.75" customHeight="1">
       <c r="A733" s="11"/>
-      <c r="B733" s="31"/>
+      <c r="B733" s="30"/>
       <c r="C733" s="11"/>
       <c r="D733" s="11"/>
       <c r="E733" s="11"/>
@@ -24995,7 +25056,7 @@
     </row>
     <row r="734" ht="15.75" customHeight="1">
       <c r="A734" s="11"/>
-      <c r="B734" s="31"/>
+      <c r="B734" s="30"/>
       <c r="C734" s="11"/>
       <c r="D734" s="11"/>
       <c r="E734" s="11"/>
@@ -25028,7 +25089,7 @@
     </row>
     <row r="735" ht="15.75" customHeight="1">
       <c r="A735" s="11"/>
-      <c r="B735" s="31"/>
+      <c r="B735" s="30"/>
       <c r="C735" s="11"/>
       <c r="D735" s="11"/>
       <c r="E735" s="11"/>
@@ -25061,7 +25122,7 @@
     </row>
     <row r="736" ht="15.75" customHeight="1">
       <c r="A736" s="11"/>
-      <c r="B736" s="31"/>
+      <c r="B736" s="30"/>
       <c r="C736" s="11"/>
       <c r="D736" s="11"/>
       <c r="E736" s="11"/>
@@ -25094,7 +25155,7 @@
     </row>
     <row r="737" ht="15.75" customHeight="1">
       <c r="A737" s="11"/>
-      <c r="B737" s="31"/>
+      <c r="B737" s="30"/>
       <c r="C737" s="11"/>
       <c r="D737" s="11"/>
       <c r="E737" s="11"/>
@@ -25127,7 +25188,7 @@
     </row>
     <row r="738" ht="15.75" customHeight="1">
       <c r="A738" s="11"/>
-      <c r="B738" s="31"/>
+      <c r="B738" s="30"/>
       <c r="C738" s="11"/>
       <c r="D738" s="11"/>
       <c r="E738" s="11"/>
@@ -25160,7 +25221,7 @@
     </row>
     <row r="739" ht="15.75" customHeight="1">
       <c r="A739" s="11"/>
-      <c r="B739" s="31"/>
+      <c r="B739" s="30"/>
       <c r="C739" s="11"/>
       <c r="D739" s="11"/>
       <c r="E739" s="11"/>
@@ -25193,7 +25254,7 @@
     </row>
     <row r="740" ht="15.75" customHeight="1">
       <c r="A740" s="11"/>
-      <c r="B740" s="31"/>
+      <c r="B740" s="30"/>
       <c r="C740" s="11"/>
       <c r="D740" s="11"/>
       <c r="E740" s="11"/>
@@ -25226,7 +25287,7 @@
     </row>
     <row r="741" ht="15.75" customHeight="1">
       <c r="A741" s="11"/>
-      <c r="B741" s="31"/>
+      <c r="B741" s="30"/>
       <c r="C741" s="11"/>
       <c r="D741" s="11"/>
       <c r="E741" s="11"/>
@@ -25259,7 +25320,7 @@
     </row>
     <row r="742" ht="15.75" customHeight="1">
       <c r="A742" s="11"/>
-      <c r="B742" s="31"/>
+      <c r="B742" s="30"/>
       <c r="C742" s="11"/>
       <c r="D742" s="11"/>
       <c r="E742" s="11"/>
@@ -25292,7 +25353,7 @@
     </row>
     <row r="743" ht="15.75" customHeight="1">
       <c r="A743" s="11"/>
-      <c r="B743" s="31"/>
+      <c r="B743" s="30"/>
       <c r="C743" s="11"/>
       <c r="D743" s="11"/>
       <c r="E743" s="11"/>
@@ -25325,7 +25386,7 @@
     </row>
     <row r="744" ht="15.75" customHeight="1">
       <c r="A744" s="11"/>
-      <c r="B744" s="31"/>
+      <c r="B744" s="30"/>
       <c r="C744" s="11"/>
       <c r="D744" s="11"/>
       <c r="E744" s="11"/>
@@ -25358,7 +25419,7 @@
     </row>
     <row r="745" ht="15.75" customHeight="1">
       <c r="A745" s="11"/>
-      <c r="B745" s="31"/>
+      <c r="B745" s="30"/>
       <c r="C745" s="11"/>
       <c r="D745" s="11"/>
       <c r="E745" s="11"/>
@@ -25391,7 +25452,7 @@
     </row>
     <row r="746" ht="15.75" customHeight="1">
       <c r="A746" s="11"/>
-      <c r="B746" s="31"/>
+      <c r="B746" s="30"/>
       <c r="C746" s="11"/>
       <c r="D746" s="11"/>
       <c r="E746" s="11"/>
@@ -25424,7 +25485,7 @@
     </row>
     <row r="747" ht="15.75" customHeight="1">
       <c r="A747" s="11"/>
-      <c r="B747" s="31"/>
+      <c r="B747" s="30"/>
       <c r="C747" s="11"/>
       <c r="D747" s="11"/>
       <c r="E747" s="11"/>
@@ -25457,7 +25518,7 @@
     </row>
     <row r="748" ht="15.75" customHeight="1">
       <c r="A748" s="11"/>
-      <c r="B748" s="31"/>
+      <c r="B748" s="30"/>
       <c r="C748" s="11"/>
       <c r="D748" s="11"/>
       <c r="E748" s="11"/>
@@ -25490,7 +25551,7 @@
     </row>
     <row r="749" ht="15.75" customHeight="1">
       <c r="A749" s="11"/>
-      <c r="B749" s="31"/>
+      <c r="B749" s="30"/>
       <c r="C749" s="11"/>
       <c r="D749" s="11"/>
       <c r="E749" s="11"/>
@@ -25523,7 +25584,7 @@
     </row>
     <row r="750" ht="15.75" customHeight="1">
       <c r="A750" s="11"/>
-      <c r="B750" s="31"/>
+      <c r="B750" s="30"/>
       <c r="C750" s="11"/>
       <c r="D750" s="11"/>
       <c r="E750" s="11"/>
@@ -25556,7 +25617,7 @@
     </row>
     <row r="751" ht="15.75" customHeight="1">
       <c r="A751" s="11"/>
-      <c r="B751" s="31"/>
+      <c r="B751" s="30"/>
       <c r="C751" s="11"/>
       <c r="D751" s="11"/>
       <c r="E751" s="11"/>
@@ -25589,7 +25650,7 @@
     </row>
     <row r="752" ht="15.75" customHeight="1">
       <c r="A752" s="11"/>
-      <c r="B752" s="31"/>
+      <c r="B752" s="30"/>
       <c r="C752" s="11"/>
       <c r="D752" s="11"/>
       <c r="E752" s="11"/>
@@ -25622,7 +25683,7 @@
     </row>
     <row r="753" ht="15.75" customHeight="1">
       <c r="A753" s="11"/>
-      <c r="B753" s="31"/>
+      <c r="B753" s="30"/>
       <c r="C753" s="11"/>
       <c r="D753" s="11"/>
       <c r="E753" s="11"/>
@@ -25655,7 +25716,7 @@
     </row>
     <row r="754" ht="15.75" customHeight="1">
       <c r="A754" s="11"/>
-      <c r="B754" s="31"/>
+      <c r="B754" s="30"/>
       <c r="C754" s="11"/>
       <c r="D754" s="11"/>
       <c r="E754" s="11"/>
@@ -25688,7 +25749,7 @@
     </row>
     <row r="755" ht="15.75" customHeight="1">
       <c r="A755" s="11"/>
-      <c r="B755" s="31"/>
+      <c r="B755" s="30"/>
       <c r="C755" s="11"/>
       <c r="D755" s="11"/>
       <c r="E755" s="11"/>
@@ -25721,7 +25782,7 @@
     </row>
     <row r="756" ht="15.75" customHeight="1">
       <c r="A756" s="11"/>
-      <c r="B756" s="31"/>
+      <c r="B756" s="30"/>
       <c r="C756" s="11"/>
       <c r="D756" s="11"/>
       <c r="E756" s="11"/>
@@ -25754,7 +25815,7 @@
     </row>
     <row r="757" ht="15.75" customHeight="1">
       <c r="A757" s="11"/>
-      <c r="B757" s="31"/>
+      <c r="B757" s="30"/>
       <c r="C757" s="11"/>
       <c r="D757" s="11"/>
       <c r="E757" s="11"/>
@@ -25787,7 +25848,7 @@
     </row>
     <row r="758" ht="15.75" customHeight="1">
       <c r="A758" s="11"/>
-      <c r="B758" s="31"/>
+      <c r="B758" s="30"/>
       <c r="C758" s="11"/>
       <c r="D758" s="11"/>
       <c r="E758" s="11"/>
@@ -25820,7 +25881,7 @@
     </row>
     <row r="759" ht="15.75" customHeight="1">
       <c r="A759" s="11"/>
-      <c r="B759" s="31"/>
+      <c r="B759" s="30"/>
       <c r="C759" s="11"/>
       <c r="D759" s="11"/>
       <c r="E759" s="11"/>
@@ -25853,7 +25914,7 @@
     </row>
     <row r="760" ht="15.75" customHeight="1">
       <c r="A760" s="11"/>
-      <c r="B760" s="31"/>
+      <c r="B760" s="30"/>
       <c r="C760" s="11"/>
       <c r="D760" s="11"/>
       <c r="E760" s="11"/>
@@ -25886,7 +25947,7 @@
     </row>
     <row r="761" ht="15.75" customHeight="1">
       <c r="A761" s="11"/>
-      <c r="B761" s="31"/>
+      <c r="B761" s="30"/>
       <c r="C761" s="11"/>
       <c r="D761" s="11"/>
       <c r="E761" s="11"/>
@@ -25919,7 +25980,7 @@
     </row>
     <row r="762" ht="15.75" customHeight="1">
       <c r="A762" s="11"/>
-      <c r="B762" s="31"/>
+      <c r="B762" s="30"/>
       <c r="C762" s="11"/>
       <c r="D762" s="11"/>
       <c r="E762" s="11"/>
@@ -25952,7 +26013,7 @@
     </row>
     <row r="763" ht="15.75" customHeight="1">
       <c r="A763" s="11"/>
-      <c r="B763" s="31"/>
+      <c r="B763" s="30"/>
       <c r="C763" s="11"/>
       <c r="D763" s="11"/>
       <c r="E763" s="11"/>
@@ -25985,7 +26046,7 @@
     </row>
     <row r="764" ht="15.75" customHeight="1">
       <c r="A764" s="11"/>
-      <c r="B764" s="31"/>
+      <c r="B764" s="30"/>
       <c r="C764" s="11"/>
       <c r="D764" s="11"/>
       <c r="E764" s="11"/>
@@ -26018,7 +26079,7 @@
     </row>
     <row r="765" ht="15.75" customHeight="1">
       <c r="A765" s="11"/>
-      <c r="B765" s="31"/>
+      <c r="B765" s="30"/>
       <c r="C765" s="11"/>
       <c r="D765" s="11"/>
       <c r="E765" s="11"/>
@@ -26051,7 +26112,7 @@
     </row>
     <row r="766" ht="15.75" customHeight="1">
       <c r="A766" s="11"/>
-      <c r="B766" s="31"/>
+      <c r="B766" s="30"/>
       <c r="C766" s="11"/>
       <c r="D766" s="11"/>
       <c r="E766" s="11"/>
@@ -26084,7 +26145,7 @@
     </row>
     <row r="767" ht="15.75" customHeight="1">
       <c r="A767" s="11"/>
-      <c r="B767" s="31"/>
+      <c r="B767" s="30"/>
       <c r="C767" s="11"/>
       <c r="D767" s="11"/>
       <c r="E767" s="11"/>
@@ -26117,7 +26178,7 @@
     </row>
     <row r="768" ht="15.75" customHeight="1">
       <c r="A768" s="11"/>
-      <c r="B768" s="31"/>
+      <c r="B768" s="30"/>
       <c r="C768" s="11"/>
       <c r="D768" s="11"/>
       <c r="E768" s="11"/>
@@ -26150,7 +26211,7 @@
     </row>
     <row r="769" ht="15.75" customHeight="1">
       <c r="A769" s="11"/>
-      <c r="B769" s="31"/>
+      <c r="B769" s="30"/>
       <c r="C769" s="11"/>
       <c r="D769" s="11"/>
       <c r="E769" s="11"/>
@@ -26183,7 +26244,7 @@
     </row>
     <row r="770" ht="15.75" customHeight="1">
       <c r="A770" s="11"/>
-      <c r="B770" s="31"/>
+      <c r="B770" s="30"/>
       <c r="C770" s="11"/>
       <c r="D770" s="11"/>
       <c r="E770" s="11"/>
@@ -26216,7 +26277,7 @@
     </row>
     <row r="771" ht="15.75" customHeight="1">
       <c r="A771" s="11"/>
-      <c r="B771" s="31"/>
+      <c r="B771" s="30"/>
       <c r="C771" s="11"/>
       <c r="D771" s="11"/>
       <c r="E771" s="11"/>
@@ -26249,7 +26310,7 @@
     </row>
     <row r="772" ht="15.75" customHeight="1">
       <c r="A772" s="11"/>
-      <c r="B772" s="31"/>
+      <c r="B772" s="30"/>
       <c r="C772" s="11"/>
       <c r="D772" s="11"/>
       <c r="E772" s="11"/>
@@ -26282,7 +26343,7 @@
     </row>
     <row r="773" ht="15.75" customHeight="1">
       <c r="A773" s="11"/>
-      <c r="B773" s="31"/>
+      <c r="B773" s="30"/>
       <c r="C773" s="11"/>
       <c r="D773" s="11"/>
       <c r="E773" s="11"/>
@@ -26315,7 +26376,7 @@
     </row>
     <row r="774" ht="15.75" customHeight="1">
       <c r="A774" s="11"/>
-      <c r="B774" s="31"/>
+      <c r="B774" s="30"/>
       <c r="C774" s="11"/>
       <c r="D774" s="11"/>
       <c r="E774" s="11"/>
@@ -26348,7 +26409,7 @@
     </row>
     <row r="775" ht="15.75" customHeight="1">
       <c r="A775" s="11"/>
-      <c r="B775" s="31"/>
+      <c r="B775" s="30"/>
       <c r="C775" s="11"/>
       <c r="D775" s="11"/>
       <c r="E775" s="11"/>
@@ -26381,7 +26442,7 @@
     </row>
     <row r="776" ht="15.75" customHeight="1">
       <c r="A776" s="11"/>
-      <c r="B776" s="31"/>
+      <c r="B776" s="30"/>
       <c r="C776" s="11"/>
       <c r="D776" s="11"/>
       <c r="E776" s="11"/>
@@ -26414,7 +26475,7 @@
     </row>
     <row r="777" ht="15.75" customHeight="1">
       <c r="A777" s="11"/>
-      <c r="B777" s="31"/>
+      <c r="B777" s="30"/>
       <c r="C777" s="11"/>
       <c r="D777" s="11"/>
       <c r="E777" s="11"/>
@@ -26447,7 +26508,7 @@
     </row>
     <row r="778" ht="15.75" customHeight="1">
       <c r="A778" s="11"/>
-      <c r="B778" s="31"/>
+      <c r="B778" s="30"/>
       <c r="C778" s="11"/>
       <c r="D778" s="11"/>
       <c r="E778" s="11"/>
@@ -26480,7 +26541,7 @@
     </row>
     <row r="779" ht="15.75" customHeight="1">
       <c r="A779" s="11"/>
-      <c r="B779" s="31"/>
+      <c r="B779" s="30"/>
       <c r="C779" s="11"/>
       <c r="D779" s="11"/>
       <c r="E779" s="11"/>
@@ -26513,7 +26574,7 @@
     </row>
     <row r="780" ht="15.75" customHeight="1">
       <c r="A780" s="11"/>
-      <c r="B780" s="31"/>
+      <c r="B780" s="30"/>
       <c r="C780" s="11"/>
       <c r="D780" s="11"/>
       <c r="E780" s="11"/>
@@ -26546,7 +26607,7 @@
     </row>
     <row r="781" ht="15.75" customHeight="1">
       <c r="A781" s="11"/>
-      <c r="B781" s="31"/>
+      <c r="B781" s="30"/>
       <c r="C781" s="11"/>
       <c r="D781" s="11"/>
       <c r="E781" s="11"/>
@@ -26579,7 +26640,7 @@
     </row>
     <row r="782" ht="15.75" customHeight="1">
       <c r="A782" s="11"/>
-      <c r="B782" s="31"/>
+      <c r="B782" s="30"/>
       <c r="C782" s="11"/>
       <c r="D782" s="11"/>
       <c r="E782" s="11"/>
@@ -26612,7 +26673,7 @@
     </row>
     <row r="783" ht="15.75" customHeight="1">
       <c r="A783" s="11"/>
-      <c r="B783" s="31"/>
+      <c r="B783" s="30"/>
       <c r="C783" s="11"/>
       <c r="D783" s="11"/>
       <c r="E783" s="11"/>
@@ -26645,7 +26706,7 @@
     </row>
     <row r="784" ht="15.75" customHeight="1">
       <c r="A784" s="11"/>
-      <c r="B784" s="31"/>
+      <c r="B784" s="30"/>
       <c r="C784" s="11"/>
       <c r="D784" s="11"/>
       <c r="E784" s="11"/>
@@ -26678,7 +26739,7 @@
     </row>
     <row r="785" ht="15.75" customHeight="1">
       <c r="A785" s="11"/>
-      <c r="B785" s="31"/>
+      <c r="B785" s="30"/>
       <c r="C785" s="11"/>
       <c r="D785" s="11"/>
       <c r="E785" s="11"/>
@@ -26711,7 +26772,7 @@
     </row>
     <row r="786" ht="15.75" customHeight="1">
       <c r="A786" s="11"/>
-      <c r="B786" s="31"/>
+      <c r="B786" s="30"/>
       <c r="C786" s="11"/>
       <c r="D786" s="11"/>
       <c r="E786" s="11"/>
@@ -26744,7 +26805,7 @@
     </row>
     <row r="787" ht="15.75" customHeight="1">
       <c r="A787" s="11"/>
-      <c r="B787" s="31"/>
+      <c r="B787" s="30"/>
       <c r="C787" s="11"/>
       <c r="D787" s="11"/>
       <c r="E787" s="11"/>
@@ -26777,7 +26838,7 @@
     </row>
     <row r="788" ht="15.75" customHeight="1">
       <c r="A788" s="11"/>
-      <c r="B788" s="31"/>
+      <c r="B788" s="30"/>
       <c r="C788" s="11"/>
       <c r="D788" s="11"/>
       <c r="E788" s="11"/>
@@ -26810,7 +26871,7 @@
     </row>
     <row r="789" ht="15.75" customHeight="1">
       <c r="A789" s="11"/>
-      <c r="B789" s="31"/>
+      <c r="B789" s="30"/>
       <c r="C789" s="11"/>
       <c r="D789" s="11"/>
       <c r="E789" s="11"/>
@@ -26843,7 +26904,7 @@
     </row>
     <row r="790" ht="15.75" customHeight="1">
       <c r="A790" s="11"/>
-      <c r="B790" s="31"/>
+      <c r="B790" s="30"/>
       <c r="C790" s="11"/>
       <c r="D790" s="11"/>
       <c r="E790" s="11"/>
@@ -26876,7 +26937,7 @@
     </row>
     <row r="791" ht="15.75" customHeight="1">
       <c r="A791" s="11"/>
-      <c r="B791" s="31"/>
+      <c r="B791" s="30"/>
       <c r="C791" s="11"/>
       <c r="D791" s="11"/>
       <c r="E791" s="11"/>
@@ -26909,7 +26970,7 @@
     </row>
     <row r="792" ht="15.75" customHeight="1">
       <c r="A792" s="11"/>
-      <c r="B792" s="31"/>
+      <c r="B792" s="30"/>
       <c r="C792" s="11"/>
       <c r="D792" s="11"/>
       <c r="E792" s="11"/>
@@ -26942,7 +27003,7 @@
     </row>
     <row r="793" ht="15.75" customHeight="1">
       <c r="A793" s="11"/>
-      <c r="B793" s="31"/>
+      <c r="B793" s="30"/>
       <c r="C793" s="11"/>
       <c r="D793" s="11"/>
       <c r="E793" s="11"/>
@@ -26975,7 +27036,7 @@
     </row>
     <row r="794" ht="15.75" customHeight="1">
       <c r="A794" s="11"/>
-      <c r="B794" s="31"/>
+      <c r="B794" s="30"/>
       <c r="C794" s="11"/>
       <c r="D794" s="11"/>
       <c r="E794" s="11"/>
@@ -27008,7 +27069,7 @@
     </row>
     <row r="795" ht="15.75" customHeight="1">
       <c r="A795" s="11"/>
-      <c r="B795" s="31"/>
+      <c r="B795" s="30"/>
       <c r="C795" s="11"/>
       <c r="D795" s="11"/>
       <c r="E795" s="11"/>
@@ -27041,7 +27102,7 @@
     </row>
     <row r="796" ht="15.75" customHeight="1">
       <c r="A796" s="11"/>
-      <c r="B796" s="31"/>
+      <c r="B796" s="30"/>
       <c r="C796" s="11"/>
       <c r="D796" s="11"/>
       <c r="E796" s="11"/>
@@ -27074,7 +27135,7 @@
     </row>
     <row r="797" ht="15.75" customHeight="1">
       <c r="A797" s="11"/>
-      <c r="B797" s="31"/>
+      <c r="B797" s="30"/>
       <c r="C797" s="11"/>
       <c r="D797" s="11"/>
       <c r="E797" s="11"/>
@@ -27107,7 +27168,7 @@
     </row>
     <row r="798" ht="15.75" customHeight="1">
       <c r="A798" s="11"/>
-      <c r="B798" s="31"/>
+      <c r="B798" s="30"/>
       <c r="C798" s="11"/>
       <c r="D798" s="11"/>
       <c r="E798" s="11"/>
@@ -27140,7 +27201,7 @@
     </row>
     <row r="799" ht="15.75" customHeight="1">
       <c r="A799" s="11"/>
-      <c r="B799" s="31"/>
+      <c r="B799" s="30"/>
       <c r="C799" s="11"/>
       <c r="D799" s="11"/>
       <c r="E799" s="11"/>
@@ -27173,7 +27234,7 @@
     </row>
     <row r="800" ht="15.75" customHeight="1">
       <c r="A800" s="11"/>
-      <c r="B800" s="31"/>
+      <c r="B800" s="30"/>
       <c r="C800" s="11"/>
       <c r="D800" s="11"/>
       <c r="E800" s="11"/>
@@ -27206,7 +27267,7 @@
     </row>
     <row r="801" ht="15.75" customHeight="1">
       <c r="A801" s="11"/>
-      <c r="B801" s="31"/>
+      <c r="B801" s="30"/>
       <c r="C801" s="11"/>
       <c r="D801" s="11"/>
       <c r="E801" s="11"/>
@@ -27239,7 +27300,7 @@
     </row>
     <row r="802" ht="15.75" customHeight="1">
       <c r="A802" s="11"/>
-      <c r="B802" s="31"/>
+      <c r="B802" s="30"/>
       <c r="C802" s="11"/>
       <c r="D802" s="11"/>
       <c r="E802" s="11"/>
@@ -27272,7 +27333,7 @@
     </row>
     <row r="803" ht="15.75" customHeight="1">
       <c r="A803" s="11"/>
-      <c r="B803" s="31"/>
+      <c r="B803" s="30"/>
       <c r="C803" s="11"/>
       <c r="D803" s="11"/>
       <c r="E803" s="11"/>
@@ -27305,7 +27366,7 @@
     </row>
     <row r="804" ht="15.75" customHeight="1">
       <c r="A804" s="11"/>
-      <c r="B804" s="31"/>
+      <c r="B804" s="30"/>
       <c r="C804" s="11"/>
       <c r="D804" s="11"/>
       <c r="E804" s="11"/>
@@ -27338,7 +27399,7 @@
     </row>
     <row r="805" ht="15.75" customHeight="1">
       <c r="A805" s="11"/>
-      <c r="B805" s="31"/>
+      <c r="B805" s="30"/>
       <c r="C805" s="11"/>
       <c r="D805" s="11"/>
       <c r="E805" s="11"/>
@@ -27371,7 +27432,7 @@
     </row>
     <row r="806" ht="15.75" customHeight="1">
       <c r="A806" s="11"/>
-      <c r="B806" s="31"/>
+      <c r="B806" s="30"/>
       <c r="C806" s="11"/>
       <c r="D806" s="11"/>
       <c r="E806" s="11"/>
@@ -27404,7 +27465,7 @@
     </row>
     <row r="807" ht="15.75" customHeight="1">
       <c r="A807" s="11"/>
-      <c r="B807" s="31"/>
+      <c r="B807" s="30"/>
       <c r="C807" s="11"/>
       <c r="D807" s="11"/>
       <c r="E807" s="11"/>
@@ -27437,7 +27498,7 @@
     </row>
     <row r="808" ht="15.75" customHeight="1">
       <c r="A808" s="11"/>
-      <c r="B808" s="31"/>
+      <c r="B808" s="30"/>
       <c r="C808" s="11"/>
       <c r="D808" s="11"/>
       <c r="E808" s="11"/>
@@ -27470,7 +27531,7 @@
     </row>
     <row r="809" ht="15.75" customHeight="1">
       <c r="A809" s="11"/>
-      <c r="B809" s="31"/>
+      <c r="B809" s="30"/>
       <c r="C809" s="11"/>
       <c r="D809" s="11"/>
       <c r="E809" s="11"/>
@@ -27503,7 +27564,7 @@
     </row>
     <row r="810" ht="15.75" customHeight="1">
       <c r="A810" s="11"/>
-      <c r="B810" s="31"/>
+      <c r="B810" s="30"/>
       <c r="C810" s="11"/>
       <c r="D810" s="11"/>
       <c r="E810" s="11"/>
@@ -27536,7 +27597,7 @@
     </row>
     <row r="811" ht="15.75" customHeight="1">
       <c r="A811" s="11"/>
-      <c r="B811" s="31"/>
+      <c r="B811" s="30"/>
       <c r="C811" s="11"/>
       <c r="D811" s="11"/>
       <c r="E811" s="11"/>
@@ -27569,7 +27630,7 @@
     </row>
     <row r="812" ht="15.75" customHeight="1">
       <c r="A812" s="11"/>
-      <c r="B812" s="31"/>
+      <c r="B812" s="30"/>
       <c r="C812" s="11"/>
       <c r="D812" s="11"/>
       <c r="E812" s="11"/>
@@ -27602,7 +27663,7 @@
     </row>
     <row r="813" ht="15.75" customHeight="1">
       <c r="A813" s="11"/>
-      <c r="B813" s="31"/>
+      <c r="B813" s="30"/>
       <c r="C813" s="11"/>
       <c r="D813" s="11"/>
       <c r="E813" s="11"/>
@@ -27635,7 +27696,7 @@
     </row>
     <row r="814" ht="15.75" customHeight="1">
       <c r="A814" s="11"/>
-      <c r="B814" s="31"/>
+      <c r="B814" s="30"/>
       <c r="C814" s="11"/>
       <c r="D814" s="11"/>
       <c r="E814" s="11"/>
@@ -27668,7 +27729,7 @@
     </row>
     <row r="815" ht="15.75" customHeight="1">
       <c r="A815" s="11"/>
-      <c r="B815" s="31"/>
+      <c r="B815" s="30"/>
       <c r="C815" s="11"/>
       <c r="D815" s="11"/>
       <c r="E815" s="11"/>
@@ -27701,7 +27762,7 @@
     </row>
     <row r="816" ht="15.75" customHeight="1">
       <c r="A816" s="11"/>
-      <c r="B816" s="31"/>
+      <c r="B816" s="30"/>
       <c r="C816" s="11"/>
       <c r="D816" s="11"/>
       <c r="E816" s="11"/>
@@ -27734,7 +27795,7 @@
     </row>
     <row r="817" ht="15.75" customHeight="1">
       <c r="A817" s="11"/>
-      <c r="B817" s="31"/>
+      <c r="B817" s="30"/>
       <c r="C817" s="11"/>
       <c r="D817" s="11"/>
       <c r="E817" s="11"/>
@@ -27767,7 +27828,7 @@
     </row>
     <row r="818" ht="15.75" customHeight="1">
       <c r="A818" s="11"/>
-      <c r="B818" s="31"/>
+      <c r="B818" s="30"/>
       <c r="C818" s="11"/>
       <c r="D818" s="11"/>
       <c r="E818" s="11"/>
@@ -27800,7 +27861,7 @@
     </row>
     <row r="819" ht="15.75" customHeight="1">
       <c r="A819" s="11"/>
-      <c r="B819" s="31"/>
+      <c r="B819" s="30"/>
       <c r="C819" s="11"/>
       <c r="D819" s="11"/>
       <c r="E819" s="11"/>
@@ -27833,7 +27894,7 @@
     </row>
     <row r="820" ht="15.75" customHeight="1">
       <c r="A820" s="11"/>
-      <c r="B820" s="31"/>
+      <c r="B820" s="30"/>
       <c r="C820" s="11"/>
       <c r="D820" s="11"/>
       <c r="E820" s="11"/>
@@ -27866,7 +27927,7 @@
     </row>
     <row r="821" ht="15.75" customHeight="1">
       <c r="A821" s="11"/>
-      <c r="B821" s="31"/>
+      <c r="B821" s="30"/>
       <c r="C821" s="11"/>
       <c r="D821" s="11"/>
       <c r="E821" s="11"/>
@@ -27899,7 +27960,7 @@
     </row>
     <row r="822" ht="15.75" customHeight="1">
       <c r="A822" s="11"/>
-      <c r="B822" s="31"/>
+      <c r="B822" s="30"/>
       <c r="C822" s="11"/>
       <c r="D822" s="11"/>
       <c r="E822" s="11"/>
@@ -27932,7 +27993,7 @@
     </row>
     <row r="823" ht="15.75" customHeight="1">
       <c r="A823" s="11"/>
-      <c r="B823" s="31"/>
+      <c r="B823" s="30"/>
       <c r="C823" s="11"/>
       <c r="D823" s="11"/>
       <c r="E823" s="11"/>
@@ -27965,7 +28026,7 @@
     </row>
     <row r="824" ht="15.75" customHeight="1">
       <c r="A824" s="11"/>
-      <c r="B824" s="31"/>
+      <c r="B824" s="30"/>
       <c r="C824" s="11"/>
       <c r="D824" s="11"/>
       <c r="E824" s="11"/>
@@ -27998,7 +28059,7 @@
     </row>
     <row r="825" ht="15.75" customHeight="1">
       <c r="A825" s="11"/>
-      <c r="B825" s="31"/>
+      <c r="B825" s="30"/>
       <c r="C825" s="11"/>
       <c r="D825" s="11"/>
       <c r="E825" s="11"/>
@@ -28031,7 +28092,7 @@
     </row>
     <row r="826" ht="15.75" customHeight="1">
       <c r="A826" s="11"/>
-      <c r="B826" s="31"/>
+      <c r="B826" s="30"/>
       <c r="C826" s="11"/>
       <c r="D826" s="11"/>
       <c r="E826" s="11"/>
@@ -28064,7 +28125,7 @@
     </row>
     <row r="827" ht="15.75" customHeight="1">
       <c r="A827" s="11"/>
-      <c r="B827" s="31"/>
+      <c r="B827" s="30"/>
       <c r="C827" s="11"/>
       <c r="D827" s="11"/>
       <c r="E827" s="11"/>
@@ -28097,7 +28158,7 @@
     </row>
     <row r="828" ht="15.75" customHeight="1">
       <c r="A828" s="11"/>
-      <c r="B828" s="31"/>
+      <c r="B828" s="30"/>
       <c r="C828" s="11"/>
       <c r="D828" s="11"/>
       <c r="E828" s="11"/>
@@ -28130,7 +28191,7 @@
     </row>
     <row r="829" ht="15.75" customHeight="1">
       <c r="A829" s="11"/>
-      <c r="B829" s="31"/>
+      <c r="B829" s="30"/>
       <c r="C829" s="11"/>
       <c r="D829" s="11"/>
       <c r="E829" s="11"/>
@@ -28163,7 +28224,7 @@
     </row>
     <row r="830" ht="15.75" customHeight="1">
       <c r="A830" s="11"/>
-      <c r="B830" s="31"/>
+      <c r="B830" s="30"/>
       <c r="C830" s="11"/>
       <c r="D830" s="11"/>
       <c r="E830" s="11"/>
@@ -28196,7 +28257,7 @@
     </row>
     <row r="831" ht="15.75" customHeight="1">
       <c r="A831" s="11"/>
-      <c r="B831" s="31"/>
+      <c r="B831" s="30"/>
       <c r="C831" s="11"/>
       <c r="D831" s="11"/>
       <c r="E831" s="11"/>
@@ -28229,7 +28290,7 @@
     </row>
     <row r="832" ht="15.75" customHeight="1">
       <c r="A832" s="11"/>
-      <c r="B832" s="31"/>
+      <c r="B832" s="30"/>
       <c r="C832" s="11"/>
       <c r="D832" s="11"/>
       <c r="E832" s="11"/>
@@ -28262,7 +28323,7 @@
     </row>
     <row r="833" ht="15.75" customHeight="1">
       <c r="A833" s="11"/>
-      <c r="B833" s="31"/>
+      <c r="B833" s="30"/>
       <c r="C833" s="11"/>
       <c r="D833" s="11"/>
       <c r="E833" s="11"/>
@@ -28295,7 +28356,7 @@
     </row>
     <row r="834" ht="15.75" customHeight="1">
       <c r="A834" s="11"/>
-      <c r="B834" s="31"/>
+      <c r="B834" s="30"/>
       <c r="C834" s="11"/>
       <c r="D834" s="11"/>
       <c r="E834" s="11"/>
@@ -28328,7 +28389,7 @@
     </row>
     <row r="835" ht="15.75" customHeight="1">
       <c r="A835" s="11"/>
-      <c r="B835" s="31"/>
+      <c r="B835" s="30"/>
       <c r="C835" s="11"/>
       <c r="D835" s="11"/>
       <c r="E835" s="11"/>
@@ -28361,7 +28422,7 @@
     </row>
     <row r="836" ht="15.75" customHeight="1">
       <c r="A836" s="11"/>
-      <c r="B836" s="31"/>
+      <c r="B836" s="30"/>
       <c r="C836" s="11"/>
       <c r="D836" s="11"/>
       <c r="E836" s="11"/>
@@ -28394,7 +28455,7 @@
     </row>
     <row r="837" ht="15.75" customHeight="1">
       <c r="A837" s="11"/>
-      <c r="B837" s="31"/>
+      <c r="B837" s="30"/>
       <c r="C837" s="11"/>
       <c r="D837" s="11"/>
       <c r="E837" s="11"/>
@@ -28427,7 +28488,7 @@
     </row>
     <row r="838" ht="15.75" customHeight="1">
       <c r="A838" s="11"/>
-      <c r="B838" s="31"/>
+      <c r="B838" s="30"/>
       <c r="C838" s="11"/>
       <c r="D838" s="11"/>
       <c r="E838" s="11"/>
@@ -28460,7 +28521,7 @@
     </row>
     <row r="839" ht="15.75" customHeight="1">
       <c r="A839" s="11"/>
-      <c r="B839" s="31"/>
+      <c r="B839" s="30"/>
       <c r="C839" s="11"/>
       <c r="D839" s="11"/>
       <c r="E839" s="11"/>
@@ -28493,7 +28554,7 @@
     </row>
     <row r="840" ht="15.75" customHeight="1">
       <c r="A840" s="11"/>
-      <c r="B840" s="31"/>
+      <c r="B840" s="30"/>
       <c r="C840" s="11"/>
       <c r="D840" s="11"/>
       <c r="E840" s="11"/>
@@ -28526,7 +28587,7 @@
     </row>
     <row r="841" ht="15.75" customHeight="1">
       <c r="A841" s="11"/>
-      <c r="B841" s="31"/>
+      <c r="B841" s="30"/>
       <c r="C841" s="11"/>
       <c r="D841" s="11"/>
       <c r="E841" s="11"/>
@@ -28559,7 +28620,7 @@
     </row>
     <row r="842" ht="15.75" customHeight="1">
       <c r="A842" s="11"/>
-      <c r="B842" s="31"/>
+      <c r="B842" s="30"/>
       <c r="C842" s="11"/>
       <c r="D842" s="11"/>
       <c r="E842" s="11"/>
@@ -28592,7 +28653,7 @@
     </row>
     <row r="843" ht="15.75" customHeight="1">
       <c r="A843" s="11"/>
-      <c r="B843" s="31"/>
+      <c r="B843" s="30"/>
       <c r="C843" s="11"/>
       <c r="D843" s="11"/>
       <c r="E843" s="11"/>
@@ -28625,7 +28686,7 @@
     </row>
     <row r="844" ht="15.75" customHeight="1">
       <c r="A844" s="11"/>
-      <c r="B844" s="31"/>
+      <c r="B844" s="30"/>
       <c r="C844" s="11"/>
       <c r="D844" s="11"/>
       <c r="E844" s="11"/>
@@ -28658,7 +28719,7 @@
     </row>
     <row r="845" ht="15.75" customHeight="1">
       <c r="A845" s="11"/>
-      <c r="B845" s="31"/>
+      <c r="B845" s="30"/>
       <c r="C845" s="11"/>
       <c r="D845" s="11"/>
       <c r="E845" s="11"/>
@@ -28691,7 +28752,7 @@
     </row>
     <row r="846" ht="15.75" customHeight="1">
       <c r="A846" s="11"/>
-      <c r="B846" s="31"/>
+      <c r="B846" s="30"/>
       <c r="C846" s="11"/>
       <c r="D846" s="11"/>
       <c r="E846" s="11"/>
@@ -28724,7 +28785,7 @@
     </row>
     <row r="847" ht="15.75" customHeight="1">
       <c r="A847" s="11"/>
-      <c r="B847" s="31"/>
+      <c r="B847" s="30"/>
       <c r="C847" s="11"/>
       <c r="D847" s="11"/>
       <c r="E847" s="11"/>
@@ -28757,7 +28818,7 @@
     </row>
     <row r="848" ht="15.75" customHeight="1">
       <c r="A848" s="11"/>
-      <c r="B848" s="31"/>
+      <c r="B848" s="30"/>
       <c r="C848" s="11"/>
       <c r="D848" s="11"/>
       <c r="E848" s="11"/>
@@ -28790,7 +28851,7 @@
     </row>
     <row r="849" ht="15.75" customHeight="1">
       <c r="A849" s="11"/>
-      <c r="B849" s="31"/>
+      <c r="B849" s="30"/>
       <c r="C849" s="11"/>
       <c r="D849" s="11"/>
       <c r="E849" s="11"/>
@@ -28823,7 +28884,7 @@
     </row>
     <row r="850" ht="15.75" customHeight="1">
       <c r="A850" s="11"/>
-      <c r="B850" s="31"/>
+      <c r="B850" s="30"/>
       <c r="C850" s="11"/>
       <c r="D850" s="11"/>
       <c r="E850" s="11"/>
@@ -28856,7 +28917,7 @@
     </row>
     <row r="851" ht="15.75" customHeight="1">
       <c r="A851" s="11"/>
-      <c r="B851" s="31"/>
+      <c r="B851" s="30"/>
       <c r="C851" s="11"/>
       <c r="D851" s="11"/>
       <c r="E851" s="11"/>
@@ -28889,7 +28950,7 @@
     </row>
     <row r="852" ht="15.75" customHeight="1">
       <c r="A852" s="11"/>
-      <c r="B852" s="31"/>
+      <c r="B852" s="30"/>
       <c r="C852" s="11"/>
       <c r="D852" s="11"/>
       <c r="E852" s="11"/>
@@ -28922,7 +28983,7 @@
     </row>
     <row r="853" ht="15.75" customHeight="1">
       <c r="A853" s="11"/>
-      <c r="B853" s="31"/>
+      <c r="B853" s="30"/>
       <c r="C853" s="11"/>
       <c r="D853" s="11"/>
       <c r="E853" s="11"/>
@@ -28955,7 +29016,7 @@
     </row>
     <row r="854" ht="15.75" customHeight="1">
       <c r="A854" s="11"/>
-      <c r="B854" s="31"/>
+      <c r="B854" s="30"/>
       <c r="C854" s="11"/>
       <c r="D854" s="11"/>
       <c r="E854" s="11"/>
@@ -28988,7 +29049,7 @@
     </row>
     <row r="855" ht="15.75" customHeight="1">
       <c r="A855" s="11"/>
-      <c r="B855" s="31"/>
+      <c r="B855" s="30"/>
       <c r="C855" s="11"/>
       <c r="D855" s="11"/>
       <c r="E855" s="11"/>
@@ -29021,7 +29082,7 @@
     </row>
     <row r="856" ht="15.75" customHeight="1">
       <c r="A856" s="11"/>
-      <c r="B856" s="31"/>
+      <c r="B856" s="30"/>
       <c r="C856" s="11"/>
       <c r="D856" s="11"/>
       <c r="E856" s="11"/>
@@ -29054,7 +29115,7 @@
     </row>
     <row r="857" ht="15.75" customHeight="1">
       <c r="A857" s="11"/>
-      <c r="B857" s="31"/>
+      <c r="B857" s="30"/>
       <c r="C857" s="11"/>
       <c r="D857" s="11"/>
       <c r="E857" s="11"/>
@@ -29087,7 +29148,7 @@
     </row>
     <row r="858" ht="15.75" customHeight="1">
       <c r="A858" s="11"/>
-      <c r="B858" s="31"/>
+      <c r="B858" s="30"/>
       <c r="C858" s="11"/>
       <c r="D858" s="11"/>
       <c r="E858" s="11"/>
@@ -29120,7 +29181,7 @@
     </row>
     <row r="859" ht="15.75" customHeight="1">
       <c r="A859" s="11"/>
-      <c r="B859" s="31"/>
+      <c r="B859" s="30"/>
       <c r="C859" s="11"/>
       <c r="D859" s="11"/>
       <c r="E859" s="11"/>
@@ -29153,7 +29214,7 @@
     </row>
     <row r="860" ht="15.75" customHeight="1">
       <c r="A860" s="11"/>
-      <c r="B860" s="31"/>
+      <c r="B860" s="30"/>
       <c r="C860" s="11"/>
       <c r="D860" s="11"/>
       <c r="E860" s="11"/>
@@ -29186,7 +29247,7 @@
     </row>
     <row r="861" ht="15.75" customHeight="1">
       <c r="A861" s="11"/>
-      <c r="B861" s="31"/>
+      <c r="B861" s="30"/>
       <c r="C861" s="11"/>
       <c r="D861" s="11"/>
       <c r="E861" s="11"/>
@@ -29219,7 +29280,7 @@
     </row>
     <row r="862" ht="15.75" customHeight="1">
       <c r="A862" s="11"/>
-      <c r="B862" s="31"/>
+      <c r="B862" s="30"/>
       <c r="C862" s="11"/>
       <c r="D862" s="11"/>
       <c r="E862" s="11"/>
@@ -29252,7 +29313,7 @@
     </row>
     <row r="863" ht="15.75" customHeight="1">
       <c r="A863" s="11"/>
-      <c r="B863" s="31"/>
+      <c r="B863" s="30"/>
       <c r="C863" s="11"/>
       <c r="D863" s="11"/>
       <c r="E863" s="11"/>
@@ -29285,7 +29346,7 @@
     </row>
     <row r="864" ht="15.75" customHeight="1">
       <c r="A864" s="11"/>
-      <c r="B864" s="31"/>
+      <c r="B864" s="30"/>
       <c r="C864" s="11"/>
       <c r="D864" s="11"/>
       <c r="E864" s="11"/>
@@ -29318,7 +29379,7 @@
     </row>
     <row r="865" ht="15.75" customHeight="1">
       <c r="A865" s="11"/>
-      <c r="B865" s="31"/>
+      <c r="B865" s="30"/>
       <c r="C865" s="11"/>
       <c r="D865" s="11"/>
       <c r="E865" s="11"/>
@@ -29351,7 +29412,7 @@
     </row>
     <row r="866" ht="15.75" customHeight="1">
       <c r="A866" s="11"/>
-      <c r="B866" s="31"/>
+      <c r="B866" s="30"/>
       <c r="C866" s="11"/>
       <c r="D866" s="11"/>
       <c r="E866" s="11"/>
@@ -29384,7 +29445,7 @@
     </row>
     <row r="867" ht="15.75" customHeight="1">
       <c r="A867" s="11"/>
-      <c r="B867" s="31"/>
+      <c r="B867" s="30"/>
       <c r="C867" s="11"/>
       <c r="D867" s="11"/>
       <c r="E867" s="11"/>
@@ -29417,7 +29478,7 @@
     </row>
     <row r="868" ht="15.75" customHeight="1">
       <c r="A868" s="11"/>
-      <c r="B868" s="31"/>
+      <c r="B868" s="30"/>
       <c r="C868" s="11"/>
       <c r="D868" s="11"/>
       <c r="E868" s="11"/>
@@ -29450,7 +29511,7 @@
     </row>
     <row r="869" ht="15.75" customHeight="1">
       <c r="A869" s="11"/>
-      <c r="B869" s="31"/>
+      <c r="B869" s="30"/>
       <c r="C869" s="11"/>
       <c r="D869" s="11"/>
       <c r="E869" s="11"/>
@@ -29483,7 +29544,7 @@
     </row>
     <row r="870" ht="15.75" customHeight="1">
       <c r="A870" s="11"/>
-      <c r="B870" s="31"/>
+      <c r="B870" s="30"/>
       <c r="C870" s="11"/>
       <c r="D870" s="11"/>
       <c r="E870" s="11"/>
@@ -29516,7 +29577,7 @@
     </row>
     <row r="871" ht="15.75" customHeight="1">
       <c r="A871" s="11"/>
-      <c r="B871" s="31"/>
+      <c r="B871" s="30"/>
       <c r="C871" s="11"/>
       <c r="D871" s="11"/>
       <c r="E871" s="11"/>
@@ -29549,7 +29610,7 @@
     </row>
     <row r="872" ht="15.75" customHeight="1">
       <c r="A872" s="11"/>
-      <c r="B872" s="31"/>
+      <c r="B872" s="30"/>
       <c r="C872" s="11"/>
       <c r="D872" s="11"/>
       <c r="E872" s="11"/>
@@ -29582,7 +29643,7 @@
     </row>
     <row r="873" ht="15.75" customHeight="1">
       <c r="A873" s="11"/>
-      <c r="B873" s="31"/>
+      <c r="B873" s="30"/>
       <c r="C873" s="11"/>
       <c r="D873" s="11"/>
       <c r="E873" s="11"/>
@@ -29615,7 +29676,7 @@
     </row>
     <row r="874" ht="15.75" customHeight="1">
       <c r="A874" s="11"/>
-      <c r="B874" s="31"/>
+      <c r="B874" s="30"/>
       <c r="C874" s="11"/>
       <c r="D874" s="11"/>
       <c r="E874" s="11"/>
@@ -29648,7 +29709,7 @@
     </row>
     <row r="875" ht="15.75" customHeight="1">
       <c r="A875" s="11"/>
-      <c r="B875" s="31"/>
+      <c r="B875" s="30"/>
       <c r="C875" s="11"/>
       <c r="D875" s="11"/>
       <c r="E875" s="11"/>
@@ -29681,7 +29742,7 @@
     </row>
     <row r="876" ht="15.75" customHeight="1">
       <c r="A876" s="11"/>
-      <c r="B876" s="31"/>
+      <c r="B876" s="30"/>
       <c r="C876" s="11"/>
       <c r="D876" s="11"/>
       <c r="E876" s="11"/>
@@ -29714,7 +29775,7 @@
     </row>
     <row r="877" ht="15.75" customHeight="1">
       <c r="A877" s="11"/>
-      <c r="B877" s="31"/>
+      <c r="B877" s="30"/>
       <c r="C877" s="11"/>
       <c r="D877" s="11"/>
       <c r="E877" s="11"/>
@@ -29747,7 +29808,7 @@
     </row>
     <row r="878" ht="15.75" customHeight="1">
       <c r="A878" s="11"/>
-      <c r="B878" s="31"/>
+      <c r="B878" s="30"/>
       <c r="C878" s="11"/>
       <c r="D878" s="11"/>
       <c r="E878" s="11"/>
@@ -29780,7 +29841,7 @@
     </row>
     <row r="879" ht="15.75" customHeight="1">
       <c r="A879" s="11"/>
-      <c r="B879" s="31"/>
+      <c r="B879" s="30"/>
       <c r="C879" s="11"/>
       <c r="D879" s="11"/>
       <c r="E879" s="11"/>
@@ -29813,7 +29874,7 @@
     </row>
     <row r="880" ht="15.75" customHeight="1">
       <c r="A880" s="11"/>
-      <c r="B880" s="31"/>
+      <c r="B880" s="30"/>
       <c r="C880" s="11"/>
       <c r="D880" s="11"/>
       <c r="E880" s="11"/>
@@ -29846,7 +29907,7 @@
     </row>
     <row r="881" ht="15.75" customHeight="1">
       <c r="A881" s="11"/>
-      <c r="B881" s="31"/>
+      <c r="B881" s="30"/>
       <c r="C881" s="11"/>
       <c r="D881" s="11"/>
       <c r="E881" s="11"/>
@@ -29879,7 +29940,7 @@
     </row>
     <row r="882" ht="15.75" customHeight="1">
       <c r="A882" s="11"/>
-      <c r="B882" s="31"/>
+      <c r="B882" s="30"/>
       <c r="C882" s="11"/>
       <c r="D882" s="11"/>
       <c r="E882" s="11"/>
@@ -29912,7 +29973,7 @@
     </row>
     <row r="883" ht="15.75" customHeight="1">
       <c r="A883" s="11"/>
-      <c r="B883" s="31"/>
+      <c r="B883" s="30"/>
       <c r="C883" s="11"/>
       <c r="D883" s="11"/>
       <c r="E883" s="11"/>
@@ -29945,7 +30006,7 @@
     </row>
     <row r="884" ht="15.75" customHeight="1">
       <c r="A884" s="11"/>
-      <c r="B884" s="31"/>
+      <c r="B884" s="30"/>
       <c r="C884" s="11"/>
       <c r="D884" s="11"/>
       <c r="E884" s="11"/>
@@ -29978,7 +30039,7 @@
     </row>
     <row r="885" ht="15.75" customHeight="1">
       <c r="A885" s="11"/>
-      <c r="B885" s="31"/>
+      <c r="B885" s="30"/>
       <c r="C885" s="11"/>
       <c r="D885" s="11"/>
       <c r="E885" s="11"/>
@@ -30011,7 +30072,7 @@
     </row>
     <row r="886" ht="15.75" customHeight="1">
       <c r="A886" s="11"/>
-      <c r="B886" s="31"/>
+      <c r="B886" s="30"/>
       <c r="C886" s="11"/>
       <c r="D886" s="11"/>
       <c r="E886" s="11"/>
@@ -30044,7 +30105,7 @@
     </row>
     <row r="887" ht="15.75" customHeight="1">
       <c r="A887" s="11"/>
-      <c r="B887" s="31"/>
+      <c r="B887" s="30"/>
       <c r="C887" s="11"/>
       <c r="D887" s="11"/>
       <c r="E887" s="11"/>
@@ -30077,7 +30138,7 @@
     </row>
     <row r="888" ht="15.75" customHeight="1">
       <c r="A888" s="11"/>
-      <c r="B888" s="31"/>
+      <c r="B888" s="30"/>
       <c r="C888" s="11"/>
       <c r="D888" s="11"/>
       <c r="E888" s="11"/>
@@ -30110,7 +30171,7 @@
     </row>
     <row r="889" ht="15.75" customHeight="1">
       <c r="A889" s="11"/>
-      <c r="B889" s="31"/>
+      <c r="B889" s="30"/>
       <c r="C889" s="11"/>
       <c r="D889" s="11"/>
       <c r="E889" s="11"/>
@@ -30143,7 +30204,7 @@
     </row>
     <row r="890" ht="15.75" customHeight="1">
       <c r="A890" s="11"/>
-      <c r="B890" s="31"/>
+      <c r="B890" s="30"/>
       <c r="C890" s="11"/>
       <c r="D890" s="11"/>
       <c r="E890" s="11"/>
@@ -30176,7 +30237,7 @@
     </row>
     <row r="891" ht="15.75" customHeight="1">
       <c r="A891" s="11"/>
-      <c r="B891" s="31"/>
+      <c r="B891" s="30"/>
       <c r="C891" s="11"/>
       <c r="D891" s="11"/>
       <c r="E891" s="11"/>
@@ -30209,7 +30270,7 @@
     </row>
     <row r="892" ht="15.75" customHeight="1">
       <c r="A892" s="11"/>
-      <c r="B892" s="31"/>
+      <c r="B892" s="30"/>
       <c r="C892" s="11"/>
       <c r="D892" s="11"/>
       <c r="E892" s="11"/>
@@ -30242,7 +30303,7 @@
     </row>
     <row r="893" ht="15.75" customHeight="1">
       <c r="A893" s="11"/>
-      <c r="B893" s="31"/>
+      <c r="B893" s="30"/>
       <c r="C893" s="11"/>
       <c r="D893" s="11"/>
       <c r="E893" s="11"/>
@@ -30275,7 +30336,7 @@
     </row>
     <row r="894" ht="15.75" customHeight="1">
       <c r="A894" s="11"/>
-      <c r="B894" s="31"/>
+      <c r="B894" s="30"/>
       <c r="C894" s="11"/>
       <c r="D894" s="11"/>
       <c r="E894" s="11"/>
@@ -30308,7 +30369,7 @@
     </row>
     <row r="895" ht="15.75" customHeight="1">
       <c r="A895" s="11"/>
-      <c r="B895" s="31"/>
+      <c r="B895" s="30"/>
       <c r="C895" s="11"/>
       <c r="D895" s="11"/>
       <c r="E895" s="11"/>
@@ -30341,7 +30402,7 @@
     </row>
     <row r="896" ht="15.75" customHeight="1">
       <c r="A896" s="11"/>
-      <c r="B896" s="31"/>
+      <c r="B896" s="30"/>
       <c r="C896" s="11"/>
       <c r="D896" s="11"/>
       <c r="E896" s="11"/>
@@ -30374,7 +30435,7 @@
     </row>
     <row r="897" ht="15.75" customHeight="1">
       <c r="A897" s="11"/>
-      <c r="B897" s="31"/>
+      <c r="B897" s="30"/>
       <c r="C897" s="11"/>
       <c r="D897" s="11"/>
       <c r="E897" s="11"/>
@@ -30407,7 +30468,7 @@
     </row>
     <row r="898" ht="15.75" customHeight="1">
       <c r="A898" s="11"/>
-      <c r="B898" s="31"/>
+      <c r="B898" s="30"/>
       <c r="C898" s="11"/>
       <c r="D898" s="11"/>
       <c r="E898" s="11"/>
@@ -30440,7 +30501,7 @@
     </row>
     <row r="899" ht="15.75" customHeight="1">
       <c r="A899" s="11"/>
-      <c r="B899" s="31"/>
+      <c r="B899" s="30"/>
       <c r="C899" s="11"/>
       <c r="D899" s="11"/>
       <c r="E899" s="11"/>
@@ -30473,7 +30534,7 @@
     </row>
     <row r="900" ht="15.75" customHeight="1">
       <c r="A900" s="11"/>
-      <c r="B900" s="31"/>
+      <c r="B900" s="30"/>
       <c r="C900" s="11"/>
       <c r="D900" s="11"/>
       <c r="E900" s="11"/>
@@ -30506,7 +30567,7 @@
     </row>
     <row r="901" ht="15.75" customHeight="1">
       <c r="A901" s="11"/>
-      <c r="B901" s="31"/>
+      <c r="B901" s="30"/>
       <c r="C901" s="11"/>
       <c r="D901" s="11"/>
       <c r="E901" s="11"/>
@@ -30539,7 +30600,7 @@
     </row>
     <row r="902" ht="15.75" customHeight="1">
       <c r="A902" s="11"/>
-      <c r="B902" s="31"/>
+      <c r="B902" s="30"/>
       <c r="C902" s="11"/>
       <c r="D902" s="11"/>
       <c r="E902" s="11"/>
@@ -30572,7 +30633,7 @@
     </row>
     <row r="903" ht="15.75" customHeight="1">
       <c r="A903" s="11"/>
-      <c r="B903" s="31"/>
+      <c r="B903" s="30"/>
       <c r="C903" s="11"/>
       <c r="D903" s="11"/>
       <c r="E903" s="11"/>
@@ -30605,7 +30666,7 @@
     </row>
     <row r="904" ht="15.75" customHeight="1">
       <c r="A904" s="11"/>
-      <c r="B904" s="31"/>
+      <c r="B904" s="30"/>
       <c r="C904" s="11"/>
       <c r="D904" s="11"/>
       <c r="E904" s="11"/>
@@ -30638,7 +30699,7 @@
     </row>
     <row r="905" ht="15.75" customHeight="1">
       <c r="A905" s="11"/>
-      <c r="B905" s="31"/>
+      <c r="B905" s="30"/>
       <c r="C905" s="11"/>
       <c r="D905" s="11"/>
       <c r="E905" s="11"/>
@@ -30671,7 +30732,7 @@
     </row>
     <row r="906" ht="15.75" customHeight="1">
       <c r="A906" s="11"/>
-      <c r="B906" s="31"/>
+      <c r="B906" s="30"/>
       <c r="C906" s="11"/>
       <c r="D906" s="11"/>
       <c r="E906" s="11"/>
@@ -30704,7 +30765,7 @@
     </row>
     <row r="907" ht="15.75" customHeight="1">
       <c r="A907" s="11"/>
-      <c r="B907" s="31"/>
+      <c r="B907" s="30"/>
       <c r="C907" s="11"/>
       <c r="D907" s="11"/>
       <c r="E907" s="11"/>
@@ -30737,7 +30798,7 @@
     </row>
     <row r="908" ht="15.75" customHeight="1">
       <c r="A908" s="11"/>
-      <c r="B908" s="31"/>
+      <c r="B908" s="30"/>
       <c r="C908" s="11"/>
       <c r="D908" s="11"/>
       <c r="E908" s="11"/>
@@ -30770,7 +30831,7 @@
     </row>
     <row r="909" ht="15.75" customHeight="1">
       <c r="A909" s="11"/>
-      <c r="B909" s="31"/>
+      <c r="B909" s="30"/>
       <c r="C909" s="11"/>
       <c r="D909" s="11"/>
       <c r="E909" s="11"/>
@@ -30803,7 +30864,7 @@
     </row>
     <row r="910" ht="15.75" customHeight="1">
       <c r="A910" s="11"/>
-      <c r="B910" s="31"/>
+      <c r="B910" s="30"/>
       <c r="C910" s="11"/>
       <c r="D910" s="11"/>
       <c r="E910" s="11"/>
@@ -30836,7 +30897,7 @@
     </row>
     <row r="911" ht="15.75" customHeight="1">
       <c r="A911" s="11"/>
-      <c r="B911" s="31"/>
+      <c r="B911" s="30"/>
       <c r="C911" s="11"/>
       <c r="D911" s="11"/>
       <c r="E911" s="11"/>
@@ -30869,7 +30930,7 @@
     </row>
     <row r="912" ht="15.75" customHeight="1">
       <c r="A912" s="11"/>
-      <c r="B912" s="31"/>
+      <c r="B912" s="30"/>
       <c r="C912" s="11"/>
       <c r="D912" s="11"/>
       <c r="E912" s="11"/>
@@ -30902,7 +30963,7 @@
     </row>
     <row r="913" ht="15.75" customHeight="1">
       <c r="A913" s="11"/>
-      <c r="B913" s="31"/>
+      <c r="B913" s="30"/>
       <c r="C913" s="11"/>
       <c r="D913" s="11"/>
       <c r="E913" s="11"/>
@@ -30935,7 +30996,7 @@
     </row>
     <row r="914" ht="15.75" customHeight="1">
       <c r="A914" s="11"/>
-      <c r="B914" s="31"/>
+      <c r="B914" s="30"/>
       <c r="C914" s="11"/>
       <c r="D914" s="11"/>
       <c r="E914" s="11"/>
@@ -30968,7 +31029,7 @@
     </row>
     <row r="915" ht="15.75" customHeight="1">
       <c r="A915" s="11"/>
-      <c r="B915" s="31"/>
+      <c r="B915" s="30"/>
       <c r="C915" s="11"/>
       <c r="D915" s="11"/>
       <c r="E915" s="11"/>
@@ -31001,7 +31062,7 @@
     </row>
     <row r="916" ht="15.75" customHeight="1">
       <c r="A916" s="11"/>
-      <c r="B916" s="31"/>
+      <c r="B916" s="30"/>
       <c r="C916" s="11"/>
       <c r="D916" s="11"/>
       <c r="E916" s="11"/>
@@ -31034,7 +31095,7 @@
     </row>
     <row r="917" ht="15.75" customHeight="1">
       <c r="A917" s="11"/>
-      <c r="B917" s="31"/>
+      <c r="B917" s="30"/>
       <c r="C917" s="11"/>
       <c r="D917" s="11"/>
       <c r="E917" s="11"/>
@@ -31067,7 +31128,7 @@
     </row>
     <row r="918" ht="15.75" customHeight="1">
       <c r="A918" s="11"/>
-      <c r="B918" s="31"/>
+      <c r="B918" s="30"/>
       <c r="C918" s="11"/>
       <c r="D918" s="11"/>
       <c r="E918" s="11"/>
@@ -31100,7 +31161,7 @@
     </row>
     <row r="919" ht="15.75" customHeight="1">
       <c r="A919" s="11"/>
-      <c r="B919" s="31"/>
+      <c r="B919" s="30"/>
       <c r="C919" s="11"/>
       <c r="D919" s="11"/>
       <c r="E919" s="11"/>
@@ -31133,7 +31194,7 @@
     </row>
     <row r="920" ht="15.75" customHeight="1">
       <c r="A920" s="11"/>
-      <c r="B920" s="31"/>
+      <c r="B920" s="30"/>
       <c r="C920" s="11"/>
       <c r="D920" s="11"/>
       <c r="E920" s="11"/>
@@ -31166,7 +31227,7 @@
     </row>
     <row r="921" ht="15.75" customHeight="1">
       <c r="A921" s="11"/>
-      <c r="B921" s="31"/>
+      <c r="B921" s="30"/>
       <c r="C921" s="11"/>
       <c r="D921" s="11"/>
       <c r="E921" s="11"/>
@@ -31199,7 +31260,7 @@
     </row>
     <row r="922" ht="15.75" customHeight="1">
       <c r="A922" s="11"/>
-      <c r="B922" s="31"/>
+      <c r="B922" s="30"/>
       <c r="C922" s="11"/>
       <c r="D922" s="11"/>
       <c r="E922" s="11"/>
@@ -31232,7 +31293,7 @@
     </row>
     <row r="923" ht="15.75" customHeight="1">
       <c r="A923" s="11"/>
-      <c r="B923" s="31"/>
+      <c r="B923" s="30"/>
       <c r="C923" s="11"/>
       <c r="D923" s="11"/>
       <c r="E923" s="11"/>
@@ -31265,7 +31326,7 @@
     </row>
     <row r="924" ht="15.75" customHeight="1">
       <c r="A924" s="11"/>
-      <c r="B924" s="31"/>
+      <c r="B924" s="30"/>
       <c r="C924" s="11"/>
       <c r="D924" s="11"/>
       <c r="E924" s="11"/>
@@ -31298,7 +31359,7 @@
     </row>
     <row r="925" ht="15.75" customHeight="1">
       <c r="A925" s="11"/>
-      <c r="B925" s="31"/>
+      <c r="B925" s="30"/>
       <c r="C925" s="11"/>
       <c r="D925" s="11"/>
       <c r="E925" s="11"/>
@@ -31331,7 +31392,7 @@
     </row>
     <row r="926" ht="15.75" customHeight="1">
       <c r="A926" s="11"/>
-      <c r="B926" s="31"/>
+      <c r="B926" s="30"/>
       <c r="C926" s="11"/>
       <c r="D926" s="11"/>
       <c r="E926" s="11"/>
@@ -31364,7 +31425,7 @@
     </row>
     <row r="927" ht="15.75" customHeight="1">
       <c r="A927" s="11"/>
-      <c r="B927" s="31"/>
+      <c r="B927" s="30"/>
       <c r="C927" s="11"/>
       <c r="D927" s="11"/>
       <c r="E927" s="11"/>
@@ -31397,7 +31458,7 @@
     </row>
     <row r="928" ht="15.75" customHeight="1">
       <c r="A928" s="11"/>
-      <c r="B928" s="31"/>
+      <c r="B928" s="30"/>
       <c r="C928" s="11"/>
       <c r="D928" s="11"/>
       <c r="E928" s="11"/>
@@ -31430,7 +31491,7 @@
     </row>
     <row r="929" ht="15.75" customHeight="1">
       <c r="A929" s="11"/>
-      <c r="B929" s="31"/>
+      <c r="B929" s="30"/>
       <c r="C929" s="11"/>
       <c r="D929" s="11"/>
       <c r="E929" s="11"/>
@@ -31463,7 +31524,7 @@
     </row>
     <row r="930" ht="15.75" customHeight="1">
       <c r="A930" s="11"/>
-      <c r="B930" s="31"/>
+      <c r="B930" s="30"/>
       <c r="C930" s="11"/>
       <c r="D930" s="11"/>
       <c r="E930" s="11"/>
@@ -31496,7 +31557,7 @@
     </row>
     <row r="931" ht="15.75" customHeight="1">
       <c r="A931" s="11"/>
-      <c r="B931" s="31"/>
+      <c r="B931" s="30"/>
       <c r="C931" s="11"/>
       <c r="D931" s="11"/>
       <c r="E931" s="11"/>
@@ -31529,7 +31590,7 @@
     </row>
     <row r="932" ht="15.75" customHeight="1">
       <c r="A932" s="11"/>
-      <c r="B932" s="31"/>
+      <c r="B932" s="30"/>
       <c r="C932" s="11"/>
       <c r="D932" s="11"/>
       <c r="E932" s="11"/>
@@ -31562,7 +31623,7 @@
     </row>
     <row r="933" ht="15.75" customHeight="1">
       <c r="A933" s="11"/>
-      <c r="B933" s="31"/>
+      <c r="B933" s="30"/>
       <c r="C933" s="11"/>
       <c r="D933" s="11"/>
       <c r="E933" s="11"/>
@@ -31595,7 +31656,7 @@
     </row>
     <row r="934" ht="15.75" customHeight="1">
       <c r="A934" s="11"/>
-      <c r="B934" s="31"/>
+      <c r="B934" s="30"/>
       <c r="C934" s="11"/>
       <c r="D934" s="11"/>
       <c r="E934" s="11"/>
@@ -31628,7 +31689,7 @@
     </row>
     <row r="935" ht="15.75" customHeight="1">
       <c r="A935" s="11"/>
-      <c r="B935" s="31"/>
+      <c r="B935" s="30"/>
       <c r="C935" s="11"/>
       <c r="D935" s="11"/>
       <c r="E935" s="11"/>
@@ -31661,7 +31722,7 @@
     </row>
     <row r="936" ht="15.75" customHeight="1">
       <c r="A936" s="11"/>
-      <c r="B936" s="31"/>
+      <c r="B936" s="30"/>
       <c r="C936" s="11"/>
       <c r="D936" s="11"/>
       <c r="E936" s="11"/>
@@ -31694,7 +31755,7 @@
     </row>
     <row r="937" ht="15.75" customHeight="1">
       <c r="A937" s="11"/>
-      <c r="B937" s="31"/>
+      <c r="B937" s="30"/>
       <c r="C937" s="11"/>
       <c r="D937" s="11"/>
       <c r="E937" s="11"/>
@@ -31727,7 +31788,7 @@
     </row>
     <row r="938" ht="15.75" customHeight="1">
       <c r="A938" s="11"/>
-      <c r="B938" s="31"/>
+      <c r="B938" s="30"/>
       <c r="C938" s="11"/>
       <c r="D938" s="11"/>
       <c r="E938" s="11"/>
@@ -31760,7 +31821,7 @@
     </row>
     <row r="939" ht="15.75" customHeight="1">
       <c r="A939" s="11"/>
-      <c r="B939" s="31"/>
+      <c r="B939" s="30"/>
       <c r="C939" s="11"/>
       <c r="D939" s="11"/>
       <c r="E939" s="11"/>
@@ -31793,7 +31854,7 @@
     </row>
     <row r="940" ht="15.75" customHeight="1">
       <c r="A940" s="11"/>
-      <c r="B940" s="31"/>
+      <c r="B940" s="30"/>
       <c r="C940" s="11"/>
       <c r="D940" s="11"/>
       <c r="E940" s="11"/>
@@ -31826,7 +31887,7 @@
     </row>
     <row r="941" ht="15.75" customHeight="1">
       <c r="A941" s="11"/>
-      <c r="B941" s="31"/>
+      <c r="B941" s="30"/>
       <c r="C941" s="11"/>
       <c r="D941" s="11"/>
       <c r="E941" s="11"/>
@@ -31859,7 +31920,7 @@
     </row>
     <row r="942" ht="15.75" customHeight="1">
       <c r="A942" s="11"/>
-      <c r="B942" s="31"/>
+      <c r="B942" s="30"/>
       <c r="C942" s="11"/>
       <c r="D942" s="11"/>
       <c r="E942" s="11"/>
@@ -31892,7 +31953,7 @@
     </row>
     <row r="943" ht="15.75" customHeight="1">
       <c r="A943" s="11"/>
-      <c r="B943" s="31"/>
+      <c r="B943" s="30"/>
       <c r="C943" s="11"/>
       <c r="D943" s="11"/>
       <c r="E943" s="11"/>
@@ -31925,7 +31986,7 @@
     </row>
     <row r="944" ht="15.75" customHeight="1">
       <c r="A944" s="11"/>
-      <c r="B944" s="31"/>
+      <c r="B944" s="30"/>
       <c r="C944" s="11"/>
       <c r="D944" s="11"/>
       <c r="E944" s="11"/>
@@ -31958,7 +32019,7 @@
     </row>
     <row r="945" ht="15.75" customHeight="1">
       <c r="A945" s="11"/>
-      <c r="B945" s="31"/>
+      <c r="B945" s="30"/>
       <c r="C945" s="11"/>
       <c r="D945" s="11"/>
       <c r="E945" s="11"/>
@@ -31991,7 +32052,7 @@
     </row>
     <row r="946" ht="15.75" customHeight="1">
       <c r="A946" s="11"/>
-      <c r="B946" s="31"/>
+      <c r="B946" s="30"/>
       <c r="C946" s="11"/>
       <c r="D946" s="11"/>
       <c r="E946" s="11"/>
@@ -32024,7 +32085,7 @@
     </row>
     <row r="947" ht="15.75" customHeight="1">
       <c r="A947" s="11"/>
-      <c r="B947" s="31"/>
+      <c r="B947" s="30"/>
       <c r="C947" s="11"/>
       <c r="D947" s="11"/>
       <c r="E947" s="11"/>
@@ -32057,7 +32118,7 @@
     </row>
     <row r="948" ht="15.75" customHeight="1">
       <c r="A948" s="11"/>
-      <c r="B948" s="31"/>
+      <c r="B948" s="30"/>
       <c r="C948" s="11"/>
       <c r="D948" s="11"/>
       <c r="E948" s="11"/>
@@ -32090,7 +32151,7 @@
     </row>
     <row r="949" ht="15.75" customHeight="1">
       <c r="A949" s="11"/>
-      <c r="B949" s="31"/>
+      <c r="B949" s="30"/>
       <c r="C949" s="11"/>
       <c r="D949" s="11"/>
       <c r="E949" s="11"/>
@@ -32123,7 +32184,7 @@
     </row>
     <row r="950" ht="15.75" customHeight="1">
       <c r="A950" s="11"/>
-      <c r="B950" s="31"/>
+      <c r="B950" s="30"/>
       <c r="C950" s="11"/>
       <c r="D950" s="11"/>
       <c r="E950" s="11"/>
@@ -32156,7 +32217,7 @@
     </row>
     <row r="951" ht="15.75" customHeight="1">
       <c r="A951" s="11"/>
-      <c r="B951" s="31"/>
+      <c r="B951" s="30"/>
       <c r="C951" s="11"/>
       <c r="D951" s="11"/>
       <c r="E951" s="11"/>
@@ -32189,7 +32250,7 @@
     </row>
     <row r="952" ht="15.75" customHeight="1">
       <c r="A952" s="11"/>
-      <c r="B952" s="31"/>
+      <c r="B952" s="30"/>
       <c r="C952" s="11"/>
       <c r="D952" s="11"/>
       <c r="E952" s="11"/>
@@ -32222,7 +32283,7 @@
     </row>
     <row r="953" ht="15.75" customHeight="1">
       <c r="A953" s="11"/>
-      <c r="B953" s="31"/>
+      <c r="B953" s="30"/>
       <c r="C953" s="11"/>
       <c r="D953" s="11"/>
       <c r="E953" s="11"/>
@@ -32255,7 +32316,7 @@
     </row>
     <row r="954" ht="15.75" customHeight="1">
       <c r="A954" s="11"/>
-      <c r="B954" s="31"/>
+      <c r="B954" s="30"/>
       <c r="C954" s="11"/>
       <c r="D954" s="11"/>
       <c r="E954" s="11"/>
@@ -32288,7 +32349,7 @@
     </row>
     <row r="955" ht="15.75" customHeight="1">
       <c r="A955" s="11"/>
-      <c r="B955" s="31"/>
+      <c r="B955" s="30"/>
       <c r="C955" s="11"/>
       <c r="D955" s="11"/>
       <c r="E955" s="11"/>
@@ -32321,7 +32382,7 @@
     </row>
     <row r="956" ht="15.75" customHeight="1">
       <c r="A956" s="11"/>
-      <c r="B956" s="31"/>
+      <c r="B956" s="30"/>
       <c r="C956" s="11"/>
       <c r="D956" s="11"/>
       <c r="E956" s="11"/>
@@ -32354,7 +32415,7 @@
     </row>
     <row r="957" ht="15.75" customHeight="1">
       <c r="A957" s="11"/>
-      <c r="B957" s="31"/>
+      <c r="B957" s="30"/>
       <c r="C957" s="11"/>
       <c r="D957" s="11"/>
       <c r="E957" s="11"/>
@@ -32387,7 +32448,7 @@
     </row>
     <row r="958" ht="15.75" customHeight="1">
       <c r="A958" s="11"/>
-      <c r="B958" s="31"/>
+      <c r="B958" s="30"/>
       <c r="C958" s="11"/>
       <c r="D958" s="11"/>
       <c r="E958" s="11"/>
@@ -32420,7 +32481,7 @@
     </row>
     <row r="959" ht="15.75" customHeight="1">
       <c r="A959" s="11"/>
-      <c r="B959" s="31"/>
+      <c r="B959" s="30"/>
       <c r="C959" s="11"/>
       <c r="D959" s="11"/>
       <c r="E959" s="11"/>
@@ -32453,7 +32514,7 @@
     </row>
     <row r="960" ht="15.75" customHeight="1">
       <c r="A960" s="11"/>
-      <c r="B960" s="31"/>
+      <c r="B960" s="30"/>
       <c r="C960" s="11"/>
       <c r="D960" s="11"/>
       <c r="E960" s="11"/>
@@ -32486,7 +32547,7 @@
     </row>
     <row r="961" ht="15.75" customHeight="1">
       <c r="A961" s="11"/>
-      <c r="B961" s="31"/>
+      <c r="B961" s="30"/>
       <c r="C961" s="11"/>
       <c r="D961" s="11"/>
       <c r="E961" s="11"/>
@@ -32519,7 +32580,7 @@
     </row>
     <row r="962" ht="15.75" customHeight="1">
       <c r="A962" s="11"/>
-      <c r="B962" s="31"/>
+      <c r="B962" s="30"/>
       <c r="C962" s="11"/>
       <c r="D962" s="11"/>
       <c r="E962" s="11"/>
@@ -32552,7 +32613,7 @@
     </row>
     <row r="963" ht="15.75" customHeight="1">
       <c r="A963" s="11"/>
-      <c r="B963" s="31"/>
+      <c r="B963" s="30"/>
       <c r="C963" s="11"/>
       <c r="D963" s="11"/>
       <c r="E963" s="11"/>
@@ -32585,7 +32646,7 @@
     </row>
     <row r="964" ht="15.75" customHeight="1">
       <c r="A964" s="11"/>
-      <c r="B964" s="31"/>
+      <c r="B964" s="30"/>
       <c r="C964" s="11"/>
       <c r="D964" s="11"/>
       <c r="E964" s="11"/>
@@ -32618,7 +32679,7 @@
     </row>
     <row r="965" ht="15.75" customHeight="1">
       <c r="A965" s="11"/>
-      <c r="B965" s="31"/>
+      <c r="B965" s="30"/>
       <c r="C965" s="11"/>
       <c r="D965" s="11"/>
       <c r="E965" s="11"/>
@@ -32651,7 +32712,7 @@
     </row>
     <row r="966" ht="15.75" customHeight="1">
       <c r="A966" s="11"/>
-      <c r="B966" s="31"/>
+      <c r="B966" s="30"/>
       <c r="C966" s="11"/>
       <c r="D966" s="11"/>
       <c r="E966" s="11"/>
@@ -32684,7 +32745,7 @@
     </row>
     <row r="967" ht="15.75" customHeight="1">
       <c r="A967" s="11"/>
-      <c r="B967" s="31"/>
+      <c r="B967" s="30"/>
       <c r="C967" s="11"/>
       <c r="D967" s="11"/>
       <c r="E967" s="11"/>
@@ -32717,7 +32778,7 @@
     </row>
     <row r="968" ht="15.75" customHeight="1">
       <c r="A968" s="11"/>
-      <c r="B968" s="31"/>
+      <c r="B968" s="30"/>
       <c r="C968" s="11"/>
       <c r="D968" s="11"/>
       <c r="E968" s="11"/>
@@ -32750,7 +32811,7 @@
     </row>
     <row r="969" ht="15.75" customHeight="1">
       <c r="A969" s="11"/>
-      <c r="B969" s="31"/>
+      <c r="B969" s="30"/>
       <c r="C969" s="11"/>
       <c r="D969" s="11"/>
       <c r="E969" s="11"/>
@@ -32783,7 +32844,7 @@
     </row>
     <row r="970" ht="15.75" customHeight="1">
       <c r="A970" s="11"/>
-      <c r="B970" s="31"/>
+      <c r="B970" s="30"/>
       <c r="C970" s="11"/>
       <c r="D970" s="11"/>
       <c r="E970" s="11"/>
@@ -32816,7 +32877,7 @@
     </row>
     <row r="971" ht="15.75" customHeight="1">
       <c r="A971" s="11"/>
-      <c r="B971" s="31"/>
+      <c r="B971" s="30"/>
       <c r="C971" s="11"/>
       <c r="D971" s="11"/>
       <c r="E971" s="11"/>
@@ -32849,7 +32910,7 @@
     </row>
     <row r="972" ht="15.75" customHeight="1">
       <c r="A972" s="11"/>
-      <c r="B972" s="31"/>
+      <c r="B972" s="30"/>
       <c r="C972" s="11"/>
       <c r="D972" s="11"/>
       <c r="E972" s="11"/>
@@ -32882,7 +32943,7 @@
     </row>
     <row r="973" ht="15.75" customHeight="1">
       <c r="A973" s="11"/>
-      <c r="B973" s="31"/>
+      <c r="B973" s="30"/>
       <c r="C973" s="11"/>
       <c r="D973" s="11"/>
       <c r="E973" s="11"/>
@@ -32915,7 +32976,7 @@
     </row>
     <row r="974" ht="15.75" customHeight="1">
       <c r="A974" s="11"/>
-      <c r="B974" s="31"/>
+      <c r="B974" s="30"/>
       <c r="C974" s="11"/>
       <c r="D974" s="11"/>
       <c r="E974" s="11"/>
@@ -32948,7 +33009,7 @@
     </row>
     <row r="975" ht="15.75" customHeight="1">
       <c r="A975" s="11"/>
-      <c r="B975" s="31"/>
+      <c r="B975" s="30"/>
       <c r="C975" s="11"/>
       <c r="D975" s="11"/>
       <c r="E975" s="11"/>
@@ -32981,7 +33042,7 @@
     </row>
     <row r="976" ht="15.75" customHeight="1">
       <c r="A976" s="11"/>
-      <c r="B976" s="31"/>
+      <c r="B976" s="30"/>
       <c r="C976" s="11"/>
       <c r="D976" s="11"/>
       <c r="E976" s="11"/>
@@ -33014,7 +33075,7 @@
     </row>
     <row r="977" ht="15.75" customHeight="1">
       <c r="A977" s="11"/>
-      <c r="B977" s="31"/>
+      <c r="B977" s="30"/>
       <c r="C977" s="11"/>
       <c r="D977" s="11"/>
       <c r="E977" s="11"/>
@@ -33047,7 +33108,7 @@
     </row>
     <row r="978" ht="15.75" customHeight="1">
       <c r="A978" s="11"/>
-      <c r="B978" s="31"/>
+      <c r="B978" s="30"/>
       <c r="C978" s="11"/>
       <c r="D978" s="11"/>
       <c r="E978" s="11"/>
@@ -33080,7 +33141,7 @@
     </row>
     <row r="979" ht="15.75" customHeight="1">
       <c r="A979" s="11"/>
-      <c r="B979" s="31"/>
+      <c r="B979" s="30"/>
       <c r="C979" s="11"/>
       <c r="D979" s="11"/>
       <c r="E979" s="11"/>
@@ -33113,7 +33174,7 @@
     </row>
     <row r="980" ht="15.75" customHeight="1">
       <c r="A980" s="11"/>
-      <c r="B980" s="31"/>
+      <c r="B980" s="30"/>
       <c r="C980" s="11"/>
       <c r="D980" s="11"/>
       <c r="E980" s="11"/>
@@ -33146,7 +33207,7 @@
     </row>
     <row r="981" ht="15.75" customHeight="1">
       <c r="A981" s="11"/>
-      <c r="B981" s="31"/>
+      <c r="B981" s="30"/>
       <c r="C981" s="11"/>
       <c r="D981" s="11"/>
       <c r="E981" s="11"/>
@@ -33179,7 +33240,7 @@
     </row>
     <row r="982" ht="15.75" customHeight="1">
       <c r="A982" s="11"/>
-      <c r="B982" s="31"/>
+      <c r="B982" s="30"/>
       <c r="C982" s="11"/>
       <c r="D982" s="11"/>
       <c r="E982" s="11"/>
@@ -33212,7 +33273,7 @@
     </row>
     <row r="983" ht="15.75" customHeight="1">
       <c r="A983" s="11"/>
-      <c r="B983" s="31"/>
+      <c r="B983" s="30"/>
       <c r="C983" s="11"/>
       <c r="D983" s="11"/>
       <c r="E983" s="11"/>
@@ -33245,7 +33306,7 @@
     </row>
     <row r="984" ht="15.75" customHeight="1">
       <c r="A984" s="11"/>
-      <c r="B984" s="31"/>
+      <c r="B984" s="30"/>
       <c r="C984" s="11"/>
       <c r="D984" s="11"/>
       <c r="E984" s="11"/>
@@ -33278,7 +33339,7 @@
     </row>
     <row r="985" ht="15.75" customHeight="1">
       <c r="A985" s="11"/>
-      <c r="B985" s="31"/>
+      <c r="B985" s="30"/>
       <c r="C985" s="11"/>
       <c r="D985" s="11"/>
       <c r="E985" s="11"/>
@@ -33311,7 +33372,7 @@
     </row>
     <row r="986" ht="15.75" customHeight="1">
       <c r="A986" s="11"/>
-      <c r="B986" s="31"/>
+      <c r="B986" s="30"/>
       <c r="C986" s="11"/>
       <c r="D986" s="11"/>
       <c r="E986" s="11"/>
@@ -33344,7 +33405,7 @@
     </row>
     <row r="987" ht="15.75" customHeight="1">
       <c r="A987" s="11"/>
-      <c r="B987" s="31"/>
+      <c r="B987" s="30"/>
       <c r="C987" s="11"/>
       <c r="D987" s="11"/>
       <c r="E987" s="11"/>
@@ -33377,7 +33438,7 @@
     </row>
     <row r="988" ht="15.75" customHeight="1">
       <c r="A988" s="11"/>
-      <c r="B988" s="31"/>
+      <c r="B988" s="30"/>
       <c r="C988" s="11"/>
       <c r="D988" s="11"/>
       <c r="E988" s="11"/>
@@ -33410,7 +33471,7 @@
     </row>
     <row r="989" ht="15.75" customHeight="1">
       <c r="A989" s="11"/>
-      <c r="B989" s="31"/>
+      <c r="B989" s="30"/>
       <c r="C989" s="11"/>
       <c r="D989" s="11"/>
       <c r="E989" s="11"/>
@@ -33443,7 +33504,7 @@
     </row>
     <row r="990" ht="15.75" customHeight="1">
       <c r="A990" s="11"/>
-      <c r="B990" s="31"/>
+      <c r="B990" s="30"/>
       <c r="C990" s="11"/>
       <c r="D990" s="11"/>
       <c r="E990" s="11"/>
@@ -33476,7 +33537,7 @@
     </row>
     <row r="991" ht="15.75" customHeight="1">
       <c r="A991" s="11"/>
-      <c r="B991" s="31"/>
+      <c r="B991" s="30"/>
       <c r="C991" s="11"/>
       <c r="D991" s="11"/>
       <c r="E991" s="11"/>
@@ -33509,7 +33570,7 @@
     </row>
     <row r="992" ht="15.75" customHeight="1">
       <c r="A992" s="11"/>
-      <c r="B992" s="31"/>
+      <c r="B992" s="30"/>
       <c r="C992" s="11"/>
       <c r="D992" s="11"/>
       <c r="E992" s="11"/>
@@ -33542,7 +33603,7 @@
     </row>
     <row r="993" ht="15.75" customHeight="1">
       <c r="A993" s="11"/>
-      <c r="B993" s="31"/>
+      <c r="B993" s="30"/>
       <c r="C993" s="11"/>
       <c r="D993" s="11"/>
       <c r="E993" s="11"/>
@@ -33575,7 +33636,7 @@
     </row>
     <row r="994" ht="15.75" customHeight="1">
       <c r="A994" s="11"/>
-      <c r="B994" s="31"/>
+      <c r="B994" s="30"/>
       <c r="C994" s="11"/>
       <c r="D994" s="11"/>
       <c r="E994" s="11"/>
@@ -33608,7 +33669,7 @@
     </row>
     <row r="995" ht="15.75" customHeight="1">
       <c r="A995" s="11"/>
-      <c r="B995" s="31"/>
+      <c r="B995" s="30"/>
       <c r="C995" s="11"/>
       <c r="D995" s="11"/>
       <c r="E995" s="11"/>
@@ -33641,7 +33702,7 @@
     </row>
     <row r="996" ht="15.75" customHeight="1">
       <c r="A996" s="11"/>
-      <c r="B996" s="31"/>
+      <c r="B996" s="30"/>
       <c r="C996" s="11"/>
       <c r="D996" s="11"/>
       <c r="E996" s="11"/>
@@ -33674,7 +33735,7 @@
     </row>
     <row r="997" ht="15.75" customHeight="1">
       <c r="A997" s="11"/>
-      <c r="B997" s="31"/>
+      <c r="B997" s="30"/>
       <c r="C997" s="11"/>
       <c r="D997" s="11"/>
       <c r="E997" s="11"/>
@@ -33707,7 +33768,7 @@
     </row>
     <row r="998" ht="15.75" customHeight="1">
       <c r="A998" s="11"/>
-      <c r="B998" s="31"/>
+      <c r="B998" s="30"/>
       <c r="C998" s="11"/>
       <c r="D998" s="11"/>
       <c r="E998" s="11"/>
@@ -33740,7 +33801,7 @@
     </row>
     <row r="999" ht="15.75" customHeight="1">
       <c r="A999" s="11"/>
-      <c r="B999" s="31"/>
+      <c r="B999" s="30"/>
       <c r="C999" s="11"/>
       <c r="D999" s="11"/>
       <c r="E999" s="11"/>
@@ -33773,7 +33834,7 @@
     </row>
     <row r="1000" ht="15.75" customHeight="1">
       <c r="A1000" s="11"/>
-      <c r="B1000" s="31"/>
+      <c r="B1000" s="30"/>
       <c r="C1000" s="11"/>
       <c r="D1000" s="11"/>
       <c r="E1000" s="11"/>
@@ -34156,9 +34217,26 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="H89:H90"/>
     <mergeCell ref="I89:I90"/>
     <mergeCell ref="J89:J90"/>
@@ -34169,23 +34247,6 @@
     <mergeCell ref="E89:E90"/>
     <mergeCell ref="F89:F90"/>
     <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
     <mergeCell ref="H63:H64"/>
     <mergeCell ref="I63:I64"/>
     <mergeCell ref="J63:J64"/>
@@ -34264,11 +34325,13 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="I3"/>
-    <hyperlink r:id="rId2" ref="I9"/>
+    <hyperlink r:id="rId2" ref="I5"/>
+    <hyperlink r:id="rId3" ref="I7"/>
+    <hyperlink r:id="rId4" ref="I9"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/data/updated.xlsx
+++ b/data/updated.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjtGb1LBkUdk4FqQ8Nj8nR1EEguuA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhbiban5DTnxU6ylQQ9Lx41PQLNQg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="196">
   <si>
     <t>شماره ردیف</t>
   </si>
@@ -90,10 +90,16 @@
     <t>برای هماهنگی قطعی شدن زمان به ایمیل alireza.bagheri.sh@gmail.com پیام بدهید.</t>
   </si>
   <si>
-    <t>http://uplod.ir/1u2rkn6hpaka/ali_bagheri.JPG.htm</t>
-  </si>
-  <si>
-    <t>شنبه ها بعد از ظهر</t>
+    <t>http://s11.picofile.com/file/8392736434/ali_bagheri.JPG</t>
+  </si>
+  <si>
+    <t>مهندسی برق - قدرت</t>
+  </si>
+  <si>
+    <t>22 فروردین ماه، ساعت 11</t>
+  </si>
+  <si>
+    <t>22 فروردین ماه، ساعت 17</t>
   </si>
   <si>
     <t>محمد</t>
@@ -111,67 +117,194 @@
     <t>201</t>
   </si>
   <si>
+    <t>هماهنگی و تماس از طریق شماره تماس 09379411263</t>
+  </si>
+  <si>
+    <t>http://s11.picofile.com/file/8392736500/fathi.JPG</t>
+  </si>
+  <si>
+    <t>مهندسی مکانیک - تبدیل انرژی</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>18 فروردین. ساعت 17-18:30</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 فروردین. ساعت 17-18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 فروردین. ساعت 17-18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مصطفی </t>
+  </si>
+  <si>
+    <t>الوندیان</t>
+  </si>
+  <si>
+    <t>مخابرات</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>هماهنگی و تماس از طریق واتساپ و با 09212405364</t>
+  </si>
+  <si>
+    <t>http://s10.picofile.com/file/8392736442/alvandian.JPG</t>
+  </si>
+  <si>
+    <t>مهندسی برق - مخابرات</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>19 فروردین ساعت 16 تا 19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>20 فروردین ساعت 10 تا 12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>۲۰ فروردین ساعت 16 تا 19</t>
+    </r>
+  </si>
+  <si>
+    <t>ایوب</t>
+  </si>
+  <si>
+    <t>حسنی</t>
+  </si>
+  <si>
+    <t>طراحی کاربردی</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>http://s11.picofile.com/file/8392736500/fathi.JPG</t>
-  </si>
-  <si>
-    <t>شنبه ها</t>
-  </si>
-  <si>
-    <t>دوشنب ها</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مصطفی </t>
-  </si>
-  <si>
-    <t>الوندیان</t>
-  </si>
-  <si>
-    <t>مخابرات</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>هماهنگی و تماس از طریق واتساپ و با 09212405364</t>
-  </si>
-  <si>
-    <t>http://s10.picofile.com/file/8392736442/alvandian.JPG</t>
-  </si>
-  <si>
-    <t>یک شنبه ساعت 5 تا 8</t>
-  </si>
-  <si>
-    <t>دوشنبه</t>
-  </si>
-  <si>
-    <t>دوشنبه ساعت 6</t>
-  </si>
-  <si>
-    <t>سه شنبه</t>
-  </si>
-  <si>
-    <t>ایوب</t>
-  </si>
-  <si>
-    <t>حسنی</t>
-  </si>
-  <si>
-    <t>طراحی کاربردی</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
     <t>http://s10.picofile.com/file/8392736450/ayoub_hasani.JPG</t>
   </si>
   <si>
-    <t>شنبه</t>
-  </si>
-  <si>
-    <t>یکشنبه</t>
+    <t>مهندسی مکانیک - طراحی کاربردی</t>
+  </si>
+  <si>
+    <t>16 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t>17 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t>18 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t>19 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t>20 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t>21 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t>22 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمدرضا </t>
+  </si>
+  <si>
+    <t>فرحناک</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هماهنگی تماس از طریق ایدی تلگرامی @Mreza_farahnak
+</t>
+  </si>
+  <si>
+    <t>http://s11.picofile.com/file/8392736484/farahnak.JPG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>18 فروردین. ساعت 18-19</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 فروردین. ساعت 18-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 فروردین. ساعت 18-19</t>
   </si>
   <si>
     <t xml:space="preserve">علیرضا </t>
@@ -192,6 +325,9 @@
     <t>http://s10.picofile.com/file/8392736526/ghaderi.JPG</t>
   </si>
   <si>
+    <t>مهندسی نفت - مخازن هیدروکربوری</t>
+  </si>
+  <si>
     <t>محسن</t>
   </si>
   <si>
@@ -201,9 +337,21 @@
     <t>204</t>
   </si>
   <si>
+    <t>هماهنگی تماس از طریق ایدی تلگرامی @MsnGhmi</t>
+  </si>
+  <si>
     <t>http://s11.picofile.com/file/8392736550/gholami.JPG</t>
   </si>
   <si>
+    <t xml:space="preserve"> 18 فروردین. 8-10 (به وقت ایران)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 فروردین. 8-10 (به وقت ایران)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 فروردین. 8-10 (به وقت ایران)</t>
+  </si>
+  <si>
     <t>رمضان</t>
   </si>
   <si>
@@ -216,6 +364,60 @@
     <t>http://s11.picofile.com/file/8392736592/hoseini.JPG</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>18 فروردین ساعت 20 تا 12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>19 فروردین ساعت 20 تا 12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>20 فروردین ساعت 20 تا 12</t>
+    </r>
+  </si>
+  <si>
     <t>سعید</t>
   </si>
   <si>
@@ -228,6 +430,30 @@
     <t>http://s11.picofile.com/file/8392736626/jalilvand.JPG</t>
   </si>
   <si>
+    <t>16 فروردین ساعت 9-10</t>
+  </si>
+  <si>
+    <t>17 فروردین ساعت 17 تا 16</t>
+  </si>
+  <si>
+    <t>18 فروردین ساعت 9-10</t>
+  </si>
+  <si>
+    <t>19 فروردین ساعت 17 تا 16</t>
+  </si>
+  <si>
+    <t>20 فروردین ساعت 9-10</t>
+  </si>
+  <si>
+    <t>21 فروردین ساعت 17 تا 16</t>
+  </si>
+  <si>
+    <t>22 فروردین ساعت 9-10</t>
+  </si>
+  <si>
+    <t>22 فروردین ساعت 17 تا 16</t>
+  </si>
+  <si>
     <t>سیدحسین</t>
   </si>
   <si>
@@ -240,16 +466,58 @@
     <t>http://s11.picofile.com/file/8392741392/kamali.JPG</t>
   </si>
   <si>
-    <t xml:space="preserve">محمدرضا </t>
-  </si>
-  <si>
-    <t>فرحناک</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>http://s11.picofile.com/file/8392736484/farahnak.JPG</t>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>18 فروردین، یک ساعت توافقی</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>19 فروردین، یک ساعت توافقی</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>20 فروردین، یک ساعت توافقی</t>
+    </r>
   </si>
   <si>
     <t>جمال</t>
@@ -265,6 +533,60 @@
   </si>
   <si>
     <t>http://s10.picofile.com/file/8392736976/kazzazi.JPG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>18 فروردین. ساعت 17-20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>19 فروردین. ساعت 18-20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>20 فروردین. ساعت 16-19</t>
+    </r>
   </si>
   <si>
     <t>کورش</t>
@@ -283,6 +605,42 @@
     <t>http://s10.picofile.com/file/8392736684/khalaj.JPG</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>21 فروردین. ساعت 14-15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>22 فروردین. ساعت 14-15</t>
+    </r>
+  </si>
+  <si>
     <t>سیدمیلاد</t>
   </si>
   <si>
@@ -298,6 +656,30 @@
     <t>http://s11.picofile.com/file/8392736718/miri.JPG</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>18 فروردین. ساعت 18-11</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 فروردین. ساعت 18-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 فروردین. ساعت 18-11</t>
+  </si>
+  <si>
     <t>امیر</t>
   </si>
   <si>
@@ -313,15 +695,51 @@
     <t>http://s10.picofile.com/file/8392736726/mollaii.JPG</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>18 فروردین. ساعت 18-16</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 فروردین. ساعت 18-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 فروردین. ساعت 18-16</t>
+  </si>
+  <si>
     <t>حسین</t>
   </si>
   <si>
     <t>208</t>
   </si>
   <si>
+    <t>هماهنگی و تماس از طریق شماره تماس 09122508337</t>
+  </si>
+  <si>
     <t>http://s11.picofile.com/file/8392736742/saeed_hosein.JPG</t>
   </si>
   <si>
+    <t>18 فروردین ساعت 19:30 تا 19</t>
+  </si>
+  <si>
+    <t>19 فروردین ساعت 19:30 تا 19</t>
+  </si>
+  <si>
+    <t>20 فروردین ساعت 19:30 تا 19</t>
+  </si>
+  <si>
     <t>احسان</t>
   </si>
   <si>
@@ -340,6 +758,63 @@
     <t>http://s11.picofile.com/file/8392736768/shahparvari.JPG</t>
   </si>
   <si>
+    <t>مهندسی برق - الکترونیک</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>18 فروردین ساعت 16 تا 19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>19 فروردین ساعت 16 تا 19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>20 فروردین ساعت 16 تا 19</t>
+    </r>
+  </si>
+  <si>
     <t>علی</t>
   </si>
   <si>
@@ -349,9 +824,68 @@
     <t>108</t>
   </si>
   <si>
+    <t>تماس با تلفن همراه یا تماس صوتی با واتساپ
+با شماره: 09127717602
+ترجیح با تماس به شماره تلفن همراه</t>
+  </si>
+  <si>
     <t>http://s11.picofile.com/file/8392736776/tajik.JPG</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>19 فروردین ساعت 16 تا 19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>20 فروردین ساعت 10 تا 12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>20 فروردین ساعت 16 تا 19</t>
+    </r>
+  </si>
+  <si>
     <t>وحید</t>
   </si>
   <si>
@@ -367,19 +901,105 @@
     <t>http://s10.picofile.com/file/8392741726/HajiHasani.JPG</t>
   </si>
   <si>
-    <t>اکبر</t>
-  </si>
-  <si>
-    <t>یوسفی</t>
-  </si>
-  <si>
-    <t>@golam</t>
-  </si>
-  <si>
-    <t>https://ece.ut.ac.ir/image/edu/teacher?img_id=71874335&amp;t=1585488639782</t>
-  </si>
-  <si>
-    <t>پسر خوبیه هستند</t>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>18 فروردین. ساعت 22-21</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 فروردین. ساعت 22-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 فروردین. ساعت 22-21</t>
+  </si>
+  <si>
+    <t>خوش اخلاق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هماهنگی تماس از طریق ارسال پیام در تلگرام با ایدی @DrKhoshakhlagh یا واتساپ روی شماره 09124880702
+</t>
+  </si>
+  <si>
+    <t>http://s10.picofile.com/file/8392878418/khoshakhlagh.JPG</t>
+  </si>
+  <si>
+    <t>هجده فروردین. نیم ساعت توافقی</t>
+  </si>
+  <si>
+    <t>نوزده فروردین. نیم ساعت توافقی</t>
+  </si>
+  <si>
+    <t>بیست فروردین. نیم ساعت توافقی</t>
+  </si>
+  <si>
+    <t>حامد</t>
+  </si>
+  <si>
+    <t>عالمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هماهنگی و تماس از طریق شماره همراه 09109339615
+</t>
+  </si>
+  <si>
+    <t>http://s10.picofile.com/file/8392878350/alemi.JPG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF008080"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="B Nazanin"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>18 فروردین. ساعت 18-17</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 فروردین. ساعت 18-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 فروردین. ساعت 18-17</t>
+  </si>
+  <si>
+    <t>محمدمتین</t>
+  </si>
+  <si>
+    <t>بهزادی</t>
+  </si>
+  <si>
+    <t>هماهنگی و تماس از طریق تماس تلفنی یا پیامک از طریق شماره همراه 09198958869</t>
+  </si>
+  <si>
+    <t>http://s11.picofile.com/file/8392878392/behzadi.JPG</t>
+  </si>
+  <si>
+    <t>هجده فروردین 20-20:30</t>
+  </si>
+  <si>
+    <t>نوزده فروردین 20-20:30</t>
+  </si>
+  <si>
+    <t>بیست فروردین 20-20:30</t>
   </si>
 </sst>
 </file>
@@ -411,23 +1031,24 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="B nazanin"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF008080"/>
+      <name val="Noto Sans Symbols"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color theme="10"/>
     </font>
   </fonts>
   <fills count="5">
@@ -528,12 +1149,12 @@
       </top>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -542,7 +1163,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -566,7 +1187,7 @@
     <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -575,21 +1196,18 @@
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="1" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="2" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="2" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -600,23 +1218,25 @@
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="2" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="2" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -957,9 +1577,7 @@
       <c r="A3" s="10">
         <v>1.0</v>
       </c>
-      <c r="B3" s="11">
-        <v>1.0</v>
-      </c>
+      <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
         <v>18</v>
       </c>
@@ -981,28 +1599,20 @@
       <c r="I3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="13"/>
+      <c r="J3" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="K3" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
@@ -1019,33 +1629,21 @@
       <c r="AE3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="L4" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="M4" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="N4" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="O4" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="P4" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="Q4" s="17"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
@@ -1065,42 +1663,44 @@
       <c r="A5" s="10">
         <v>2.0</v>
       </c>
-      <c r="B5" s="11">
-        <v>2.0</v>
-      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="J5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
@@ -1117,21 +1717,21 @@
       <c r="AE5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
@@ -1151,46 +1751,44 @@
       <c r="A7" s="10">
         <v>3.0</v>
       </c>
-      <c r="B7" s="18">
-        <v>3.0</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>37</v>
+      <c r="F7" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
+      <c r="J7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -1207,21 +1805,21 @@
       <c r="AE7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
@@ -1241,42 +1839,52 @@
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>47</v>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
@@ -1293,23 +1901,21 @@
       <c r="AE9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
@@ -1329,38 +1935,44 @@
       <c r="A11" s="10">
         <v>5.0</v>
       </c>
-      <c r="B11" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="20" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="K11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -1377,21 +1989,21 @@
       <c r="AE11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
@@ -1411,38 +2023,42 @@
       <c r="A13" s="10">
         <v>6.0</v>
       </c>
-      <c r="B13" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="L13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
@@ -1459,21 +2075,21 @@
       <c r="AE13" s="9"/>
     </row>
     <row r="14">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -1493,38 +2109,44 @@
       <c r="A15" s="10">
         <v>7.0</v>
       </c>
-      <c r="B15" s="18">
-        <v>7.0</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>47</v>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>31</v>
+        <v>80</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+        <v>82</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -1541,21 +2163,21 @@
       <c r="AE15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
@@ -1575,38 +2197,44 @@
       <c r="A17" s="10">
         <v>8.0</v>
       </c>
-      <c r="B17" s="18">
-        <v>8.0</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>47</v>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -1623,21 +2251,21 @@
       <c r="AE17" s="9"/>
     </row>
     <row r="18">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -1657,39 +2285,55 @@
       <c r="A19" s="10">
         <v>9.0</v>
       </c>
-      <c r="B19" s="18">
-        <v>9.0</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>47</v>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
@@ -1705,21 +2349,21 @@
       <c r="AE19" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -1739,38 +2383,44 @@
       <c r="A21" s="10">
         <v>10.0</v>
       </c>
-      <c r="B21" s="18">
-        <v>10.0</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>47</v>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+        <v>108</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
@@ -1787,21 +2437,21 @@
       <c r="AE21" s="9"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
@@ -1821,38 +2471,44 @@
       <c r="A23" s="10">
         <v>11.0</v>
       </c>
-      <c r="B23" s="18">
-        <v>11.0</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="19" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>37</v>
+      <c r="F23" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>81</v>
+        <v>114</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+        <v>116</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
@@ -1869,21 +2525,21 @@
       <c r="AE23" s="9"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
@@ -1903,38 +2559,42 @@
       <c r="A25" s="10">
         <v>12.0</v>
       </c>
-      <c r="B25" s="18">
-        <v>12.0</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="19" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>86</v>
+        <v>122</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+        <v>124</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
@@ -1951,21 +2611,21 @@
       <c r="AE25" s="9"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
@@ -1985,38 +2645,44 @@
       <c r="A27" s="10">
         <v>13.0</v>
       </c>
-      <c r="B27" s="18">
-        <v>13.0</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="19" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>37</v>
+      <c r="F27" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>91</v>
+        <v>129</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+        <v>131</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
@@ -2033,21 +2699,21 @@
       <c r="AE27" s="9"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
@@ -2067,38 +2733,44 @@
       <c r="A29" s="10">
         <v>14.0</v>
       </c>
-      <c r="B29" s="18">
-        <v>14.0</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="19" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>37</v>
+      <c r="F29" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>96</v>
+        <v>137</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+        <v>139</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
@@ -2115,21 +2787,21 @@
       <c r="AE29" s="9"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
@@ -2149,38 +2821,44 @@
       <c r="A31" s="10">
         <v>15.0</v>
       </c>
-      <c r="B31" s="18">
-        <v>15.0</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>29</v>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>31</v>
+        <v>144</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+        <v>146</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
@@ -2197,21 +2875,21 @@
       <c r="AE31" s="9"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
@@ -2231,38 +2909,44 @@
       <c r="A33" s="10">
         <v>16.0</v>
       </c>
-      <c r="B33" s="18">
-        <v>16.0</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="19" t="s">
+      <c r="B33" s="17"/>
+      <c r="C33" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="20" t="s">
-        <v>103</v>
+      <c r="F33" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>105</v>
+        <v>153</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+        <v>155</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
@@ -2279,21 +2963,21 @@
       <c r="AE33" s="9"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
@@ -2313,38 +2997,44 @@
       <c r="A35" s="10">
         <v>17.0</v>
       </c>
-      <c r="B35" s="18">
-        <v>17.0</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="19" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="20" t="s">
-        <v>37</v>
+      <c r="F35" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>31</v>
+        <v>162</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+        <v>164</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
@@ -2361,21 +3051,21 @@
       <c r="AE35" s="9"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
@@ -2395,38 +3085,44 @@
       <c r="A37" s="10">
         <v>18.0</v>
       </c>
-      <c r="B37" s="18">
-        <v>18.0</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="19" t="s">
+      <c r="B37" s="17"/>
+      <c r="C37" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="19" t="s">
         <v>21</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>114</v>
+        <v>170</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+        <v>172</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
@@ -2443,21 +3139,21 @@
       <c r="AE37" s="9"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
@@ -2477,40 +3173,42 @@
       <c r="A39" s="10">
         <v>19.0</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="21" t="s">
+      <c r="B39" s="17"/>
+      <c r="C39" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="21">
-        <v>1234.0</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="J39" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="K39" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="F39" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K39" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="L39" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="M39" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
@@ -2527,23 +3225,21 @@
       <c r="AE39" s="9"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
       <c r="K40" s="25"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
@@ -2563,22 +3259,42 @@
       <c r="A41" s="10">
         <v>20.0</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="10"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="H41" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
@@ -2595,21 +3311,21 @@
       <c r="AE41" s="9"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
@@ -2629,22 +3345,42 @@
       <c r="A43" s="10">
         <v>21.0</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="10"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="H43" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L43" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M43" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
@@ -2661,21 +3397,21 @@
       <c r="AE43" s="9"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
@@ -2695,7 +3431,7 @@
       <c r="A45" s="10">
         <v>22.0</v>
       </c>
-      <c r="B45" s="18"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="26"/>
       <c r="D45" s="10"/>
       <c r="E45" s="26"/>
@@ -2704,13 +3440,13 @@
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
@@ -2727,21 +3463,21 @@
       <c r="AE45" s="9"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
@@ -2761,7 +3497,7 @@
       <c r="A47" s="10">
         <v>23.0</v>
       </c>
-      <c r="B47" s="18"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="26"/>
       <c r="D47" s="10"/>
       <c r="E47" s="26"/>
@@ -2770,13 +3506,13 @@
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
@@ -2793,21 +3529,21 @@
       <c r="AE47" s="9"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
@@ -2827,7 +3563,7 @@
       <c r="A49" s="10">
         <v>24.0</v>
       </c>
-      <c r="B49" s="18"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="26"/>
       <c r="D49" s="10"/>
       <c r="E49" s="26"/>
@@ -2836,13 +3572,13 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
@@ -2859,21 +3595,21 @@
       <c r="AE49" s="9"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
@@ -2893,7 +3629,7 @@
       <c r="A51" s="10">
         <v>25.0</v>
       </c>
-      <c r="B51" s="18"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="26"/>
       <c r="D51" s="10"/>
       <c r="E51" s="26"/>
@@ -2902,13 +3638,13 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
@@ -2925,21 +3661,21 @@
       <c r="AE51" s="9"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
@@ -2959,7 +3695,7 @@
       <c r="A53" s="10">
         <v>26.0</v>
       </c>
-      <c r="B53" s="18"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="26"/>
       <c r="D53" s="10"/>
       <c r="E53" s="26"/>
@@ -2968,13 +3704,13 @@
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
@@ -2991,21 +3727,21 @@
       <c r="AE53" s="9"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
@@ -3025,7 +3761,7 @@
       <c r="A55" s="10">
         <v>27.0</v>
       </c>
-      <c r="B55" s="18"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="26"/>
       <c r="D55" s="10"/>
       <c r="E55" s="26"/>
@@ -3034,13 +3770,13 @@
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
@@ -3057,21 +3793,21 @@
       <c r="AE55" s="9"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
@@ -3091,7 +3827,7 @@
       <c r="A57" s="10">
         <v>28.0</v>
       </c>
-      <c r="B57" s="18"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="26"/>
       <c r="D57" s="10"/>
       <c r="E57" s="26"/>
@@ -3100,13 +3836,13 @@
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
@@ -3123,21 +3859,21 @@
       <c r="AE57" s="9"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
@@ -3157,7 +3893,7 @@
       <c r="A59" s="10">
         <v>29.0</v>
       </c>
-      <c r="B59" s="18"/>
+      <c r="B59" s="17"/>
       <c r="C59" s="26"/>
       <c r="D59" s="10"/>
       <c r="E59" s="26"/>
@@ -3166,13 +3902,13 @@
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
@@ -3189,21 +3925,21 @@
       <c r="AE59" s="9"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
@@ -3223,7 +3959,7 @@
       <c r="A61" s="10">
         <v>30.0</v>
       </c>
-      <c r="B61" s="18"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="26"/>
       <c r="D61" s="10"/>
       <c r="E61" s="26"/>
@@ -3232,13 +3968,13 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
@@ -3255,21 +3991,21 @@
       <c r="AE61" s="9"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
@@ -3289,7 +4025,7 @@
       <c r="A63" s="10">
         <v>31.0</v>
       </c>
-      <c r="B63" s="18"/>
+      <c r="B63" s="17"/>
       <c r="C63" s="26"/>
       <c r="D63" s="10"/>
       <c r="E63" s="26"/>
@@ -3298,13 +4034,13 @@
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25"/>
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
@@ -3321,21 +4057,21 @@
       <c r="AE63" s="9"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
       <c r="R64" s="9"/>
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
@@ -3355,7 +4091,7 @@
       <c r="A65" s="10">
         <v>32.0</v>
       </c>
-      <c r="B65" s="18"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="26"/>
       <c r="D65" s="10"/>
       <c r="E65" s="26"/>
@@ -3364,13 +4100,13 @@
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
       <c r="T65" s="9"/>
@@ -3387,21 +4123,21 @@
       <c r="AE65" s="9"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
@@ -3421,7 +4157,7 @@
       <c r="A67" s="10">
         <v>33.0</v>
       </c>
-      <c r="B67" s="18"/>
+      <c r="B67" s="17"/>
       <c r="C67" s="26"/>
       <c r="D67" s="10"/>
       <c r="E67" s="26"/>
@@ -3430,13 +4166,13 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
@@ -3453,21 +4189,21 @@
       <c r="AE67" s="9"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
@@ -3487,7 +4223,7 @@
       <c r="A69" s="10">
         <v>34.0</v>
       </c>
-      <c r="B69" s="18"/>
+      <c r="B69" s="17"/>
       <c r="C69" s="26"/>
       <c r="D69" s="10"/>
       <c r="E69" s="26"/>
@@ -3496,13 +4232,13 @@
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
@@ -3519,21 +4255,21 @@
       <c r="AE69" s="9"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
@@ -3553,7 +4289,7 @@
       <c r="A71" s="10">
         <v>35.0</v>
       </c>
-      <c r="B71" s="18"/>
+      <c r="B71" s="17"/>
       <c r="C71" s="26"/>
       <c r="D71" s="10"/>
       <c r="E71" s="26"/>
@@ -3562,13 +4298,13 @@
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
       <c r="R71" s="9"/>
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
@@ -3585,21 +4321,21 @@
       <c r="AE71" s="9"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
@@ -3619,7 +4355,7 @@
       <c r="A73" s="10">
         <v>36.0</v>
       </c>
-      <c r="B73" s="18"/>
+      <c r="B73" s="17"/>
       <c r="C73" s="26"/>
       <c r="D73" s="10"/>
       <c r="E73" s="26"/>
@@ -3628,13 +4364,13 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
@@ -3651,21 +4387,21 @@
       <c r="AE73" s="9"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="25"/>
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
@@ -3685,7 +4421,7 @@
       <c r="A75" s="10">
         <v>37.0</v>
       </c>
-      <c r="B75" s="18"/>
+      <c r="B75" s="17"/>
       <c r="C75" s="26"/>
       <c r="D75" s="10"/>
       <c r="E75" s="26"/>
@@ -3694,13 +4430,13 @@
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
@@ -3717,21 +4453,21 @@
       <c r="AE75" s="9"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="25"/>
+      <c r="Q76" s="25"/>
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
@@ -3751,7 +4487,7 @@
       <c r="A77" s="10">
         <v>38.0</v>
       </c>
-      <c r="B77" s="18"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="26"/>
       <c r="D77" s="10"/>
       <c r="E77" s="26"/>
@@ -3760,13 +4496,13 @@
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="25"/>
+      <c r="P77" s="25"/>
+      <c r="Q77" s="25"/>
       <c r="R77" s="9"/>
       <c r="S77" s="9"/>
       <c r="T77" s="9"/>
@@ -3783,21 +4519,21 @@
       <c r="AE77" s="9"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
       <c r="R78" s="9"/>
       <c r="S78" s="9"/>
       <c r="T78" s="9"/>
@@ -3817,7 +4553,7 @@
       <c r="A79" s="10">
         <v>39.0</v>
       </c>
-      <c r="B79" s="18"/>
+      <c r="B79" s="17"/>
       <c r="C79" s="26"/>
       <c r="D79" s="10"/>
       <c r="E79" s="26"/>
@@ -3826,13 +4562,13 @@
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="25"/>
+      <c r="Q79" s="25"/>
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
       <c r="T79" s="9"/>
@@ -3849,21 +4585,21 @@
       <c r="AE79" s="9"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+      <c r="Q80" s="25"/>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
       <c r="T80" s="9"/>
@@ -3883,7 +4619,7 @@
       <c r="A81" s="10">
         <v>40.0</v>
       </c>
-      <c r="B81" s="18"/>
+      <c r="B81" s="17"/>
       <c r="C81" s="26"/>
       <c r="D81" s="10"/>
       <c r="E81" s="26"/>
@@ -3892,13 +4628,13 @@
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="25"/>
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
       <c r="T81" s="9"/>
@@ -3915,21 +4651,21 @@
       <c r="AE81" s="9"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="25"/>
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
       <c r="T82" s="9"/>
@@ -3949,7 +4685,7 @@
       <c r="A83" s="10">
         <v>41.0</v>
       </c>
-      <c r="B83" s="18"/>
+      <c r="B83" s="17"/>
       <c r="C83" s="26"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
@@ -3958,13 +4694,13 @@
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="25"/>
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
       <c r="T83" s="9"/>
@@ -3981,22 +4717,22 @@
       <c r="AE83" s="9"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
       <c r="R84" s="9"/>
       <c r="S84" s="9"/>
       <c r="T84" s="9"/>
@@ -4016,7 +4752,7 @@
       <c r="A85" s="10">
         <v>42.0</v>
       </c>
-      <c r="B85" s="18"/>
+      <c r="B85" s="17"/>
       <c r="C85" s="26"/>
       <c r="D85" s="10"/>
       <c r="E85" s="26"/>
@@ -4025,13 +4761,13 @@
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="25"/>
       <c r="R85" s="9"/>
       <c r="S85" s="9"/>
       <c r="T85" s="9"/>
@@ -4048,21 +4784,21 @@
       <c r="AE85" s="9"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="25"/>
       <c r="R86" s="9"/>
       <c r="S86" s="9"/>
       <c r="T86" s="9"/>
@@ -4082,7 +4818,7 @@
       <c r="A87" s="10">
         <v>43.0</v>
       </c>
-      <c r="B87" s="18"/>
+      <c r="B87" s="17"/>
       <c r="C87" s="26"/>
       <c r="D87" s="10"/>
       <c r="E87" s="26"/>
@@ -4091,13 +4827,13 @@
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
       <c r="R87" s="9"/>
       <c r="S87" s="9"/>
       <c r="T87" s="9"/>
@@ -4114,21 +4850,21 @@
       <c r="AE87" s="9"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="16"/>
-      <c r="B88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
       <c r="R88" s="9"/>
       <c r="S88" s="9"/>
       <c r="T88" s="9"/>
@@ -4148,7 +4884,7 @@
       <c r="A89" s="10">
         <v>44.0</v>
       </c>
-      <c r="B89" s="18"/>
+      <c r="B89" s="17"/>
       <c r="C89" s="26"/>
       <c r="D89" s="10"/>
       <c r="E89" s="26"/>
@@ -4157,13 +4893,13 @@
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="25"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="25"/>
+      <c r="O89" s="25"/>
+      <c r="P89" s="25"/>
+      <c r="Q89" s="25"/>
       <c r="R89" s="9"/>
       <c r="S89" s="9"/>
       <c r="T89" s="9"/>
@@ -4180,21 +4916,21 @@
       <c r="AE89" s="9"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="16"/>
-      <c r="B90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="25"/>
       <c r="R90" s="9"/>
       <c r="S90" s="9"/>
       <c r="T90" s="9"/>
@@ -4212,7 +4948,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="9"/>
-      <c r="B91" s="27"/>
+      <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -4245,7 +4981,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="9"/>
-      <c r="B92" s="27"/>
+      <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -4278,7 +5014,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="9"/>
-      <c r="B93" s="27"/>
+      <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -4311,7 +5047,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="9"/>
-      <c r="B94" s="27"/>
+      <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -4344,7 +5080,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="9"/>
-      <c r="B95" s="27"/>
+      <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
@@ -4377,7 +5113,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="9"/>
-      <c r="B96" s="27"/>
+      <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
@@ -4410,7 +5146,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="9"/>
-      <c r="B97" s="27"/>
+      <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
@@ -4443,7 +5179,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="9"/>
-      <c r="B98" s="27"/>
+      <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
@@ -4476,7 +5212,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="9"/>
-      <c r="B99" s="27"/>
+      <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
@@ -4509,7 +5245,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="9"/>
-      <c r="B100" s="27"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -4542,7 +5278,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="9"/>
-      <c r="B101" s="27"/>
+      <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -4575,7 +5311,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="9"/>
-      <c r="B102" s="27"/>
+      <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
@@ -4608,7 +5344,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="9"/>
-      <c r="B103" s="27"/>
+      <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -4641,7 +5377,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="9"/>
-      <c r="B104" s="27"/>
+      <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -4674,7 +5410,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="9"/>
-      <c r="B105" s="27"/>
+      <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -4707,7 +5443,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="9"/>
-      <c r="B106" s="27"/>
+      <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
@@ -4740,7 +5476,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="9"/>
-      <c r="B107" s="27"/>
+      <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -4773,7 +5509,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="9"/>
-      <c r="B108" s="27"/>
+      <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
@@ -4806,7 +5542,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="9"/>
-      <c r="B109" s="27"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -4839,7 +5575,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="9"/>
-      <c r="B110" s="27"/>
+      <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -4872,7 +5608,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="9"/>
-      <c r="B111" s="27"/>
+      <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
@@ -4905,7 +5641,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="9"/>
-      <c r="B112" s="27"/>
+      <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -4938,7 +5674,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="9"/>
-      <c r="B113" s="27"/>
+      <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -4971,7 +5707,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="9"/>
-      <c r="B114" s="27"/>
+      <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -5004,7 +5740,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="9"/>
-      <c r="B115" s="27"/>
+      <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -5037,7 +5773,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="9"/>
-      <c r="B116" s="27"/>
+      <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -5070,7 +5806,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="9"/>
-      <c r="B117" s="27"/>
+      <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -5103,7 +5839,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="9"/>
-      <c r="B118" s="27"/>
+      <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
@@ -5136,7 +5872,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="9"/>
-      <c r="B119" s="27"/>
+      <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
@@ -5169,7 +5905,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="9"/>
-      <c r="B120" s="27"/>
+      <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -5202,7 +5938,7 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="9"/>
-      <c r="B121" s="27"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
@@ -5235,7 +5971,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="9"/>
-      <c r="B122" s="27"/>
+      <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
@@ -5268,7 +6004,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="9"/>
-      <c r="B123" s="27"/>
+      <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
@@ -5301,7 +6037,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="9"/>
-      <c r="B124" s="27"/>
+      <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
@@ -5334,7 +6070,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="9"/>
-      <c r="B125" s="27"/>
+      <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -5367,7 +6103,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="9"/>
-      <c r="B126" s="27"/>
+      <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
@@ -5400,7 +6136,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="9"/>
-      <c r="B127" s="27"/>
+      <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
@@ -5433,7 +6169,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="9"/>
-      <c r="B128" s="27"/>
+      <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
@@ -5466,7 +6202,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="9"/>
-      <c r="B129" s="27"/>
+      <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
@@ -5499,7 +6235,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="9"/>
-      <c r="B130" s="27"/>
+      <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
@@ -5532,7 +6268,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="9"/>
-      <c r="B131" s="27"/>
+      <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
@@ -5565,7 +6301,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="9"/>
-      <c r="B132" s="27"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
@@ -5598,7 +6334,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="9"/>
-      <c r="B133" s="27"/>
+      <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -5631,7 +6367,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="9"/>
-      <c r="B134" s="27"/>
+      <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
@@ -5664,7 +6400,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="9"/>
-      <c r="B135" s="27"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -5697,7 +6433,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="9"/>
-      <c r="B136" s="27"/>
+      <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -5730,7 +6466,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="9"/>
-      <c r="B137" s="27"/>
+      <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
@@ -5763,7 +6499,7 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="9"/>
-      <c r="B138" s="27"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -5796,7 +6532,7 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="9"/>
-      <c r="B139" s="27"/>
+      <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -5829,7 +6565,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="9"/>
-      <c r="B140" s="27"/>
+      <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
@@ -5862,7 +6598,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="9"/>
-      <c r="B141" s="27"/>
+      <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -5895,7 +6631,7 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="9"/>
-      <c r="B142" s="27"/>
+      <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
@@ -5928,7 +6664,7 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="9"/>
-      <c r="B143" s="27"/>
+      <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
@@ -5961,7 +6697,7 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="9"/>
-      <c r="B144" s="27"/>
+      <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
@@ -5994,7 +6730,7 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="9"/>
-      <c r="B145" s="27"/>
+      <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
@@ -6027,7 +6763,7 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="9"/>
-      <c r="B146" s="27"/>
+      <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
@@ -6060,7 +6796,7 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="9"/>
-      <c r="B147" s="27"/>
+      <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
@@ -6093,7 +6829,7 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="9"/>
-      <c r="B148" s="27"/>
+      <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
@@ -6126,7 +6862,7 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="9"/>
-      <c r="B149" s="27"/>
+      <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
@@ -6159,7 +6895,7 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="9"/>
-      <c r="B150" s="27"/>
+      <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
@@ -6192,7 +6928,7 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="9"/>
-      <c r="B151" s="27"/>
+      <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
@@ -6225,7 +6961,7 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="9"/>
-      <c r="B152" s="27"/>
+      <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
@@ -6258,7 +6994,7 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="9"/>
-      <c r="B153" s="27"/>
+      <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
@@ -6291,7 +7027,7 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="9"/>
-      <c r="B154" s="27"/>
+      <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
@@ -6324,7 +7060,7 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="9"/>
-      <c r="B155" s="27"/>
+      <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
@@ -6357,7 +7093,7 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="9"/>
-      <c r="B156" s="27"/>
+      <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
@@ -6390,7 +7126,7 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="9"/>
-      <c r="B157" s="27"/>
+      <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
@@ -6423,7 +7159,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="9"/>
-      <c r="B158" s="27"/>
+      <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
@@ -6456,7 +7192,7 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="9"/>
-      <c r="B159" s="27"/>
+      <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
@@ -6489,7 +7225,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="9"/>
-      <c r="B160" s="27"/>
+      <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
@@ -6522,7 +7258,7 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="9"/>
-      <c r="B161" s="27"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
@@ -6555,7 +7291,7 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="9"/>
-      <c r="B162" s="27"/>
+      <c r="B162" s="9"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
@@ -6588,7 +7324,7 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="9"/>
-      <c r="B163" s="27"/>
+      <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
@@ -6621,7 +7357,7 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="9"/>
-      <c r="B164" s="27"/>
+      <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
@@ -6654,7 +7390,7 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="9"/>
-      <c r="B165" s="27"/>
+      <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
@@ -6687,7 +7423,7 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="9"/>
-      <c r="B166" s="27"/>
+      <c r="B166" s="9"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
@@ -6720,7 +7456,7 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="9"/>
-      <c r="B167" s="27"/>
+      <c r="B167" s="9"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
@@ -6753,7 +7489,7 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="9"/>
-      <c r="B168" s="27"/>
+      <c r="B168" s="9"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
@@ -6786,7 +7522,7 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="9"/>
-      <c r="B169" s="27"/>
+      <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
@@ -6819,7 +7555,7 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="9"/>
-      <c r="B170" s="27"/>
+      <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
@@ -6852,7 +7588,7 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="9"/>
-      <c r="B171" s="27"/>
+      <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
@@ -6885,7 +7621,7 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="9"/>
-      <c r="B172" s="27"/>
+      <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
@@ -6918,7 +7654,7 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="9"/>
-      <c r="B173" s="27"/>
+      <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
@@ -6951,7 +7687,7 @@
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="9"/>
-      <c r="B174" s="27"/>
+      <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
@@ -6984,7 +7720,7 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="9"/>
-      <c r="B175" s="27"/>
+      <c r="B175" s="9"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
@@ -7017,7 +7753,7 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="9"/>
-      <c r="B176" s="27"/>
+      <c r="B176" s="9"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
@@ -7050,7 +7786,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="9"/>
-      <c r="B177" s="27"/>
+      <c r="B177" s="9"/>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
@@ -7083,7 +7819,7 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="9"/>
-      <c r="B178" s="27"/>
+      <c r="B178" s="9"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
@@ -7116,7 +7852,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="9"/>
-      <c r="B179" s="27"/>
+      <c r="B179" s="9"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
@@ -7149,7 +7885,7 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="9"/>
-      <c r="B180" s="27"/>
+      <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
@@ -7182,7 +7918,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="9"/>
-      <c r="B181" s="27"/>
+      <c r="B181" s="9"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
@@ -7215,7 +7951,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="9"/>
-      <c r="B182" s="27"/>
+      <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
@@ -7248,7 +7984,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="9"/>
-      <c r="B183" s="27"/>
+      <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
@@ -7281,7 +8017,7 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="9"/>
-      <c r="B184" s="27"/>
+      <c r="B184" s="9"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
@@ -7314,7 +8050,7 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="9"/>
-      <c r="B185" s="27"/>
+      <c r="B185" s="9"/>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
@@ -7347,7 +8083,7 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="9"/>
-      <c r="B186" s="27"/>
+      <c r="B186" s="9"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
@@ -7380,7 +8116,7 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="9"/>
-      <c r="B187" s="27"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
@@ -7413,7 +8149,7 @@
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="9"/>
-      <c r="B188" s="27"/>
+      <c r="B188" s="9"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
@@ -7446,7 +8182,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="9"/>
-      <c r="B189" s="27"/>
+      <c r="B189" s="9"/>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
@@ -7479,7 +8215,7 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="9"/>
-      <c r="B190" s="27"/>
+      <c r="B190" s="9"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
@@ -7512,7 +8248,7 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="9"/>
-      <c r="B191" s="27"/>
+      <c r="B191" s="9"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
@@ -7545,7 +8281,7 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="9"/>
-      <c r="B192" s="27"/>
+      <c r="B192" s="9"/>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
@@ -7578,7 +8314,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="9"/>
-      <c r="B193" s="27"/>
+      <c r="B193" s="9"/>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
@@ -7611,7 +8347,7 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="9"/>
-      <c r="B194" s="27"/>
+      <c r="B194" s="9"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
@@ -7644,7 +8380,7 @@
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="9"/>
-      <c r="B195" s="27"/>
+      <c r="B195" s="9"/>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
@@ -7677,7 +8413,7 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="9"/>
-      <c r="B196" s="27"/>
+      <c r="B196" s="9"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
@@ -7710,7 +8446,7 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="9"/>
-      <c r="B197" s="27"/>
+      <c r="B197" s="9"/>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
@@ -7743,7 +8479,7 @@
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="9"/>
-      <c r="B198" s="27"/>
+      <c r="B198" s="9"/>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
@@ -7776,7 +8512,7 @@
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="9"/>
-      <c r="B199" s="27"/>
+      <c r="B199" s="9"/>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
@@ -7809,7 +8545,7 @@
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="9"/>
-      <c r="B200" s="27"/>
+      <c r="B200" s="9"/>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
@@ -7842,7 +8578,7 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="9"/>
-      <c r="B201" s="27"/>
+      <c r="B201" s="9"/>
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
@@ -7875,7 +8611,7 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="9"/>
-      <c r="B202" s="27"/>
+      <c r="B202" s="9"/>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
@@ -7908,7 +8644,7 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="9"/>
-      <c r="B203" s="27"/>
+      <c r="B203" s="9"/>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
@@ -7941,7 +8677,7 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="9"/>
-      <c r="B204" s="27"/>
+      <c r="B204" s="9"/>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
@@ -7974,7 +8710,7 @@
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="9"/>
-      <c r="B205" s="27"/>
+      <c r="B205" s="9"/>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
@@ -8007,7 +8743,7 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="9"/>
-      <c r="B206" s="27"/>
+      <c r="B206" s="9"/>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
@@ -8040,7 +8776,7 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="9"/>
-      <c r="B207" s="27"/>
+      <c r="B207" s="9"/>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
@@ -8073,7 +8809,7 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="9"/>
-      <c r="B208" s="27"/>
+      <c r="B208" s="9"/>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
@@ -8106,7 +8842,7 @@
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="9"/>
-      <c r="B209" s="27"/>
+      <c r="B209" s="9"/>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
@@ -8139,7 +8875,7 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="9"/>
-      <c r="B210" s="27"/>
+      <c r="B210" s="9"/>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
@@ -8172,7 +8908,7 @@
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="9"/>
-      <c r="B211" s="27"/>
+      <c r="B211" s="9"/>
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
@@ -8205,7 +8941,7 @@
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="9"/>
-      <c r="B212" s="27"/>
+      <c r="B212" s="9"/>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
@@ -8238,7 +8974,7 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="9"/>
-      <c r="B213" s="27"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
@@ -8271,7 +9007,7 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="9"/>
-      <c r="B214" s="27"/>
+      <c r="B214" s="9"/>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
       <c r="E214" s="9"/>
@@ -8304,7 +9040,7 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="9"/>
-      <c r="B215" s="27"/>
+      <c r="B215" s="9"/>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
@@ -8337,7 +9073,7 @@
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="9"/>
-      <c r="B216" s="27"/>
+      <c r="B216" s="9"/>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
       <c r="E216" s="9"/>
@@ -8370,7 +9106,7 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="9"/>
-      <c r="B217" s="27"/>
+      <c r="B217" s="9"/>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
@@ -8403,7 +9139,7 @@
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="9"/>
-      <c r="B218" s="27"/>
+      <c r="B218" s="9"/>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
@@ -8436,7 +9172,7 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="9"/>
-      <c r="B219" s="27"/>
+      <c r="B219" s="9"/>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
@@ -8469,7 +9205,7 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="9"/>
-      <c r="B220" s="27"/>
+      <c r="B220" s="9"/>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
       <c r="E220" s="9"/>
@@ -8502,7 +9238,7 @@
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="9"/>
-      <c r="B221" s="27"/>
+      <c r="B221" s="9"/>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
@@ -8535,7 +9271,7 @@
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="9"/>
-      <c r="B222" s="27"/>
+      <c r="B222" s="9"/>
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
@@ -8568,7 +9304,7 @@
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="9"/>
-      <c r="B223" s="27"/>
+      <c r="B223" s="9"/>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
@@ -8601,7 +9337,7 @@
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="9"/>
-      <c r="B224" s="27"/>
+      <c r="B224" s="9"/>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
@@ -8634,7 +9370,7 @@
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="9"/>
-      <c r="B225" s="27"/>
+      <c r="B225" s="9"/>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
@@ -8667,7 +9403,7 @@
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="9"/>
-      <c r="B226" s="27"/>
+      <c r="B226" s="9"/>
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
@@ -8700,7 +9436,7 @@
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="9"/>
-      <c r="B227" s="27"/>
+      <c r="B227" s="9"/>
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
@@ -8733,7 +9469,7 @@
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="9"/>
-      <c r="B228" s="27"/>
+      <c r="B228" s="9"/>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
@@ -8766,7 +9502,7 @@
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="9"/>
-      <c r="B229" s="27"/>
+      <c r="B229" s="9"/>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>
@@ -8799,7 +9535,7 @@
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="9"/>
-      <c r="B230" s="27"/>
+      <c r="B230" s="9"/>
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
@@ -8832,7 +9568,7 @@
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="9"/>
-      <c r="B231" s="27"/>
+      <c r="B231" s="9"/>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
@@ -8865,7 +9601,7 @@
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="9"/>
-      <c r="B232" s="27"/>
+      <c r="B232" s="9"/>
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
@@ -8898,7 +9634,7 @@
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="9"/>
-      <c r="B233" s="27"/>
+      <c r="B233" s="9"/>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
@@ -8931,7 +9667,7 @@
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="9"/>
-      <c r="B234" s="27"/>
+      <c r="B234" s="9"/>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
@@ -8964,7 +9700,7 @@
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="9"/>
-      <c r="B235" s="27"/>
+      <c r="B235" s="9"/>
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
@@ -8997,7 +9733,7 @@
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="9"/>
-      <c r="B236" s="27"/>
+      <c r="B236" s="9"/>
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
@@ -9030,7 +9766,7 @@
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="9"/>
-      <c r="B237" s="27"/>
+      <c r="B237" s="9"/>
       <c r="C237" s="9"/>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
@@ -9063,7 +9799,7 @@
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="9"/>
-      <c r="B238" s="27"/>
+      <c r="B238" s="9"/>
       <c r="C238" s="9"/>
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
@@ -9096,7 +9832,7 @@
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="9"/>
-      <c r="B239" s="27"/>
+      <c r="B239" s="9"/>
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
@@ -9129,7 +9865,7 @@
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="9"/>
-      <c r="B240" s="27"/>
+      <c r="B240" s="9"/>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
@@ -9162,7 +9898,7 @@
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="9"/>
-      <c r="B241" s="27"/>
+      <c r="B241" s="9"/>
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
@@ -9195,7 +9931,7 @@
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="9"/>
-      <c r="B242" s="27"/>
+      <c r="B242" s="9"/>
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
@@ -9228,7 +9964,7 @@
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="9"/>
-      <c r="B243" s="27"/>
+      <c r="B243" s="9"/>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
       <c r="E243" s="9"/>
@@ -9261,7 +9997,7 @@
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="9"/>
-      <c r="B244" s="27"/>
+      <c r="B244" s="9"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
@@ -9294,7 +10030,7 @@
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="9"/>
-      <c r="B245" s="27"/>
+      <c r="B245" s="9"/>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
       <c r="E245" s="9"/>
@@ -9327,7 +10063,7 @@
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="9"/>
-      <c r="B246" s="27"/>
+      <c r="B246" s="9"/>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
@@ -9360,7 +10096,7 @@
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="9"/>
-      <c r="B247" s="27"/>
+      <c r="B247" s="9"/>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
@@ -9393,7 +10129,7 @@
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="9"/>
-      <c r="B248" s="27"/>
+      <c r="B248" s="9"/>
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
@@ -9426,7 +10162,7 @@
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="9"/>
-      <c r="B249" s="27"/>
+      <c r="B249" s="9"/>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
       <c r="E249" s="9"/>
@@ -9459,7 +10195,7 @@
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="9"/>
-      <c r="B250" s="27"/>
+      <c r="B250" s="9"/>
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
       <c r="E250" s="9"/>
@@ -9492,7 +10228,7 @@
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="9"/>
-      <c r="B251" s="27"/>
+      <c r="B251" s="9"/>
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
       <c r="E251" s="9"/>
@@ -9525,7 +10261,7 @@
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="9"/>
-      <c r="B252" s="27"/>
+      <c r="B252" s="9"/>
       <c r="C252" s="9"/>
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
@@ -9558,7 +10294,7 @@
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="9"/>
-      <c r="B253" s="27"/>
+      <c r="B253" s="9"/>
       <c r="C253" s="9"/>
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
@@ -9591,7 +10327,7 @@
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="9"/>
-      <c r="B254" s="27"/>
+      <c r="B254" s="9"/>
       <c r="C254" s="9"/>
       <c r="D254" s="9"/>
       <c r="E254" s="9"/>
@@ -9624,7 +10360,7 @@
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="9"/>
-      <c r="B255" s="27"/>
+      <c r="B255" s="9"/>
       <c r="C255" s="9"/>
       <c r="D255" s="9"/>
       <c r="E255" s="9"/>
@@ -9657,7 +10393,7 @@
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="9"/>
-      <c r="B256" s="27"/>
+      <c r="B256" s="9"/>
       <c r="C256" s="9"/>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
@@ -9690,7 +10426,7 @@
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="9"/>
-      <c r="B257" s="27"/>
+      <c r="B257" s="9"/>
       <c r="C257" s="9"/>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
@@ -9723,7 +10459,7 @@
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="9"/>
-      <c r="B258" s="27"/>
+      <c r="B258" s="9"/>
       <c r="C258" s="9"/>
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
@@ -9756,7 +10492,7 @@
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="9"/>
-      <c r="B259" s="27"/>
+      <c r="B259" s="9"/>
       <c r="C259" s="9"/>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
@@ -9789,7 +10525,7 @@
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="9"/>
-      <c r="B260" s="27"/>
+      <c r="B260" s="9"/>
       <c r="C260" s="9"/>
       <c r="D260" s="9"/>
       <c r="E260" s="9"/>
@@ -9822,7 +10558,7 @@
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="9"/>
-      <c r="B261" s="27"/>
+      <c r="B261" s="9"/>
       <c r="C261" s="9"/>
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
@@ -9855,7 +10591,7 @@
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="9"/>
-      <c r="B262" s="27"/>
+      <c r="B262" s="9"/>
       <c r="C262" s="9"/>
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
@@ -9888,7 +10624,7 @@
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="9"/>
-      <c r="B263" s="27"/>
+      <c r="B263" s="9"/>
       <c r="C263" s="9"/>
       <c r="D263" s="9"/>
       <c r="E263" s="9"/>
@@ -9921,7 +10657,7 @@
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="9"/>
-      <c r="B264" s="27"/>
+      <c r="B264" s="9"/>
       <c r="C264" s="9"/>
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
@@ -9954,7 +10690,7 @@
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="9"/>
-      <c r="B265" s="27"/>
+      <c r="B265" s="9"/>
       <c r="C265" s="9"/>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
@@ -9987,7 +10723,7 @@
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="9"/>
-      <c r="B266" s="27"/>
+      <c r="B266" s="9"/>
       <c r="C266" s="9"/>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
@@ -10020,7 +10756,7 @@
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="9"/>
-      <c r="B267" s="27"/>
+      <c r="B267" s="9"/>
       <c r="C267" s="9"/>
       <c r="D267" s="9"/>
       <c r="E267" s="9"/>
@@ -10053,7 +10789,7 @@
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="9"/>
-      <c r="B268" s="27"/>
+      <c r="B268" s="9"/>
       <c r="C268" s="9"/>
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
@@ -10086,7 +10822,7 @@
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="9"/>
-      <c r="B269" s="27"/>
+      <c r="B269" s="9"/>
       <c r="C269" s="9"/>
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
@@ -10119,7 +10855,7 @@
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="9"/>
-      <c r="B270" s="27"/>
+      <c r="B270" s="9"/>
       <c r="C270" s="9"/>
       <c r="D270" s="9"/>
       <c r="E270" s="9"/>
@@ -10152,7 +10888,7 @@
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="9"/>
-      <c r="B271" s="27"/>
+      <c r="B271" s="9"/>
       <c r="C271" s="9"/>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
@@ -10185,7 +10921,7 @@
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="9"/>
-      <c r="B272" s="27"/>
+      <c r="B272" s="9"/>
       <c r="C272" s="9"/>
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
@@ -10218,7 +10954,7 @@
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="9"/>
-      <c r="B273" s="27"/>
+      <c r="B273" s="9"/>
       <c r="C273" s="9"/>
       <c r="D273" s="9"/>
       <c r="E273" s="9"/>
@@ -10251,7 +10987,7 @@
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="9"/>
-      <c r="B274" s="27"/>
+      <c r="B274" s="9"/>
       <c r="C274" s="9"/>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
@@ -10284,7 +11020,7 @@
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="9"/>
-      <c r="B275" s="27"/>
+      <c r="B275" s="9"/>
       <c r="C275" s="9"/>
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
@@ -10317,7 +11053,7 @@
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="9"/>
-      <c r="B276" s="27"/>
+      <c r="B276" s="9"/>
       <c r="C276" s="9"/>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
@@ -10350,7 +11086,7 @@
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="9"/>
-      <c r="B277" s="27"/>
+      <c r="B277" s="9"/>
       <c r="C277" s="9"/>
       <c r="D277" s="9"/>
       <c r="E277" s="9"/>
@@ -10383,7 +11119,7 @@
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="9"/>
-      <c r="B278" s="27"/>
+      <c r="B278" s="9"/>
       <c r="C278" s="9"/>
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
@@ -10416,7 +11152,7 @@
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="9"/>
-      <c r="B279" s="27"/>
+      <c r="B279" s="9"/>
       <c r="C279" s="9"/>
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
@@ -10449,7 +11185,7 @@
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="9"/>
-      <c r="B280" s="27"/>
+      <c r="B280" s="9"/>
       <c r="C280" s="9"/>
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
@@ -10482,7 +11218,7 @@
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="9"/>
-      <c r="B281" s="27"/>
+      <c r="B281" s="9"/>
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
       <c r="E281" s="9"/>
@@ -10515,7 +11251,7 @@
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="9"/>
-      <c r="B282" s="27"/>
+      <c r="B282" s="9"/>
       <c r="C282" s="9"/>
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
@@ -10548,7 +11284,7 @@
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="9"/>
-      <c r="B283" s="27"/>
+      <c r="B283" s="9"/>
       <c r="C283" s="9"/>
       <c r="D283" s="9"/>
       <c r="E283" s="9"/>
@@ -10581,7 +11317,7 @@
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="9"/>
-      <c r="B284" s="27"/>
+      <c r="B284" s="9"/>
       <c r="C284" s="9"/>
       <c r="D284" s="9"/>
       <c r="E284" s="9"/>
@@ -10614,7 +11350,7 @@
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="9"/>
-      <c r="B285" s="27"/>
+      <c r="B285" s="9"/>
       <c r="C285" s="9"/>
       <c r="D285" s="9"/>
       <c r="E285" s="9"/>
@@ -10647,7 +11383,7 @@
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="9"/>
-      <c r="B286" s="27"/>
+      <c r="B286" s="9"/>
       <c r="C286" s="9"/>
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
@@ -10680,7 +11416,7 @@
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="9"/>
-      <c r="B287" s="27"/>
+      <c r="B287" s="9"/>
       <c r="C287" s="9"/>
       <c r="D287" s="9"/>
       <c r="E287" s="9"/>
@@ -10713,7 +11449,7 @@
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="9"/>
-      <c r="B288" s="27"/>
+      <c r="B288" s="9"/>
       <c r="C288" s="9"/>
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
@@ -10746,7 +11482,7 @@
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="9"/>
-      <c r="B289" s="27"/>
+      <c r="B289" s="9"/>
       <c r="C289" s="9"/>
       <c r="D289" s="9"/>
       <c r="E289" s="9"/>
@@ -11650,6 +12386,16 @@
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
     <mergeCell ref="H41:H42"/>
     <mergeCell ref="I41:I42"/>
     <mergeCell ref="J41:J42"/>
@@ -11690,16 +12436,6 @@
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
     <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
     <mergeCell ref="H49:H50"/>
     <mergeCell ref="I49:I50"/>
     <mergeCell ref="J49:J50"/>
@@ -11948,10 +12684,12 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="I39"/>
+    <hyperlink r:id="rId2" ref="I41"/>
+    <hyperlink r:id="rId3" ref="I43"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/data/updated.xlsx
+++ b/data/updated.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhbiban5DTnxU6ylQQ9Lx41PQLNQg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi3B5B5YVHaBP5in2pfl/0DpXyX4g=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="196">
   <si>
     <t>شماره ردیف</t>
   </si>
@@ -84,7 +84,7 @@
     <t>قدرت</t>
   </si>
   <si>
-    <t>101</t>
+    <t>fRQRQqEYjq</t>
   </si>
   <si>
     <t>برای هماهنگی قطعی شدن زمان به ایمیل alireza.bagheri.sh@gmail.com پیام بدهید.</t>
@@ -114,7 +114,7 @@
     <t>تبدیل انرژی</t>
   </si>
   <si>
-    <t>201</t>
+    <t>WREN2z4tr4</t>
   </si>
   <si>
     <t>هماهنگی و تماس از طریق شماره تماس 09379411263</t>
@@ -126,22 +126,7 @@
     <t>مهندسی مکانیک - تبدیل انرژی</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>18 فروردین. ساعت 17-18:30</t>
-    </r>
+    <t>18 فروردین. ساعت 17-18:30</t>
   </si>
   <si>
     <t xml:space="preserve"> 19 فروردین. ساعت 17-18:30</t>
@@ -150,130 +135,49 @@
     <t xml:space="preserve"> 20 فروردین. ساعت 17-18:30</t>
   </si>
   <si>
-    <t xml:space="preserve">مصطفی </t>
-  </si>
-  <si>
-    <t>الوندیان</t>
-  </si>
-  <si>
-    <t>مخابرات</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>هماهنگی و تماس از طریق واتساپ و با 09212405364</t>
-  </si>
-  <si>
-    <t>http://s10.picofile.com/file/8392736442/alvandian.JPG</t>
-  </si>
-  <si>
-    <t>مهندسی برق - مخابرات</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>19 فروردین ساعت 16 تا 19</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>20 فروردین ساعت 10 تا 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>۲۰ فروردین ساعت 16 تا 19</t>
-    </r>
-  </si>
-  <si>
-    <t>ایوب</t>
-  </si>
-  <si>
-    <t>حسنی</t>
+    <t xml:space="preserve">علیرضا </t>
+  </si>
+  <si>
+    <t>قادری</t>
+  </si>
+  <si>
+    <t>مهندسی نفت</t>
+  </si>
+  <si>
+    <t>مخازن هیدروکربوری</t>
+  </si>
+  <si>
+    <t>rUQzIoy67R</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>http://s10.picofile.com/file/8392736526/ghaderi.JPG</t>
+  </si>
+  <si>
+    <t>مهندسی نفت - مخازن هیدروکربوری</t>
+  </si>
+  <si>
+    <t>۲۰ فروردین ساعت 16 تا 19</t>
+  </si>
+  <si>
+    <t>18 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t>19 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمدرضا </t>
+  </si>
+  <si>
+    <t>فرحناک</t>
   </si>
   <si>
     <t>طراحی کاربردی</t>
   </si>
   <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>http://s10.picofile.com/file/8392736450/ayoub_hasani.JPG</t>
-  </si>
-  <si>
-    <t>مهندسی مکانیک - طراحی کاربردی</t>
-  </si>
-  <si>
-    <t>16 فروردین ساعت 18 تا 19</t>
-  </si>
-  <si>
-    <t>17 فروردین ساعت 18 تا 19</t>
-  </si>
-  <si>
-    <t>18 فروردین ساعت 18 تا 19</t>
-  </si>
-  <si>
-    <t>19 فروردین ساعت 18 تا 19</t>
-  </si>
-  <si>
-    <t>20 فروردین ساعت 18 تا 19</t>
-  </si>
-  <si>
-    <t>21 فروردین ساعت 18 تا 19</t>
-  </si>
-  <si>
-    <t>22 فروردین ساعت 18 تا 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محمدرضا </t>
-  </si>
-  <si>
-    <t>فرحناک</t>
-  </si>
-  <si>
-    <t>203</t>
+    <t>yVT5bzwdtk</t>
   </si>
   <si>
     <t xml:space="preserve">هماهنگی تماس از طریق ایدی تلگرامی @Mreza_farahnak
@@ -283,49 +187,70 @@
     <t>http://s11.picofile.com/file/8392736484/farahnak.JPG</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>18 فروردین. ساعت 18-19</t>
-    </r>
+    <t>مهندسی مکانیک - طراحی کاربردی</t>
+  </si>
+  <si>
+    <t>21 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t>22 فروردین ساعت 18 تا 19</t>
   </si>
   <si>
     <t xml:space="preserve"> 19 فروردین. ساعت 18-19</t>
   </si>
   <si>
+    <t>18 فروردین. ساعت 18-19</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 20 فروردین. ساعت 18-19</t>
   </si>
   <si>
-    <t xml:space="preserve">علیرضا </t>
-  </si>
-  <si>
-    <t>قادری</t>
-  </si>
-  <si>
-    <t>مهندسی نفت</t>
-  </si>
-  <si>
-    <t>مخازن هیدروکربوری</t>
-  </si>
-  <si>
-    <t>701</t>
-  </si>
-  <si>
-    <t>http://s10.picofile.com/file/8392736526/ghaderi.JPG</t>
-  </si>
-  <si>
-    <t>مهندسی نفت - مخازن هیدروکربوری</t>
+    <t xml:space="preserve">مصطفی </t>
+  </si>
+  <si>
+    <t>الوندیان</t>
+  </si>
+  <si>
+    <t>مخابرات</t>
+  </si>
+  <si>
+    <t>TjsUjDatfS</t>
+  </si>
+  <si>
+    <t>هماهنگی و تماس از طریق واتساپ و با 09212405364</t>
+  </si>
+  <si>
+    <t>http://s10.picofile.com/file/8392736442/alvandian.JPG</t>
+  </si>
+  <si>
+    <t>مهندسی برق - مخابرات</t>
+  </si>
+  <si>
+    <t>19 فروردین ساعت 16 تا 19</t>
+  </si>
+  <si>
+    <t>20 فروردین ساعت 10 تا 12</t>
+  </si>
+  <si>
+    <t>ایوب</t>
+  </si>
+  <si>
+    <t>حسنی</t>
+  </si>
+  <si>
+    <t>GPq3HM3THE</t>
+  </si>
+  <si>
+    <t>http://s10.picofile.com/file/8392736450/ayoub_hasani.JPG</t>
+  </si>
+  <si>
+    <t>دیر وقت</t>
+  </si>
+  <si>
+    <t>17 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t>20 فروردین ساعت 18 تا 19</t>
   </si>
   <si>
     <t>محسن</t>
@@ -334,7 +259,7 @@
     <t>غلامی</t>
   </si>
   <si>
-    <t>204</t>
+    <t>dXoGRhNRYt</t>
   </si>
   <si>
     <t>هماهنگی تماس از طریق ایدی تلگرامی @MsnGhmi</t>
@@ -346,7 +271,7 @@
     <t xml:space="preserve"> 18 فروردین. 8-10 (به وقت ایران)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 19 فروردین. 8-10 (به وقت ایران)</t>
+    <t>خیلی دیر</t>
   </si>
   <si>
     <t xml:space="preserve"> 20 فروردین. 8-10 (به وقت ایران)</t>
@@ -358,64 +283,19 @@
     <t>حسینی</t>
   </si>
   <si>
-    <t>205</t>
+    <t>ml6HHB3vyc</t>
   </si>
   <si>
     <t>http://s11.picofile.com/file/8392736592/hoseini.JPG</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>18 فروردین ساعت 20 تا 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>19 فروردین ساعت 20 تا 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>20 فروردین ساعت 20 تا 12</t>
-    </r>
+    <t>18 فروردین ساعت 20 تا 12</t>
+  </si>
+  <si>
+    <t>19 فروردین ساعت 20 تا 12</t>
+  </si>
+  <si>
+    <t>20 فروردین ساعت 20 تا 12</t>
   </si>
   <si>
     <t>سعید</t>
@@ -424,7 +304,7 @@
     <t>جلیلوند</t>
   </si>
   <si>
-    <t>206</t>
+    <t>2OQs50FBCo</t>
   </si>
   <si>
     <t>http://s11.picofile.com/file/8392736626/jalilvand.JPG</t>
@@ -460,64 +340,22 @@
     <t>کمالی</t>
   </si>
   <si>
-    <t>207</t>
+    <t>hoJTL3Og7Y</t>
   </si>
   <si>
     <t>http://s11.picofile.com/file/8392741392/kamali.JPG</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>18 فروردین، یک ساعت توافقی</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>19 فروردین، یک ساعت توافقی</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>20 فروردین، یک ساعت توافقی</t>
-    </r>
+    <t>19 فروردین، یک ساعت توافقی</t>
+  </si>
+  <si>
+    <t>18 فروردین، یک ساعت توافقی</t>
+  </si>
+  <si>
+    <t>20 فروردین، یک ساعت توافقی</t>
+  </si>
+  <si>
+    <t>من هستم</t>
   </si>
   <si>
     <t>جمال</t>
@@ -526,7 +364,7 @@
     <t>کزازی</t>
   </si>
   <si>
-    <t>103</t>
+    <t>9M0zXoQdqh</t>
   </si>
   <si>
     <t>تماس از طریق تلفن یا تلگرام با شماره 9187042184</t>
@@ -535,58 +373,13 @@
     <t>http://s10.picofile.com/file/8392736976/kazzazi.JPG</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>18 فروردین. ساعت 17-20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>19 فروردین. ساعت 18-20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>20 فروردین. ساعت 16-19</t>
-    </r>
+    <t>18 فروردین. ساعت 17-20</t>
+  </si>
+  <si>
+    <t>19 فروردین. ساعت 18-20</t>
+  </si>
+  <si>
+    <t>20 فروردین. ساعت 16-19</t>
   </si>
   <si>
     <t>کورش</t>
@@ -595,7 +388,7 @@
     <t>خلج مفرد</t>
   </si>
   <si>
-    <t>104</t>
+    <t>u37VMTksrf</t>
   </si>
   <si>
     <t xml:space="preserve">هماهنگی و تماس از طریق تلگرام با ایدی @Kkmonfared و همچنین تماس از طریق اسکایپ با شماره 9128303218
@@ -605,40 +398,10 @@
     <t>http://s10.picofile.com/file/8392736684/khalaj.JPG</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>21 فروردین. ساعت 14-15</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>22 فروردین. ساعت 14-15</t>
-    </r>
+    <t>21 فروردین. ساعت 14-15</t>
+  </si>
+  <si>
+    <t>22 فروردین. ساعت 14-15</t>
   </si>
   <si>
     <t>سیدمیلاد</t>
@@ -647,7 +410,7 @@
     <t>میری</t>
   </si>
   <si>
-    <t>105</t>
+    <t>wDAk68R3QR</t>
   </si>
   <si>
     <t>هماهنگی و تماس صوتی با تلفن همراه یا تماس از طریق واتساپ از طریق شماره 09117716042</t>
@@ -656,22 +419,7 @@
     <t>http://s11.picofile.com/file/8392736718/miri.JPG</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>18 فروردین. ساعت 18-11</t>
-    </r>
+    <t>18 فروردین. ساعت 18-11</t>
   </si>
   <si>
     <t xml:space="preserve"> 19 فروردین. ساعت 18-11</t>
@@ -686,7 +434,7 @@
     <t>ملایی</t>
   </si>
   <si>
-    <t>106</t>
+    <t>OAE9mBtufq</t>
   </si>
   <si>
     <t>هماهنگی و تماس با تلفن همراه از طریق شماره 9157131289</t>
@@ -695,22 +443,7 @@
     <t>http://s10.picofile.com/file/8392736726/mollaii.JPG</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>18 فروردین. ساعت 18-16</t>
-    </r>
+    <t>18 فروردین. ساعت 18-16</t>
   </si>
   <si>
     <t xml:space="preserve"> 19 فروردین. ساعت 18-16</t>
@@ -722,7 +455,7 @@
     <t>حسین</t>
   </si>
   <si>
-    <t>208</t>
+    <t>BgCVEyc7oL</t>
   </si>
   <si>
     <t>هماهنگی و تماس از طریق شماره تماس 09122508337</t>
@@ -749,7 +482,7 @@
     <t>الکترونیک</t>
   </si>
   <si>
-    <t>107</t>
+    <t>RpRxaU1Tnv</t>
   </si>
   <si>
     <t>هماهنگی و تماس صوتی با تلفن همراه یا تماس از طریق واتساپ از طریق شماره 09377988277</t>
@@ -761,58 +494,10 @@
     <t>مهندسی برق - الکترونیک</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>18 فروردین ساعت 16 تا 19</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>19 فروردین ساعت 16 تا 19</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>20 فروردین ساعت 16 تا 19</t>
-    </r>
+    <t>18 فروردین ساعت 16 تا 19</t>
+  </si>
+  <si>
+    <t>20 فروردین ساعت 16 تا 19</t>
   </si>
   <si>
     <t>علی</t>
@@ -821,7 +506,7 @@
     <t>تاجیک</t>
   </si>
   <si>
-    <t>108</t>
+    <t>mlKF9VydGX</t>
   </si>
   <si>
     <t>تماس با تلفن همراه یا تماس صوتی با واتساپ
@@ -832,67 +517,13 @@
     <t>http://s11.picofile.com/file/8392736776/tajik.JPG</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>19 فروردین ساعت 16 تا 19</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>20 فروردین ساعت 10 تا 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>20 فروردین ساعت 16 تا 19</t>
-    </r>
-  </si>
-  <si>
     <t>وحید</t>
   </si>
   <si>
     <t>حاجی حسنی</t>
   </si>
   <si>
-    <t>109</t>
+    <t>Bg7kK7M1gk</t>
   </si>
   <si>
     <t>هماهنگی و تماس با شماره همراه 09384220698 یا از طریق پیام رسان تلگرام و آیدی @Vahid_Hajihasani</t>
@@ -901,22 +532,7 @@
     <t>http://s10.picofile.com/file/8392741726/HajiHasani.JPG</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>18 فروردین. ساعت 22-21</t>
-    </r>
+    <t>18 فروردین. ساعت 22-21</t>
   </si>
   <si>
     <t xml:space="preserve"> 19 فروردین. ساعت 22-21</t>
@@ -926,6 +542,9 @@
   </si>
   <si>
     <t>خوش اخلاق</t>
+  </si>
+  <si>
+    <t>9dhCcoDWmE</t>
   </si>
   <si>
     <t xml:space="preserve">هماهنگی تماس از طریق ارسال پیام در تلگرام با ایدی @DrKhoshakhlagh یا واتساپ روی شماره 09124880702
@@ -950,6 +569,9 @@
     <t>عالمی</t>
   </si>
   <si>
+    <t>Qi64Z9lRPP</t>
+  </si>
+  <si>
     <t xml:space="preserve">هماهنگی و تماس از طریق شماره همراه 09109339615
 </t>
   </si>
@@ -957,56 +579,44 @@
     <t>http://s10.picofile.com/file/8392878350/alemi.JPG</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF008080"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="B Nazanin"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>18 فروردین. ساعت 18-17</t>
-    </r>
+    <t>18 فروردین. ساعت 18-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 فروردین. ساعت 18-17</t>
   </si>
   <si>
     <t xml:space="preserve"> 19 فروردین. ساعت 18-17</t>
   </si>
   <si>
-    <t xml:space="preserve"> 20 فروردین. ساعت 18-17</t>
-  </si>
-  <si>
     <t>محمدمتین</t>
   </si>
   <si>
     <t>بهزادی</t>
   </si>
   <si>
+    <t>dqtWHhmN2l</t>
+  </si>
+  <si>
     <t>هماهنگی و تماس از طریق تماس تلفنی یا پیامک از طریق شماره همراه 09198958869</t>
   </si>
   <si>
     <t>http://s11.picofile.com/file/8392878392/behzadi.JPG</t>
   </si>
   <si>
+    <t>بیست فروردین 20-20:30</t>
+  </si>
+  <si>
+    <t>نوزده فروردین 20-20:30</t>
+  </si>
+  <si>
     <t>هجده فروردین 20-20:30</t>
-  </si>
-  <si>
-    <t>نوزده فروردین 20-20:30</t>
-  </si>
-  <si>
-    <t>بیست فروردین 20-20:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1031,24 +641,17 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="B nazanin"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF008080"/>
-      <name val="Noto Sans Symbols"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1077,7 +680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border/>
     <border>
       <left/>
@@ -1148,22 +751,11 @@
         <color rgb="FF000000"/>
       </top>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1187,7 +779,7 @@
     <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1196,18 +788,21 @@
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="2" vertical="center"/>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="2" vertical="center"/>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1218,25 +813,16 @@
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="2" vertical="center"/>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="2" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1577,7 +1163,9 @@
       <c r="A3" s="10">
         <v>1.0</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="11">
+        <v>1.0</v>
+      </c>
       <c r="C3" s="12" t="s">
         <v>18</v>
       </c>
@@ -1608,11 +1196,11 @@
       <c r="L3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
@@ -1629,21 +1217,21 @@
       <c r="AE3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
@@ -1663,7 +1251,9 @@
       <c r="A5" s="10">
         <v>2.0</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="11">
+        <v>2.0</v>
+      </c>
       <c r="C5" s="12" t="s">
         <v>28</v>
       </c>
@@ -1688,19 +1278,19 @@
       <c r="J5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
@@ -1717,21 +1307,21 @@
       <c r="AE5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
@@ -1751,44 +1341,46 @@
       <c r="A7" s="10">
         <v>3.0</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="E7" s="19" t="s">
         <v>41</v>
       </c>
+      <c r="F7" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="G7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="19" t="s">
         <v>43</v>
       </c>
+      <c r="H7" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="I7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="J7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="L7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
+      <c r="M7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -1805,21 +1397,21 @@
       <c r="AE7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
@@ -1839,52 +1431,52 @@
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q9" s="15"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
@@ -1901,21 +1493,21 @@
       <c r="AE9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
@@ -1935,44 +1527,44 @@
       <c r="A11" s="10">
         <v>5.0</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="E11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="20" t="s">
         <v>66</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="16" t="s">
+      <c r="J11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="K11" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="L11" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -1989,21 +1581,21 @@
       <c r="AE11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
@@ -2023,42 +1615,54 @@
       <c r="A13" s="10">
         <v>6.0</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="H13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="J13" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="10" t="s">
+      <c r="L13" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="M13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="P13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
@@ -2075,21 +1679,21 @@
       <c r="AE13" s="9"/>
     </row>
     <row r="14">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -2109,44 +1713,46 @@
       <c r="A15" s="10">
         <v>7.0</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>51</v>
+      <c r="F15" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="20" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" s="14" t="s">
+      <c r="J15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -2163,21 +1769,21 @@
       <c r="AE15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
@@ -2197,44 +1803,46 @@
       <c r="A17" s="10">
         <v>8.0</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>51</v>
+      <c r="F17" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>88</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="16" t="s">
+      <c r="J17" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="M17" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -2251,21 +1859,21 @@
       <c r="AE17" s="9"/>
     </row>
     <row r="18">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -2285,53 +1893,55 @@
       <c r="A19" s="10">
         <v>9.0</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>51</v>
+      <c r="F19" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>95</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" s="14" t="s">
+      <c r="J19" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="N19" s="14" t="s">
+      <c r="N19" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="O19" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="P19" s="14" t="s">
+      <c r="P19" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="Q19" s="14" t="s">
+      <c r="Q19" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="R19" s="14" t="s">
+      <c r="R19" s="22" t="s">
         <v>104</v>
       </c>
       <c r="S19" s="9"/>
@@ -2349,21 +1959,21 @@
       <c r="AE19" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -2383,44 +1993,48 @@
       <c r="A21" s="10">
         <v>10.0</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>51</v>
+      <c r="F21" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>107</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J21" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K21" s="16" t="s">
+      <c r="J21" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="M21" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
+      <c r="N21" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
@@ -2437,21 +2051,21 @@
       <c r="AE21" s="9"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
@@ -2471,44 +2085,46 @@
       <c r="A23" s="10">
         <v>11.0</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="19" t="s">
+      <c r="B23" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="D23" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>41</v>
+      <c r="F23" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="19" t="s">
         <v>115</v>
       </c>
+      <c r="H23" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="I23" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="J23" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="L23" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
+      <c r="M23" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
@@ -2525,21 +2141,21 @@
       <c r="AE23" s="9"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
@@ -2559,42 +2175,44 @@
       <c r="A25" s="10">
         <v>12.0</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="19" t="s">
+      <c r="B25" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="D25" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="20" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H25" s="19" t="s">
         <v>123</v>
       </c>
+      <c r="H25" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="I25" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="L25" s="20" t="s">
+      <c r="K25" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
+      <c r="L25" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
@@ -2611,21 +2229,21 @@
       <c r="AE25" s="9"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
@@ -2645,44 +2263,46 @@
       <c r="A27" s="10">
         <v>13.0</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="19" t="s">
+      <c r="B27" s="18">
+        <v>13.0</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="D27" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>41</v>
+      <c r="F27" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H27" s="19" t="s">
         <v>130</v>
       </c>
+      <c r="H27" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="I27" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="L27" s="21" t="s">
+      <c r="J27" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K27" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="M27" s="14" t="s">
+      <c r="L27" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
+      <c r="M27" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
@@ -2699,21 +2319,21 @@
       <c r="AE27" s="9"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
@@ -2733,44 +2353,46 @@
       <c r="A29" s="10">
         <v>14.0</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="19" t="s">
+      <c r="B29" s="18">
+        <v>14.0</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="D29" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>41</v>
+      <c r="F29" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H29" s="19" t="s">
         <v>138</v>
       </c>
+      <c r="H29" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="I29" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="K29" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="L29" s="21" t="s">
+      <c r="J29" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="M29" s="14" t="s">
+      <c r="L29" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
+      <c r="M29" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
@@ -2787,21 +2409,21 @@
       <c r="AE29" s="9"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
@@ -2821,44 +2443,46 @@
       <c r="A31" s="10">
         <v>15.0</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="19" t="s">
+      <c r="B31" s="18">
+        <v>15.0</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="20" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="H31" s="19" t="s">
         <v>145</v>
       </c>
+      <c r="H31" s="20" t="s">
+        <v>146</v>
+      </c>
       <c r="I31" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="J31" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="L31" s="21" t="s">
+      <c r="K31" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="M31" s="14" t="s">
+      <c r="L31" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
+      <c r="M31" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
@@ -2875,21 +2499,21 @@
       <c r="AE31" s="9"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
@@ -2909,44 +2533,46 @@
       <c r="A33" s="10">
         <v>16.0</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" s="19" t="s">
+      <c r="B33" s="18">
+        <v>16.0</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="D33" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="19" t="s">
-        <v>152</v>
+      <c r="F33" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H33" s="19" t="s">
         <v>154</v>
       </c>
+      <c r="H33" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="I33" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="J33" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="J33" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="L33" s="16" t="s">
+      <c r="K33" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="M33" s="16" t="s">
+      <c r="L33" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M33" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
@@ -2963,21 +2589,21 @@
       <c r="AE33" s="9"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
@@ -2997,44 +2623,46 @@
       <c r="A35" s="10">
         <v>17.0</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18" t="s">
+      <c r="B35" s="18">
+        <v>17.0</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="19" t="s">
-        <v>41</v>
+      <c r="F35" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="20" t="s">
         <v>163</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="J35" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="L35" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="M35" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
+      <c r="J35" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
@@ -3051,21 +2679,21 @@
       <c r="AE35" s="9"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
@@ -3085,44 +2713,46 @@
       <c r="A37" s="10">
         <v>18.0</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18" t="s">
+      <c r="B37" s="18">
+        <v>18.0</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H37" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="I37" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="10" t="s">
+      <c r="J37" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="L37" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="M37" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="J37" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="M37" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
@@ -3139,21 +2769,21 @@
       <c r="AE37" s="9"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
@@ -3173,42 +2803,46 @@
       <c r="A39" s="10">
         <v>19.0</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18" t="s">
+      <c r="B39" s="18">
+        <v>19.0</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="I39" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E39" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="22" t="s">
+      <c r="J39" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K39" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="I39" s="23" t="s">
+      <c r="L39" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="J39" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="K39" s="24" t="s">
+      <c r="M39" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="L39" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="M39" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
@@ -3225,21 +2859,21 @@
       <c r="AE39" s="9"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
@@ -3259,42 +2893,46 @@
       <c r="A41" s="10">
         <v>20.0</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18" t="s">
+      <c r="B41" s="18">
+        <v>20.0</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="H41" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="22" t="s">
+      <c r="I41" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="I41" s="23" t="s">
+      <c r="J41" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="J41" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="K41" s="16" t="s">
+      <c r="L41" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="L41" s="21" t="s">
+      <c r="M41" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="M41" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
@@ -3311,21 +2949,21 @@
       <c r="AE41" s="9"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
@@ -3345,42 +2983,46 @@
       <c r="A43" s="10">
         <v>21.0</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18" t="s">
+      <c r="B43" s="18">
+        <v>21.0</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="E43" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="E43" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="19" t="s">
+      <c r="H43" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="I43" s="23" t="s">
+      <c r="I43" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="J43" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K43" s="24" t="s">
+      <c r="K43" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="L43" s="24" t="s">
+      <c r="L43" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="M43" s="24" t="s">
+      <c r="M43" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
@@ -3397,21 +3039,21 @@
       <c r="AE43" s="9"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
@@ -3431,22 +3073,22 @@
       <c r="A45" s="10">
         <v>22.0</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="26"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="26"/>
+      <c r="E45" s="23"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
@@ -3463,21 +3105,21 @@
       <c r="AE45" s="9"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
@@ -3497,22 +3139,22 @@
       <c r="A47" s="10">
         <v>23.0</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="26"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="23"/>
       <c r="D47" s="10"/>
-      <c r="E47" s="26"/>
+      <c r="E47" s="23"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
@@ -3529,21 +3171,21 @@
       <c r="AE47" s="9"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
@@ -3563,22 +3205,22 @@
       <c r="A49" s="10">
         <v>24.0</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="26"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="10"/>
-      <c r="E49" s="26"/>
+      <c r="E49" s="23"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
@@ -3595,21 +3237,21 @@
       <c r="AE49" s="9"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="25"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
@@ -3629,22 +3271,22 @@
       <c r="A51" s="10">
         <v>25.0</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="26"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="26"/>
+      <c r="E51" s="23"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
@@ -3661,21 +3303,21 @@
       <c r="AE51" s="9"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
@@ -3695,22 +3337,22 @@
       <c r="A53" s="10">
         <v>26.0</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="26"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="23"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="26"/>
+      <c r="E53" s="23"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="25"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
@@ -3727,21 +3369,21 @@
       <c r="AE53" s="9"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="25"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
@@ -3761,22 +3403,22 @@
       <c r="A55" s="10">
         <v>27.0</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="26"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="23"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="26"/>
+      <c r="E55" s="23"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="25"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
@@ -3793,21 +3435,21 @@
       <c r="AE55" s="9"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
@@ -3827,22 +3469,22 @@
       <c r="A57" s="10">
         <v>28.0</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="26"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="23"/>
       <c r="D57" s="10"/>
-      <c r="E57" s="26"/>
+      <c r="E57" s="23"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
@@ -3859,21 +3501,21 @@
       <c r="AE57" s="9"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="25"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
@@ -3893,22 +3535,22 @@
       <c r="A59" s="10">
         <v>29.0</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="26"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="26"/>
+      <c r="E59" s="23"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="25"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
@@ -3925,21 +3567,21 @@
       <c r="AE59" s="9"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
@@ -3959,22 +3601,22 @@
       <c r="A61" s="10">
         <v>30.0</v>
       </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="26"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="23"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="26"/>
+      <c r="E61" s="23"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
@@ -3991,21 +3633,21 @@
       <c r="AE61" s="9"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="25"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
@@ -4025,22 +3667,22 @@
       <c r="A63" s="10">
         <v>31.0</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="26"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="10"/>
-      <c r="E63" s="26"/>
+      <c r="E63" s="23"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="25"/>
-      <c r="P63" s="25"/>
-      <c r="Q63" s="25"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
@@ -4057,21 +3699,21 @@
       <c r="AE63" s="9"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
-      <c r="O64" s="25"/>
-      <c r="P64" s="25"/>
-      <c r="Q64" s="25"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
       <c r="R64" s="9"/>
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
@@ -4091,22 +3733,22 @@
       <c r="A65" s="10">
         <v>32.0</v>
       </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="26"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="23"/>
       <c r="D65" s="10"/>
-      <c r="E65" s="26"/>
+      <c r="E65" s="23"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="25"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
       <c r="T65" s="9"/>
@@ -4123,21 +3765,21 @@
       <c r="AE65" s="9"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="25"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
@@ -4157,22 +3799,22 @@
       <c r="A67" s="10">
         <v>33.0</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="26"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="23"/>
       <c r="D67" s="10"/>
-      <c r="E67" s="26"/>
+      <c r="E67" s="23"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="25"/>
-      <c r="Q67" s="25"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
@@ -4189,21 +3831,21 @@
       <c r="AE67" s="9"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="25"/>
-      <c r="P68" s="25"/>
-      <c r="Q68" s="25"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
@@ -4223,22 +3865,22 @@
       <c r="A69" s="10">
         <v>34.0</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="26"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="23"/>
       <c r="D69" s="10"/>
-      <c r="E69" s="26"/>
+      <c r="E69" s="23"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="25"/>
-      <c r="O69" s="25"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="25"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
@@ -4255,21 +3897,21 @@
       <c r="AE69" s="9"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="25"/>
-      <c r="O70" s="25"/>
-      <c r="P70" s="25"/>
-      <c r="Q70" s="25"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
@@ -4289,22 +3931,22 @@
       <c r="A71" s="10">
         <v>35.0</v>
       </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="26"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="10"/>
-      <c r="E71" s="26"/>
+      <c r="E71" s="23"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="25"/>
-      <c r="O71" s="25"/>
-      <c r="P71" s="25"/>
-      <c r="Q71" s="25"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
       <c r="R71" s="9"/>
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
@@ -4321,21 +3963,21 @@
       <c r="AE71" s="9"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="25"/>
-      <c r="P72" s="25"/>
-      <c r="Q72" s="25"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
@@ -4355,22 +3997,22 @@
       <c r="A73" s="10">
         <v>36.0</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="26"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="23"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="26"/>
+      <c r="E73" s="23"/>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="25"/>
-      <c r="O73" s="25"/>
-      <c r="P73" s="25"/>
-      <c r="Q73" s="25"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
@@ -4387,21 +4029,21 @@
       <c r="AE73" s="9"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="25"/>
-      <c r="O74" s="25"/>
-      <c r="P74" s="25"/>
-      <c r="Q74" s="25"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
@@ -4421,22 +4063,22 @@
       <c r="A75" s="10">
         <v>37.0</v>
       </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="26"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="23"/>
       <c r="D75" s="10"/>
-      <c r="E75" s="26"/>
+      <c r="E75" s="23"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="25"/>
-      <c r="O75" s="25"/>
-      <c r="P75" s="25"/>
-      <c r="Q75" s="25"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
@@ -4453,21 +4095,21 @@
       <c r="AE75" s="9"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="25"/>
-      <c r="O76" s="25"/>
-      <c r="P76" s="25"/>
-      <c r="Q76" s="25"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
@@ -4487,22 +4129,22 @@
       <c r="A77" s="10">
         <v>38.0</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="26"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="23"/>
       <c r="D77" s="10"/>
-      <c r="E77" s="26"/>
+      <c r="E77" s="23"/>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="25"/>
-      <c r="O77" s="25"/>
-      <c r="P77" s="25"/>
-      <c r="Q77" s="25"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
       <c r="R77" s="9"/>
       <c r="S77" s="9"/>
       <c r="T77" s="9"/>
@@ -4519,21 +4161,21 @@
       <c r="AE77" s="9"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="25"/>
-      <c r="O78" s="25"/>
-      <c r="P78" s="25"/>
-      <c r="Q78" s="25"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
       <c r="R78" s="9"/>
       <c r="S78" s="9"/>
       <c r="T78" s="9"/>
@@ -4553,22 +4195,22 @@
       <c r="A79" s="10">
         <v>39.0</v>
       </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="26"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="23"/>
       <c r="D79" s="10"/>
-      <c r="E79" s="26"/>
+      <c r="E79" s="23"/>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="25"/>
-      <c r="O79" s="25"/>
-      <c r="P79" s="25"/>
-      <c r="Q79" s="25"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
       <c r="T79" s="9"/>
@@ -4585,21 +4227,21 @@
       <c r="AE79" s="9"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="25"/>
-      <c r="O80" s="25"/>
-      <c r="P80" s="25"/>
-      <c r="Q80" s="25"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
       <c r="T80" s="9"/>
@@ -4619,22 +4261,22 @@
       <c r="A81" s="10">
         <v>40.0</v>
       </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="26"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="23"/>
       <c r="D81" s="10"/>
-      <c r="E81" s="26"/>
+      <c r="E81" s="23"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="25"/>
-      <c r="O81" s="25"/>
-      <c r="P81" s="25"/>
-      <c r="Q81" s="25"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
       <c r="T81" s="9"/>
@@ -4651,21 +4293,21 @@
       <c r="AE81" s="9"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="25"/>
-      <c r="O82" s="25"/>
-      <c r="P82" s="25"/>
-      <c r="Q82" s="25"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
       <c r="T82" s="9"/>
@@ -4685,8 +4327,8 @@
       <c r="A83" s="10">
         <v>41.0</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="26"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="23"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
@@ -4694,13 +4336,13 @@
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
-      <c r="K83" s="25"/>
-      <c r="L83" s="25"/>
-      <c r="M83" s="25"/>
-      <c r="N83" s="25"/>
-      <c r="O83" s="25"/>
-      <c r="P83" s="25"/>
-      <c r="Q83" s="25"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
       <c r="T83" s="9"/>
@@ -4717,22 +4359,22 @@
       <c r="AE83" s="9"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="25"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
       <c r="R84" s="9"/>
       <c r="S84" s="9"/>
       <c r="T84" s="9"/>
@@ -4752,22 +4394,22 @@
       <c r="A85" s="10">
         <v>42.0</v>
       </c>
-      <c r="B85" s="17"/>
-      <c r="C85" s="26"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="23"/>
       <c r="D85" s="10"/>
-      <c r="E85" s="26"/>
+      <c r="E85" s="23"/>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="25"/>
-      <c r="P85" s="25"/>
-      <c r="Q85" s="25"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
       <c r="R85" s="9"/>
       <c r="S85" s="9"/>
       <c r="T85" s="9"/>
@@ -4784,21 +4426,21 @@
       <c r="AE85" s="9"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="25"/>
-      <c r="N86" s="25"/>
-      <c r="O86" s="25"/>
-      <c r="P86" s="25"/>
-      <c r="Q86" s="25"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
       <c r="R86" s="9"/>
       <c r="S86" s="9"/>
       <c r="T86" s="9"/>
@@ -4818,22 +4460,22 @@
       <c r="A87" s="10">
         <v>43.0</v>
       </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="26"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="23"/>
       <c r="D87" s="10"/>
-      <c r="E87" s="26"/>
+      <c r="E87" s="23"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="25"/>
-      <c r="M87" s="25"/>
-      <c r="N87" s="25"/>
-      <c r="O87" s="25"/>
-      <c r="P87" s="25"/>
-      <c r="Q87" s="25"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
       <c r="R87" s="9"/>
       <c r="S87" s="9"/>
       <c r="T87" s="9"/>
@@ -4850,21 +4492,21 @@
       <c r="AE87" s="9"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="25"/>
-      <c r="L88" s="25"/>
-      <c r="M88" s="25"/>
-      <c r="N88" s="25"/>
-      <c r="O88" s="25"/>
-      <c r="P88" s="25"/>
-      <c r="Q88" s="25"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
       <c r="R88" s="9"/>
       <c r="S88" s="9"/>
       <c r="T88" s="9"/>
@@ -4884,22 +4526,22 @@
       <c r="A89" s="10">
         <v>44.0</v>
       </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="26"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="23"/>
       <c r="D89" s="10"/>
-      <c r="E89" s="26"/>
+      <c r="E89" s="23"/>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
-      <c r="K89" s="25"/>
-      <c r="L89" s="25"/>
-      <c r="M89" s="25"/>
-      <c r="N89" s="25"/>
-      <c r="O89" s="25"/>
-      <c r="P89" s="25"/>
-      <c r="Q89" s="25"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
       <c r="R89" s="9"/>
       <c r="S89" s="9"/>
       <c r="T89" s="9"/>
@@ -4916,21 +4558,21 @@
       <c r="AE89" s="9"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="25"/>
-      <c r="L90" s="25"/>
-      <c r="M90" s="25"/>
-      <c r="N90" s="25"/>
-      <c r="O90" s="25"/>
-      <c r="P90" s="25"/>
-      <c r="Q90" s="25"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
       <c r="R90" s="9"/>
       <c r="S90" s="9"/>
       <c r="T90" s="9"/>
@@ -4948,7 +4590,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -4981,7 +4623,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
+      <c r="B92" s="24"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -5014,7 +4656,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
+      <c r="B93" s="24"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -5047,7 +4689,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
+      <c r="B94" s="24"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -5080,7 +4722,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
+      <c r="B95" s="24"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
@@ -5113,7 +4755,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
+      <c r="B96" s="24"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
@@ -5146,7 +4788,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
+      <c r="B97" s="24"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
@@ -5179,7 +4821,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
+      <c r="B98" s="24"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
@@ -5212,7 +4854,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
+      <c r="B99" s="24"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
@@ -5245,7 +4887,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
+      <c r="B100" s="24"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -5278,7 +4920,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
+      <c r="B101" s="24"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -5311,7 +4953,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
+      <c r="B102" s="24"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
@@ -5344,7 +4986,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
+      <c r="B103" s="24"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -5377,7 +5019,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
+      <c r="B104" s="24"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -5410,7 +5052,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
+      <c r="B105" s="24"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -5443,7 +5085,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
+      <c r="B106" s="24"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
@@ -5476,7 +5118,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
+      <c r="B107" s="24"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -5509,7 +5151,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
+      <c r="B108" s="24"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
@@ -5542,7 +5184,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
+      <c r="B109" s="24"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -5575,7 +5217,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
+      <c r="B110" s="24"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -5608,7 +5250,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
+      <c r="B111" s="24"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
@@ -5641,7 +5283,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
+      <c r="B112" s="24"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -5674,7 +5316,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
+      <c r="B113" s="24"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -5707,7 +5349,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
+      <c r="B114" s="24"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -5740,7 +5382,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
+      <c r="B115" s="24"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -5773,7 +5415,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
+      <c r="B116" s="24"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -5806,7 +5448,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
+      <c r="B117" s="24"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -5839,7 +5481,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
+      <c r="B118" s="24"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
@@ -5872,7 +5514,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="9"/>
-      <c r="B119" s="9"/>
+      <c r="B119" s="24"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
@@ -5905,7 +5547,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
+      <c r="B120" s="24"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -5938,7 +5580,7 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
+      <c r="B121" s="24"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
@@ -5971,7 +5613,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
+      <c r="B122" s="24"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
@@ -6004,7 +5646,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
+      <c r="B123" s="24"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
@@ -6037,7 +5679,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
+      <c r="B124" s="24"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
@@ -6070,7 +5712,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
+      <c r="B125" s="24"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -6103,7 +5745,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
+      <c r="B126" s="24"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
@@ -6136,7 +5778,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
+      <c r="B127" s="24"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
@@ -6169,7 +5811,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
+      <c r="B128" s="24"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
@@ -6202,7 +5844,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
+      <c r="B129" s="24"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
@@ -6235,7 +5877,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
+      <c r="B130" s="24"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
@@ -6268,7 +5910,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
+      <c r="B131" s="24"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
@@ -6301,7 +5943,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="9"/>
-      <c r="B132" s="9"/>
+      <c r="B132" s="24"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
@@ -6334,7 +5976,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="9"/>
-      <c r="B133" s="9"/>
+      <c r="B133" s="24"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -6367,7 +6009,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
+      <c r="B134" s="24"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
@@ -6400,7 +6042,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
+      <c r="B135" s="24"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -6433,7 +6075,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="9"/>
-      <c r="B136" s="9"/>
+      <c r="B136" s="24"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -6466,7 +6108,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
+      <c r="B137" s="24"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
@@ -6499,7 +6141,7 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
+      <c r="B138" s="24"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -6532,7 +6174,7 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
+      <c r="B139" s="24"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -6565,7 +6207,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
+      <c r="B140" s="24"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
@@ -6598,7 +6240,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
+      <c r="B141" s="24"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -6631,7 +6273,7 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="9"/>
-      <c r="B142" s="9"/>
+      <c r="B142" s="24"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
@@ -6664,7 +6306,7 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
+      <c r="B143" s="24"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
@@ -6697,7 +6339,7 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
+      <c r="B144" s="24"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
@@ -6730,7 +6372,7 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="9"/>
-      <c r="B145" s="9"/>
+      <c r="B145" s="24"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
@@ -6763,7 +6405,7 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
+      <c r="B146" s="24"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
@@ -6796,7 +6438,7 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="9"/>
-      <c r="B147" s="9"/>
+      <c r="B147" s="24"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
@@ -6829,7 +6471,7 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="9"/>
-      <c r="B148" s="9"/>
+      <c r="B148" s="24"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
@@ -6862,7 +6504,7 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="9"/>
-      <c r="B149" s="9"/>
+      <c r="B149" s="24"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
@@ -6895,7 +6537,7 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
+      <c r="B150" s="24"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
@@ -6928,7 +6570,7 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="9"/>
-      <c r="B151" s="9"/>
+      <c r="B151" s="24"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
@@ -6961,7 +6603,7 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="9"/>
-      <c r="B152" s="9"/>
+      <c r="B152" s="24"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
@@ -6994,7 +6636,7 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="9"/>
-      <c r="B153" s="9"/>
+      <c r="B153" s="24"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
@@ -7027,7 +6669,7 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="9"/>
-      <c r="B154" s="9"/>
+      <c r="B154" s="24"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
@@ -7060,7 +6702,7 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="9"/>
-      <c r="B155" s="9"/>
+      <c r="B155" s="24"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
@@ -7093,7 +6735,7 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="9"/>
-      <c r="B156" s="9"/>
+      <c r="B156" s="24"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
@@ -7126,7 +6768,7 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="9"/>
-      <c r="B157" s="9"/>
+      <c r="B157" s="24"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
@@ -7159,7 +6801,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="9"/>
-      <c r="B158" s="9"/>
+      <c r="B158" s="24"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
@@ -7192,7 +6834,7 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="9"/>
-      <c r="B159" s="9"/>
+      <c r="B159" s="24"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
@@ -7225,7 +6867,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
+      <c r="B160" s="24"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
@@ -7258,7 +6900,7 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="9"/>
-      <c r="B161" s="9"/>
+      <c r="B161" s="24"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
@@ -7291,7 +6933,7 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="9"/>
-      <c r="B162" s="9"/>
+      <c r="B162" s="24"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
@@ -7324,7 +6966,7 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="9"/>
-      <c r="B163" s="9"/>
+      <c r="B163" s="24"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
@@ -7357,7 +6999,7 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="9"/>
-      <c r="B164" s="9"/>
+      <c r="B164" s="24"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
@@ -7390,7 +7032,7 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="9"/>
-      <c r="B165" s="9"/>
+      <c r="B165" s="24"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
@@ -7423,7 +7065,7 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="9"/>
-      <c r="B166" s="9"/>
+      <c r="B166" s="24"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
@@ -7456,7 +7098,7 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="9"/>
-      <c r="B167" s="9"/>
+      <c r="B167" s="24"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
@@ -7489,7 +7131,7 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="9"/>
-      <c r="B168" s="9"/>
+      <c r="B168" s="24"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
@@ -7522,7 +7164,7 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="9"/>
-      <c r="B169" s="9"/>
+      <c r="B169" s="24"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
@@ -7555,7 +7197,7 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="9"/>
-      <c r="B170" s="9"/>
+      <c r="B170" s="24"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
@@ -7588,7 +7230,7 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="9"/>
-      <c r="B171" s="9"/>
+      <c r="B171" s="24"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
@@ -7621,7 +7263,7 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="9"/>
-      <c r="B172" s="9"/>
+      <c r="B172" s="24"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
@@ -7654,7 +7296,7 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="9"/>
-      <c r="B173" s="9"/>
+      <c r="B173" s="24"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
@@ -7687,7 +7329,7 @@
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="9"/>
-      <c r="B174" s="9"/>
+      <c r="B174" s="24"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
@@ -7720,7 +7362,7 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="9"/>
-      <c r="B175" s="9"/>
+      <c r="B175" s="24"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
@@ -7753,7 +7395,7 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="9"/>
-      <c r="B176" s="9"/>
+      <c r="B176" s="24"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
@@ -7786,7 +7428,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="9"/>
-      <c r="B177" s="9"/>
+      <c r="B177" s="24"/>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
@@ -7819,7 +7461,7 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="9"/>
-      <c r="B178" s="9"/>
+      <c r="B178" s="24"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
@@ -7852,7 +7494,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="9"/>
-      <c r="B179" s="9"/>
+      <c r="B179" s="24"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
@@ -7885,7 +7527,7 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="9"/>
-      <c r="B180" s="9"/>
+      <c r="B180" s="24"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
@@ -7918,7 +7560,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="9"/>
-      <c r="B181" s="9"/>
+      <c r="B181" s="24"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
@@ -7951,7 +7593,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="9"/>
-      <c r="B182" s="9"/>
+      <c r="B182" s="24"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
@@ -7984,7 +7626,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="9"/>
-      <c r="B183" s="9"/>
+      <c r="B183" s="24"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
@@ -8017,7 +7659,7 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="9"/>
-      <c r="B184" s="9"/>
+      <c r="B184" s="24"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
@@ -8050,7 +7692,7 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="9"/>
-      <c r="B185" s="9"/>
+      <c r="B185" s="24"/>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
@@ -8083,7 +7725,7 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="9"/>
-      <c r="B186" s="9"/>
+      <c r="B186" s="24"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
@@ -8116,7 +7758,7 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="9"/>
-      <c r="B187" s="9"/>
+      <c r="B187" s="24"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
@@ -8149,7 +7791,7 @@
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="9"/>
-      <c r="B188" s="9"/>
+      <c r="B188" s="24"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
@@ -8182,7 +7824,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="9"/>
-      <c r="B189" s="9"/>
+      <c r="B189" s="24"/>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
@@ -8215,7 +7857,7 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="9"/>
-      <c r="B190" s="9"/>
+      <c r="B190" s="24"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
@@ -8248,7 +7890,7 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="9"/>
-      <c r="B191" s="9"/>
+      <c r="B191" s="24"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
@@ -8281,7 +7923,7 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="9"/>
-      <c r="B192" s="9"/>
+      <c r="B192" s="24"/>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
@@ -8314,7 +7956,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="9"/>
-      <c r="B193" s="9"/>
+      <c r="B193" s="24"/>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
@@ -8347,7 +7989,7 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="9"/>
-      <c r="B194" s="9"/>
+      <c r="B194" s="24"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
@@ -8380,7 +8022,7 @@
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="9"/>
-      <c r="B195" s="9"/>
+      <c r="B195" s="24"/>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
@@ -8413,7 +8055,7 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="9"/>
-      <c r="B196" s="9"/>
+      <c r="B196" s="24"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
@@ -8446,7 +8088,7 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="9"/>
-      <c r="B197" s="9"/>
+      <c r="B197" s="24"/>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
@@ -8479,7 +8121,7 @@
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="9"/>
-      <c r="B198" s="9"/>
+      <c r="B198" s="24"/>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
@@ -8512,7 +8154,7 @@
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="9"/>
-      <c r="B199" s="9"/>
+      <c r="B199" s="24"/>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
@@ -8545,7 +8187,7 @@
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="9"/>
-      <c r="B200" s="9"/>
+      <c r="B200" s="24"/>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
@@ -8578,7 +8220,7 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="9"/>
-      <c r="B201" s="9"/>
+      <c r="B201" s="24"/>
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
@@ -8611,7 +8253,7 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="9"/>
-      <c r="B202" s="9"/>
+      <c r="B202" s="24"/>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
@@ -8644,7 +8286,7 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="9"/>
-      <c r="B203" s="9"/>
+      <c r="B203" s="24"/>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
@@ -8677,7 +8319,7 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="9"/>
-      <c r="B204" s="9"/>
+      <c r="B204" s="24"/>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
@@ -8710,7 +8352,7 @@
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="9"/>
-      <c r="B205" s="9"/>
+      <c r="B205" s="24"/>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
@@ -8743,7 +8385,7 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="9"/>
-      <c r="B206" s="9"/>
+      <c r="B206" s="24"/>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
@@ -8776,7 +8418,7 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="9"/>
-      <c r="B207" s="9"/>
+      <c r="B207" s="24"/>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
@@ -8809,7 +8451,7 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="9"/>
-      <c r="B208" s="9"/>
+      <c r="B208" s="24"/>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
@@ -8842,7 +8484,7 @@
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="9"/>
-      <c r="B209" s="9"/>
+      <c r="B209" s="24"/>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
@@ -8875,7 +8517,7 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="9"/>
-      <c r="B210" s="9"/>
+      <c r="B210" s="24"/>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
@@ -8908,7 +8550,7 @@
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="9"/>
-      <c r="B211" s="9"/>
+      <c r="B211" s="24"/>
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
@@ -8941,7 +8583,7 @@
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="9"/>
-      <c r="B212" s="9"/>
+      <c r="B212" s="24"/>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
@@ -8974,7 +8616,7 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="9"/>
-      <c r="B213" s="9"/>
+      <c r="B213" s="24"/>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
@@ -9007,7 +8649,7 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="9"/>
-      <c r="B214" s="9"/>
+      <c r="B214" s="24"/>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
       <c r="E214" s="9"/>
@@ -9040,7 +8682,7 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="9"/>
-      <c r="B215" s="9"/>
+      <c r="B215" s="24"/>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
@@ -9073,7 +8715,7 @@
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="9"/>
-      <c r="B216" s="9"/>
+      <c r="B216" s="24"/>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
       <c r="E216" s="9"/>
@@ -9106,7 +8748,7 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="9"/>
-      <c r="B217" s="9"/>
+      <c r="B217" s="24"/>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
@@ -9139,7 +8781,7 @@
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="9"/>
-      <c r="B218" s="9"/>
+      <c r="B218" s="24"/>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
@@ -9172,7 +8814,7 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="9"/>
-      <c r="B219" s="9"/>
+      <c r="B219" s="24"/>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
@@ -9205,7 +8847,7 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="9"/>
-      <c r="B220" s="9"/>
+      <c r="B220" s="24"/>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
       <c r="E220" s="9"/>
@@ -9238,7 +8880,7 @@
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="9"/>
-      <c r="B221" s="9"/>
+      <c r="B221" s="24"/>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
@@ -9271,7 +8913,7 @@
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="9"/>
-      <c r="B222" s="9"/>
+      <c r="B222" s="24"/>
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
@@ -9304,7 +8946,7 @@
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="9"/>
-      <c r="B223" s="9"/>
+      <c r="B223" s="24"/>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
@@ -9337,7 +8979,7 @@
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="9"/>
-      <c r="B224" s="9"/>
+      <c r="B224" s="24"/>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
@@ -9370,7 +9012,7 @@
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="9"/>
-      <c r="B225" s="9"/>
+      <c r="B225" s="24"/>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
@@ -9403,7 +9045,7 @@
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="9"/>
-      <c r="B226" s="9"/>
+      <c r="B226" s="24"/>
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
@@ -9436,7 +9078,7 @@
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="9"/>
-      <c r="B227" s="9"/>
+      <c r="B227" s="24"/>
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
@@ -9469,7 +9111,7 @@
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="9"/>
-      <c r="B228" s="9"/>
+      <c r="B228" s="24"/>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
@@ -9502,7 +9144,7 @@
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="9"/>
-      <c r="B229" s="9"/>
+      <c r="B229" s="24"/>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>
@@ -9535,7 +9177,7 @@
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="9"/>
-      <c r="B230" s="9"/>
+      <c r="B230" s="24"/>
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
@@ -9568,7 +9210,7 @@
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="9"/>
-      <c r="B231" s="9"/>
+      <c r="B231" s="24"/>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
@@ -9601,7 +9243,7 @@
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="9"/>
-      <c r="B232" s="9"/>
+      <c r="B232" s="24"/>
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
@@ -9634,7 +9276,7 @@
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="9"/>
-      <c r="B233" s="9"/>
+      <c r="B233" s="24"/>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
@@ -9667,7 +9309,7 @@
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="9"/>
-      <c r="B234" s="9"/>
+      <c r="B234" s="24"/>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
@@ -9700,7 +9342,7 @@
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="9"/>
-      <c r="B235" s="9"/>
+      <c r="B235" s="24"/>
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
@@ -9733,7 +9375,7 @@
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="9"/>
-      <c r="B236" s="9"/>
+      <c r="B236" s="24"/>
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
@@ -9766,7 +9408,7 @@
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="9"/>
-      <c r="B237" s="9"/>
+      <c r="B237" s="24"/>
       <c r="C237" s="9"/>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
@@ -9799,7 +9441,7 @@
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="9"/>
-      <c r="B238" s="9"/>
+      <c r="B238" s="24"/>
       <c r="C238" s="9"/>
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
@@ -9832,7 +9474,7 @@
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="9"/>
-      <c r="B239" s="9"/>
+      <c r="B239" s="24"/>
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
@@ -9865,7 +9507,7 @@
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="9"/>
-      <c r="B240" s="9"/>
+      <c r="B240" s="24"/>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
@@ -9898,7 +9540,7 @@
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="9"/>
-      <c r="B241" s="9"/>
+      <c r="B241" s="24"/>
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
@@ -9931,7 +9573,7 @@
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="9"/>
-      <c r="B242" s="9"/>
+      <c r="B242" s="24"/>
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
@@ -9964,7 +9606,7 @@
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="9"/>
-      <c r="B243" s="9"/>
+      <c r="B243" s="24"/>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
       <c r="E243" s="9"/>
@@ -9997,7 +9639,7 @@
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="9"/>
-      <c r="B244" s="9"/>
+      <c r="B244" s="24"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
@@ -10030,7 +9672,7 @@
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="9"/>
-      <c r="B245" s="9"/>
+      <c r="B245" s="24"/>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
       <c r="E245" s="9"/>
@@ -10063,7 +9705,7 @@
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="9"/>
-      <c r="B246" s="9"/>
+      <c r="B246" s="24"/>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
@@ -10096,7 +9738,7 @@
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="9"/>
-      <c r="B247" s="9"/>
+      <c r="B247" s="24"/>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
@@ -10129,7 +9771,7 @@
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="9"/>
-      <c r="B248" s="9"/>
+      <c r="B248" s="24"/>
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
@@ -10162,7 +9804,7 @@
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="9"/>
-      <c r="B249" s="9"/>
+      <c r="B249" s="24"/>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
       <c r="E249" s="9"/>
@@ -10195,7 +9837,7 @@
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="9"/>
-      <c r="B250" s="9"/>
+      <c r="B250" s="24"/>
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
       <c r="E250" s="9"/>
@@ -10228,7 +9870,7 @@
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="9"/>
-      <c r="B251" s="9"/>
+      <c r="B251" s="24"/>
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
       <c r="E251" s="9"/>
@@ -10261,7 +9903,7 @@
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="9"/>
-      <c r="B252" s="9"/>
+      <c r="B252" s="24"/>
       <c r="C252" s="9"/>
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
@@ -10294,7 +9936,7 @@
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="9"/>
-      <c r="B253" s="9"/>
+      <c r="B253" s="24"/>
       <c r="C253" s="9"/>
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
@@ -10327,7 +9969,7 @@
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="9"/>
-      <c r="B254" s="9"/>
+      <c r="B254" s="24"/>
       <c r="C254" s="9"/>
       <c r="D254" s="9"/>
       <c r="E254" s="9"/>
@@ -10360,7 +10002,7 @@
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="9"/>
-      <c r="B255" s="9"/>
+      <c r="B255" s="24"/>
       <c r="C255" s="9"/>
       <c r="D255" s="9"/>
       <c r="E255" s="9"/>
@@ -10393,7 +10035,7 @@
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="9"/>
-      <c r="B256" s="9"/>
+      <c r="B256" s="24"/>
       <c r="C256" s="9"/>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
@@ -10426,7 +10068,7 @@
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="9"/>
-      <c r="B257" s="9"/>
+      <c r="B257" s="24"/>
       <c r="C257" s="9"/>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
@@ -10459,7 +10101,7 @@
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="9"/>
-      <c r="B258" s="9"/>
+      <c r="B258" s="24"/>
       <c r="C258" s="9"/>
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
@@ -10492,7 +10134,7 @@
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="9"/>
-      <c r="B259" s="9"/>
+      <c r="B259" s="24"/>
       <c r="C259" s="9"/>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
@@ -10525,7 +10167,7 @@
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="9"/>
-      <c r="B260" s="9"/>
+      <c r="B260" s="24"/>
       <c r="C260" s="9"/>
       <c r="D260" s="9"/>
       <c r="E260" s="9"/>
@@ -10558,7 +10200,7 @@
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="9"/>
-      <c r="B261" s="9"/>
+      <c r="B261" s="24"/>
       <c r="C261" s="9"/>
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
@@ -10591,7 +10233,7 @@
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="9"/>
-      <c r="B262" s="9"/>
+      <c r="B262" s="24"/>
       <c r="C262" s="9"/>
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
@@ -10624,7 +10266,7 @@
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="9"/>
-      <c r="B263" s="9"/>
+      <c r="B263" s="24"/>
       <c r="C263" s="9"/>
       <c r="D263" s="9"/>
       <c r="E263" s="9"/>
@@ -10657,7 +10299,7 @@
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="9"/>
-      <c r="B264" s="9"/>
+      <c r="B264" s="24"/>
       <c r="C264" s="9"/>
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
@@ -10690,7 +10332,7 @@
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="9"/>
-      <c r="B265" s="9"/>
+      <c r="B265" s="24"/>
       <c r="C265" s="9"/>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
@@ -10723,7 +10365,7 @@
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="9"/>
-      <c r="B266" s="9"/>
+      <c r="B266" s="24"/>
       <c r="C266" s="9"/>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
@@ -10756,7 +10398,7 @@
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="9"/>
-      <c r="B267" s="9"/>
+      <c r="B267" s="24"/>
       <c r="C267" s="9"/>
       <c r="D267" s="9"/>
       <c r="E267" s="9"/>
@@ -10789,7 +10431,7 @@
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="9"/>
-      <c r="B268" s="9"/>
+      <c r="B268" s="24"/>
       <c r="C268" s="9"/>
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
@@ -10822,7 +10464,7 @@
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="9"/>
-      <c r="B269" s="9"/>
+      <c r="B269" s="24"/>
       <c r="C269" s="9"/>
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
@@ -10855,7 +10497,7 @@
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="9"/>
-      <c r="B270" s="9"/>
+      <c r="B270" s="24"/>
       <c r="C270" s="9"/>
       <c r="D270" s="9"/>
       <c r="E270" s="9"/>
@@ -10888,7 +10530,7 @@
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="9"/>
-      <c r="B271" s="9"/>
+      <c r="B271" s="24"/>
       <c r="C271" s="9"/>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
@@ -10921,7 +10563,7 @@
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="9"/>
-      <c r="B272" s="9"/>
+      <c r="B272" s="24"/>
       <c r="C272" s="9"/>
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
@@ -10954,7 +10596,7 @@
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="9"/>
-      <c r="B273" s="9"/>
+      <c r="B273" s="24"/>
       <c r="C273" s="9"/>
       <c r="D273" s="9"/>
       <c r="E273" s="9"/>
@@ -10987,7 +10629,7 @@
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="9"/>
-      <c r="B274" s="9"/>
+      <c r="B274" s="24"/>
       <c r="C274" s="9"/>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
@@ -11020,7 +10662,7 @@
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="9"/>
-      <c r="B275" s="9"/>
+      <c r="B275" s="24"/>
       <c r="C275" s="9"/>
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
@@ -11053,7 +10695,7 @@
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="9"/>
-      <c r="B276" s="9"/>
+      <c r="B276" s="24"/>
       <c r="C276" s="9"/>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
@@ -11086,7 +10728,7 @@
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="9"/>
-      <c r="B277" s="9"/>
+      <c r="B277" s="24"/>
       <c r="C277" s="9"/>
       <c r="D277" s="9"/>
       <c r="E277" s="9"/>
@@ -11119,7 +10761,7 @@
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="9"/>
-      <c r="B278" s="9"/>
+      <c r="B278" s="24"/>
       <c r="C278" s="9"/>
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
@@ -11152,7 +10794,7 @@
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="9"/>
-      <c r="B279" s="9"/>
+      <c r="B279" s="24"/>
       <c r="C279" s="9"/>
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
@@ -11185,7 +10827,7 @@
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="9"/>
-      <c r="B280" s="9"/>
+      <c r="B280" s="24"/>
       <c r="C280" s="9"/>
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
@@ -11218,7 +10860,7 @@
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="9"/>
-      <c r="B281" s="9"/>
+      <c r="B281" s="24"/>
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
       <c r="E281" s="9"/>
@@ -11251,7 +10893,7 @@
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="9"/>
-      <c r="B282" s="9"/>
+      <c r="B282" s="24"/>
       <c r="C282" s="9"/>
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
@@ -11284,7 +10926,7 @@
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="9"/>
-      <c r="B283" s="9"/>
+      <c r="B283" s="24"/>
       <c r="C283" s="9"/>
       <c r="D283" s="9"/>
       <c r="E283" s="9"/>
@@ -11317,7 +10959,7 @@
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="9"/>
-      <c r="B284" s="9"/>
+      <c r="B284" s="24"/>
       <c r="C284" s="9"/>
       <c r="D284" s="9"/>
       <c r="E284" s="9"/>
@@ -11350,7 +10992,7 @@
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="9"/>
-      <c r="B285" s="9"/>
+      <c r="B285" s="24"/>
       <c r="C285" s="9"/>
       <c r="D285" s="9"/>
       <c r="E285" s="9"/>
@@ -11383,7 +11025,7 @@
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="9"/>
-      <c r="B286" s="9"/>
+      <c r="B286" s="24"/>
       <c r="C286" s="9"/>
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
@@ -11416,7 +11058,7 @@
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="9"/>
-      <c r="B287" s="9"/>
+      <c r="B287" s="24"/>
       <c r="C287" s="9"/>
       <c r="D287" s="9"/>
       <c r="E287" s="9"/>
@@ -11449,7 +11091,7 @@
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="9"/>
-      <c r="B288" s="9"/>
+      <c r="B288" s="24"/>
       <c r="C288" s="9"/>
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
@@ -11482,7 +11124,7 @@
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="9"/>
-      <c r="B289" s="9"/>
+      <c r="B289" s="24"/>
       <c r="C289" s="9"/>
       <c r="D289" s="9"/>
       <c r="E289" s="9"/>
@@ -12682,14 +12324,9 @@
       <formula1>"مهندسی برق,مهندسی مکانیک,مهندسی کامپیوتر,مهندسی شیمی,مهندسی هوافضا,مهندسی عمران,مهندسی پلیمر,مهندسی صنایع,مهندسی نقشه برداری,مهندسی معدن,مهندسی متالورژی,علوم مهندسی"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="I39"/>
-    <hyperlink r:id="rId2" ref="I41"/>
-    <hyperlink r:id="rId3" ref="I43"/>
-  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/updated.xlsx
+++ b/data/updated.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi3B5B5YVHaBP5in2pfl/0DpXyX4g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhKdNhe4gQ5u+MRSaXEpXS1yid1mw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="196">
   <si>
     <t>شماره ردیف</t>
   </si>
@@ -271,10 +271,10 @@
     <t xml:space="preserve"> 18 فروردین. 8-10 (به وقت ایران)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 20 فروردین. 8-10 (به وقت ایران)</t>
+  </si>
+  <si>
     <t>خیلی دیر</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20 فروردین. 8-10 (به وقت ایران)</t>
   </si>
   <si>
     <t>رمضان</t>
@@ -616,7 +616,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -650,8 +650,14 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -755,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -813,11 +819,23 @@
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1226,7 +1244,9 @@
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="L4" s="15">
+        <v>1.0</v>
+      </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
@@ -1743,7 +1763,7 @@
       <c r="K15" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="17" t="s">
         <v>84</v>
       </c>
       <c r="M15" s="17" t="s">
@@ -1941,7 +1961,7 @@
       <c r="Q19" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="R19" s="22" t="s">
+      <c r="R19" s="21" t="s">
         <v>104</v>
       </c>
       <c r="S19" s="9"/>
@@ -2029,7 +2049,7 @@
       <c r="M21" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="N21" s="17" t="s">
         <v>112</v>
       </c>
       <c r="O21" s="15"/>
@@ -2734,7 +2754,7 @@
       <c r="H37" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="22" t="s">
         <v>169</v>
       </c>
       <c r="J37" s="20" t="s">
@@ -2824,7 +2844,7 @@
       <c r="H39" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="22" t="s">
         <v>176</v>
       </c>
       <c r="J39" s="20" t="s">
@@ -2914,7 +2934,7 @@
       <c r="H41" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="22" t="s">
         <v>184</v>
       </c>
       <c r="J41" s="20" t="s">
@@ -3004,7 +3024,7 @@
       <c r="H43" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="22" t="s">
         <v>192</v>
       </c>
       <c r="J43" s="20" t="s">
@@ -3073,15 +3093,33 @@
       <c r="A45" s="10">
         <v>22.0</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
+      <c r="B45" s="23">
+        <v>22.0</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="J45" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
@@ -3139,15 +3177,33 @@
       <c r="A47" s="10">
         <v>23.0</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
+      <c r="B47" s="23">
+        <v>23.0</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
@@ -3206,15 +3262,31 @@
         <v>24.0</v>
       </c>
       <c r="B49" s="18"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="15"/>
+      <c r="C49" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49" s="26"/>
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
       <c r="N49" s="15"/>
@@ -3272,9 +3344,9 @@
         <v>25.0</v>
       </c>
       <c r="B51" s="18"/>
-      <c r="C51" s="23"/>
+      <c r="C51" s="27"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="23"/>
+      <c r="E51" s="27"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -3338,9 +3410,9 @@
         <v>26.0</v>
       </c>
       <c r="B53" s="18"/>
-      <c r="C53" s="23"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="23"/>
+      <c r="E53" s="27"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
@@ -3404,9 +3476,9 @@
         <v>27.0</v>
       </c>
       <c r="B55" s="18"/>
-      <c r="C55" s="23"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="23"/>
+      <c r="E55" s="27"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
@@ -3470,9 +3542,9 @@
         <v>28.0</v>
       </c>
       <c r="B57" s="18"/>
-      <c r="C57" s="23"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="10"/>
-      <c r="E57" s="23"/>
+      <c r="E57" s="27"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -3536,9 +3608,9 @@
         <v>29.0</v>
       </c>
       <c r="B59" s="18"/>
-      <c r="C59" s="23"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="23"/>
+      <c r="E59" s="27"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
@@ -3602,9 +3674,9 @@
         <v>30.0</v>
       </c>
       <c r="B61" s="18"/>
-      <c r="C61" s="23"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="23"/>
+      <c r="E61" s="27"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
@@ -3668,9 +3740,9 @@
         <v>31.0</v>
       </c>
       <c r="B63" s="18"/>
-      <c r="C63" s="23"/>
+      <c r="C63" s="27"/>
       <c r="D63" s="10"/>
-      <c r="E63" s="23"/>
+      <c r="E63" s="27"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
@@ -3734,9 +3806,9 @@
         <v>32.0</v>
       </c>
       <c r="B65" s="18"/>
-      <c r="C65" s="23"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="10"/>
-      <c r="E65" s="23"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
@@ -3800,9 +3872,9 @@
         <v>33.0</v>
       </c>
       <c r="B67" s="18"/>
-      <c r="C67" s="23"/>
+      <c r="C67" s="27"/>
       <c r="D67" s="10"/>
-      <c r="E67" s="23"/>
+      <c r="E67" s="27"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
@@ -3866,9 +3938,9 @@
         <v>34.0</v>
       </c>
       <c r="B69" s="18"/>
-      <c r="C69" s="23"/>
+      <c r="C69" s="27"/>
       <c r="D69" s="10"/>
-      <c r="E69" s="23"/>
+      <c r="E69" s="27"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
@@ -3932,9 +4004,9 @@
         <v>35.0</v>
       </c>
       <c r="B71" s="18"/>
-      <c r="C71" s="23"/>
+      <c r="C71" s="27"/>
       <c r="D71" s="10"/>
-      <c r="E71" s="23"/>
+      <c r="E71" s="27"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
@@ -3998,9 +4070,9 @@
         <v>36.0</v>
       </c>
       <c r="B73" s="18"/>
-      <c r="C73" s="23"/>
+      <c r="C73" s="27"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="23"/>
+      <c r="E73" s="27"/>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
@@ -4064,9 +4136,9 @@
         <v>37.0</v>
       </c>
       <c r="B75" s="18"/>
-      <c r="C75" s="23"/>
+      <c r="C75" s="27"/>
       <c r="D75" s="10"/>
-      <c r="E75" s="23"/>
+      <c r="E75" s="27"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
@@ -4130,9 +4202,9 @@
         <v>38.0</v>
       </c>
       <c r="B77" s="18"/>
-      <c r="C77" s="23"/>
+      <c r="C77" s="27"/>
       <c r="D77" s="10"/>
-      <c r="E77" s="23"/>
+      <c r="E77" s="27"/>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
@@ -4196,9 +4268,9 @@
         <v>39.0</v>
       </c>
       <c r="B79" s="18"/>
-      <c r="C79" s="23"/>
+      <c r="C79" s="27"/>
       <c r="D79" s="10"/>
-      <c r="E79" s="23"/>
+      <c r="E79" s="27"/>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
@@ -4262,9 +4334,9 @@
         <v>40.0</v>
       </c>
       <c r="B81" s="18"/>
-      <c r="C81" s="23"/>
+      <c r="C81" s="27"/>
       <c r="D81" s="10"/>
-      <c r="E81" s="23"/>
+      <c r="E81" s="27"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
@@ -4328,7 +4400,7 @@
         <v>41.0</v>
       </c>
       <c r="B83" s="18"/>
-      <c r="C83" s="23"/>
+      <c r="C83" s="27"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
@@ -4395,9 +4467,9 @@
         <v>42.0</v>
       </c>
       <c r="B85" s="18"/>
-      <c r="C85" s="23"/>
+      <c r="C85" s="27"/>
       <c r="D85" s="10"/>
-      <c r="E85" s="23"/>
+      <c r="E85" s="27"/>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
@@ -4461,9 +4533,9 @@
         <v>43.0</v>
       </c>
       <c r="B87" s="18"/>
-      <c r="C87" s="23"/>
+      <c r="C87" s="27"/>
       <c r="D87" s="10"/>
-      <c r="E87" s="23"/>
+      <c r="E87" s="27"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
@@ -4527,9 +4599,9 @@
         <v>44.0</v>
       </c>
       <c r="B89" s="18"/>
-      <c r="C89" s="23"/>
+      <c r="C89" s="27"/>
       <c r="D89" s="10"/>
-      <c r="E89" s="23"/>
+      <c r="E89" s="27"/>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
@@ -4590,7 +4662,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="9"/>
-      <c r="B91" s="24"/>
+      <c r="B91" s="28"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -4623,7 +4695,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="9"/>
-      <c r="B92" s="24"/>
+      <c r="B92" s="28"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -4656,7 +4728,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="9"/>
-      <c r="B93" s="24"/>
+      <c r="B93" s="28"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -4689,7 +4761,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="9"/>
-      <c r="B94" s="24"/>
+      <c r="B94" s="28"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -4722,7 +4794,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="9"/>
-      <c r="B95" s="24"/>
+      <c r="B95" s="28"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
@@ -4755,7 +4827,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="9"/>
-      <c r="B96" s="24"/>
+      <c r="B96" s="28"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
@@ -4788,7 +4860,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="9"/>
-      <c r="B97" s="24"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
@@ -4821,7 +4893,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="9"/>
-      <c r="B98" s="24"/>
+      <c r="B98" s="28"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
@@ -4854,7 +4926,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="9"/>
-      <c r="B99" s="24"/>
+      <c r="B99" s="28"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
@@ -4887,7 +4959,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="9"/>
-      <c r="B100" s="24"/>
+      <c r="B100" s="28"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -4920,7 +4992,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="9"/>
-      <c r="B101" s="24"/>
+      <c r="B101" s="28"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -4953,7 +5025,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="9"/>
-      <c r="B102" s="24"/>
+      <c r="B102" s="28"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
@@ -4986,7 +5058,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="9"/>
-      <c r="B103" s="24"/>
+      <c r="B103" s="28"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -5019,7 +5091,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="9"/>
-      <c r="B104" s="24"/>
+      <c r="B104" s="28"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -5052,7 +5124,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="9"/>
-      <c r="B105" s="24"/>
+      <c r="B105" s="28"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -5085,7 +5157,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="9"/>
-      <c r="B106" s="24"/>
+      <c r="B106" s="28"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
@@ -5118,7 +5190,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="9"/>
-      <c r="B107" s="24"/>
+      <c r="B107" s="28"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -5151,7 +5223,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="9"/>
-      <c r="B108" s="24"/>
+      <c r="B108" s="28"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
@@ -5184,7 +5256,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="9"/>
-      <c r="B109" s="24"/>
+      <c r="B109" s="28"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -5217,7 +5289,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="9"/>
-      <c r="B110" s="24"/>
+      <c r="B110" s="28"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -5250,7 +5322,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="9"/>
-      <c r="B111" s="24"/>
+      <c r="B111" s="28"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
@@ -5283,7 +5355,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="9"/>
-      <c r="B112" s="24"/>
+      <c r="B112" s="28"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -5316,7 +5388,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="9"/>
-      <c r="B113" s="24"/>
+      <c r="B113" s="28"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -5349,7 +5421,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="9"/>
-      <c r="B114" s="24"/>
+      <c r="B114" s="28"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -5382,7 +5454,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="9"/>
-      <c r="B115" s="24"/>
+      <c r="B115" s="28"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -5415,7 +5487,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="9"/>
-      <c r="B116" s="24"/>
+      <c r="B116" s="28"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -5448,7 +5520,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="9"/>
-      <c r="B117" s="24"/>
+      <c r="B117" s="28"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -5481,7 +5553,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="9"/>
-      <c r="B118" s="24"/>
+      <c r="B118" s="28"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
@@ -5514,7 +5586,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="9"/>
-      <c r="B119" s="24"/>
+      <c r="B119" s="28"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
@@ -5547,7 +5619,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="9"/>
-      <c r="B120" s="24"/>
+      <c r="B120" s="28"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -5580,7 +5652,7 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="9"/>
-      <c r="B121" s="24"/>
+      <c r="B121" s="28"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
@@ -5613,7 +5685,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="9"/>
-      <c r="B122" s="24"/>
+      <c r="B122" s="28"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
@@ -5646,7 +5718,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="9"/>
-      <c r="B123" s="24"/>
+      <c r="B123" s="28"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
@@ -5679,7 +5751,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="9"/>
-      <c r="B124" s="24"/>
+      <c r="B124" s="28"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
@@ -5712,7 +5784,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="9"/>
-      <c r="B125" s="24"/>
+      <c r="B125" s="28"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -5745,7 +5817,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="9"/>
-      <c r="B126" s="24"/>
+      <c r="B126" s="28"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
@@ -5778,7 +5850,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="9"/>
-      <c r="B127" s="24"/>
+      <c r="B127" s="28"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
@@ -5811,7 +5883,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="9"/>
-      <c r="B128" s="24"/>
+      <c r="B128" s="28"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
@@ -5844,7 +5916,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="9"/>
-      <c r="B129" s="24"/>
+      <c r="B129" s="28"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
@@ -5877,7 +5949,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="9"/>
-      <c r="B130" s="24"/>
+      <c r="B130" s="28"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
@@ -5910,7 +5982,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="9"/>
-      <c r="B131" s="24"/>
+      <c r="B131" s="28"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
@@ -5943,7 +6015,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="9"/>
-      <c r="B132" s="24"/>
+      <c r="B132" s="28"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
@@ -5976,7 +6048,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="9"/>
-      <c r="B133" s="24"/>
+      <c r="B133" s="28"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -6009,7 +6081,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="9"/>
-      <c r="B134" s="24"/>
+      <c r="B134" s="28"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
@@ -6042,7 +6114,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="9"/>
-      <c r="B135" s="24"/>
+      <c r="B135" s="28"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -6075,7 +6147,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="9"/>
-      <c r="B136" s="24"/>
+      <c r="B136" s="28"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -6108,7 +6180,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="9"/>
-      <c r="B137" s="24"/>
+      <c r="B137" s="28"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
@@ -6141,7 +6213,7 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="9"/>
-      <c r="B138" s="24"/>
+      <c r="B138" s="28"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -6174,7 +6246,7 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="9"/>
-      <c r="B139" s="24"/>
+      <c r="B139" s="28"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -6207,7 +6279,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="9"/>
-      <c r="B140" s="24"/>
+      <c r="B140" s="28"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
@@ -6240,7 +6312,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="9"/>
-      <c r="B141" s="24"/>
+      <c r="B141" s="28"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -6273,7 +6345,7 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="9"/>
-      <c r="B142" s="24"/>
+      <c r="B142" s="28"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
@@ -6306,7 +6378,7 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="9"/>
-      <c r="B143" s="24"/>
+      <c r="B143" s="28"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
@@ -6339,7 +6411,7 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="9"/>
-      <c r="B144" s="24"/>
+      <c r="B144" s="28"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
@@ -6372,7 +6444,7 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="9"/>
-      <c r="B145" s="24"/>
+      <c r="B145" s="28"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
@@ -6405,7 +6477,7 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="9"/>
-      <c r="B146" s="24"/>
+      <c r="B146" s="28"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
@@ -6438,7 +6510,7 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="9"/>
-      <c r="B147" s="24"/>
+      <c r="B147" s="28"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
@@ -6471,7 +6543,7 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="9"/>
-      <c r="B148" s="24"/>
+      <c r="B148" s="28"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
@@ -6504,7 +6576,7 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="9"/>
-      <c r="B149" s="24"/>
+      <c r="B149" s="28"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
@@ -6537,7 +6609,7 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="9"/>
-      <c r="B150" s="24"/>
+      <c r="B150" s="28"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
@@ -6570,7 +6642,7 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="9"/>
-      <c r="B151" s="24"/>
+      <c r="B151" s="28"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
@@ -6603,7 +6675,7 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="9"/>
-      <c r="B152" s="24"/>
+      <c r="B152" s="28"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
@@ -6636,7 +6708,7 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="9"/>
-      <c r="B153" s="24"/>
+      <c r="B153" s="28"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
@@ -6669,7 +6741,7 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="9"/>
-      <c r="B154" s="24"/>
+      <c r="B154" s="28"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
@@ -6702,7 +6774,7 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="9"/>
-      <c r="B155" s="24"/>
+      <c r="B155" s="28"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
@@ -6735,7 +6807,7 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="9"/>
-      <c r="B156" s="24"/>
+      <c r="B156" s="28"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
@@ -6768,7 +6840,7 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="9"/>
-      <c r="B157" s="24"/>
+      <c r="B157" s="28"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
@@ -6801,7 +6873,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="9"/>
-      <c r="B158" s="24"/>
+      <c r="B158" s="28"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
@@ -6834,7 +6906,7 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="9"/>
-      <c r="B159" s="24"/>
+      <c r="B159" s="28"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
@@ -6867,7 +6939,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="9"/>
-      <c r="B160" s="24"/>
+      <c r="B160" s="28"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
@@ -6900,7 +6972,7 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="9"/>
-      <c r="B161" s="24"/>
+      <c r="B161" s="28"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
@@ -6933,7 +7005,7 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="9"/>
-      <c r="B162" s="24"/>
+      <c r="B162" s="28"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
@@ -6966,7 +7038,7 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="9"/>
-      <c r="B163" s="24"/>
+      <c r="B163" s="28"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
@@ -6999,7 +7071,7 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="9"/>
-      <c r="B164" s="24"/>
+      <c r="B164" s="28"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
@@ -7032,7 +7104,7 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="9"/>
-      <c r="B165" s="24"/>
+      <c r="B165" s="28"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
@@ -7065,7 +7137,7 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="9"/>
-      <c r="B166" s="24"/>
+      <c r="B166" s="28"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
@@ -7098,7 +7170,7 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="9"/>
-      <c r="B167" s="24"/>
+      <c r="B167" s="28"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
@@ -7131,7 +7203,7 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="9"/>
-      <c r="B168" s="24"/>
+      <c r="B168" s="28"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
@@ -7164,7 +7236,7 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="9"/>
-      <c r="B169" s="24"/>
+      <c r="B169" s="28"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
@@ -7197,7 +7269,7 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="9"/>
-      <c r="B170" s="24"/>
+      <c r="B170" s="28"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
@@ -7230,7 +7302,7 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="9"/>
-      <c r="B171" s="24"/>
+      <c r="B171" s="28"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
@@ -7263,7 +7335,7 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="9"/>
-      <c r="B172" s="24"/>
+      <c r="B172" s="28"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
@@ -7296,7 +7368,7 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="9"/>
-      <c r="B173" s="24"/>
+      <c r="B173" s="28"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
@@ -7329,7 +7401,7 @@
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="9"/>
-      <c r="B174" s="24"/>
+      <c r="B174" s="28"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
@@ -7362,7 +7434,7 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="9"/>
-      <c r="B175" s="24"/>
+      <c r="B175" s="28"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
@@ -7395,7 +7467,7 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="9"/>
-      <c r="B176" s="24"/>
+      <c r="B176" s="28"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
@@ -7428,7 +7500,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="9"/>
-      <c r="B177" s="24"/>
+      <c r="B177" s="28"/>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
@@ -7461,7 +7533,7 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="9"/>
-      <c r="B178" s="24"/>
+      <c r="B178" s="28"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
@@ -7494,7 +7566,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="9"/>
-      <c r="B179" s="24"/>
+      <c r="B179" s="28"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
@@ -7527,7 +7599,7 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="9"/>
-      <c r="B180" s="24"/>
+      <c r="B180" s="28"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
@@ -7560,7 +7632,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="9"/>
-      <c r="B181" s="24"/>
+      <c r="B181" s="28"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
@@ -7593,7 +7665,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="9"/>
-      <c r="B182" s="24"/>
+      <c r="B182" s="28"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
@@ -7626,7 +7698,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="9"/>
-      <c r="B183" s="24"/>
+      <c r="B183" s="28"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
@@ -7659,7 +7731,7 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="9"/>
-      <c r="B184" s="24"/>
+      <c r="B184" s="28"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
@@ -7692,7 +7764,7 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="9"/>
-      <c r="B185" s="24"/>
+      <c r="B185" s="28"/>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
@@ -7725,7 +7797,7 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="9"/>
-      <c r="B186" s="24"/>
+      <c r="B186" s="28"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
@@ -7758,7 +7830,7 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="9"/>
-      <c r="B187" s="24"/>
+      <c r="B187" s="28"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
@@ -7791,7 +7863,7 @@
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="9"/>
-      <c r="B188" s="24"/>
+      <c r="B188" s="28"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
@@ -7824,7 +7896,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="9"/>
-      <c r="B189" s="24"/>
+      <c r="B189" s="28"/>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
@@ -7857,7 +7929,7 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="9"/>
-      <c r="B190" s="24"/>
+      <c r="B190" s="28"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
@@ -7890,7 +7962,7 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="9"/>
-      <c r="B191" s="24"/>
+      <c r="B191" s="28"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
@@ -7923,7 +7995,7 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="9"/>
-      <c r="B192" s="24"/>
+      <c r="B192" s="28"/>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
@@ -7956,7 +8028,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="9"/>
-      <c r="B193" s="24"/>
+      <c r="B193" s="28"/>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
@@ -7989,7 +8061,7 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="9"/>
-      <c r="B194" s="24"/>
+      <c r="B194" s="28"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
@@ -8022,7 +8094,7 @@
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="9"/>
-      <c r="B195" s="24"/>
+      <c r="B195" s="28"/>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
@@ -8055,7 +8127,7 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="9"/>
-      <c r="B196" s="24"/>
+      <c r="B196" s="28"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
@@ -8088,7 +8160,7 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="9"/>
-      <c r="B197" s="24"/>
+      <c r="B197" s="28"/>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
@@ -8121,7 +8193,7 @@
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="9"/>
-      <c r="B198" s="24"/>
+      <c r="B198" s="28"/>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
@@ -8154,7 +8226,7 @@
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="9"/>
-      <c r="B199" s="24"/>
+      <c r="B199" s="28"/>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
@@ -8187,7 +8259,7 @@
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="9"/>
-      <c r="B200" s="24"/>
+      <c r="B200" s="28"/>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
@@ -8220,7 +8292,7 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="9"/>
-      <c r="B201" s="24"/>
+      <c r="B201" s="28"/>
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
@@ -8253,7 +8325,7 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="9"/>
-      <c r="B202" s="24"/>
+      <c r="B202" s="28"/>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
@@ -8286,7 +8358,7 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="9"/>
-      <c r="B203" s="24"/>
+      <c r="B203" s="28"/>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
@@ -8319,7 +8391,7 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="9"/>
-      <c r="B204" s="24"/>
+      <c r="B204" s="28"/>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
@@ -8352,7 +8424,7 @@
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="9"/>
-      <c r="B205" s="24"/>
+      <c r="B205" s="28"/>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
@@ -8385,7 +8457,7 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="9"/>
-      <c r="B206" s="24"/>
+      <c r="B206" s="28"/>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
@@ -8418,7 +8490,7 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="9"/>
-      <c r="B207" s="24"/>
+      <c r="B207" s="28"/>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
@@ -8451,7 +8523,7 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="9"/>
-      <c r="B208" s="24"/>
+      <c r="B208" s="28"/>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
@@ -8484,7 +8556,7 @@
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="9"/>
-      <c r="B209" s="24"/>
+      <c r="B209" s="28"/>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
@@ -8517,7 +8589,7 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="9"/>
-      <c r="B210" s="24"/>
+      <c r="B210" s="28"/>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
@@ -8550,7 +8622,7 @@
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="9"/>
-      <c r="B211" s="24"/>
+      <c r="B211" s="28"/>
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
@@ -8583,7 +8655,7 @@
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="9"/>
-      <c r="B212" s="24"/>
+      <c r="B212" s="28"/>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
@@ -8616,7 +8688,7 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="9"/>
-      <c r="B213" s="24"/>
+      <c r="B213" s="28"/>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
@@ -8649,7 +8721,7 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="9"/>
-      <c r="B214" s="24"/>
+      <c r="B214" s="28"/>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
       <c r="E214" s="9"/>
@@ -8682,7 +8754,7 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="9"/>
-      <c r="B215" s="24"/>
+      <c r="B215" s="28"/>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
@@ -8715,7 +8787,7 @@
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="9"/>
-      <c r="B216" s="24"/>
+      <c r="B216" s="28"/>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
       <c r="E216" s="9"/>
@@ -8748,7 +8820,7 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="9"/>
-      <c r="B217" s="24"/>
+      <c r="B217" s="28"/>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
@@ -8781,7 +8853,7 @@
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="9"/>
-      <c r="B218" s="24"/>
+      <c r="B218" s="28"/>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
@@ -8814,7 +8886,7 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="9"/>
-      <c r="B219" s="24"/>
+      <c r="B219" s="28"/>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
@@ -8847,7 +8919,7 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="9"/>
-      <c r="B220" s="24"/>
+      <c r="B220" s="28"/>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
       <c r="E220" s="9"/>
@@ -8880,7 +8952,7 @@
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="9"/>
-      <c r="B221" s="24"/>
+      <c r="B221" s="28"/>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
@@ -8913,7 +8985,7 @@
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="9"/>
-      <c r="B222" s="24"/>
+      <c r="B222" s="28"/>
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
@@ -8946,7 +9018,7 @@
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="9"/>
-      <c r="B223" s="24"/>
+      <c r="B223" s="28"/>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
@@ -8979,7 +9051,7 @@
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="9"/>
-      <c r="B224" s="24"/>
+      <c r="B224" s="28"/>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
@@ -9012,7 +9084,7 @@
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="9"/>
-      <c r="B225" s="24"/>
+      <c r="B225" s="28"/>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
@@ -9045,7 +9117,7 @@
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="9"/>
-      <c r="B226" s="24"/>
+      <c r="B226" s="28"/>
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
@@ -9078,7 +9150,7 @@
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="9"/>
-      <c r="B227" s="24"/>
+      <c r="B227" s="28"/>
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
@@ -9111,7 +9183,7 @@
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="9"/>
-      <c r="B228" s="24"/>
+      <c r="B228" s="28"/>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
@@ -9144,7 +9216,7 @@
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="9"/>
-      <c r="B229" s="24"/>
+      <c r="B229" s="28"/>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>
@@ -9177,7 +9249,7 @@
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="9"/>
-      <c r="B230" s="24"/>
+      <c r="B230" s="28"/>
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
@@ -9210,7 +9282,7 @@
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="9"/>
-      <c r="B231" s="24"/>
+      <c r="B231" s="28"/>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
@@ -9243,7 +9315,7 @@
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="9"/>
-      <c r="B232" s="24"/>
+      <c r="B232" s="28"/>
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
@@ -9276,7 +9348,7 @@
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="9"/>
-      <c r="B233" s="24"/>
+      <c r="B233" s="28"/>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
@@ -9309,7 +9381,7 @@
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="9"/>
-      <c r="B234" s="24"/>
+      <c r="B234" s="28"/>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
@@ -9342,7 +9414,7 @@
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="9"/>
-      <c r="B235" s="24"/>
+      <c r="B235" s="28"/>
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
@@ -9375,7 +9447,7 @@
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="9"/>
-      <c r="B236" s="24"/>
+      <c r="B236" s="28"/>
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
@@ -9408,7 +9480,7 @@
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="9"/>
-      <c r="B237" s="24"/>
+      <c r="B237" s="28"/>
       <c r="C237" s="9"/>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
@@ -9441,7 +9513,7 @@
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="9"/>
-      <c r="B238" s="24"/>
+      <c r="B238" s="28"/>
       <c r="C238" s="9"/>
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
@@ -9474,7 +9546,7 @@
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="9"/>
-      <c r="B239" s="24"/>
+      <c r="B239" s="28"/>
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
@@ -9507,7 +9579,7 @@
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="9"/>
-      <c r="B240" s="24"/>
+      <c r="B240" s="28"/>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
@@ -9540,7 +9612,7 @@
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="9"/>
-      <c r="B241" s="24"/>
+      <c r="B241" s="28"/>
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
@@ -9573,7 +9645,7 @@
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="9"/>
-      <c r="B242" s="24"/>
+      <c r="B242" s="28"/>
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
@@ -9606,7 +9678,7 @@
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="9"/>
-      <c r="B243" s="24"/>
+      <c r="B243" s="28"/>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
       <c r="E243" s="9"/>
@@ -9639,7 +9711,7 @@
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="9"/>
-      <c r="B244" s="24"/>
+      <c r="B244" s="28"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
@@ -9672,7 +9744,7 @@
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="9"/>
-      <c r="B245" s="24"/>
+      <c r="B245" s="28"/>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
       <c r="E245" s="9"/>
@@ -9705,7 +9777,7 @@
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="9"/>
-      <c r="B246" s="24"/>
+      <c r="B246" s="28"/>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
@@ -9738,7 +9810,7 @@
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="9"/>
-      <c r="B247" s="24"/>
+      <c r="B247" s="28"/>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
@@ -9771,7 +9843,7 @@
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="9"/>
-      <c r="B248" s="24"/>
+      <c r="B248" s="28"/>
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
@@ -9804,7 +9876,7 @@
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="9"/>
-      <c r="B249" s="24"/>
+      <c r="B249" s="28"/>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
       <c r="E249" s="9"/>
@@ -9837,7 +9909,7 @@
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="9"/>
-      <c r="B250" s="24"/>
+      <c r="B250" s="28"/>
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
       <c r="E250" s="9"/>
@@ -9870,7 +9942,7 @@
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="9"/>
-      <c r="B251" s="24"/>
+      <c r="B251" s="28"/>
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
       <c r="E251" s="9"/>
@@ -9903,7 +9975,7 @@
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="9"/>
-      <c r="B252" s="24"/>
+      <c r="B252" s="28"/>
       <c r="C252" s="9"/>
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
@@ -9936,7 +10008,7 @@
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="9"/>
-      <c r="B253" s="24"/>
+      <c r="B253" s="28"/>
       <c r="C253" s="9"/>
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
@@ -9969,7 +10041,7 @@
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="9"/>
-      <c r="B254" s="24"/>
+      <c r="B254" s="28"/>
       <c r="C254" s="9"/>
       <c r="D254" s="9"/>
       <c r="E254" s="9"/>
@@ -10002,7 +10074,7 @@
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="9"/>
-      <c r="B255" s="24"/>
+      <c r="B255" s="28"/>
       <c r="C255" s="9"/>
       <c r="D255" s="9"/>
       <c r="E255" s="9"/>
@@ -10035,7 +10107,7 @@
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="9"/>
-      <c r="B256" s="24"/>
+      <c r="B256" s="28"/>
       <c r="C256" s="9"/>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
@@ -10068,7 +10140,7 @@
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="9"/>
-      <c r="B257" s="24"/>
+      <c r="B257" s="28"/>
       <c r="C257" s="9"/>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
@@ -10101,7 +10173,7 @@
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="9"/>
-      <c r="B258" s="24"/>
+      <c r="B258" s="28"/>
       <c r="C258" s="9"/>
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
@@ -10134,7 +10206,7 @@
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="9"/>
-      <c r="B259" s="24"/>
+      <c r="B259" s="28"/>
       <c r="C259" s="9"/>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
@@ -10167,7 +10239,7 @@
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="9"/>
-      <c r="B260" s="24"/>
+      <c r="B260" s="28"/>
       <c r="C260" s="9"/>
       <c r="D260" s="9"/>
       <c r="E260" s="9"/>
@@ -10200,7 +10272,7 @@
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="9"/>
-      <c r="B261" s="24"/>
+      <c r="B261" s="28"/>
       <c r="C261" s="9"/>
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
@@ -10233,7 +10305,7 @@
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="9"/>
-      <c r="B262" s="24"/>
+      <c r="B262" s="28"/>
       <c r="C262" s="9"/>
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
@@ -10266,7 +10338,7 @@
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="9"/>
-      <c r="B263" s="24"/>
+      <c r="B263" s="28"/>
       <c r="C263" s="9"/>
       <c r="D263" s="9"/>
       <c r="E263" s="9"/>
@@ -10299,7 +10371,7 @@
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="9"/>
-      <c r="B264" s="24"/>
+      <c r="B264" s="28"/>
       <c r="C264" s="9"/>
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
@@ -10332,7 +10404,7 @@
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="9"/>
-      <c r="B265" s="24"/>
+      <c r="B265" s="28"/>
       <c r="C265" s="9"/>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
@@ -10365,7 +10437,7 @@
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="9"/>
-      <c r="B266" s="24"/>
+      <c r="B266" s="28"/>
       <c r="C266" s="9"/>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
@@ -10398,7 +10470,7 @@
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="9"/>
-      <c r="B267" s="24"/>
+      <c r="B267" s="28"/>
       <c r="C267" s="9"/>
       <c r="D267" s="9"/>
       <c r="E267" s="9"/>
@@ -10431,7 +10503,7 @@
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="9"/>
-      <c r="B268" s="24"/>
+      <c r="B268" s="28"/>
       <c r="C268" s="9"/>
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
@@ -10464,7 +10536,7 @@
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="9"/>
-      <c r="B269" s="24"/>
+      <c r="B269" s="28"/>
       <c r="C269" s="9"/>
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
@@ -10497,7 +10569,7 @@
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="9"/>
-      <c r="B270" s="24"/>
+      <c r="B270" s="28"/>
       <c r="C270" s="9"/>
       <c r="D270" s="9"/>
       <c r="E270" s="9"/>
@@ -10530,7 +10602,7 @@
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="9"/>
-      <c r="B271" s="24"/>
+      <c r="B271" s="28"/>
       <c r="C271" s="9"/>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
@@ -10563,7 +10635,7 @@
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="9"/>
-      <c r="B272" s="24"/>
+      <c r="B272" s="28"/>
       <c r="C272" s="9"/>
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
@@ -10596,7 +10668,7 @@
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="9"/>
-      <c r="B273" s="24"/>
+      <c r="B273" s="28"/>
       <c r="C273" s="9"/>
       <c r="D273" s="9"/>
       <c r="E273" s="9"/>
@@ -10629,7 +10701,7 @@
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="9"/>
-      <c r="B274" s="24"/>
+      <c r="B274" s="28"/>
       <c r="C274" s="9"/>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
@@ -10662,7 +10734,7 @@
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="9"/>
-      <c r="B275" s="24"/>
+      <c r="B275" s="28"/>
       <c r="C275" s="9"/>
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
@@ -10695,7 +10767,7 @@
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="9"/>
-      <c r="B276" s="24"/>
+      <c r="B276" s="28"/>
       <c r="C276" s="9"/>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
@@ -10728,7 +10800,7 @@
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="9"/>
-      <c r="B277" s="24"/>
+      <c r="B277" s="28"/>
       <c r="C277" s="9"/>
       <c r="D277" s="9"/>
       <c r="E277" s="9"/>
@@ -10761,7 +10833,7 @@
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="9"/>
-      <c r="B278" s="24"/>
+      <c r="B278" s="28"/>
       <c r="C278" s="9"/>
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
@@ -10794,7 +10866,7 @@
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="9"/>
-      <c r="B279" s="24"/>
+      <c r="B279" s="28"/>
       <c r="C279" s="9"/>
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
@@ -10827,7 +10899,7 @@
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="9"/>
-      <c r="B280" s="24"/>
+      <c r="B280" s="28"/>
       <c r="C280" s="9"/>
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
@@ -10860,7 +10932,7 @@
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="9"/>
-      <c r="B281" s="24"/>
+      <c r="B281" s="28"/>
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
       <c r="E281" s="9"/>
@@ -10893,7 +10965,7 @@
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="9"/>
-      <c r="B282" s="24"/>
+      <c r="B282" s="28"/>
       <c r="C282" s="9"/>
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
@@ -10926,7 +10998,7 @@
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="9"/>
-      <c r="B283" s="24"/>
+      <c r="B283" s="28"/>
       <c r="C283" s="9"/>
       <c r="D283" s="9"/>
       <c r="E283" s="9"/>
@@ -10959,7 +11031,7 @@
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="9"/>
-      <c r="B284" s="24"/>
+      <c r="B284" s="28"/>
       <c r="C284" s="9"/>
       <c r="D284" s="9"/>
       <c r="E284" s="9"/>
@@ -10992,7 +11064,7 @@
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="9"/>
-      <c r="B285" s="24"/>
+      <c r="B285" s="28"/>
       <c r="C285" s="9"/>
       <c r="D285" s="9"/>
       <c r="E285" s="9"/>
@@ -11025,7 +11097,7 @@
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="9"/>
-      <c r="B286" s="24"/>
+      <c r="B286" s="28"/>
       <c r="C286" s="9"/>
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
@@ -11058,7 +11130,7 @@
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="9"/>
-      <c r="B287" s="24"/>
+      <c r="B287" s="28"/>
       <c r="C287" s="9"/>
       <c r="D287" s="9"/>
       <c r="E287" s="9"/>
@@ -11091,7 +11163,7 @@
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="9"/>
-      <c r="B288" s="24"/>
+      <c r="B288" s="28"/>
       <c r="C288" s="9"/>
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
@@ -11124,7 +11196,7 @@
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="9"/>
-      <c r="B289" s="24"/>
+      <c r="B289" s="28"/>
       <c r="C289" s="9"/>
       <c r="D289" s="9"/>
       <c r="E289" s="9"/>
@@ -11868,6 +11940,115 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="450">
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="G47:G48"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
@@ -12008,246 +12189,6 @@
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
     <mergeCell ref="H63:H64"/>
     <mergeCell ref="I63:I64"/>
     <mergeCell ref="J63:J64"/>
@@ -12318,15 +12259,155 @@
     <mergeCell ref="E75:E76"/>
     <mergeCell ref="F75:F76"/>
     <mergeCell ref="G75:G76"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3 E5 E7 E9 E11 E13 E15 E17 E19 E21 E23 E25 E27 E29 E31 E33 E35 E37 E39 E41 E43 E45 E47 E49 E51 E53 E55 E57 E59 E61 E63 E65 E67 E69 E71 E73 E75 E77 E79 E81 E83 E85 E87 E89">
       <formula1>"مهندسی برق,مهندسی مکانیک,مهندسی کامپیوتر,مهندسی شیمی,مهندسی هوافضا,مهندسی عمران,مهندسی پلیمر,مهندسی صنایع,مهندسی نقشه برداری,مهندسی معدن,مهندسی متالورژی,علوم مهندسی"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="I37"/>
+    <hyperlink r:id="rId2" ref="I39"/>
+    <hyperlink r:id="rId3" ref="I41"/>
+    <hyperlink r:id="rId4" ref="I43"/>
+    <hyperlink r:id="rId5" ref="I45"/>
+    <hyperlink r:id="rId6" ref="I47"/>
+    <hyperlink r:id="rId7" ref="I49"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>